--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Duplicate" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATA!$B$1:$N$319</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATA!$A$1:$O$319</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Duplicate!$A$1:$AK$1</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9493" uniqueCount="1865">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9715" uniqueCount="1895">
   <si>
     <t>Unique Reference Number</t>
   </si>
@@ -5614,6 +5614,96 @@
   </si>
   <si>
     <t>9617426228/ 940</t>
+  </si>
+  <si>
+    <t>remarks</t>
+  </si>
+  <si>
+    <t>Vehicle Seized from customer</t>
+  </si>
+  <si>
+    <t>not want to operate through account making regular cash payment</t>
+  </si>
+  <si>
+    <t>Always Insfund</t>
+  </si>
+  <si>
+    <t>PREPAID PAYING CASH</t>
+  </si>
+  <si>
+    <t>Mismatch in Mandate Debtor Account Number</t>
+  </si>
+  <si>
+    <t>Seized</t>
+  </si>
+  <si>
+    <t>Ac Closed</t>
+  </si>
+  <si>
+    <t>many times insfund but paying regularlu</t>
+  </si>
+  <si>
+    <t>not willing to pay through bank</t>
+  </si>
+  <si>
+    <t>paying cash</t>
+  </si>
+  <si>
+    <t>Bank is far from home making payment through cash from office</t>
+  </si>
+  <si>
+    <t>Change in emi from 4063 to 3792</t>
+  </si>
+  <si>
+    <t>Not Operating Ac because of some deduction from Bank</t>
+  </si>
+  <si>
+    <t>Priyanka Kashyap's ac making regular payment through UPI</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>minus 1300 account- will pay cash before due date</t>
+  </si>
+  <si>
+    <t>salary not in time</t>
+  </si>
+  <si>
+    <t>will come to office and pay</t>
+  </si>
+  <si>
+    <t>not to deduct but paying regularluy</t>
+  </si>
+  <si>
+    <t>Accoount dormant</t>
+  </si>
+  <si>
+    <t>DORMANT A/C</t>
+  </si>
+  <si>
+    <t>Dormant Account</t>
+  </si>
+  <si>
+    <t>account se nahi katna hai</t>
+  </si>
+  <si>
+    <t>Father's passbook and approved but but money will deduct somewere else if credited</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Will pay on 10th not will to nach on 16th </t>
+  </si>
+  <si>
+    <t>Account pre closed</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>CASH</t>
+  </si>
+  <si>
+    <t>NACH</t>
   </si>
 </sst>
 </file>
@@ -6448,12 +6538,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N319"/>
+  <dimension ref="A1:O319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AA1" sqref="AA1"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1"/>
+      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6473,7 +6563,7 @@
     <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -6516,8 +6606,11 @@
       <c r="N1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -6557,8 +6650,11 @@
       <c r="M2" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="3" spans="1:14">
+      <c r="O2" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -6601,8 +6697,11 @@
       <c r="N3" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="O3" t="s">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -6645,8 +6744,11 @@
       <c r="N4" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="5" spans="1:14">
+      <c r="O4" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -6689,8 +6791,11 @@
       <c r="N5" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="6" spans="1:14">
+      <c r="O5" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -6733,8 +6838,11 @@
       <c r="N6" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="7" spans="1:14">
+      <c r="O6" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -6777,8 +6885,11 @@
       <c r="N7" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="O7" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -6821,8 +6932,11 @@
       <c r="N8" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="O8" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -6865,8 +6979,11 @@
       <c r="N9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="10" spans="1:14">
+      <c r="O9" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -6909,8 +7026,11 @@
       <c r="N10" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="11" spans="1:14">
+      <c r="O10" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -6953,8 +7073,11 @@
       <c r="N11" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="O11" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -6997,8 +7120,11 @@
       <c r="N12" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="13" spans="1:14">
+      <c r="O12" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -7041,8 +7167,11 @@
       <c r="N13" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="14" spans="1:14">
+      <c r="O13" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -7085,8 +7214,11 @@
       <c r="N14" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="15" spans="1:14">
+      <c r="O14" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -7129,8 +7261,11 @@
       <c r="N15" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="16" spans="1:14">
+      <c r="O15" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -7173,8 +7308,11 @@
       <c r="N16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="17" spans="1:14">
+      <c r="O16" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -7217,8 +7355,11 @@
       <c r="N17" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="18" spans="1:14">
+      <c r="O17" t="s">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -7261,8 +7402,11 @@
       <c r="N18" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="19" spans="1:14">
+      <c r="O18" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -7305,8 +7449,11 @@
       <c r="N19" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="20" spans="1:14">
+      <c r="O19" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -7349,8 +7496,11 @@
       <c r="N20" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="O20" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -7393,8 +7543,11 @@
       <c r="N21" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="1:14">
+      <c r="O21" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -7437,8 +7590,11 @@
       <c r="N22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="23" spans="1:14">
+      <c r="O22" t="s">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -7481,8 +7637,11 @@
       <c r="N23" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="24" spans="1:14">
+      <c r="O23" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -7525,8 +7684,11 @@
       <c r="N24" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="25" spans="1:14">
+      <c r="O24" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -7569,8 +7731,11 @@
       <c r="N25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:14">
+      <c r="O25" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -7613,8 +7778,11 @@
       <c r="N26" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="27" spans="1:14">
+      <c r="O26" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -7657,8 +7825,11 @@
       <c r="N27" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="28" spans="1:14">
+      <c r="O27" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -7701,8 +7872,11 @@
       <c r="N28" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="29" spans="1:14">
+      <c r="O28" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -7745,8 +7919,11 @@
       <c r="N29" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="30" spans="1:14">
+      <c r="O29" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -7789,8 +7966,11 @@
       <c r="N30" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="1:14">
+      <c r="O30" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -7833,8 +8013,11 @@
       <c r="N31" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="32" spans="1:14">
+      <c r="O31" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -7877,8 +8060,11 @@
       <c r="N32" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="33" spans="1:14">
+      <c r="O32" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -7921,8 +8107,11 @@
       <c r="N33" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="34" spans="1:14">
+      <c r="O33" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -7965,8 +8154,11 @@
       <c r="N34" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="35" spans="1:14">
+      <c r="O34" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -8009,8 +8201,11 @@
       <c r="N35" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="36" spans="1:14">
+      <c r="O35" t="s">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -8053,8 +8248,11 @@
       <c r="N36" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="37" spans="1:14">
+      <c r="O36" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -8097,8 +8295,11 @@
       <c r="N37" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="38" spans="1:14">
+      <c r="O37" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -8141,8 +8342,11 @@
       <c r="N38" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="39" spans="1:14">
+      <c r="O38" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -8185,8 +8389,11 @@
       <c r="N39" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="40" spans="1:14">
+      <c r="O39" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -8229,8 +8436,11 @@
       <c r="N40" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="41" spans="1:14">
+      <c r="O40" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -8273,8 +8483,11 @@
       <c r="N41" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="42" spans="1:14">
+      <c r="O41" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -8317,8 +8530,11 @@
       <c r="N42" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="43" spans="1:14">
+      <c r="O42" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -8361,8 +8577,11 @@
       <c r="N43" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="44" spans="1:14">
+      <c r="O43" t="s">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -8405,8 +8624,11 @@
       <c r="N44" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="45" spans="1:14">
+      <c r="O44" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -8449,8 +8671,11 @@
       <c r="N45" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="O45" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -8493,8 +8718,11 @@
       <c r="N46" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="47" spans="1:14">
+      <c r="O46" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -8537,8 +8765,11 @@
       <c r="N47" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="48" spans="1:14">
+      <c r="O47" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -8581,8 +8812,11 @@
       <c r="N48" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="O48" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -8625,8 +8859,11 @@
       <c r="N49" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="50" spans="1:14">
+      <c r="O49" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -8669,8 +8906,11 @@
       <c r="N50" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="51" spans="1:14">
+      <c r="O50" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -8713,8 +8953,11 @@
       <c r="N51" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="52" spans="1:14">
+      <c r="O51" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -8757,8 +9000,11 @@
       <c r="N52" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="53" spans="1:14">
+      <c r="O52" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -8801,8 +9047,11 @@
       <c r="N53" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="54" spans="1:14">
+      <c r="O53" t="s">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -8845,8 +9094,11 @@
       <c r="N54" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="55" spans="1:14">
+      <c r="O54" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -8889,8 +9141,11 @@
       <c r="N55" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="56" spans="1:14">
+      <c r="O55" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15">
       <c r="A56" t="s">
         <v>51</v>
       </c>
@@ -8933,8 +9188,11 @@
       <c r="N56" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="57" spans="1:14">
+      <c r="O56" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -8977,8 +9235,11 @@
       <c r="N57" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="58" spans="1:14">
+      <c r="O57" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -9021,8 +9282,11 @@
       <c r="N58" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="59" spans="1:14">
+      <c r="O58" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15">
       <c r="A59" t="s">
         <v>51</v>
       </c>
@@ -9065,8 +9329,11 @@
       <c r="N59" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="60" spans="1:14">
+      <c r="O59" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -9109,8 +9376,11 @@
       <c r="N60" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="61" spans="1:14">
+      <c r="O60" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15">
       <c r="A61" t="s">
         <v>51</v>
       </c>
@@ -9153,8 +9423,11 @@
       <c r="N61" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="62" spans="1:14">
+      <c r="O61" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15">
       <c r="A62" t="s">
         <v>51</v>
       </c>
@@ -9197,8 +9470,11 @@
       <c r="N62" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="63" spans="1:14">
+      <c r="O62" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -9241,8 +9517,11 @@
       <c r="N63" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="64" spans="1:14">
+      <c r="O63" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -9285,8 +9564,11 @@
       <c r="N64" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="65" spans="1:14">
+      <c r="O64" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -9329,8 +9611,11 @@
       <c r="N65" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="66" spans="1:14">
+      <c r="O65" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15">
       <c r="A66" t="s">
         <v>51</v>
       </c>
@@ -9373,8 +9658,11 @@
       <c r="N66" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="67" spans="1:14">
+      <c r="O66" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15">
       <c r="A67" t="s">
         <v>51</v>
       </c>
@@ -9417,8 +9705,11 @@
       <c r="N67" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="68" spans="1:14">
+      <c r="O67" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -9461,8 +9752,11 @@
       <c r="N68" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="69" spans="1:14">
+      <c r="O68" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15">
       <c r="A69" t="s">
         <v>51</v>
       </c>
@@ -9505,8 +9799,11 @@
       <c r="N69" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="70" spans="1:14">
+      <c r="O69" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15">
       <c r="A70" t="s">
         <v>51</v>
       </c>
@@ -9549,8 +9846,11 @@
       <c r="N70" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="71" spans="1:14">
+      <c r="O70" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -9593,8 +9893,11 @@
       <c r="N71" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="72" spans="1:14">
+      <c r="O71" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15">
       <c r="A72" t="s">
         <v>51</v>
       </c>
@@ -9637,8 +9940,11 @@
       <c r="N72" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="73" spans="1:14">
+      <c r="O72" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15">
       <c r="A73" t="s">
         <v>51</v>
       </c>
@@ -9681,8 +9987,11 @@
       <c r="N73" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="74" spans="1:14">
+      <c r="O73" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15">
       <c r="A74" t="s">
         <v>51</v>
       </c>
@@ -9725,8 +10034,11 @@
       <c r="N74" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="75" spans="1:14">
+      <c r="O74" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15">
       <c r="A75" t="s">
         <v>51</v>
       </c>
@@ -9769,8 +10081,11 @@
       <c r="N75" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="76" spans="1:14">
+      <c r="O75" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15">
       <c r="A76" t="s">
         <v>51</v>
       </c>
@@ -9813,8 +10128,11 @@
       <c r="N76" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="77" spans="1:14">
+      <c r="O76" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15">
       <c r="A77" t="s">
         <v>51</v>
       </c>
@@ -9857,8 +10175,11 @@
       <c r="N77" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="78" spans="1:14">
+      <c r="O77" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15">
       <c r="A78" t="s">
         <v>51</v>
       </c>
@@ -9901,8 +10222,11 @@
       <c r="N78" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="79" spans="1:14">
+      <c r="O78" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15">
       <c r="A79" t="s">
         <v>51</v>
       </c>
@@ -9945,8 +10269,11 @@
       <c r="N79" t="s">
         <v>391</v>
       </c>
-    </row>
-    <row r="80" spans="1:14">
+      <c r="O79" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15">
       <c r="A80" t="s">
         <v>51</v>
       </c>
@@ -9989,8 +10316,11 @@
       <c r="N80" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="81" spans="1:14">
+      <c r="O80" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15">
       <c r="A81" t="s">
         <v>51</v>
       </c>
@@ -10033,8 +10363,11 @@
       <c r="N81" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="82" spans="1:14">
+      <c r="O81" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15">
       <c r="A82" t="s">
         <v>51</v>
       </c>
@@ -10077,8 +10410,11 @@
       <c r="N82" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="83" spans="1:14">
+      <c r="O82" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15">
       <c r="A83" t="s">
         <v>51</v>
       </c>
@@ -10121,8 +10457,11 @@
       <c r="N83" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="84" spans="1:14">
+      <c r="O83" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15">
       <c r="A84" t="s">
         <v>51</v>
       </c>
@@ -10165,8 +10504,11 @@
       <c r="N84" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="85" spans="1:14">
+      <c r="O84" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15">
       <c r="A85" t="s">
         <v>51</v>
       </c>
@@ -10209,8 +10551,11 @@
       <c r="N85" t="s">
         <v>512</v>
       </c>
-    </row>
-    <row r="86" spans="1:14">
+      <c r="O85" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15">
       <c r="A86" t="s">
         <v>51</v>
       </c>
@@ -10253,8 +10598,11 @@
       <c r="N86" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="87" spans="1:14">
+      <c r="O86" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15">
       <c r="A87" t="s">
         <v>51</v>
       </c>
@@ -10297,8 +10645,11 @@
       <c r="N87" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="88" spans="1:14">
+      <c r="O87" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15">
       <c r="A88" t="s">
         <v>51</v>
       </c>
@@ -10341,8 +10692,11 @@
       <c r="N88" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="89" spans="1:14">
+      <c r="O88" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15">
       <c r="A89" t="s">
         <v>51</v>
       </c>
@@ -10385,8 +10739,11 @@
       <c r="N89" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="90" spans="1:14">
+      <c r="O89" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15">
       <c r="A90" t="s">
         <v>51</v>
       </c>
@@ -10429,8 +10786,11 @@
       <c r="N90" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="91" spans="1:14">
+      <c r="O90" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15">
       <c r="A91" t="s">
         <v>51</v>
       </c>
@@ -10473,8 +10833,11 @@
       <c r="N91" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="92" spans="1:14">
+      <c r="O91" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15">
       <c r="A92" t="s">
         <v>51</v>
       </c>
@@ -10517,8 +10880,11 @@
       <c r="N92" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="93" spans="1:14">
+      <c r="O92" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15">
       <c r="A93" t="s">
         <v>51</v>
       </c>
@@ -10561,8 +10927,11 @@
       <c r="N93" t="s">
         <v>563</v>
       </c>
-    </row>
-    <row r="94" spans="1:14">
+      <c r="O93" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15">
       <c r="A94" t="s">
         <v>51</v>
       </c>
@@ -10605,8 +10974,11 @@
       <c r="N94" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="95" spans="1:14">
+      <c r="O94" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15">
       <c r="A95" t="s">
         <v>51</v>
       </c>
@@ -10649,8 +11021,11 @@
       <c r="N95" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="96" spans="1:14">
+      <c r="O95" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15">
       <c r="A96" t="s">
         <v>51</v>
       </c>
@@ -10693,8 +11068,11 @@
       <c r="N96" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="97" spans="1:14">
+      <c r="O96" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15">
       <c r="A97" t="s">
         <v>51</v>
       </c>
@@ -10737,8 +11115,11 @@
       <c r="N97" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="98" spans="1:14">
+      <c r="O97" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15">
       <c r="A98" t="s">
         <v>51</v>
       </c>
@@ -10781,8 +11162,11 @@
       <c r="N98" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="99" spans="1:14">
+      <c r="O98" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15">
       <c r="A99" t="s">
         <v>51</v>
       </c>
@@ -10825,8 +11209,11 @@
       <c r="N99" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="100" spans="1:14">
+      <c r="O99" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15">
       <c r="A100" t="s">
         <v>51</v>
       </c>
@@ -10869,8 +11256,11 @@
       <c r="N100" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="101" spans="1:14">
+      <c r="O100" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15">
       <c r="A101" t="s">
         <v>51</v>
       </c>
@@ -10913,8 +11303,11 @@
       <c r="N101" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="102" spans="1:14">
+      <c r="O101" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15">
       <c r="A102" t="s">
         <v>51</v>
       </c>
@@ -10957,8 +11350,11 @@
       <c r="N102" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="103" spans="1:14">
+      <c r="O102" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="103" spans="1:15">
       <c r="A103" t="s">
         <v>51</v>
       </c>
@@ -11001,8 +11397,11 @@
       <c r="N103" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="104" spans="1:14">
+      <c r="O103" t="s">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="104" spans="1:15">
       <c r="A104" t="s">
         <v>51</v>
       </c>
@@ -11045,8 +11444,11 @@
       <c r="N104" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="105" spans="1:14">
+      <c r="O104" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="105" spans="1:15">
       <c r="A105" t="s">
         <v>51</v>
       </c>
@@ -11089,8 +11491,11 @@
       <c r="N105" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="106" spans="1:14">
+      <c r="O105" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="106" spans="1:15">
       <c r="A106" t="s">
         <v>51</v>
       </c>
@@ -11133,8 +11538,11 @@
       <c r="N106" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="107" spans="1:14">
+      <c r="O106" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="107" spans="1:15">
       <c r="A107" t="s">
         <v>51</v>
       </c>
@@ -11177,8 +11585,11 @@
       <c r="N107" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="108" spans="1:14">
+      <c r="O107" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="108" spans="1:15">
       <c r="A108" t="s">
         <v>51</v>
       </c>
@@ -11221,8 +11632,11 @@
       <c r="N108" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="109" spans="1:14">
+      <c r="O108" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="109" spans="1:15">
       <c r="A109" t="s">
         <v>51</v>
       </c>
@@ -11265,8 +11679,11 @@
       <c r="N109" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="110" spans="1:14">
+      <c r="O109" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="110" spans="1:15">
       <c r="A110" t="s">
         <v>51</v>
       </c>
@@ -11309,8 +11726,11 @@
       <c r="N110" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="111" spans="1:14">
+      <c r="O110" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="111" spans="1:15">
       <c r="A111" t="s">
         <v>51</v>
       </c>
@@ -11353,8 +11773,11 @@
       <c r="N111" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="112" spans="1:14">
+      <c r="O111" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="112" spans="1:15">
       <c r="A112" t="s">
         <v>51</v>
       </c>
@@ -11397,8 +11820,11 @@
       <c r="N112" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="113" spans="1:14">
+      <c r="O112" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
       <c r="A113" t="s">
         <v>51</v>
       </c>
@@ -11441,8 +11867,11 @@
       <c r="N113" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="114" spans="1:14">
+      <c r="O113" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
       <c r="A114" t="s">
         <v>51</v>
       </c>
@@ -11485,8 +11914,11 @@
       <c r="N114" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="115" spans="1:14">
+      <c r="O114" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
       <c r="A115" t="s">
         <v>51</v>
       </c>
@@ -11529,8 +11961,11 @@
       <c r="N115" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="116" spans="1:14">
+      <c r="O115" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
       <c r="A116" t="s">
         <v>51</v>
       </c>
@@ -11573,8 +12008,11 @@
       <c r="N116" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="117" spans="1:14">
+      <c r="O116" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
       <c r="A117" t="s">
         <v>51</v>
       </c>
@@ -11617,8 +12055,11 @@
       <c r="N117" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="118" spans="1:14">
+      <c r="O117" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
       <c r="A118" t="s">
         <v>51</v>
       </c>
@@ -11661,8 +12102,11 @@
       <c r="N118" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="119" spans="1:14">
+      <c r="O118" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
       <c r="A119" t="s">
         <v>51</v>
       </c>
@@ -11705,8 +12149,11 @@
       <c r="N119" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="120" spans="1:14">
+      <c r="O119" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
       <c r="A120" t="s">
         <v>51</v>
       </c>
@@ -11749,8 +12196,11 @@
       <c r="N120" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="121" spans="1:14">
+      <c r="O120" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
       <c r="A121" t="s">
         <v>51</v>
       </c>
@@ -11793,8 +12243,11 @@
       <c r="N121" t="s">
         <v>688</v>
       </c>
-    </row>
-    <row r="122" spans="1:14">
+      <c r="O121" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="122" spans="1:15">
       <c r="A122" t="s">
         <v>51</v>
       </c>
@@ -11837,8 +12290,11 @@
       <c r="N122" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="123" spans="1:14">
+      <c r="O122" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="123" spans="1:15">
       <c r="A123" t="s">
         <v>51</v>
       </c>
@@ -11881,8 +12337,11 @@
       <c r="N123" t="s">
         <v>738</v>
       </c>
-    </row>
-    <row r="124" spans="1:14">
+      <c r="O123" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="124" spans="1:15">
       <c r="A124" t="s">
         <v>51</v>
       </c>
@@ -11925,8 +12384,11 @@
       <c r="N124" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="125" spans="1:14">
+      <c r="O124" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="125" spans="1:15">
       <c r="A125" t="s">
         <v>51</v>
       </c>
@@ -11969,8 +12431,11 @@
       <c r="N125" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="126" spans="1:14">
+      <c r="O125" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="126" spans="1:15">
       <c r="A126" t="s">
         <v>51</v>
       </c>
@@ -12013,8 +12478,11 @@
       <c r="N126" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="127" spans="1:14">
+      <c r="O126" t="s">
+        <v>1882</v>
+      </c>
+    </row>
+    <row r="127" spans="1:15">
       <c r="A127" t="s">
         <v>41</v>
       </c>
@@ -12057,8 +12525,11 @@
       <c r="N127" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="128" spans="1:14">
+      <c r="O127" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="128" spans="1:15">
       <c r="A128" t="s">
         <v>51</v>
       </c>
@@ -12101,8 +12572,11 @@
       <c r="N128" t="s">
         <v>918</v>
       </c>
-    </row>
-    <row r="129" spans="1:14">
+      <c r="O128" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="129" spans="1:15">
       <c r="A129" t="s">
         <v>51</v>
       </c>
@@ -12145,8 +12619,11 @@
       <c r="N129" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="130" spans="1:14">
+      <c r="O129" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="130" spans="1:15">
       <c r="A130" t="s">
         <v>51</v>
       </c>
@@ -12189,8 +12666,11 @@
       <c r="N130" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="131" spans="1:14">
+      <c r="O130" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="131" spans="1:15">
       <c r="A131" t="s">
         <v>51</v>
       </c>
@@ -12233,8 +12713,11 @@
       <c r="N131" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="132" spans="1:14">
+      <c r="O131" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15">
       <c r="A132" t="s">
         <v>51</v>
       </c>
@@ -12277,8 +12760,11 @@
       <c r="N132" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="133" spans="1:14">
+      <c r="O132" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="133" spans="1:15">
       <c r="A133" t="s">
         <v>51</v>
       </c>
@@ -12321,8 +12807,11 @@
       <c r="N133" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="134" spans="1:14">
+      <c r="O133" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="134" spans="1:15">
       <c r="A134" t="s">
         <v>51</v>
       </c>
@@ -12365,8 +12854,11 @@
       <c r="N134" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="135" spans="1:14">
+      <c r="O134" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="135" spans="1:15">
       <c r="A135" t="s">
         <v>51</v>
       </c>
@@ -12409,8 +12901,11 @@
       <c r="N135" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="136" spans="1:14">
+      <c r="O135" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="136" spans="1:15">
       <c r="A136" t="s">
         <v>51</v>
       </c>
@@ -12453,8 +12948,11 @@
       <c r="N136" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="137" spans="1:14">
+      <c r="O136" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="137" spans="1:15">
       <c r="A137" t="s">
         <v>51</v>
       </c>
@@ -12497,8 +12995,11 @@
       <c r="N137" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="138" spans="1:14">
+      <c r="O137" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="138" spans="1:15">
       <c r="A138" t="s">
         <v>51</v>
       </c>
@@ -12541,8 +13042,11 @@
       <c r="N138" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="139" spans="1:14">
+      <c r="O138" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="139" spans="1:15">
       <c r="A139" t="s">
         <v>51</v>
       </c>
@@ -12585,8 +13089,11 @@
       <c r="N139" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="140" spans="1:14">
+      <c r="O139" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="140" spans="1:15">
       <c r="A140" t="s">
         <v>51</v>
       </c>
@@ -12629,8 +13136,11 @@
       <c r="N140" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="141" spans="1:14">
+      <c r="O140" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="141" spans="1:15">
       <c r="A141" t="s">
         <v>51</v>
       </c>
@@ -12673,8 +13183,11 @@
       <c r="N141" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="142" spans="1:14">
+      <c r="O141" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="142" spans="1:15">
       <c r="A142" t="s">
         <v>51</v>
       </c>
@@ -12717,8 +13230,11 @@
       <c r="N142" t="s">
         <v>791</v>
       </c>
-    </row>
-    <row r="143" spans="1:14">
+      <c r="O142" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="143" spans="1:15">
       <c r="A143" t="s">
         <v>51</v>
       </c>
@@ -12761,8 +13277,11 @@
       <c r="N143" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="144" spans="1:14">
+      <c r="O143" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="144" spans="1:15">
       <c r="A144" t="s">
         <v>51</v>
       </c>
@@ -12805,8 +13324,11 @@
       <c r="N144" t="s">
         <v>940</v>
       </c>
-    </row>
-    <row r="145" spans="1:14">
+      <c r="O144" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="145" spans="1:15">
       <c r="A145" t="s">
         <v>51</v>
       </c>
@@ -12849,8 +13371,11 @@
       <c r="N145" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="146" spans="1:14">
+      <c r="O145" t="s">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="146" spans="1:15">
       <c r="A146" t="s">
         <v>51</v>
       </c>
@@ -12893,8 +13418,11 @@
       <c r="N146" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="147" spans="1:14">
+      <c r="O146" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="147" spans="1:15">
       <c r="A147" t="s">
         <v>51</v>
       </c>
@@ -12937,8 +13465,11 @@
       <c r="N147" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="148" spans="1:14">
+      <c r="O147" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="148" spans="1:15">
       <c r="A148" t="s">
         <v>51</v>
       </c>
@@ -12981,8 +13512,11 @@
       <c r="N148" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="149" spans="1:14">
+      <c r="O148" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="149" spans="1:15">
       <c r="A149" t="s">
         <v>51</v>
       </c>
@@ -13025,8 +13559,11 @@
       <c r="N149" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="150" spans="1:14">
+      <c r="O149" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="150" spans="1:15">
       <c r="A150" t="s">
         <v>51</v>
       </c>
@@ -13069,8 +13606,11 @@
       <c r="N150" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="151" spans="1:14">
+      <c r="O150" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="151" spans="1:15">
       <c r="A151" t="s">
         <v>51</v>
       </c>
@@ -13113,8 +13653,11 @@
       <c r="N151" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="152" spans="1:14">
+      <c r="O151" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="152" spans="1:15">
       <c r="A152" t="s">
         <v>51</v>
       </c>
@@ -13157,8 +13700,11 @@
       <c r="N152" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="153" spans="1:14">
+      <c r="O152" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="153" spans="1:15">
       <c r="A153" t="s">
         <v>51</v>
       </c>
@@ -13201,8 +13747,11 @@
       <c r="N153" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="154" spans="1:14">
+      <c r="O153" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="154" spans="1:15">
       <c r="A154" t="s">
         <v>51</v>
       </c>
@@ -13245,8 +13794,11 @@
       <c r="N154" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="155" spans="1:14">
+      <c r="O154" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="155" spans="1:15">
       <c r="A155" t="s">
         <v>51</v>
       </c>
@@ -13289,8 +13841,11 @@
       <c r="N155" t="s">
         <v>681</v>
       </c>
-    </row>
-    <row r="156" spans="1:14">
+      <c r="O155" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="156" spans="1:15">
       <c r="A156" t="s">
         <v>51</v>
       </c>
@@ -13333,8 +13888,11 @@
       <c r="N156" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="157" spans="1:14">
+      <c r="O156" t="s">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="157" spans="1:15">
       <c r="A157" t="s">
         <v>51</v>
       </c>
@@ -13377,8 +13935,11 @@
       <c r="N157" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="158" spans="1:14">
+      <c r="O157" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="158" spans="1:15">
       <c r="A158" t="s">
         <v>51</v>
       </c>
@@ -13421,8 +13982,11 @@
       <c r="N158" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="159" spans="1:14">
+      <c r="O158" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="159" spans="1:15">
       <c r="A159" t="s">
         <v>51</v>
       </c>
@@ -13465,8 +14029,11 @@
       <c r="N159" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="160" spans="1:14">
+      <c r="O159" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="160" spans="1:15">
       <c r="A160" t="s">
         <v>51</v>
       </c>
@@ -13509,8 +14076,11 @@
       <c r="N160" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="161" spans="1:14">
+      <c r="O160" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="161" spans="1:15">
       <c r="A161" t="s">
         <v>51</v>
       </c>
@@ -13553,8 +14123,11 @@
       <c r="N161" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="162" spans="1:14">
+      <c r="O161" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="162" spans="1:15">
       <c r="A162" t="s">
         <v>51</v>
       </c>
@@ -13597,8 +14170,11 @@
       <c r="N162" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="163" spans="1:14">
+      <c r="O162" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="163" spans="1:15">
       <c r="A163" t="s">
         <v>51</v>
       </c>
@@ -13641,8 +14217,11 @@
       <c r="N163" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="164" spans="1:14">
+      <c r="O163" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="164" spans="1:15">
       <c r="A164" t="s">
         <v>51</v>
       </c>
@@ -13685,8 +14264,11 @@
       <c r="N164" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="165" spans="1:14">
+      <c r="O164" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="165" spans="1:15">
       <c r="A165" t="s">
         <v>51</v>
       </c>
@@ -13729,8 +14311,11 @@
       <c r="N165" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="166" spans="1:14">
+      <c r="O165" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="166" spans="1:15">
       <c r="A166" t="s">
         <v>51</v>
       </c>
@@ -13773,8 +14358,11 @@
       <c r="N166" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="167" spans="1:14">
+      <c r="O166" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="167" spans="1:15">
       <c r="A167" t="s">
         <v>51</v>
       </c>
@@ -13817,8 +14405,11 @@
       <c r="N167" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="168" spans="1:14">
+      <c r="O167" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="168" spans="1:15">
       <c r="A168" t="s">
         <v>51</v>
       </c>
@@ -13861,8 +14452,11 @@
       <c r="N168" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="169" spans="1:14">
+      <c r="O168" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="169" spans="1:15">
       <c r="A169" t="s">
         <v>51</v>
       </c>
@@ -13905,8 +14499,11 @@
       <c r="N169" t="s">
         <v>1102</v>
       </c>
-    </row>
-    <row r="170" spans="1:14">
+      <c r="O169" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="170" spans="1:15">
       <c r="A170" t="s">
         <v>51</v>
       </c>
@@ -13949,8 +14546,11 @@
       <c r="N170" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="171" spans="1:14">
+      <c r="O170" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="171" spans="1:15">
       <c r="A171" t="s">
         <v>51</v>
       </c>
@@ -13993,8 +14593,11 @@
       <c r="N171" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="172" spans="1:14">
+      <c r="O171" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="172" spans="1:15">
       <c r="A172" t="s">
         <v>51</v>
       </c>
@@ -14037,8 +14640,11 @@
       <c r="N172" t="s">
         <v>1021</v>
       </c>
-    </row>
-    <row r="173" spans="1:14">
+      <c r="O172" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="173" spans="1:15">
       <c r="A173" t="s">
         <v>51</v>
       </c>
@@ -14081,8 +14687,11 @@
       <c r="N173" t="s">
         <v>623</v>
       </c>
-    </row>
-    <row r="174" spans="1:14">
+      <c r="O173" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="174" spans="1:15">
       <c r="A174" t="s">
         <v>51</v>
       </c>
@@ -14125,8 +14734,11 @@
       <c r="N174" t="s">
         <v>689</v>
       </c>
-    </row>
-    <row r="175" spans="1:14">
+      <c r="O174" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="175" spans="1:15">
       <c r="A175" t="s">
         <v>51</v>
       </c>
@@ -14169,8 +14781,11 @@
       <c r="N175" t="s">
         <v>975</v>
       </c>
-    </row>
-    <row r="176" spans="1:14">
+      <c r="O175" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="176" spans="1:15">
       <c r="A176" t="s">
         <v>51</v>
       </c>
@@ -14213,8 +14828,11 @@
       <c r="N176" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="177" spans="1:14">
+      <c r="O176" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="177" spans="1:15">
       <c r="A177" t="s">
         <v>51</v>
       </c>
@@ -14257,8 +14875,11 @@
       <c r="N177" t="s">
         <v>1061</v>
       </c>
-    </row>
-    <row r="178" spans="1:14">
+      <c r="O177" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="178" spans="1:15">
       <c r="A178" t="s">
         <v>51</v>
       </c>
@@ -14301,8 +14922,11 @@
       <c r="N178" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="179" spans="1:14">
+      <c r="O178" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="179" spans="1:15">
       <c r="A179" t="s">
         <v>51</v>
       </c>
@@ -14345,8 +14969,11 @@
       <c r="N179" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="180" spans="1:14">
+      <c r="O179" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="180" spans="1:15">
       <c r="A180" t="s">
         <v>51</v>
       </c>
@@ -14389,8 +15016,11 @@
       <c r="N180" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="181" spans="1:14">
+      <c r="O180" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="181" spans="1:15">
       <c r="A181" t="s">
         <v>51</v>
       </c>
@@ -14433,8 +15063,11 @@
       <c r="N181" t="s">
         <v>1119</v>
       </c>
-    </row>
-    <row r="182" spans="1:14">
+      <c r="O181" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="182" spans="1:15">
       <c r="A182" t="s">
         <v>51</v>
       </c>
@@ -14477,8 +15110,11 @@
       <c r="N182" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="183" spans="1:14">
+      <c r="O182" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="183" spans="1:15">
       <c r="A183" t="s">
         <v>51</v>
       </c>
@@ -14521,8 +15157,11 @@
       <c r="N183" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="184" spans="1:14">
+      <c r="O183" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="184" spans="1:15">
       <c r="A184" t="s">
         <v>51</v>
       </c>
@@ -14565,8 +15204,11 @@
       <c r="N184" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="185" spans="1:14">
+      <c r="O184" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="185" spans="1:15">
       <c r="A185" t="s">
         <v>51</v>
       </c>
@@ -14609,8 +15251,11 @@
       <c r="N185" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="186" spans="1:14">
+      <c r="O185" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="186" spans="1:15">
       <c r="A186" t="s">
         <v>51</v>
       </c>
@@ -14653,8 +15298,11 @@
       <c r="N186" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="187" spans="1:14">
+      <c r="O186" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="187" spans="1:15">
       <c r="A187" t="s">
         <v>51</v>
       </c>
@@ -14697,8 +15345,11 @@
       <c r="N187" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="188" spans="1:14">
+      <c r="O187" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="188" spans="1:15">
       <c r="A188" t="s">
         <v>51</v>
       </c>
@@ -14741,8 +15392,11 @@
       <c r="N188" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="189" spans="1:14">
+      <c r="O188" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="189" spans="1:15">
       <c r="A189" t="s">
         <v>51</v>
       </c>
@@ -14785,8 +15439,11 @@
       <c r="N189" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="190" spans="1:14">
+      <c r="O189" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="190" spans="1:15">
       <c r="A190" t="s">
         <v>51</v>
       </c>
@@ -14829,8 +15486,11 @@
       <c r="N190" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="191" spans="1:14">
+      <c r="O190" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="191" spans="1:15">
       <c r="A191" t="s">
         <v>51</v>
       </c>
@@ -14873,8 +15533,11 @@
       <c r="N191" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="192" spans="1:14">
+      <c r="O191" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="192" spans="1:15">
       <c r="A192" t="s">
         <v>51</v>
       </c>
@@ -14917,8 +15580,11 @@
       <c r="N192" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="193" spans="1:14">
+      <c r="O192" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="193" spans="1:15">
       <c r="A193" t="s">
         <v>51</v>
       </c>
@@ -14961,8 +15627,11 @@
       <c r="N193" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="194" spans="1:14">
+      <c r="O193" t="s">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="194" spans="1:15">
       <c r="A194" t="s">
         <v>51</v>
       </c>
@@ -15005,8 +15674,11 @@
       <c r="N194" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="195" spans="1:14">
+      <c r="O194" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="195" spans="1:15">
       <c r="A195" t="s">
         <v>51</v>
       </c>
@@ -15049,8 +15721,11 @@
       <c r="N195" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="196" spans="1:14">
+      <c r="O195" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="196" spans="1:15">
       <c r="A196" t="s">
         <v>51</v>
       </c>
@@ -15093,8 +15768,11 @@
       <c r="N196" t="s">
         <v>1118</v>
       </c>
-    </row>
-    <row r="197" spans="1:14">
+      <c r="O196" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="197" spans="1:15">
       <c r="A197" t="s">
         <v>51</v>
       </c>
@@ -15137,8 +15815,11 @@
       <c r="N197" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="198" spans="1:14">
+      <c r="O197" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="198" spans="1:15">
       <c r="A198" t="s">
         <v>51</v>
       </c>
@@ -15181,8 +15862,11 @@
       <c r="N198" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="199" spans="1:14">
+      <c r="O198" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="199" spans="1:15">
       <c r="A199" t="s">
         <v>51</v>
       </c>
@@ -15225,8 +15909,11 @@
       <c r="N199" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="200" spans="1:14">
+      <c r="O199" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="200" spans="1:15">
       <c r="A200" t="s">
         <v>51</v>
       </c>
@@ -15269,8 +15956,11 @@
       <c r="N200" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="201" spans="1:14">
+      <c r="O200" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="201" spans="1:15">
       <c r="A201" t="s">
         <v>51</v>
       </c>
@@ -15313,8 +16003,11 @@
       <c r="N201" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="202" spans="1:14">
+      <c r="O201" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="202" spans="1:15">
       <c r="A202" t="s">
         <v>51</v>
       </c>
@@ -15357,8 +16050,11 @@
       <c r="N202" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="203" spans="1:14">
+      <c r="O202" t="s">
+        <v>1889</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15">
       <c r="A203" t="s">
         <v>51</v>
       </c>
@@ -15401,8 +16097,11 @@
       <c r="N203" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="204" spans="1:14">
+      <c r="O203" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15">
       <c r="A204" t="s">
         <v>51</v>
       </c>
@@ -15445,8 +16144,11 @@
       <c r="N204" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="205" spans="1:14">
+      <c r="O204" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15">
       <c r="A205" t="s">
         <v>51</v>
       </c>
@@ -15489,8 +16191,11 @@
       <c r="N205" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="206" spans="1:14">
+      <c r="O205" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15">
       <c r="A206" t="s">
         <v>51</v>
       </c>
@@ -15533,8 +16238,11 @@
       <c r="N206" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="207" spans="1:14">
+      <c r="O206" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15">
       <c r="A207" t="s">
         <v>51</v>
       </c>
@@ -15577,8 +16285,11 @@
       <c r="N207" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="208" spans="1:14">
+      <c r="O207" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15">
       <c r="A208" t="s">
         <v>51</v>
       </c>
@@ -15621,8 +16332,11 @@
       <c r="N208" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="209" spans="1:14">
+      <c r="O208" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="209" spans="1:15">
       <c r="A209" t="s">
         <v>51</v>
       </c>
@@ -15665,8 +16379,11 @@
       <c r="N209" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="210" spans="1:14">
+      <c r="O209" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="210" spans="1:15">
       <c r="A210" t="s">
         <v>51</v>
       </c>
@@ -15709,8 +16426,11 @@
       <c r="N210" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="211" spans="1:14">
+      <c r="O210" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="211" spans="1:15">
       <c r="A211" t="s">
         <v>51</v>
       </c>
@@ -15753,8 +16473,11 @@
       <c r="N211" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="212" spans="1:14">
+      <c r="O211" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="212" spans="1:15">
       <c r="A212" t="s">
         <v>51</v>
       </c>
@@ -15797,8 +16520,11 @@
       <c r="N212" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="213" spans="1:14">
+      <c r="O212" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="213" spans="1:15">
       <c r="A213" t="s">
         <v>51</v>
       </c>
@@ -15841,8 +16567,11 @@
       <c r="N213" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="214" spans="1:14">
+      <c r="O213" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="214" spans="1:15">
       <c r="A214" t="s">
         <v>51</v>
       </c>
@@ -15885,8 +16614,11 @@
       <c r="N214" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="215" spans="1:14">
+      <c r="O214" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="215" spans="1:15">
       <c r="A215" t="s">
         <v>51</v>
       </c>
@@ -15929,8 +16661,11 @@
       <c r="N215" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="216" spans="1:14">
+      <c r="O215" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="216" spans="1:15">
       <c r="A216" t="s">
         <v>51</v>
       </c>
@@ -15973,8 +16708,11 @@
       <c r="N216" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="217" spans="1:14">
+      <c r="O216" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="217" spans="1:15">
       <c r="A217" t="s">
         <v>51</v>
       </c>
@@ -16017,8 +16755,11 @@
       <c r="N217" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="218" spans="1:14">
+      <c r="O217" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="218" spans="1:15">
       <c r="A218" t="s">
         <v>51</v>
       </c>
@@ -16061,8 +16802,11 @@
       <c r="N218" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="219" spans="1:14">
+      <c r="O218" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="219" spans="1:15">
       <c r="A219" t="s">
         <v>51</v>
       </c>
@@ -16105,8 +16849,11 @@
       <c r="N219" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="220" spans="1:14">
+      <c r="O219" t="s">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="220" spans="1:15">
       <c r="A220" t="s">
         <v>51</v>
       </c>
@@ -16149,8 +16896,11 @@
       <c r="N220" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="221" spans="1:14">
+      <c r="O220" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="221" spans="1:15">
       <c r="A221" t="s">
         <v>51</v>
       </c>
@@ -16193,8 +16943,11 @@
       <c r="N221" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="222" spans="1:14">
+      <c r="O221" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="222" spans="1:15">
       <c r="A222" t="s">
         <v>51</v>
       </c>
@@ -16237,8 +16990,11 @@
       <c r="N222" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="223" spans="1:14">
+      <c r="O222" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="223" spans="1:15">
       <c r="A223" t="s">
         <v>51</v>
       </c>
@@ -16281,8 +17037,11 @@
       <c r="N223" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="224" spans="1:14">
+      <c r="O223" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="224" spans="1:15">
       <c r="A224" t="s">
         <v>51</v>
       </c>
@@ -16325,8 +17084,11 @@
       <c r="N224" t="s">
         <v>1017</v>
       </c>
-    </row>
-    <row r="225" spans="1:14">
+      <c r="O224" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="225" spans="1:15">
       <c r="A225" t="s">
         <v>51</v>
       </c>
@@ -16369,8 +17131,11 @@
       <c r="N225" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="226" spans="1:14">
+      <c r="O225" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="226" spans="1:15">
       <c r="A226" t="s">
         <v>51</v>
       </c>
@@ -16413,8 +17178,11 @@
       <c r="N226" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="227" spans="1:14">
+      <c r="O226" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="227" spans="1:15">
       <c r="A227" t="s">
         <v>51</v>
       </c>
@@ -16457,8 +17225,11 @@
       <c r="N227" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="228" spans="1:14">
+      <c r="O227" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="228" spans="1:15">
       <c r="A228" t="s">
         <v>51</v>
       </c>
@@ -16501,8 +17272,11 @@
       <c r="N228" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="229" spans="1:14">
+      <c r="O228" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="229" spans="1:15">
       <c r="A229" t="s">
         <v>51</v>
       </c>
@@ -16545,8 +17319,11 @@
       <c r="N229" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="230" spans="1:14">
+      <c r="O229" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="230" spans="1:15">
       <c r="A230" t="s">
         <v>51</v>
       </c>
@@ -16589,8 +17366,11 @@
       <c r="N230" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="231" spans="1:14">
+      <c r="O230" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="231" spans="1:15">
       <c r="A231" t="s">
         <v>51</v>
       </c>
@@ -16633,8 +17413,11 @@
       <c r="N231" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="232" spans="1:14">
+      <c r="O231" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="232" spans="1:15">
       <c r="A232" t="s">
         <v>51</v>
       </c>
@@ -16677,8 +17460,11 @@
       <c r="N232" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="233" spans="1:14">
+      <c r="O232" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="233" spans="1:15">
       <c r="A233" t="s">
         <v>51</v>
       </c>
@@ -16721,8 +17507,11 @@
       <c r="N233" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="234" spans="1:14">
+      <c r="O233" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="234" spans="1:15">
       <c r="A234" t="s">
         <v>51</v>
       </c>
@@ -16765,8 +17554,11 @@
       <c r="N234" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="235" spans="1:14">
+      <c r="O234" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="235" spans="1:15">
       <c r="A235" t="s">
         <v>51</v>
       </c>
@@ -16809,8 +17601,11 @@
       <c r="N235" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="236" spans="1:14">
+      <c r="O235" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="236" spans="1:15">
       <c r="A236" t="s">
         <v>51</v>
       </c>
@@ -16853,8 +17648,11 @@
       <c r="N236" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="237" spans="1:14">
+      <c r="O236" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="237" spans="1:15">
       <c r="A237" t="s">
         <v>51</v>
       </c>
@@ -16897,8 +17695,11 @@
       <c r="N237" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="238" spans="1:14">
+      <c r="O237" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="238" spans="1:15">
       <c r="A238" t="s">
         <v>51</v>
       </c>
@@ -16941,8 +17742,11 @@
       <c r="N238" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="239" spans="1:14">
+      <c r="O238" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="239" spans="1:15">
       <c r="A239" t="s">
         <v>51</v>
       </c>
@@ -16985,8 +17789,11 @@
       <c r="N239" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="240" spans="1:14">
+      <c r="O239" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="240" spans="1:15">
       <c r="A240" t="s">
         <v>51</v>
       </c>
@@ -17029,8 +17836,11 @@
       <c r="N240" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="241" spans="1:14">
+      <c r="O240" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="241" spans="1:15">
       <c r="A241" t="s">
         <v>51</v>
       </c>
@@ -17073,8 +17883,11 @@
       <c r="N241" t="s">
         <v>1251</v>
       </c>
-    </row>
-    <row r="242" spans="1:14">
+      <c r="O241" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="242" spans="1:15">
       <c r="A242" t="s">
         <v>51</v>
       </c>
@@ -17117,8 +17930,11 @@
       <c r="N242" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="243" spans="1:14">
+      <c r="O242" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="243" spans="1:15">
       <c r="A243" t="s">
         <v>51</v>
       </c>
@@ -17161,8 +17977,11 @@
       <c r="N243" t="s">
         <v>1421</v>
       </c>
-    </row>
-    <row r="244" spans="1:14">
+      <c r="O243" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="244" spans="1:15">
       <c r="A244" t="s">
         <v>51</v>
       </c>
@@ -17205,8 +18024,11 @@
       <c r="N244" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="245" spans="1:14">
+      <c r="O244" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="245" spans="1:15">
       <c r="A245" t="s">
         <v>51</v>
       </c>
@@ -17249,8 +18071,11 @@
       <c r="N245" t="s">
         <v>1342</v>
       </c>
-    </row>
-    <row r="246" spans="1:14">
+      <c r="O245" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="246" spans="1:15">
       <c r="A246" t="s">
         <v>51</v>
       </c>
@@ -17293,8 +18118,11 @@
       <c r="N246" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="247" spans="1:14">
+      <c r="O246" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="247" spans="1:15">
       <c r="A247" t="s">
         <v>51</v>
       </c>
@@ -17337,8 +18165,11 @@
       <c r="N247" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="248" spans="1:14">
+      <c r="O247" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="248" spans="1:15">
       <c r="A248" t="s">
         <v>51</v>
       </c>
@@ -17381,8 +18212,11 @@
       <c r="N248" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="249" spans="1:14">
+      <c r="O248" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="249" spans="1:15">
       <c r="A249" t="s">
         <v>51</v>
       </c>
@@ -17425,8 +18259,11 @@
       <c r="N249" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="250" spans="1:14">
+      <c r="O249" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="250" spans="1:15">
       <c r="A250" t="s">
         <v>51</v>
       </c>
@@ -17469,8 +18306,11 @@
       <c r="N250" t="s">
         <v>1463</v>
       </c>
-    </row>
-    <row r="251" spans="1:14">
+      <c r="O250" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="251" spans="1:15">
       <c r="A251" t="s">
         <v>51</v>
       </c>
@@ -17513,8 +18353,11 @@
       <c r="N251" t="s">
         <v>1547</v>
       </c>
-    </row>
-    <row r="252" spans="1:14">
+      <c r="O251" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="252" spans="1:15">
       <c r="A252" t="s">
         <v>51</v>
       </c>
@@ -17557,8 +18400,11 @@
       <c r="N252" t="s">
         <v>1547</v>
       </c>
-    </row>
-    <row r="253" spans="1:14">
+      <c r="O252" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="253" spans="1:15">
       <c r="A253" t="s">
         <v>51</v>
       </c>
@@ -17601,8 +18447,11 @@
       <c r="N253" t="s">
         <v>1547</v>
       </c>
-    </row>
-    <row r="254" spans="1:14">
+      <c r="O253" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="254" spans="1:15">
       <c r="A254" t="s">
         <v>51</v>
       </c>
@@ -17645,8 +18494,11 @@
       <c r="N254" t="s">
         <v>1547</v>
       </c>
-    </row>
-    <row r="255" spans="1:14">
+      <c r="O254" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="255" spans="1:15">
       <c r="A255" t="s">
         <v>51</v>
       </c>
@@ -17689,8 +18541,11 @@
       <c r="N255" t="s">
         <v>1535</v>
       </c>
-    </row>
-    <row r="256" spans="1:14">
+      <c r="O255" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="256" spans="1:15">
       <c r="A256" t="s">
         <v>51</v>
       </c>
@@ -17733,8 +18588,11 @@
       <c r="N256" t="s">
         <v>1507</v>
       </c>
-    </row>
-    <row r="257" spans="1:14">
+      <c r="O256" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="257" spans="1:15">
       <c r="A257" t="s">
         <v>51</v>
       </c>
@@ -17777,8 +18635,11 @@
       <c r="N257" t="s">
         <v>1201</v>
       </c>
-    </row>
-    <row r="258" spans="1:14">
+      <c r="O257" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="258" spans="1:15">
       <c r="A258" t="s">
         <v>51</v>
       </c>
@@ -17821,8 +18682,11 @@
       <c r="N258" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="259" spans="1:14">
+      <c r="O258" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="259" spans="1:15">
       <c r="A259" t="s">
         <v>51</v>
       </c>
@@ -17865,8 +18729,11 @@
       <c r="N259" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="260" spans="1:14">
+      <c r="O259" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="260" spans="1:15">
       <c r="A260" t="s">
         <v>51</v>
       </c>
@@ -17909,8 +18776,11 @@
       <c r="N260" t="s">
         <v>1577</v>
       </c>
-    </row>
-    <row r="261" spans="1:14">
+      <c r="O260" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="261" spans="1:15">
       <c r="A261" t="s">
         <v>51</v>
       </c>
@@ -17953,8 +18823,11 @@
       <c r="N261" t="s">
         <v>1620</v>
       </c>
-    </row>
-    <row r="262" spans="1:14">
+      <c r="O261" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="262" spans="1:15">
       <c r="A262" t="s">
         <v>51</v>
       </c>
@@ -17997,8 +18870,11 @@
       <c r="N262" t="s">
         <v>1623</v>
       </c>
-    </row>
-    <row r="263" spans="1:14">
+      <c r="O262" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="263" spans="1:15">
       <c r="A263" t="s">
         <v>51</v>
       </c>
@@ -18041,8 +18917,11 @@
       <c r="N263" t="s">
         <v>1623</v>
       </c>
-    </row>
-    <row r="264" spans="1:14">
+      <c r="O263" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="264" spans="1:15">
       <c r="A264" t="s">
         <v>51</v>
       </c>
@@ -18085,8 +18964,11 @@
       <c r="N264" t="s">
         <v>1623</v>
       </c>
-    </row>
-    <row r="265" spans="1:14">
+      <c r="O264" t="s">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="265" spans="1:15">
       <c r="A265" t="s">
         <v>51</v>
       </c>
@@ -18129,8 +19011,11 @@
       <c r="N265" t="s">
         <v>1623</v>
       </c>
-    </row>
-    <row r="266" spans="1:14">
+      <c r="O265" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="266" spans="1:15">
       <c r="A266" t="s">
         <v>51</v>
       </c>
@@ -18173,8 +19058,11 @@
       <c r="N266" t="s">
         <v>1623</v>
       </c>
-    </row>
-    <row r="267" spans="1:14">
+      <c r="O266" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="267" spans="1:15">
       <c r="A267" t="s">
         <v>51</v>
       </c>
@@ -18217,8 +19105,11 @@
       <c r="N267" t="s">
         <v>1623</v>
       </c>
-    </row>
-    <row r="268" spans="1:14">
+      <c r="O267" t="s">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="268" spans="1:15">
       <c r="A268" t="s">
         <v>51</v>
       </c>
@@ -18261,8 +19152,11 @@
       <c r="N268" t="s">
         <v>1547</v>
       </c>
-    </row>
-    <row r="269" spans="1:14">
+      <c r="O268" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="269" spans="1:15">
       <c r="A269" t="s">
         <v>51</v>
       </c>
@@ -18305,8 +19199,11 @@
       <c r="N269" t="s">
         <v>1620</v>
       </c>
-    </row>
-    <row r="270" spans="1:14">
+      <c r="O269" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="270" spans="1:15">
       <c r="A270" t="s">
         <v>51</v>
       </c>
@@ -18349,8 +19246,11 @@
       <c r="N270" t="s">
         <v>1620</v>
       </c>
-    </row>
-    <row r="271" spans="1:14">
+      <c r="O270" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="271" spans="1:15">
       <c r="A271" t="s">
         <v>1671</v>
       </c>
@@ -18393,8 +19293,11 @@
       <c r="N271" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="272" spans="1:14">
+      <c r="O271" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="272" spans="1:15">
       <c r="A272" t="s">
         <v>51</v>
       </c>
@@ -18437,8 +19340,11 @@
       <c r="N272" t="s">
         <v>1679</v>
       </c>
-    </row>
-    <row r="273" spans="1:14">
+      <c r="O272" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="273" spans="1:15">
       <c r="A273" t="s">
         <v>51</v>
       </c>
@@ -18481,8 +19387,11 @@
       <c r="N273" t="s">
         <v>1679</v>
       </c>
-    </row>
-    <row r="274" spans="1:14">
+      <c r="O273" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="274" spans="1:15">
       <c r="A274" t="s">
         <v>51</v>
       </c>
@@ -18525,8 +19434,11 @@
       <c r="N274" t="s">
         <v>1679</v>
       </c>
-    </row>
-    <row r="275" spans="1:14">
+      <c r="O274" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="275" spans="1:15">
       <c r="A275" t="s">
         <v>51</v>
       </c>
@@ -18569,8 +19481,11 @@
       <c r="N275" t="s">
         <v>1679</v>
       </c>
-    </row>
-    <row r="276" spans="1:14">
+      <c r="O275" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="276" spans="1:15">
       <c r="A276" t="s">
         <v>51</v>
       </c>
@@ -18613,8 +19528,11 @@
       <c r="N276" t="s">
         <v>1679</v>
       </c>
-    </row>
-    <row r="277" spans="1:14">
+      <c r="O276" t="s">
+        <v>1891</v>
+      </c>
+    </row>
+    <row r="277" spans="1:15">
       <c r="A277" t="s">
         <v>51</v>
       </c>
@@ -18657,8 +19575,11 @@
       <c r="N277" t="s">
         <v>1715</v>
       </c>
-    </row>
-    <row r="278" spans="1:14">
+      <c r="O277" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="278" spans="1:15">
       <c r="A278" t="s">
         <v>51</v>
       </c>
@@ -18701,8 +19622,11 @@
       <c r="N278" t="s">
         <v>1715</v>
       </c>
-    </row>
-    <row r="279" spans="1:14">
+      <c r="O278" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="279" spans="1:15">
       <c r="A279" t="s">
         <v>51</v>
       </c>
@@ -18745,8 +19669,11 @@
       <c r="N279" t="s">
         <v>1715</v>
       </c>
-    </row>
-    <row r="280" spans="1:14">
+      <c r="O279" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="280" spans="1:15">
       <c r="A280" t="s">
         <v>51</v>
       </c>
@@ -18789,8 +19716,11 @@
       <c r="N280" t="s">
         <v>1715</v>
       </c>
-    </row>
-    <row r="281" spans="1:14">
+      <c r="O280" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="281" spans="1:15">
       <c r="A281" t="s">
         <v>51</v>
       </c>
@@ -18833,8 +19763,11 @@
       <c r="N281" t="s">
         <v>1715</v>
       </c>
-    </row>
-    <row r="282" spans="1:14">
+      <c r="O281" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="282" spans="1:15">
       <c r="A282" t="s">
         <v>51</v>
       </c>
@@ -18877,8 +19810,11 @@
       <c r="N282" t="s">
         <v>1715</v>
       </c>
-    </row>
-    <row r="283" spans="1:14">
+      <c r="O282" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="283" spans="1:15">
       <c r="A283" t="s">
         <v>51</v>
       </c>
@@ -18921,8 +19857,11 @@
       <c r="N283" t="s">
         <v>1715</v>
       </c>
-    </row>
-    <row r="284" spans="1:14">
+      <c r="O283" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="284" spans="1:15">
       <c r="A284" t="s">
         <v>51</v>
       </c>
@@ -18965,8 +19904,11 @@
       <c r="N284" t="s">
         <v>1715</v>
       </c>
-    </row>
-    <row r="285" spans="1:14">
+      <c r="O284" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="285" spans="1:15">
       <c r="A285" t="s">
         <v>51</v>
       </c>
@@ -19009,8 +19951,11 @@
       <c r="N285" t="s">
         <v>1715</v>
       </c>
-    </row>
-    <row r="286" spans="1:14">
+      <c r="O285" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="286" spans="1:15">
       <c r="A286" t="s">
         <v>51</v>
       </c>
@@ -19053,8 +19998,11 @@
       <c r="N286" t="s">
         <v>1753</v>
       </c>
-    </row>
-    <row r="287" spans="1:14">
+      <c r="O286" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="287" spans="1:15">
       <c r="A287" t="s">
         <v>51</v>
       </c>
@@ -19097,8 +20045,11 @@
       <c r="N287" t="s">
         <v>1753</v>
       </c>
-    </row>
-    <row r="288" spans="1:14">
+      <c r="O287" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="288" spans="1:15">
       <c r="A288" t="s">
         <v>51</v>
       </c>
@@ -19141,8 +20092,11 @@
       <c r="N288" t="s">
         <v>1753</v>
       </c>
-    </row>
-    <row r="289" spans="1:14">
+      <c r="O288" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="289" spans="1:15">
       <c r="A289" t="s">
         <v>51</v>
       </c>
@@ -19185,8 +20139,11 @@
       <c r="N289" t="s">
         <v>1753</v>
       </c>
-    </row>
-    <row r="290" spans="1:14">
+      <c r="O289" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="290" spans="1:15">
       <c r="A290" t="s">
         <v>51</v>
       </c>
@@ -19229,8 +20186,11 @@
       <c r="N290" t="s">
         <v>1753</v>
       </c>
-    </row>
-    <row r="291" spans="1:14">
+      <c r="O290" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="291" spans="1:15">
       <c r="A291" t="s">
         <v>51</v>
       </c>
@@ -19273,8 +20233,11 @@
       <c r="N291" t="s">
         <v>1753</v>
       </c>
-    </row>
-    <row r="292" spans="1:14">
+      <c r="O291" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="292" spans="1:15">
       <c r="A292" t="s">
         <v>51</v>
       </c>
@@ -19317,8 +20280,11 @@
       <c r="N292" t="s">
         <v>1753</v>
       </c>
-    </row>
-    <row r="293" spans="1:14">
+      <c r="O292" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="293" spans="1:15">
       <c r="A293" t="s">
         <v>51</v>
       </c>
@@ -19361,8 +20327,11 @@
       <c r="N293" t="s">
         <v>1753</v>
       </c>
-    </row>
-    <row r="294" spans="1:14">
+      <c r="O293" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="294" spans="1:15">
       <c r="A294" t="s">
         <v>51</v>
       </c>
@@ -19405,8 +20374,11 @@
       <c r="N294" t="s">
         <v>1753</v>
       </c>
-    </row>
-    <row r="295" spans="1:14">
+      <c r="O294" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="295" spans="1:15">
       <c r="A295" t="s">
         <v>51</v>
       </c>
@@ -19449,8 +20421,11 @@
       <c r="N295" t="s">
         <v>1753</v>
       </c>
-    </row>
-    <row r="296" spans="1:14">
+      <c r="O295" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="296" spans="1:15">
       <c r="A296" t="s">
         <v>51</v>
       </c>
@@ -19493,8 +20468,11 @@
       <c r="N296" t="s">
         <v>1753</v>
       </c>
-    </row>
-    <row r="297" spans="1:14">
+      <c r="O296" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="297" spans="1:15">
       <c r="A297" t="s">
         <v>51</v>
       </c>
@@ -19537,8 +20515,11 @@
       <c r="N297" t="s">
         <v>1753</v>
       </c>
-    </row>
-    <row r="298" spans="1:14">
+      <c r="O297" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="298" spans="1:15">
       <c r="A298" t="s">
         <v>1671</v>
       </c>
@@ -19581,8 +20562,11 @@
       <c r="N298" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="299" spans="1:14">
+      <c r="O298" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="299" spans="1:15">
       <c r="A299" t="s">
         <v>1671</v>
       </c>
@@ -19625,8 +20609,11 @@
       <c r="N299" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="300" spans="1:14">
+      <c r="O299" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="300" spans="1:15">
       <c r="A300" t="s">
         <v>1671</v>
       </c>
@@ -19669,8 +20656,11 @@
       <c r="N300" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="301" spans="1:14">
+      <c r="O300" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="301" spans="1:15">
       <c r="A301" t="s">
         <v>1671</v>
       </c>
@@ -19713,8 +20703,11 @@
       <c r="N301" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="302" spans="1:14">
+      <c r="O301" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="302" spans="1:15">
       <c r="A302" t="s">
         <v>1671</v>
       </c>
@@ -19757,8 +20750,11 @@
       <c r="N302" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="303" spans="1:14">
+      <c r="O302" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="303" spans="1:15">
       <c r="A303" t="s">
         <v>1671</v>
       </c>
@@ -19801,8 +20797,11 @@
       <c r="N303" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="304" spans="1:14">
+      <c r="O303" t="s">
+        <v>1893</v>
+      </c>
+    </row>
+    <row r="304" spans="1:15">
       <c r="A304" t="s">
         <v>51</v>
       </c>
@@ -19845,8 +20844,11 @@
       <c r="N304" t="s">
         <v>1623</v>
       </c>
-    </row>
-    <row r="305" spans="1:14">
+      <c r="O304" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="305" spans="1:15">
       <c r="A305" t="s">
         <v>51</v>
       </c>
@@ -19889,8 +20891,11 @@
       <c r="N305" t="s">
         <v>1679</v>
       </c>
-    </row>
-    <row r="306" spans="1:14">
+      <c r="O305" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="306" spans="1:15">
       <c r="A306" t="s">
         <v>51</v>
       </c>
@@ -19933,8 +20938,11 @@
       <c r="N306" t="s">
         <v>1715</v>
       </c>
-    </row>
-    <row r="307" spans="1:14">
+      <c r="O306" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="307" spans="1:15">
       <c r="A307" t="s">
         <v>51</v>
       </c>
@@ -19977,8 +20985,11 @@
       <c r="N307" t="s">
         <v>1715</v>
       </c>
-    </row>
-    <row r="308" spans="1:14">
+      <c r="O307" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="308" spans="1:15">
       <c r="A308" t="s">
         <v>1671</v>
       </c>
@@ -20021,8 +21032,11 @@
       <c r="N308" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="309" spans="1:14">
+      <c r="O308" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="309" spans="1:15">
       <c r="A309" t="s">
         <v>51</v>
       </c>
@@ -20065,8 +21079,11 @@
       <c r="N309" t="s">
         <v>1832</v>
       </c>
-    </row>
-    <row r="310" spans="1:14">
+      <c r="O309" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="310" spans="1:15">
       <c r="A310" t="s">
         <v>51</v>
       </c>
@@ -20109,8 +21126,11 @@
       <c r="N310" t="s">
         <v>1832</v>
       </c>
-    </row>
-    <row r="311" spans="1:14">
+      <c r="O310" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="311" spans="1:15">
       <c r="A311" t="s">
         <v>51</v>
       </c>
@@ -20153,8 +21173,11 @@
       <c r="N311" t="s">
         <v>1832</v>
       </c>
-    </row>
-    <row r="312" spans="1:14">
+      <c r="O311" t="s">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="312" spans="1:15">
       <c r="A312" t="s">
         <v>51</v>
       </c>
@@ -20197,8 +21220,11 @@
       <c r="N312" t="s">
         <v>1832</v>
       </c>
-    </row>
-    <row r="313" spans="1:14">
+      <c r="O312" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="313" spans="1:15">
       <c r="A313" t="s">
         <v>51</v>
       </c>
@@ -20241,8 +21267,11 @@
       <c r="N313" t="s">
         <v>1832</v>
       </c>
-    </row>
-    <row r="314" spans="1:14">
+      <c r="O313" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="314" spans="1:15">
       <c r="A314" t="s">
         <v>51</v>
       </c>
@@ -20285,8 +21314,11 @@
       <c r="N314" t="s">
         <v>1832</v>
       </c>
-    </row>
-    <row r="315" spans="1:14">
+      <c r="O314" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="315" spans="1:15">
       <c r="A315" t="s">
         <v>51</v>
       </c>
@@ -20329,8 +21361,11 @@
       <c r="N315" t="s">
         <v>1832</v>
       </c>
-    </row>
-    <row r="316" spans="1:14">
+      <c r="O315" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="316" spans="1:15">
       <c r="A316" t="s">
         <v>51</v>
       </c>
@@ -20373,8 +21408,11 @@
       <c r="N316" t="s">
         <v>1832</v>
       </c>
-    </row>
-    <row r="317" spans="1:14">
+      <c r="O316" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="317" spans="1:15">
       <c r="A317" t="s">
         <v>51</v>
       </c>
@@ -20417,8 +21455,11 @@
       <c r="N317" t="s">
         <v>1832</v>
       </c>
-    </row>
-    <row r="318" spans="1:14">
+      <c r="O317" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="318" spans="1:15">
       <c r="A318" t="s">
         <v>51</v>
       </c>
@@ -20461,8 +21502,11 @@
       <c r="N318" t="s">
         <v>1832</v>
       </c>
-    </row>
-    <row r="319" spans="1:14">
+      <c r="O318" t="e">
+        <v>#N/A</v>
+      </c>
+    </row>
+    <row r="319" spans="1:15">
       <c r="A319" t="s">
         <v>1671</v>
       </c>
@@ -20504,6 +21548,9 @@
       </c>
       <c r="N319" t="s">
         <v>41</v>
+      </c>
+      <c r="O319" t="s">
+        <v>1892</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Duplicate" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATA!$A$1:$O$319</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">DATA!$A$1:$T$319</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Duplicate!$A$1:$AK$1</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
@@ -6530,7 +6530,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6538,12 +6538,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O319"/>
+  <dimension ref="A1:T319"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AA1" sqref="AA1"/>
-      <selection pane="bottomLeft" activeCell="A12" sqref="A12"/>
+      <selection pane="bottomLeft" activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6561,9 +6561,10 @@
     <col min="12" max="12" width="19.109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="31.6640625" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="19" width="16.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:20">
       <c r="A1" t="s">
         <v>33</v>
       </c>
@@ -6606,11 +6607,11 @@
       <c r="N1" t="s">
         <v>35</v>
       </c>
-      <c r="O1" t="s">
+      <c r="T1" t="s">
         <v>1865</v>
       </c>
     </row>
-    <row r="2" spans="1:15">
+    <row r="2" spans="1:20">
       <c r="A2" t="s">
         <v>51</v>
       </c>
@@ -6650,11 +6651,11 @@
       <c r="M2" t="s">
         <v>67</v>
       </c>
-      <c r="O2" t="s">
+      <c r="T2" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="3" spans="1:15">
+    <row r="3" spans="1:20">
       <c r="A3" t="s">
         <v>51</v>
       </c>
@@ -6697,11 +6698,11 @@
       <c r="N3" t="s">
         <v>41</v>
       </c>
-      <c r="O3" t="s">
+      <c r="T3" t="s">
         <v>1866</v>
       </c>
     </row>
-    <row r="4" spans="1:15">
+    <row r="4" spans="1:20">
       <c r="A4" t="s">
         <v>51</v>
       </c>
@@ -6744,11 +6745,11 @@
       <c r="N4" t="s">
         <v>41</v>
       </c>
-      <c r="O4" t="s">
+      <c r="T4" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="5" spans="1:15">
+    <row r="5" spans="1:20">
       <c r="A5" t="s">
         <v>51</v>
       </c>
@@ -6791,11 +6792,11 @@
       <c r="N5" t="s">
         <v>41</v>
       </c>
-      <c r="O5" t="e">
+      <c r="T5" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:20">
       <c r="A6" t="s">
         <v>51</v>
       </c>
@@ -6838,11 +6839,11 @@
       <c r="N6" t="s">
         <v>41</v>
       </c>
-      <c r="O6" t="s">
+      <c r="T6" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:20">
       <c r="A7" t="s">
         <v>51</v>
       </c>
@@ -6885,11 +6886,11 @@
       <c r="N7" t="s">
         <v>41</v>
       </c>
-      <c r="O7" t="e">
+      <c r="T7" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:20">
       <c r="A8" t="s">
         <v>51</v>
       </c>
@@ -6932,11 +6933,11 @@
       <c r="N8" t="s">
         <v>41</v>
       </c>
-      <c r="O8" t="s">
+      <c r="T8" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:20">
       <c r="A9" t="s">
         <v>51</v>
       </c>
@@ -6979,11 +6980,11 @@
       <c r="N9" t="s">
         <v>41</v>
       </c>
-      <c r="O9" t="s">
+      <c r="T9" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:20">
       <c r="A10" t="s">
         <v>51</v>
       </c>
@@ -7026,11 +7027,11 @@
       <c r="N10" t="s">
         <v>41</v>
       </c>
-      <c r="O10" t="s">
+      <c r="T10" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:20">
       <c r="A11" t="s">
         <v>51</v>
       </c>
@@ -7073,11 +7074,11 @@
       <c r="N11" t="s">
         <v>41</v>
       </c>
-      <c r="O11" t="s">
+      <c r="T11" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:20">
       <c r="A12" t="s">
         <v>51</v>
       </c>
@@ -7120,11 +7121,11 @@
       <c r="N12" t="s">
         <v>41</v>
       </c>
-      <c r="O12" t="s">
+      <c r="T12" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:20">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -7167,11 +7168,11 @@
       <c r="N13" t="s">
         <v>41</v>
       </c>
-      <c r="O13" t="e">
+      <c r="T13" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:20">
       <c r="A14" t="s">
         <v>51</v>
       </c>
@@ -7214,11 +7215,11 @@
       <c r="N14" t="s">
         <v>41</v>
       </c>
-      <c r="O14" t="s">
+      <c r="T14" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:20">
       <c r="A15" t="s">
         <v>51</v>
       </c>
@@ -7261,11 +7262,11 @@
       <c r="N15" t="s">
         <v>41</v>
       </c>
-      <c r="O15" t="s">
+      <c r="T15" t="s">
         <v>1867</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:20">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -7308,11 +7309,11 @@
       <c r="N16" t="s">
         <v>41</v>
       </c>
-      <c r="O16" t="s">
+      <c r="T16" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:20">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -7355,11 +7356,11 @@
       <c r="N17" t="s">
         <v>41</v>
       </c>
-      <c r="O17" t="s">
+      <c r="T17" t="s">
         <v>1868</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:20">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -7402,11 +7403,11 @@
       <c r="N18" t="s">
         <v>41</v>
       </c>
-      <c r="O18" t="s">
+      <c r="T18" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:20">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -7449,11 +7450,11 @@
       <c r="N19" t="s">
         <v>41</v>
       </c>
-      <c r="O19" t="e">
+      <c r="T19" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:20">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -7496,11 +7497,11 @@
       <c r="N20" t="s">
         <v>41</v>
       </c>
-      <c r="O20" t="s">
+      <c r="T20" t="s">
         <v>1869</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:20">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -7543,11 +7544,11 @@
       <c r="N21" t="s">
         <v>41</v>
       </c>
-      <c r="O21" t="s">
+      <c r="T21" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:20">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -7590,11 +7591,11 @@
       <c r="N22" t="s">
         <v>41</v>
       </c>
-      <c r="O22" t="s">
+      <c r="T22" t="s">
         <v>1870</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:20">
       <c r="A23" t="s">
         <v>51</v>
       </c>
@@ -7637,11 +7638,11 @@
       <c r="N23" t="s">
         <v>41</v>
       </c>
-      <c r="O23" t="s">
+      <c r="T23" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:20">
       <c r="A24" t="s">
         <v>51</v>
       </c>
@@ -7684,11 +7685,11 @@
       <c r="N24" t="s">
         <v>41</v>
       </c>
-      <c r="O24" t="s">
+      <c r="T24" t="s">
         <v>1871</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:20">
       <c r="A25" t="s">
         <v>51</v>
       </c>
@@ -7731,11 +7732,11 @@
       <c r="N25" t="s">
         <v>41</v>
       </c>
-      <c r="O25" t="s">
+      <c r="T25" t="s">
         <v>1872</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:20">
       <c r="A26" t="s">
         <v>51</v>
       </c>
@@ -7778,11 +7779,11 @@
       <c r="N26" t="s">
         <v>41</v>
       </c>
-      <c r="O26" t="s">
+      <c r="T26" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:20">
       <c r="A27" t="s">
         <v>51</v>
       </c>
@@ -7825,11 +7826,11 @@
       <c r="N27" t="s">
         <v>41</v>
       </c>
-      <c r="O27" t="s">
+      <c r="T27" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:20">
       <c r="A28" t="s">
         <v>51</v>
       </c>
@@ -7872,11 +7873,11 @@
       <c r="N28" t="s">
         <v>41</v>
       </c>
-      <c r="O28" t="e">
+      <c r="T28" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:20">
       <c r="A29" t="s">
         <v>51</v>
       </c>
@@ -7919,11 +7920,11 @@
       <c r="N29" t="s">
         <v>41</v>
       </c>
-      <c r="O29" t="s">
+      <c r="T29" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:20">
       <c r="A30" t="s">
         <v>51</v>
       </c>
@@ -7966,11 +7967,11 @@
       <c r="N30" t="s">
         <v>41</v>
       </c>
-      <c r="O30" t="s">
+      <c r="T30" t="s">
         <v>1873</v>
       </c>
     </row>
-    <row r="31" spans="1:15">
+    <row r="31" spans="1:20">
       <c r="A31" t="s">
         <v>51</v>
       </c>
@@ -8013,11 +8014,11 @@
       <c r="N31" t="s">
         <v>203</v>
       </c>
-      <c r="O31" t="e">
+      <c r="T31" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:20">
       <c r="A32" t="s">
         <v>51</v>
       </c>
@@ -8060,11 +8061,11 @@
       <c r="N32" t="s">
         <v>238</v>
       </c>
-      <c r="O32" t="s">
+      <c r="T32" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="33" spans="1:15">
+    <row r="33" spans="1:20">
       <c r="A33" t="s">
         <v>51</v>
       </c>
@@ -8107,11 +8108,11 @@
       <c r="N33" t="s">
         <v>238</v>
       </c>
-      <c r="O33" t="s">
+      <c r="T33" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="34" spans="1:15">
+    <row r="34" spans="1:20">
       <c r="A34" t="s">
         <v>51</v>
       </c>
@@ -8154,11 +8155,11 @@
       <c r="N34" t="s">
         <v>238</v>
       </c>
-      <c r="O34" t="e">
+      <c r="T34" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="35" spans="1:15">
+    <row r="35" spans="1:20">
       <c r="A35" t="s">
         <v>51</v>
       </c>
@@ -8201,11 +8202,11 @@
       <c r="N35" t="s">
         <v>109</v>
       </c>
-      <c r="O35" t="s">
+      <c r="T35" t="s">
         <v>1872</v>
       </c>
     </row>
-    <row r="36" spans="1:15">
+    <row r="36" spans="1:20">
       <c r="A36" t="s">
         <v>51</v>
       </c>
@@ -8248,11 +8249,11 @@
       <c r="N36" t="s">
         <v>109</v>
       </c>
-      <c r="O36" t="s">
+      <c r="T36" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="37" spans="1:15">
+    <row r="37" spans="1:20">
       <c r="A37" t="s">
         <v>51</v>
       </c>
@@ -8295,11 +8296,11 @@
       <c r="N37" t="s">
         <v>109</v>
       </c>
-      <c r="O37" t="s">
+      <c r="T37" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="38" spans="1:15">
+    <row r="38" spans="1:20">
       <c r="A38" t="s">
         <v>51</v>
       </c>
@@ -8342,11 +8343,11 @@
       <c r="N38" t="s">
         <v>109</v>
       </c>
-      <c r="O38" t="e">
+      <c r="T38" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="39" spans="1:15">
+    <row r="39" spans="1:20">
       <c r="A39" t="s">
         <v>51</v>
       </c>
@@ -8389,11 +8390,11 @@
       <c r="N39" t="s">
         <v>109</v>
       </c>
-      <c r="O39" t="e">
+      <c r="T39" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="40" spans="1:15">
+    <row r="40" spans="1:20">
       <c r="A40" t="s">
         <v>51</v>
       </c>
@@ -8436,11 +8437,11 @@
       <c r="N40" t="s">
         <v>109</v>
       </c>
-      <c r="O40" t="s">
+      <c r="T40" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="41" spans="1:15">
+    <row r="41" spans="1:20">
       <c r="A41" t="s">
         <v>51</v>
       </c>
@@ -8483,11 +8484,11 @@
       <c r="N41" t="s">
         <v>203</v>
       </c>
-      <c r="O41" t="s">
+      <c r="T41" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="42" spans="1:15">
+    <row r="42" spans="1:20">
       <c r="A42" t="s">
         <v>51</v>
       </c>
@@ -8530,11 +8531,11 @@
       <c r="N42" t="s">
         <v>203</v>
       </c>
-      <c r="O42" t="s">
+      <c r="T42" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="43" spans="1:15">
+    <row r="43" spans="1:20">
       <c r="A43" t="s">
         <v>51</v>
       </c>
@@ -8577,11 +8578,11 @@
       <c r="N43" t="s">
         <v>203</v>
       </c>
-      <c r="O43" t="s">
+      <c r="T43" t="s">
         <v>1874</v>
       </c>
     </row>
-    <row r="44" spans="1:15">
+    <row r="44" spans="1:20">
       <c r="A44" t="s">
         <v>51</v>
       </c>
@@ -8624,11 +8625,11 @@
       <c r="N44" t="s">
         <v>284</v>
       </c>
-      <c r="O44" t="s">
+      <c r="T44" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="45" spans="1:15">
+    <row r="45" spans="1:20">
       <c r="A45" t="s">
         <v>51</v>
       </c>
@@ -8671,11 +8672,11 @@
       <c r="N45" t="s">
         <v>284</v>
       </c>
-      <c r="O45" t="s">
+      <c r="T45" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="46" spans="1:15">
+    <row r="46" spans="1:20">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -8718,11 +8719,11 @@
       <c r="N46" t="s">
         <v>284</v>
       </c>
-      <c r="O46" t="s">
+      <c r="T46" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="47" spans="1:15">
+    <row r="47" spans="1:20">
       <c r="A47" t="s">
         <v>51</v>
       </c>
@@ -8765,11 +8766,11 @@
       <c r="N47" t="s">
         <v>284</v>
       </c>
-      <c r="O47" t="s">
+      <c r="T47" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="48" spans="1:15">
+    <row r="48" spans="1:20">
       <c r="A48" t="s">
         <v>51</v>
       </c>
@@ -8812,11 +8813,11 @@
       <c r="N48" t="s">
         <v>391</v>
       </c>
-      <c r="O48" t="s">
+      <c r="T48" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="49" spans="1:15">
+    <row r="49" spans="1:20">
       <c r="A49" t="s">
         <v>51</v>
       </c>
@@ -8859,11 +8860,11 @@
       <c r="N49" t="s">
         <v>391</v>
       </c>
-      <c r="O49" t="s">
+      <c r="T49" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="50" spans="1:15">
+    <row r="50" spans="1:20">
       <c r="A50" t="s">
         <v>51</v>
       </c>
@@ -8906,11 +8907,11 @@
       <c r="N50" t="s">
         <v>391</v>
       </c>
-      <c r="O50" t="e">
+      <c r="T50" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="51" spans="1:15">
+    <row r="51" spans="1:20">
       <c r="A51" t="s">
         <v>51</v>
       </c>
@@ -8953,11 +8954,11 @@
       <c r="N51" t="s">
         <v>391</v>
       </c>
-      <c r="O51" t="s">
+      <c r="T51" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="52" spans="1:15">
+    <row r="52" spans="1:20">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -9000,11 +9001,11 @@
       <c r="N52" t="s">
         <v>391</v>
       </c>
-      <c r="O52" t="s">
+      <c r="T52" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="53" spans="1:15">
+    <row r="53" spans="1:20">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -9047,11 +9048,11 @@
       <c r="N53" t="s">
         <v>399</v>
       </c>
-      <c r="O53" t="s">
+      <c r="T53" t="s">
         <v>1876</v>
       </c>
     </row>
-    <row r="54" spans="1:15">
+    <row r="54" spans="1:20">
       <c r="A54" t="s">
         <v>51</v>
       </c>
@@ -9094,11 +9095,11 @@
       <c r="N54" t="s">
         <v>399</v>
       </c>
-      <c r="O54" t="s">
+      <c r="T54" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="55" spans="1:15">
+    <row r="55" spans="1:20">
       <c r="A55" t="s">
         <v>51</v>
       </c>
@@ -9141,11 +9142,11 @@
       <c r="N55" t="s">
         <v>399</v>
       </c>
-      <c r="O55" t="s">
+      <c r="T55" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="56" spans="1:15">
+    <row r="56" spans="1:20">
       <c r="A56" t="s">
         <v>51</v>
       </c>
@@ -9188,11 +9189,11 @@
       <c r="N56" t="s">
         <v>399</v>
       </c>
-      <c r="O56" t="s">
+      <c r="T56" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="57" spans="1:15">
+    <row r="57" spans="1:20">
       <c r="A57" t="s">
         <v>51</v>
       </c>
@@ -9235,11 +9236,11 @@
       <c r="N57" t="s">
         <v>399</v>
       </c>
-      <c r="O57" t="s">
+      <c r="T57" t="s">
         <v>1877</v>
       </c>
     </row>
-    <row r="58" spans="1:15">
+    <row r="58" spans="1:20">
       <c r="A58" t="s">
         <v>51</v>
       </c>
@@ -9282,11 +9283,11 @@
       <c r="N58" t="s">
         <v>399</v>
       </c>
-      <c r="O58" t="s">
+      <c r="T58" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="59" spans="1:15">
+    <row r="59" spans="1:20">
       <c r="A59" t="s">
         <v>51</v>
       </c>
@@ -9329,11 +9330,11 @@
       <c r="N59" t="s">
         <v>391</v>
       </c>
-      <c r="O59" t="e">
+      <c r="T59" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:15">
+    <row r="60" spans="1:20">
       <c r="A60" t="s">
         <v>51</v>
       </c>
@@ -9376,11 +9377,11 @@
       <c r="N60" t="s">
         <v>284</v>
       </c>
-      <c r="O60" t="e">
+      <c r="T60" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="61" spans="1:15">
+    <row r="61" spans="1:20">
       <c r="A61" t="s">
         <v>51</v>
       </c>
@@ -9423,11 +9424,11 @@
       <c r="N61" t="s">
         <v>512</v>
       </c>
-      <c r="O61" t="s">
+      <c r="T61" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="62" spans="1:15">
+    <row r="62" spans="1:20">
       <c r="A62" t="s">
         <v>51</v>
       </c>
@@ -9470,11 +9471,11 @@
       <c r="N62" t="s">
         <v>512</v>
       </c>
-      <c r="O62" t="e">
+      <c r="T62" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="63" spans="1:15">
+    <row r="63" spans="1:20">
       <c r="A63" t="s">
         <v>51</v>
       </c>
@@ -9517,11 +9518,11 @@
       <c r="N63" t="s">
         <v>512</v>
       </c>
-      <c r="O63" t="s">
+      <c r="T63" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="64" spans="1:15">
+    <row r="64" spans="1:20">
       <c r="A64" t="s">
         <v>51</v>
       </c>
@@ -9564,11 +9565,11 @@
       <c r="N64" t="s">
         <v>512</v>
       </c>
-      <c r="O64" t="s">
+      <c r="T64" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="65" spans="1:15">
+    <row r="65" spans="1:20">
       <c r="A65" t="s">
         <v>51</v>
       </c>
@@ -9611,11 +9612,11 @@
       <c r="N65" t="s">
         <v>512</v>
       </c>
-      <c r="O65" t="s">
+      <c r="T65" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="66" spans="1:15">
+    <row r="66" spans="1:20">
       <c r="A66" t="s">
         <v>51</v>
       </c>
@@ -9658,11 +9659,11 @@
       <c r="N66" t="s">
         <v>563</v>
       </c>
-      <c r="O66" t="s">
+      <c r="T66" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="67" spans="1:15">
+    <row r="67" spans="1:20">
       <c r="A67" t="s">
         <v>51</v>
       </c>
@@ -9705,11 +9706,11 @@
       <c r="N67" t="s">
         <v>563</v>
       </c>
-      <c r="O67" t="s">
+      <c r="T67" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="68" spans="1:15">
+    <row r="68" spans="1:20">
       <c r="A68" t="s">
         <v>51</v>
       </c>
@@ -9752,11 +9753,11 @@
       <c r="N68" t="s">
         <v>563</v>
       </c>
-      <c r="O68" t="e">
+      <c r="T68" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="69" spans="1:15">
+    <row r="69" spans="1:20">
       <c r="A69" t="s">
         <v>51</v>
       </c>
@@ -9799,11 +9800,11 @@
       <c r="N69" t="s">
         <v>622</v>
       </c>
-      <c r="O69" t="s">
+      <c r="T69" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="70" spans="1:15">
+    <row r="70" spans="1:20">
       <c r="A70" t="s">
         <v>51</v>
       </c>
@@ -9846,11 +9847,11 @@
       <c r="N70" t="s">
         <v>622</v>
       </c>
-      <c r="O70" t="s">
+      <c r="T70" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="71" spans="1:15">
+    <row r="71" spans="1:20">
       <c r="A71" t="s">
         <v>51</v>
       </c>
@@ -9893,11 +9894,11 @@
       <c r="N71" t="s">
         <v>622</v>
       </c>
-      <c r="O71" t="s">
+      <c r="T71" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="72" spans="1:15">
+    <row r="72" spans="1:20">
       <c r="A72" t="s">
         <v>51</v>
       </c>
@@ -9940,11 +9941,11 @@
       <c r="N72" t="s">
         <v>622</v>
       </c>
-      <c r="O72" t="s">
+      <c r="T72" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="73" spans="1:15">
+    <row r="73" spans="1:20">
       <c r="A73" t="s">
         <v>51</v>
       </c>
@@ -9987,11 +9988,11 @@
       <c r="N73" t="s">
         <v>622</v>
       </c>
-      <c r="O73" t="s">
+      <c r="T73" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="74" spans="1:15">
+    <row r="74" spans="1:20">
       <c r="A74" t="s">
         <v>51</v>
       </c>
@@ -10034,11 +10035,11 @@
       <c r="N74" t="s">
         <v>622</v>
       </c>
-      <c r="O74" t="s">
+      <c r="T74" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="75" spans="1:15">
+    <row r="75" spans="1:20">
       <c r="A75" t="s">
         <v>51</v>
       </c>
@@ -10081,11 +10082,11 @@
       <c r="N75" t="s">
         <v>109</v>
       </c>
-      <c r="O75" t="s">
+      <c r="T75" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="76" spans="1:15">
+    <row r="76" spans="1:20">
       <c r="A76" t="s">
         <v>51</v>
       </c>
@@ -10128,11 +10129,11 @@
       <c r="N76" t="s">
         <v>109</v>
       </c>
-      <c r="O76" t="e">
+      <c r="T76" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="77" spans="1:15">
+    <row r="77" spans="1:20">
       <c r="A77" t="s">
         <v>51</v>
       </c>
@@ -10175,11 +10176,11 @@
       <c r="N77" t="s">
         <v>391</v>
       </c>
-      <c r="O77" t="s">
+      <c r="T77" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="78" spans="1:15">
+    <row r="78" spans="1:20">
       <c r="A78" t="s">
         <v>51</v>
       </c>
@@ -10222,11 +10223,11 @@
       <c r="N78" t="s">
         <v>391</v>
       </c>
-      <c r="O78" t="s">
+      <c r="T78" t="s">
         <v>1878</v>
       </c>
     </row>
-    <row r="79" spans="1:15">
+    <row r="79" spans="1:20">
       <c r="A79" t="s">
         <v>51</v>
       </c>
@@ -10269,11 +10270,11 @@
       <c r="N79" t="s">
         <v>391</v>
       </c>
-      <c r="O79" t="e">
+      <c r="T79" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:15">
+    <row r="80" spans="1:20">
       <c r="A80" t="s">
         <v>51</v>
       </c>
@@ -10316,11 +10317,11 @@
       <c r="N80" t="s">
         <v>399</v>
       </c>
-      <c r="O80" t="e">
+      <c r="T80" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:15">
+    <row r="81" spans="1:20">
       <c r="A81" t="s">
         <v>51</v>
       </c>
@@ -10363,11 +10364,11 @@
       <c r="N81" t="s">
         <v>512</v>
       </c>
-      <c r="O81" t="s">
+      <c r="T81" t="s">
         <v>1879</v>
       </c>
     </row>
-    <row r="82" spans="1:15">
+    <row r="82" spans="1:20">
       <c r="A82" t="s">
         <v>51</v>
       </c>
@@ -10410,11 +10411,11 @@
       <c r="N82" t="s">
         <v>623</v>
       </c>
-      <c r="O82" t="s">
+      <c r="T82" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="83" spans="1:15">
+    <row r="83" spans="1:20">
       <c r="A83" t="s">
         <v>51</v>
       </c>
@@ -10457,11 +10458,11 @@
       <c r="N83" t="s">
         <v>623</v>
       </c>
-      <c r="O83" t="e">
+      <c r="T83" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="84" spans="1:15">
+    <row r="84" spans="1:20">
       <c r="A84" t="s">
         <v>51</v>
       </c>
@@ -10504,11 +10505,11 @@
       <c r="N84" t="s">
         <v>623</v>
       </c>
-      <c r="O84" t="s">
+      <c r="T84" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="85" spans="1:15">
+    <row r="85" spans="1:20">
       <c r="A85" t="s">
         <v>51</v>
       </c>
@@ -10551,11 +10552,11 @@
       <c r="N85" t="s">
         <v>512</v>
       </c>
-      <c r="O85" t="s">
+      <c r="T85" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="86" spans="1:15">
+    <row r="86" spans="1:20">
       <c r="A86" t="s">
         <v>51</v>
       </c>
@@ -10598,11 +10599,11 @@
       <c r="N86" t="s">
         <v>563</v>
       </c>
-      <c r="O86" t="s">
+      <c r="T86" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="87" spans="1:15">
+    <row r="87" spans="1:20">
       <c r="A87" t="s">
         <v>51</v>
       </c>
@@ -10645,11 +10646,11 @@
       <c r="N87" t="s">
         <v>689</v>
       </c>
-      <c r="O87" t="s">
+      <c r="T87" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="88" spans="1:15">
+    <row r="88" spans="1:20">
       <c r="A88" t="s">
         <v>51</v>
       </c>
@@ -10692,11 +10693,11 @@
       <c r="N88" t="s">
         <v>689</v>
       </c>
-      <c r="O88" t="s">
+      <c r="T88" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="89" spans="1:15">
+    <row r="89" spans="1:20">
       <c r="A89" t="s">
         <v>51</v>
       </c>
@@ -10739,11 +10740,11 @@
       <c r="N89" t="s">
         <v>689</v>
       </c>
-      <c r="O89" t="s">
+      <c r="T89" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="90" spans="1:15">
+    <row r="90" spans="1:20">
       <c r="A90" t="s">
         <v>51</v>
       </c>
@@ -10786,11 +10787,11 @@
       <c r="N90" t="s">
         <v>563</v>
       </c>
-      <c r="O90" t="s">
+      <c r="T90" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="91" spans="1:15">
+    <row r="91" spans="1:20">
       <c r="A91" t="s">
         <v>51</v>
       </c>
@@ -10833,11 +10834,11 @@
       <c r="N91" t="s">
         <v>563</v>
       </c>
-      <c r="O91" t="s">
+      <c r="T91" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="92" spans="1:15">
+    <row r="92" spans="1:20">
       <c r="A92" t="s">
         <v>51</v>
       </c>
@@ -10880,11 +10881,11 @@
       <c r="N92" t="s">
         <v>563</v>
       </c>
-      <c r="O92" t="e">
+      <c r="T92" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="93" spans="1:15">
+    <row r="93" spans="1:20">
       <c r="A93" t="s">
         <v>51</v>
       </c>
@@ -10927,11 +10928,11 @@
       <c r="N93" t="s">
         <v>563</v>
       </c>
-      <c r="O93" t="s">
+      <c r="T93" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="94" spans="1:15">
+    <row r="94" spans="1:20">
       <c r="A94" t="s">
         <v>51</v>
       </c>
@@ -10974,11 +10975,11 @@
       <c r="N94" t="s">
         <v>738</v>
       </c>
-      <c r="O94" t="s">
+      <c r="T94" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="95" spans="1:15">
+    <row r="95" spans="1:20">
       <c r="A95" t="s">
         <v>51</v>
       </c>
@@ -11021,11 +11022,11 @@
       <c r="N95" t="s">
         <v>738</v>
       </c>
-      <c r="O95" t="s">
+      <c r="T95" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="96" spans="1:15">
+    <row r="96" spans="1:20">
       <c r="A96" t="s">
         <v>51</v>
       </c>
@@ -11068,11 +11069,11 @@
       <c r="N96" t="s">
         <v>738</v>
       </c>
-      <c r="O96" t="s">
+      <c r="T96" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="97" spans="1:15">
+    <row r="97" spans="1:20">
       <c r="A97" t="s">
         <v>51</v>
       </c>
@@ -11115,11 +11116,11 @@
       <c r="N97" t="s">
         <v>738</v>
       </c>
-      <c r="O97" t="s">
+      <c r="T97" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="98" spans="1:15">
+    <row r="98" spans="1:20">
       <c r="A98" t="s">
         <v>51</v>
       </c>
@@ -11162,11 +11163,11 @@
       <c r="N98" t="s">
         <v>738</v>
       </c>
-      <c r="O98" t="e">
+      <c r="T98" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="99" spans="1:15">
+    <row r="99" spans="1:20">
       <c r="A99" t="s">
         <v>51</v>
       </c>
@@ -11209,11 +11210,11 @@
       <c r="N99" t="s">
         <v>791</v>
       </c>
-      <c r="O99" t="s">
+      <c r="T99" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="100" spans="1:15">
+    <row r="100" spans="1:20">
       <c r="A100" t="s">
         <v>51</v>
       </c>
@@ -11256,11 +11257,11 @@
       <c r="N100" t="s">
         <v>791</v>
       </c>
-      <c r="O100" t="s">
+      <c r="T100" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="101" spans="1:15">
+    <row r="101" spans="1:20">
       <c r="A101" t="s">
         <v>51</v>
       </c>
@@ -11303,11 +11304,11 @@
       <c r="N101" t="s">
         <v>791</v>
       </c>
-      <c r="O101" t="s">
+      <c r="T101" t="s">
         <v>1875</v>
       </c>
     </row>
-    <row r="102" spans="1:15">
+    <row r="102" spans="1:20">
       <c r="A102" t="s">
         <v>51</v>
       </c>
@@ -11350,11 +11351,11 @@
       <c r="N102" t="s">
         <v>791</v>
       </c>
-      <c r="O102" t="e">
+      <c r="T102" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="103" spans="1:15">
+    <row r="103" spans="1:20">
       <c r="A103" t="s">
         <v>51</v>
       </c>
@@ -11397,11 +11398,11 @@
       <c r="N103" t="s">
         <v>791</v>
       </c>
-      <c r="O103" t="s">
+      <c r="T103" t="s">
         <v>1880</v>
       </c>
     </row>
-    <row r="104" spans="1:15">
+    <row r="104" spans="1:20">
       <c r="A104" t="s">
         <v>51</v>
       </c>
@@ -11444,11 +11445,11 @@
       <c r="N104" t="s">
         <v>791</v>
       </c>
-      <c r="O104" t="e">
+      <c r="T104" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="105" spans="1:15">
+    <row r="105" spans="1:20">
       <c r="A105" t="s">
         <v>51</v>
       </c>
@@ -11491,11 +11492,11 @@
       <c r="N105" t="s">
         <v>791</v>
       </c>
-      <c r="O105" t="e">
+      <c r="T105" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="106" spans="1:15">
+    <row r="106" spans="1:20">
       <c r="A106" t="s">
         <v>51</v>
       </c>
@@ -11538,11 +11539,11 @@
       <c r="N106" t="s">
         <v>791</v>
       </c>
-      <c r="O106" t="s">
+      <c r="T106" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="107" spans="1:15">
+    <row r="107" spans="1:20">
       <c r="A107" t="s">
         <v>51</v>
       </c>
@@ -11585,11 +11586,11 @@
       <c r="N107" t="s">
         <v>791</v>
       </c>
-      <c r="O107" t="s">
+      <c r="T107" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="108" spans="1:15">
+    <row r="108" spans="1:20">
       <c r="A108" t="s">
         <v>51</v>
       </c>
@@ -11632,11 +11633,11 @@
       <c r="N108" t="s">
         <v>791</v>
       </c>
-      <c r="O108" t="s">
+      <c r="T108" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="109" spans="1:15">
+    <row r="109" spans="1:20">
       <c r="A109" t="s">
         <v>51</v>
       </c>
@@ -11679,11 +11680,11 @@
       <c r="N109" t="s">
         <v>791</v>
       </c>
-      <c r="O109" t="s">
+      <c r="T109" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="110" spans="1:15">
+    <row r="110" spans="1:20">
       <c r="A110" t="s">
         <v>51</v>
       </c>
@@ -11726,11 +11727,11 @@
       <c r="N110" t="s">
         <v>791</v>
       </c>
-      <c r="O110" t="s">
+      <c r="T110" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="111" spans="1:15">
+    <row r="111" spans="1:20">
       <c r="A111" t="s">
         <v>51</v>
       </c>
@@ -11773,11 +11774,11 @@
       <c r="N111" t="s">
         <v>791</v>
       </c>
-      <c r="O111" t="s">
+      <c r="T111" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="112" spans="1:15">
+    <row r="112" spans="1:20">
       <c r="A112" t="s">
         <v>51</v>
       </c>
@@ -11820,11 +11821,11 @@
       <c r="N112" t="s">
         <v>791</v>
       </c>
-      <c r="O112" t="s">
+      <c r="T112" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="113" spans="1:15">
+    <row r="113" spans="1:20">
       <c r="A113" t="s">
         <v>51</v>
       </c>
@@ -11867,11 +11868,11 @@
       <c r="N113" t="s">
         <v>791</v>
       </c>
-      <c r="O113" t="s">
+      <c r="T113" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="114" spans="1:15">
+    <row r="114" spans="1:20">
       <c r="A114" t="s">
         <v>51</v>
       </c>
@@ -11914,11 +11915,11 @@
       <c r="N114" t="s">
         <v>791</v>
       </c>
-      <c r="O114" t="s">
+      <c r="T114" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="115" spans="1:15">
+    <row r="115" spans="1:20">
       <c r="A115" t="s">
         <v>51</v>
       </c>
@@ -11961,11 +11962,11 @@
       <c r="N115" t="s">
         <v>791</v>
       </c>
-      <c r="O115" t="s">
+      <c r="T115" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="116" spans="1:15">
+    <row r="116" spans="1:20">
       <c r="A116" t="s">
         <v>51</v>
       </c>
@@ -12008,11 +12009,11 @@
       <c r="N116" t="s">
         <v>791</v>
       </c>
-      <c r="O116" t="s">
+      <c r="T116" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="117" spans="1:15">
+    <row r="117" spans="1:20">
       <c r="A117" t="s">
         <v>51</v>
       </c>
@@ -12055,11 +12056,11 @@
       <c r="N117" t="s">
         <v>791</v>
       </c>
-      <c r="O117" t="s">
+      <c r="T117" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="118" spans="1:15">
+    <row r="118" spans="1:20">
       <c r="A118" t="s">
         <v>51</v>
       </c>
@@ -12102,11 +12103,11 @@
       <c r="N118" t="s">
         <v>623</v>
       </c>
-      <c r="O118" t="s">
+      <c r="T118" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="119" spans="1:15">
+    <row r="119" spans="1:20">
       <c r="A119" t="s">
         <v>51</v>
       </c>
@@ -12149,11 +12150,11 @@
       <c r="N119" t="s">
         <v>689</v>
       </c>
-      <c r="O119" t="e">
+      <c r="T119" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="120" spans="1:15">
+    <row r="120" spans="1:20">
       <c r="A120" t="s">
         <v>51</v>
       </c>
@@ -12196,11 +12197,11 @@
       <c r="N120" t="s">
         <v>689</v>
       </c>
-      <c r="O120" t="s">
+      <c r="T120" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="121" spans="1:15">
+    <row r="121" spans="1:20">
       <c r="A121" t="s">
         <v>51</v>
       </c>
@@ -12243,11 +12244,11 @@
       <c r="N121" t="s">
         <v>688</v>
       </c>
-      <c r="O121" t="s">
+      <c r="T121" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="122" spans="1:15">
+    <row r="122" spans="1:20">
       <c r="A122" t="s">
         <v>51</v>
       </c>
@@ -12290,11 +12291,11 @@
       <c r="N122" t="s">
         <v>738</v>
       </c>
-      <c r="O122" t="e">
+      <c r="T122" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="123" spans="1:15">
+    <row r="123" spans="1:20">
       <c r="A123" t="s">
         <v>51</v>
       </c>
@@ -12337,11 +12338,11 @@
       <c r="N123" t="s">
         <v>738</v>
       </c>
-      <c r="O123" t="s">
+      <c r="T123" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="124" spans="1:15">
+    <row r="124" spans="1:20">
       <c r="A124" t="s">
         <v>51</v>
       </c>
@@ -12384,11 +12385,11 @@
       <c r="N124" t="s">
         <v>918</v>
       </c>
-      <c r="O124" t="s">
+      <c r="T124" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="125" spans="1:15">
+    <row r="125" spans="1:20">
       <c r="A125" t="s">
         <v>51</v>
       </c>
@@ -12431,11 +12432,11 @@
       <c r="N125" t="s">
         <v>918</v>
       </c>
-      <c r="O125" t="s">
+      <c r="T125" t="s">
         <v>1881</v>
       </c>
     </row>
-    <row r="126" spans="1:15">
+    <row r="126" spans="1:20">
       <c r="A126" t="s">
         <v>51</v>
       </c>
@@ -12478,11 +12479,11 @@
       <c r="N126" t="s">
         <v>918</v>
       </c>
-      <c r="O126" t="s">
+      <c r="T126" t="s">
         <v>1882</v>
       </c>
     </row>
-    <row r="127" spans="1:15">
+    <row r="127" spans="1:20">
       <c r="A127" t="s">
         <v>41</v>
       </c>
@@ -12525,11 +12526,11 @@
       <c r="N127" t="s">
         <v>918</v>
       </c>
-      <c r="O127" t="s">
+      <c r="T127" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="128" spans="1:15">
+    <row r="128" spans="1:20">
       <c r="A128" t="s">
         <v>51</v>
       </c>
@@ -12572,11 +12573,11 @@
       <c r="N128" t="s">
         <v>918</v>
       </c>
-      <c r="O128" t="s">
+      <c r="T128" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="129" spans="1:15">
+    <row r="129" spans="1:20">
       <c r="A129" t="s">
         <v>51</v>
       </c>
@@ -12619,11 +12620,11 @@
       <c r="N129" t="s">
         <v>940</v>
       </c>
-      <c r="O129" t="e">
+      <c r="T129" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="130" spans="1:15">
+    <row r="130" spans="1:20">
       <c r="A130" t="s">
         <v>51</v>
       </c>
@@ -12666,11 +12667,11 @@
       <c r="N130" t="s">
         <v>940</v>
       </c>
-      <c r="O130" t="s">
+      <c r="T130" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="131" spans="1:15">
+    <row r="131" spans="1:20">
       <c r="A131" t="s">
         <v>51</v>
       </c>
@@ -12713,11 +12714,11 @@
       <c r="N131" t="s">
         <v>940</v>
       </c>
-      <c r="O131" t="s">
+      <c r="T131" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="132" spans="1:15">
+    <row r="132" spans="1:20">
       <c r="A132" t="s">
         <v>51</v>
       </c>
@@ -12760,11 +12761,11 @@
       <c r="N132" t="s">
         <v>681</v>
       </c>
-      <c r="O132" t="s">
+      <c r="T132" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="133" spans="1:15">
+    <row r="133" spans="1:20">
       <c r="A133" t="s">
         <v>51</v>
       </c>
@@ -12807,11 +12808,11 @@
       <c r="N133" t="s">
         <v>681</v>
       </c>
-      <c r="O133" t="s">
+      <c r="T133" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="134" spans="1:15">
+    <row r="134" spans="1:20">
       <c r="A134" t="s">
         <v>51</v>
       </c>
@@ -12854,11 +12855,11 @@
       <c r="N134" t="s">
         <v>681</v>
       </c>
-      <c r="O134" t="e">
+      <c r="T134" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="135" spans="1:15">
+    <row r="135" spans="1:20">
       <c r="A135" t="s">
         <v>51</v>
       </c>
@@ -12901,11 +12902,11 @@
       <c r="N135" t="s">
         <v>681</v>
       </c>
-      <c r="O135" t="s">
+      <c r="T135" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="136" spans="1:15">
+    <row r="136" spans="1:20">
       <c r="A136" t="s">
         <v>51</v>
       </c>
@@ -12948,11 +12949,11 @@
       <c r="N136" t="s">
         <v>791</v>
       </c>
-      <c r="O136" t="s">
+      <c r="T136" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="137" spans="1:15">
+    <row r="137" spans="1:20">
       <c r="A137" t="s">
         <v>51</v>
       </c>
@@ -12995,11 +12996,11 @@
       <c r="N137" t="s">
         <v>791</v>
       </c>
-      <c r="O137" t="e">
+      <c r="T137" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="138" spans="1:15">
+    <row r="138" spans="1:20">
       <c r="A138" t="s">
         <v>51</v>
       </c>
@@ -13042,11 +13043,11 @@
       <c r="N138" t="s">
         <v>791</v>
       </c>
-      <c r="O138" t="s">
+      <c r="T138" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="139" spans="1:15">
+    <row r="139" spans="1:20">
       <c r="A139" t="s">
         <v>51</v>
       </c>
@@ -13089,11 +13090,11 @@
       <c r="N139" t="s">
         <v>791</v>
       </c>
-      <c r="O139" t="s">
+      <c r="T139" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="140" spans="1:15">
+    <row r="140" spans="1:20">
       <c r="A140" t="s">
         <v>51</v>
       </c>
@@ -13136,11 +13137,11 @@
       <c r="N140" t="s">
         <v>791</v>
       </c>
-      <c r="O140" t="s">
+      <c r="T140" t="s">
         <v>1883</v>
       </c>
     </row>
-    <row r="141" spans="1:15">
+    <row r="141" spans="1:20">
       <c r="A141" t="s">
         <v>51</v>
       </c>
@@ -13183,11 +13184,11 @@
       <c r="N141" t="s">
         <v>791</v>
       </c>
-      <c r="O141" t="s">
+      <c r="T141" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="142" spans="1:15">
+    <row r="142" spans="1:20">
       <c r="A142" t="s">
         <v>51</v>
       </c>
@@ -13230,11 +13231,11 @@
       <c r="N142" t="s">
         <v>791</v>
       </c>
-      <c r="O142" t="s">
+      <c r="T142" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="143" spans="1:15">
+    <row r="143" spans="1:20">
       <c r="A143" t="s">
         <v>51</v>
       </c>
@@ -13277,11 +13278,11 @@
       <c r="N143" t="s">
         <v>940</v>
       </c>
-      <c r="O143" t="s">
+      <c r="T143" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="144" spans="1:15">
+    <row r="144" spans="1:20">
       <c r="A144" t="s">
         <v>51</v>
       </c>
@@ -13324,11 +13325,11 @@
       <c r="N144" t="s">
         <v>940</v>
       </c>
-      <c r="O144" t="s">
+      <c r="T144" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="145" spans="1:15">
+    <row r="145" spans="1:20">
       <c r="A145" t="s">
         <v>51</v>
       </c>
@@ -13371,11 +13372,11 @@
       <c r="N145" t="s">
         <v>975</v>
       </c>
-      <c r="O145" t="s">
+      <c r="T145" t="s">
         <v>1884</v>
       </c>
     </row>
-    <row r="146" spans="1:15">
+    <row r="146" spans="1:20">
       <c r="A146" t="s">
         <v>51</v>
       </c>
@@ -13418,11 +13419,11 @@
       <c r="N146" t="s">
         <v>975</v>
       </c>
-      <c r="O146" t="e">
+      <c r="T146" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="147" spans="1:15">
+    <row r="147" spans="1:20">
       <c r="A147" t="s">
         <v>51</v>
       </c>
@@ -13465,11 +13466,11 @@
       <c r="N147" t="s">
         <v>975</v>
       </c>
-      <c r="O147" t="s">
+      <c r="T147" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="148" spans="1:15">
+    <row r="148" spans="1:20">
       <c r="A148" t="s">
         <v>51</v>
       </c>
@@ -13512,11 +13513,11 @@
       <c r="N148" t="s">
         <v>975</v>
       </c>
-      <c r="O148" t="s">
+      <c r="T148" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="149" spans="1:15">
+    <row r="149" spans="1:20">
       <c r="A149" t="s">
         <v>51</v>
       </c>
@@ -13559,11 +13560,11 @@
       <c r="N149" t="s">
         <v>1021</v>
       </c>
-      <c r="O149" t="s">
+      <c r="T149" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="150" spans="1:15">
+    <row r="150" spans="1:20">
       <c r="A150" t="s">
         <v>51</v>
       </c>
@@ -13606,11 +13607,11 @@
       <c r="N150" t="s">
         <v>1021</v>
       </c>
-      <c r="O150" t="s">
+      <c r="T150" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="151" spans="1:15">
+    <row r="151" spans="1:20">
       <c r="A151" t="s">
         <v>51</v>
       </c>
@@ -13653,11 +13654,11 @@
       <c r="N151" t="s">
         <v>1021</v>
       </c>
-      <c r="O151" t="s">
+      <c r="T151" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="152" spans="1:15">
+    <row r="152" spans="1:20">
       <c r="A152" t="s">
         <v>51</v>
       </c>
@@ -13700,11 +13701,11 @@
       <c r="N152" t="s">
         <v>1021</v>
       </c>
-      <c r="O152" t="s">
+      <c r="T152" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="153" spans="1:15">
+    <row r="153" spans="1:20">
       <c r="A153" t="s">
         <v>51</v>
       </c>
@@ -13747,11 +13748,11 @@
       <c r="N153" t="s">
         <v>1021</v>
       </c>
-      <c r="O153" t="s">
+      <c r="T153" t="s">
         <v>1885</v>
       </c>
     </row>
-    <row r="154" spans="1:15">
+    <row r="154" spans="1:20">
       <c r="A154" t="s">
         <v>51</v>
       </c>
@@ -13794,11 +13795,11 @@
       <c r="N154" t="s">
         <v>1021</v>
       </c>
-      <c r="O154" t="s">
+      <c r="T154" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="155" spans="1:15">
+    <row r="155" spans="1:20">
       <c r="A155" t="s">
         <v>51</v>
       </c>
@@ -13841,11 +13842,11 @@
       <c r="N155" t="s">
         <v>681</v>
       </c>
-      <c r="O155" t="e">
+      <c r="T155" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="156" spans="1:15">
+    <row r="156" spans="1:20">
       <c r="A156" t="s">
         <v>51</v>
       </c>
@@ -13888,11 +13889,11 @@
       <c r="N156" t="s">
         <v>1061</v>
       </c>
-      <c r="O156" t="s">
+      <c r="T156" t="s">
         <v>1886</v>
       </c>
     </row>
-    <row r="157" spans="1:15">
+    <row r="157" spans="1:20">
       <c r="A157" t="s">
         <v>51</v>
       </c>
@@ -13935,11 +13936,11 @@
       <c r="N157" t="s">
         <v>1061</v>
       </c>
-      <c r="O157" t="s">
+      <c r="T157" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="158" spans="1:15">
+    <row r="158" spans="1:20">
       <c r="A158" t="s">
         <v>51</v>
       </c>
@@ -13982,11 +13983,11 @@
       <c r="N158" t="s">
         <v>1061</v>
       </c>
-      <c r="O158" t="e">
+      <c r="T158" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="159" spans="1:15">
+    <row r="159" spans="1:20">
       <c r="A159" t="s">
         <v>51</v>
       </c>
@@ -14029,11 +14030,11 @@
       <c r="N159" t="s">
         <v>1061</v>
       </c>
-      <c r="O159" t="s">
+      <c r="T159" t="s">
         <v>1887</v>
       </c>
     </row>
-    <row r="160" spans="1:15">
+    <row r="160" spans="1:20">
       <c r="A160" t="s">
         <v>51</v>
       </c>
@@ -14076,11 +14077,11 @@
       <c r="N160" t="s">
         <v>1061</v>
       </c>
-      <c r="O160" t="s">
+      <c r="T160" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="161" spans="1:15">
+    <row r="161" spans="1:20">
       <c r="A161" t="s">
         <v>51</v>
       </c>
@@ -14123,11 +14124,11 @@
       <c r="N161" t="s">
         <v>1061</v>
       </c>
-      <c r="O161" t="s">
+      <c r="T161" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="162" spans="1:15">
+    <row r="162" spans="1:20">
       <c r="A162" t="s">
         <v>51</v>
       </c>
@@ -14170,11 +14171,11 @@
       <c r="N162" t="s">
         <v>1061</v>
       </c>
-      <c r="O162" t="s">
+      <c r="T162" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="163" spans="1:15">
+    <row r="163" spans="1:20">
       <c r="A163" t="s">
         <v>51</v>
       </c>
@@ -14217,11 +14218,11 @@
       <c r="N163" t="s">
         <v>1061</v>
       </c>
-      <c r="O163" t="s">
+      <c r="T163" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="164" spans="1:15">
+    <row r="164" spans="1:20">
       <c r="A164" t="s">
         <v>51</v>
       </c>
@@ -14264,11 +14265,11 @@
       <c r="N164" t="s">
         <v>1102</v>
       </c>
-      <c r="O164" t="s">
+      <c r="T164" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="165" spans="1:15">
+    <row r="165" spans="1:20">
       <c r="A165" t="s">
         <v>51</v>
       </c>
@@ -14311,11 +14312,11 @@
       <c r="N165" t="s">
         <v>1102</v>
       </c>
-      <c r="O165" t="e">
+      <c r="T165" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="166" spans="1:15">
+    <row r="166" spans="1:20">
       <c r="A166" t="s">
         <v>51</v>
       </c>
@@ -14358,11 +14359,11 @@
       <c r="N166" t="s">
         <v>1102</v>
       </c>
-      <c r="O166" t="e">
+      <c r="T166" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="167" spans="1:15">
+    <row r="167" spans="1:20">
       <c r="A167" t="s">
         <v>51</v>
       </c>
@@ -14405,11 +14406,11 @@
       <c r="N167" t="s">
         <v>1102</v>
       </c>
-      <c r="O167" t="e">
+      <c r="T167" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="168" spans="1:15">
+    <row r="168" spans="1:20">
       <c r="A168" t="s">
         <v>51</v>
       </c>
@@ -14452,11 +14453,11 @@
       <c r="N168" t="s">
         <v>1102</v>
       </c>
-      <c r="O168" t="s">
+      <c r="T168" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="169" spans="1:15">
+    <row r="169" spans="1:20">
       <c r="A169" t="s">
         <v>51</v>
       </c>
@@ -14499,11 +14500,11 @@
       <c r="N169" t="s">
         <v>1102</v>
       </c>
-      <c r="O169" t="s">
+      <c r="T169" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="170" spans="1:15">
+    <row r="170" spans="1:20">
       <c r="A170" t="s">
         <v>51</v>
       </c>
@@ -14546,11 +14547,11 @@
       <c r="N170" t="s">
         <v>1021</v>
       </c>
-      <c r="O170" t="e">
+      <c r="T170" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="171" spans="1:15">
+    <row r="171" spans="1:20">
       <c r="A171" t="s">
         <v>51</v>
       </c>
@@ -14593,11 +14594,11 @@
       <c r="N171" t="s">
         <v>1021</v>
       </c>
-      <c r="O171" t="s">
+      <c r="T171" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="172" spans="1:15">
+    <row r="172" spans="1:20">
       <c r="A172" t="s">
         <v>51</v>
       </c>
@@ -14640,11 +14641,11 @@
       <c r="N172" t="s">
         <v>1021</v>
       </c>
-      <c r="O172" t="s">
+      <c r="T172" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="173" spans="1:15">
+    <row r="173" spans="1:20">
       <c r="A173" t="s">
         <v>51</v>
       </c>
@@ -14687,11 +14688,11 @@
       <c r="N173" t="s">
         <v>623</v>
       </c>
-      <c r="O173" t="s">
+      <c r="T173" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="174" spans="1:15">
+    <row r="174" spans="1:20">
       <c r="A174" t="s">
         <v>51</v>
       </c>
@@ -14734,11 +14735,11 @@
       <c r="N174" t="s">
         <v>689</v>
       </c>
-      <c r="O174" t="s">
+      <c r="T174" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="175" spans="1:15">
+    <row r="175" spans="1:20">
       <c r="A175" t="s">
         <v>51</v>
       </c>
@@ -14781,11 +14782,11 @@
       <c r="N175" t="s">
         <v>975</v>
       </c>
-      <c r="O175" t="s">
+      <c r="T175" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="176" spans="1:15">
+    <row r="176" spans="1:20">
       <c r="A176" t="s">
         <v>51</v>
       </c>
@@ -14828,11 +14829,11 @@
       <c r="N176" t="s">
         <v>1061</v>
       </c>
-      <c r="O176" t="s">
+      <c r="T176" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="177" spans="1:15">
+    <row r="177" spans="1:20">
       <c r="A177" t="s">
         <v>51</v>
       </c>
@@ -14875,11 +14876,11 @@
       <c r="N177" t="s">
         <v>1061</v>
       </c>
-      <c r="O177" t="e">
+      <c r="T177" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="178" spans="1:15">
+    <row r="178" spans="1:20">
       <c r="A178" t="s">
         <v>51</v>
       </c>
@@ -14922,11 +14923,11 @@
       <c r="N178" t="s">
         <v>1119</v>
       </c>
-      <c r="O178" t="s">
+      <c r="T178" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="179" spans="1:15">
+    <row r="179" spans="1:20">
       <c r="A179" t="s">
         <v>51</v>
       </c>
@@ -14969,11 +14970,11 @@
       <c r="N179" t="s">
         <v>1118</v>
       </c>
-      <c r="O179" t="s">
+      <c r="T179" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="180" spans="1:15">
+    <row r="180" spans="1:20">
       <c r="A180" t="s">
         <v>51</v>
       </c>
@@ -15016,11 +15017,11 @@
       <c r="N180" t="s">
         <v>1118</v>
       </c>
-      <c r="O180" t="s">
+      <c r="T180" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="181" spans="1:15">
+    <row r="181" spans="1:20">
       <c r="A181" t="s">
         <v>51</v>
       </c>
@@ -15063,11 +15064,11 @@
       <c r="N181" t="s">
         <v>1119</v>
       </c>
-      <c r="O181" t="e">
+      <c r="T181" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="182" spans="1:15">
+    <row r="182" spans="1:20">
       <c r="A182" t="s">
         <v>51</v>
       </c>
@@ -15110,11 +15111,11 @@
       <c r="N182" t="s">
         <v>1118</v>
       </c>
-      <c r="O182" t="e">
+      <c r="T182" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="183" spans="1:15">
+    <row r="183" spans="1:20">
       <c r="A183" t="s">
         <v>51</v>
       </c>
@@ -15157,11 +15158,11 @@
       <c r="N183" t="s">
         <v>1118</v>
       </c>
-      <c r="O183" t="s">
+      <c r="T183" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="184" spans="1:15">
+    <row r="184" spans="1:20">
       <c r="A184" t="s">
         <v>51</v>
       </c>
@@ -15204,11 +15205,11 @@
       <c r="N184" t="s">
         <v>1017</v>
       </c>
-      <c r="O184" t="s">
+      <c r="T184" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="185" spans="1:15">
+    <row r="185" spans="1:20">
       <c r="A185" t="s">
         <v>51</v>
       </c>
@@ -15251,11 +15252,11 @@
       <c r="N185" t="s">
         <v>1017</v>
       </c>
-      <c r="O185" t="s">
+      <c r="T185" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="186" spans="1:15">
+    <row r="186" spans="1:20">
       <c r="A186" t="s">
         <v>51</v>
       </c>
@@ -15298,11 +15299,11 @@
       <c r="N186" t="s">
         <v>1017</v>
       </c>
-      <c r="O186" t="s">
+      <c r="T186" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="187" spans="1:15">
+    <row r="187" spans="1:20">
       <c r="A187" t="s">
         <v>51</v>
       </c>
@@ -15345,11 +15346,11 @@
       <c r="N187" t="s">
         <v>1017</v>
       </c>
-      <c r="O187" t="s">
+      <c r="T187" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="188" spans="1:15">
+    <row r="188" spans="1:20">
       <c r="A188" t="s">
         <v>51</v>
       </c>
@@ -15392,11 +15393,11 @@
       <c r="N188" t="s">
         <v>1017</v>
       </c>
-      <c r="O188" t="s">
+      <c r="T188" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="189" spans="1:15">
+    <row r="189" spans="1:20">
       <c r="A189" t="s">
         <v>51</v>
       </c>
@@ -15439,11 +15440,11 @@
       <c r="N189" t="s">
         <v>1017</v>
       </c>
-      <c r="O189" t="e">
+      <c r="T189" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="190" spans="1:15">
+    <row r="190" spans="1:20">
       <c r="A190" t="s">
         <v>51</v>
       </c>
@@ -15486,11 +15487,11 @@
       <c r="N190" t="s">
         <v>1017</v>
       </c>
-      <c r="O190" t="s">
+      <c r="T190" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="191" spans="1:15">
+    <row r="191" spans="1:20">
       <c r="A191" t="s">
         <v>51</v>
       </c>
@@ -15533,11 +15534,11 @@
       <c r="N191" t="s">
         <v>1017</v>
       </c>
-      <c r="O191" t="s">
+      <c r="T191" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="192" spans="1:15">
+    <row r="192" spans="1:20">
       <c r="A192" t="s">
         <v>51</v>
       </c>
@@ -15580,11 +15581,11 @@
       <c r="N192" t="s">
         <v>1017</v>
       </c>
-      <c r="O192" t="s">
+      <c r="T192" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="193" spans="1:15">
+    <row r="193" spans="1:20">
       <c r="A193" t="s">
         <v>51</v>
       </c>
@@ -15627,11 +15628,11 @@
       <c r="N193" t="s">
         <v>1017</v>
       </c>
-      <c r="O193" t="s">
+      <c r="T193" t="s">
         <v>1888</v>
       </c>
     </row>
-    <row r="194" spans="1:15">
+    <row r="194" spans="1:20">
       <c r="A194" t="s">
         <v>51</v>
       </c>
@@ -15674,11 +15675,11 @@
       <c r="N194" t="s">
         <v>1118</v>
       </c>
-      <c r="O194" t="e">
+      <c r="T194" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="195" spans="1:15">
+    <row r="195" spans="1:20">
       <c r="A195" t="s">
         <v>51</v>
       </c>
@@ -15721,11 +15722,11 @@
       <c r="N195" t="s">
         <v>1118</v>
       </c>
-      <c r="O195" t="s">
+      <c r="T195" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="196" spans="1:15">
+    <row r="196" spans="1:20">
       <c r="A196" t="s">
         <v>51</v>
       </c>
@@ -15768,11 +15769,11 @@
       <c r="N196" t="s">
         <v>1118</v>
       </c>
-      <c r="O196" t="s">
+      <c r="T196" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="197" spans="1:15">
+    <row r="197" spans="1:20">
       <c r="A197" t="s">
         <v>51</v>
       </c>
@@ -15815,11 +15816,11 @@
       <c r="N197" t="s">
         <v>1201</v>
       </c>
-      <c r="O197" t="s">
+      <c r="T197" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="198" spans="1:15">
+    <row r="198" spans="1:20">
       <c r="A198" t="s">
         <v>51</v>
       </c>
@@ -15862,11 +15863,11 @@
       <c r="N198" t="s">
         <v>1201</v>
       </c>
-      <c r="O198" t="s">
+      <c r="T198" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="199" spans="1:15">
+    <row r="199" spans="1:20">
       <c r="A199" t="s">
         <v>51</v>
       </c>
@@ -15909,11 +15910,11 @@
       <c r="N199" t="s">
         <v>1201</v>
       </c>
-      <c r="O199" t="e">
+      <c r="T199" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="200" spans="1:15">
+    <row r="200" spans="1:20">
       <c r="A200" t="s">
         <v>51</v>
       </c>
@@ -15956,11 +15957,11 @@
       <c r="N200" t="s">
         <v>1201</v>
       </c>
-      <c r="O200" t="s">
+      <c r="T200" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="201" spans="1:15">
+    <row r="201" spans="1:20">
       <c r="A201" t="s">
         <v>51</v>
       </c>
@@ -16003,11 +16004,11 @@
       <c r="N201" t="s">
         <v>1201</v>
       </c>
-      <c r="O201" t="e">
+      <c r="T201" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="202" spans="1:15">
+    <row r="202" spans="1:20">
       <c r="A202" t="s">
         <v>51</v>
       </c>
@@ -16050,11 +16051,11 @@
       <c r="N202" t="s">
         <v>1201</v>
       </c>
-      <c r="O202" t="s">
+      <c r="T202" t="s">
         <v>1889</v>
       </c>
     </row>
-    <row r="203" spans="1:15">
+    <row r="203" spans="1:20">
       <c r="A203" t="s">
         <v>51</v>
       </c>
@@ -16097,11 +16098,11 @@
       <c r="N203" t="s">
         <v>1201</v>
       </c>
-      <c r="O203" t="e">
+      <c r="T203" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="204" spans="1:15">
+    <row r="204" spans="1:20">
       <c r="A204" t="s">
         <v>51</v>
       </c>
@@ -16144,11 +16145,11 @@
       <c r="N204" t="s">
         <v>1201</v>
       </c>
-      <c r="O204" t="s">
+      <c r="T204" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="205" spans="1:15">
+    <row r="205" spans="1:20">
       <c r="A205" t="s">
         <v>51</v>
       </c>
@@ -16191,11 +16192,11 @@
       <c r="N205" t="s">
         <v>1251</v>
       </c>
-      <c r="O205" t="s">
+      <c r="T205" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="206" spans="1:15">
+    <row r="206" spans="1:20">
       <c r="A206" t="s">
         <v>51</v>
       </c>
@@ -16238,11 +16239,11 @@
       <c r="N206" t="s">
         <v>1251</v>
       </c>
-      <c r="O206" t="s">
+      <c r="T206" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="207" spans="1:15">
+    <row r="207" spans="1:20">
       <c r="A207" t="s">
         <v>51</v>
       </c>
@@ -16285,11 +16286,11 @@
       <c r="N207" t="s">
         <v>1251</v>
       </c>
-      <c r="O207" t="s">
+      <c r="T207" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="208" spans="1:15">
+    <row r="208" spans="1:20">
       <c r="A208" t="s">
         <v>51</v>
       </c>
@@ -16332,11 +16333,11 @@
       <c r="N208" t="s">
         <v>1251</v>
       </c>
-      <c r="O208" t="s">
+      <c r="T208" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="209" spans="1:15">
+    <row r="209" spans="1:20">
       <c r="A209" t="s">
         <v>51</v>
       </c>
@@ -16379,11 +16380,11 @@
       <c r="N209" t="s">
         <v>1251</v>
       </c>
-      <c r="O209" t="s">
+      <c r="T209" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="210" spans="1:15">
+    <row r="210" spans="1:20">
       <c r="A210" t="s">
         <v>51</v>
       </c>
@@ -16426,11 +16427,11 @@
       <c r="N210" t="s">
         <v>1251</v>
       </c>
-      <c r="O210" t="s">
+      <c r="T210" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="211" spans="1:15">
+    <row r="211" spans="1:20">
       <c r="A211" t="s">
         <v>51</v>
       </c>
@@ -16473,11 +16474,11 @@
       <c r="N211" t="s">
         <v>1251</v>
       </c>
-      <c r="O211" t="s">
+      <c r="T211" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="212" spans="1:15">
+    <row r="212" spans="1:20">
       <c r="A212" t="s">
         <v>51</v>
       </c>
@@ -16520,11 +16521,11 @@
       <c r="N212" t="s">
         <v>1251</v>
       </c>
-      <c r="O212" t="s">
+      <c r="T212" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="213" spans="1:15">
+    <row r="213" spans="1:20">
       <c r="A213" t="s">
         <v>51</v>
       </c>
@@ -16567,11 +16568,11 @@
       <c r="N213" t="s">
         <v>1251</v>
       </c>
-      <c r="O213" t="e">
+      <c r="T213" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="214" spans="1:15">
+    <row r="214" spans="1:20">
       <c r="A214" t="s">
         <v>51</v>
       </c>
@@ -16614,11 +16615,11 @@
       <c r="N214" t="s">
         <v>1251</v>
       </c>
-      <c r="O214" t="s">
+      <c r="T214" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="215" spans="1:15">
+    <row r="215" spans="1:20">
       <c r="A215" t="s">
         <v>51</v>
       </c>
@@ -16661,11 +16662,11 @@
       <c r="N215" t="s">
         <v>1251</v>
       </c>
-      <c r="O215" t="s">
+      <c r="T215" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="216" spans="1:15">
+    <row r="216" spans="1:20">
       <c r="A216" t="s">
         <v>51</v>
       </c>
@@ -16708,11 +16709,11 @@
       <c r="N216" t="s">
         <v>1251</v>
       </c>
-      <c r="O216" t="s">
+      <c r="T216" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="217" spans="1:15">
+    <row r="217" spans="1:20">
       <c r="A217" t="s">
         <v>51</v>
       </c>
@@ -16755,11 +16756,11 @@
       <c r="N217" t="s">
         <v>1251</v>
       </c>
-      <c r="O217" t="s">
+      <c r="T217" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="218" spans="1:15">
+    <row r="218" spans="1:20">
       <c r="A218" t="s">
         <v>51</v>
       </c>
@@ -16802,11 +16803,11 @@
       <c r="N218" t="s">
         <v>1251</v>
       </c>
-      <c r="O218" t="s">
+      <c r="T218" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="219" spans="1:15">
+    <row r="219" spans="1:20">
       <c r="A219" t="s">
         <v>51</v>
       </c>
@@ -16849,11 +16850,11 @@
       <c r="N219" t="s">
         <v>1251</v>
       </c>
-      <c r="O219" t="s">
+      <c r="T219" t="s">
         <v>1878</v>
       </c>
     </row>
-    <row r="220" spans="1:15">
+    <row r="220" spans="1:20">
       <c r="A220" t="s">
         <v>51</v>
       </c>
@@ -16896,11 +16897,11 @@
       <c r="N220" t="s">
         <v>1421</v>
       </c>
-      <c r="O220" t="s">
+      <c r="T220" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="221" spans="1:15">
+    <row r="221" spans="1:20">
       <c r="A221" t="s">
         <v>51</v>
       </c>
@@ -16943,11 +16944,11 @@
       <c r="N221" t="s">
         <v>1421</v>
       </c>
-      <c r="O221" t="e">
+      <c r="T221" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="222" spans="1:15">
+    <row r="222" spans="1:20">
       <c r="A222" t="s">
         <v>51</v>
       </c>
@@ -16990,11 +16991,11 @@
       <c r="N222" t="s">
         <v>1421</v>
       </c>
-      <c r="O222" t="s">
+      <c r="T222" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="223" spans="1:15">
+    <row r="223" spans="1:20">
       <c r="A223" t="s">
         <v>51</v>
       </c>
@@ -17037,11 +17038,11 @@
       <c r="N223" t="s">
         <v>1421</v>
       </c>
-      <c r="O223" t="s">
+      <c r="T223" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="224" spans="1:15">
+    <row r="224" spans="1:20">
       <c r="A224" t="s">
         <v>51</v>
       </c>
@@ -17084,11 +17085,11 @@
       <c r="N224" t="s">
         <v>1017</v>
       </c>
-      <c r="O224" t="s">
+      <c r="T224" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="225" spans="1:15">
+    <row r="225" spans="1:20">
       <c r="A225" t="s">
         <v>51</v>
       </c>
@@ -17131,11 +17132,11 @@
       <c r="N225" t="s">
         <v>1201</v>
       </c>
-      <c r="O225" t="s">
+      <c r="T225" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="226" spans="1:15">
+    <row r="226" spans="1:20">
       <c r="A226" t="s">
         <v>51</v>
       </c>
@@ -17178,11 +17179,11 @@
       <c r="N226" t="s">
         <v>1201</v>
       </c>
-      <c r="O226" t="e">
+      <c r="T226" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="227" spans="1:15">
+    <row r="227" spans="1:20">
       <c r="A227" t="s">
         <v>51</v>
       </c>
@@ -17225,11 +17226,11 @@
       <c r="N227" t="s">
         <v>1251</v>
       </c>
-      <c r="O227" t="s">
+      <c r="T227" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="228" spans="1:15">
+    <row r="228" spans="1:20">
       <c r="A228" t="s">
         <v>51</v>
       </c>
@@ -17272,11 +17273,11 @@
       <c r="N228" t="s">
         <v>1251</v>
       </c>
-      <c r="O228" t="s">
+      <c r="T228" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="229" spans="1:15">
+    <row r="229" spans="1:20">
       <c r="A229" t="s">
         <v>51</v>
       </c>
@@ -17319,11 +17320,11 @@
       <c r="N229" t="s">
         <v>1421</v>
       </c>
-      <c r="O229" t="e">
+      <c r="T229" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="230" spans="1:15">
+    <row r="230" spans="1:20">
       <c r="A230" t="s">
         <v>51</v>
       </c>
@@ -17366,11 +17367,11 @@
       <c r="N230" t="s">
         <v>1463</v>
       </c>
-      <c r="O230" t="s">
+      <c r="T230" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="231" spans="1:15">
+    <row r="231" spans="1:20">
       <c r="A231" t="s">
         <v>51</v>
       </c>
@@ -17413,11 +17414,11 @@
       <c r="N231" t="s">
         <v>1463</v>
       </c>
-      <c r="O231" t="s">
+      <c r="T231" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="232" spans="1:15">
+    <row r="232" spans="1:20">
       <c r="A232" t="s">
         <v>51</v>
       </c>
@@ -17460,11 +17461,11 @@
       <c r="N232" t="s">
         <v>1463</v>
       </c>
-      <c r="O232" t="s">
+      <c r="T232" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="233" spans="1:15">
+    <row r="233" spans="1:20">
       <c r="A233" t="s">
         <v>51</v>
       </c>
@@ -17507,11 +17508,11 @@
       <c r="N233" t="s">
         <v>1463</v>
       </c>
-      <c r="O233" t="e">
+      <c r="T233" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="234" spans="1:15">
+    <row r="234" spans="1:20">
       <c r="A234" t="s">
         <v>51</v>
       </c>
@@ -17554,11 +17555,11 @@
       <c r="N234" t="s">
         <v>1463</v>
       </c>
-      <c r="O234" t="s">
+      <c r="T234" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="235" spans="1:15">
+    <row r="235" spans="1:20">
       <c r="A235" t="s">
         <v>51</v>
       </c>
@@ -17601,11 +17602,11 @@
       <c r="N235" t="s">
         <v>1463</v>
       </c>
-      <c r="O235" t="s">
+      <c r="T235" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="236" spans="1:15">
+    <row r="236" spans="1:20">
       <c r="A236" t="s">
         <v>51</v>
       </c>
@@ -17648,11 +17649,11 @@
       <c r="N236" t="s">
         <v>1507</v>
       </c>
-      <c r="O236" t="s">
+      <c r="T236" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="237" spans="1:15">
+    <row r="237" spans="1:20">
       <c r="A237" t="s">
         <v>51</v>
       </c>
@@ -17695,11 +17696,11 @@
       <c r="N237" t="s">
         <v>1507</v>
       </c>
-      <c r="O237" t="s">
+      <c r="T237" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="238" spans="1:15">
+    <row r="238" spans="1:20">
       <c r="A238" t="s">
         <v>51</v>
       </c>
@@ -17742,11 +17743,11 @@
       <c r="N238" t="s">
         <v>1507</v>
       </c>
-      <c r="O238" t="s">
+      <c r="T238" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="239" spans="1:15">
+    <row r="239" spans="1:20">
       <c r="A239" t="s">
         <v>51</v>
       </c>
@@ -17789,11 +17790,11 @@
       <c r="N239" t="s">
         <v>1251</v>
       </c>
-      <c r="O239" t="s">
+      <c r="T239" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="240" spans="1:15">
+    <row r="240" spans="1:20">
       <c r="A240" t="s">
         <v>51</v>
       </c>
@@ -17836,11 +17837,11 @@
       <c r="N240" t="s">
         <v>1251</v>
       </c>
-      <c r="O240" t="e">
+      <c r="T240" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="241" spans="1:15">
+    <row r="241" spans="1:20">
       <c r="A241" t="s">
         <v>51</v>
       </c>
@@ -17883,11 +17884,11 @@
       <c r="N241" t="s">
         <v>1251</v>
       </c>
-      <c r="O241" t="s">
+      <c r="T241" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="242" spans="1:15">
+    <row r="242" spans="1:20">
       <c r="A242" t="s">
         <v>51</v>
       </c>
@@ -17930,11 +17931,11 @@
       <c r="N242" t="s">
         <v>1421</v>
       </c>
-      <c r="O242" t="s">
+      <c r="T242" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="243" spans="1:15">
+    <row r="243" spans="1:20">
       <c r="A243" t="s">
         <v>51</v>
       </c>
@@ -17977,11 +17978,11 @@
       <c r="N243" t="s">
         <v>1421</v>
       </c>
-      <c r="O243" t="s">
+      <c r="T243" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="244" spans="1:15">
+    <row r="244" spans="1:20">
       <c r="A244" t="s">
         <v>51</v>
       </c>
@@ -18024,11 +18025,11 @@
       <c r="N244" t="s">
         <v>1463</v>
       </c>
-      <c r="O244" t="s">
+      <c r="T244" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="245" spans="1:15">
+    <row r="245" spans="1:20">
       <c r="A245" t="s">
         <v>51</v>
       </c>
@@ -18071,11 +18072,11 @@
       <c r="N245" t="s">
         <v>1342</v>
       </c>
-      <c r="O245" t="s">
+      <c r="T245" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="246" spans="1:15">
+    <row r="246" spans="1:20">
       <c r="A246" t="s">
         <v>51</v>
       </c>
@@ -18118,11 +18119,11 @@
       <c r="N246" t="s">
         <v>1535</v>
       </c>
-      <c r="O246" t="s">
+      <c r="T246" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="247" spans="1:15">
+    <row r="247" spans="1:20">
       <c r="A247" t="s">
         <v>51</v>
       </c>
@@ -18165,11 +18166,11 @@
       <c r="N247" t="s">
         <v>1535</v>
       </c>
-      <c r="O247" t="s">
+      <c r="T247" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="248" spans="1:15">
+    <row r="248" spans="1:20">
       <c r="A248" t="s">
         <v>51</v>
       </c>
@@ -18212,11 +18213,11 @@
       <c r="N248" t="s">
         <v>1535</v>
       </c>
-      <c r="O248" t="s">
+      <c r="T248" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="249" spans="1:15">
+    <row r="249" spans="1:20">
       <c r="A249" t="s">
         <v>51</v>
       </c>
@@ -18259,11 +18260,11 @@
       <c r="N249" t="s">
         <v>1201</v>
       </c>
-      <c r="O249" t="s">
+      <c r="T249" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="250" spans="1:15">
+    <row r="250" spans="1:20">
       <c r="A250" t="s">
         <v>51</v>
       </c>
@@ -18306,11 +18307,11 @@
       <c r="N250" t="s">
         <v>1463</v>
       </c>
-      <c r="O250" t="s">
+      <c r="T250" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="251" spans="1:15">
+    <row r="251" spans="1:20">
       <c r="A251" t="s">
         <v>51</v>
       </c>
@@ -18353,11 +18354,11 @@
       <c r="N251" t="s">
         <v>1547</v>
       </c>
-      <c r="O251" t="s">
+      <c r="T251" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="252" spans="1:15">
+    <row r="252" spans="1:20">
       <c r="A252" t="s">
         <v>51</v>
       </c>
@@ -18400,11 +18401,11 @@
       <c r="N252" t="s">
         <v>1547</v>
       </c>
-      <c r="O252" t="s">
+      <c r="T252" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="253" spans="1:15">
+    <row r="253" spans="1:20">
       <c r="A253" t="s">
         <v>51</v>
       </c>
@@ -18447,11 +18448,11 @@
       <c r="N253" t="s">
         <v>1547</v>
       </c>
-      <c r="O253" t="s">
+      <c r="T253" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="254" spans="1:15">
+    <row r="254" spans="1:20">
       <c r="A254" t="s">
         <v>51</v>
       </c>
@@ -18494,11 +18495,11 @@
       <c r="N254" t="s">
         <v>1547</v>
       </c>
-      <c r="O254" t="s">
+      <c r="T254" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="255" spans="1:15">
+    <row r="255" spans="1:20">
       <c r="A255" t="s">
         <v>51</v>
       </c>
@@ -18541,11 +18542,11 @@
       <c r="N255" t="s">
         <v>1535</v>
       </c>
-      <c r="O255" t="s">
+      <c r="T255" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="256" spans="1:15">
+    <row r="256" spans="1:20">
       <c r="A256" t="s">
         <v>51</v>
       </c>
@@ -18588,11 +18589,11 @@
       <c r="N256" t="s">
         <v>1507</v>
       </c>
-      <c r="O256" t="e">
+      <c r="T256" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="257" spans="1:15">
+    <row r="257" spans="1:20">
       <c r="A257" t="s">
         <v>51</v>
       </c>
@@ -18635,11 +18636,11 @@
       <c r="N257" t="s">
         <v>1201</v>
       </c>
-      <c r="O257" t="s">
+      <c r="T257" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="258" spans="1:15">
+    <row r="258" spans="1:20">
       <c r="A258" t="s">
         <v>51</v>
       </c>
@@ -18682,11 +18683,11 @@
       <c r="N258" t="s">
         <v>1577</v>
       </c>
-      <c r="O258" t="s">
+      <c r="T258" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="259" spans="1:15">
+    <row r="259" spans="1:20">
       <c r="A259" t="s">
         <v>51</v>
       </c>
@@ -18729,11 +18730,11 @@
       <c r="N259" t="s">
         <v>1577</v>
       </c>
-      <c r="O259" t="s">
+      <c r="T259" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="260" spans="1:15">
+    <row r="260" spans="1:20">
       <c r="A260" t="s">
         <v>51</v>
       </c>
@@ -18776,11 +18777,11 @@
       <c r="N260" t="s">
         <v>1577</v>
       </c>
-      <c r="O260" t="s">
+      <c r="T260" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="261" spans="1:15">
+    <row r="261" spans="1:20">
       <c r="A261" t="s">
         <v>51</v>
       </c>
@@ -18823,11 +18824,11 @@
       <c r="N261" t="s">
         <v>1620</v>
       </c>
-      <c r="O261" t="s">
+      <c r="T261" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="262" spans="1:15">
+    <row r="262" spans="1:20">
       <c r="A262" t="s">
         <v>51</v>
       </c>
@@ -18870,11 +18871,11 @@
       <c r="N262" t="s">
         <v>1623</v>
       </c>
-      <c r="O262" t="s">
+      <c r="T262" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="263" spans="1:15">
+    <row r="263" spans="1:20">
       <c r="A263" t="s">
         <v>51</v>
       </c>
@@ -18917,11 +18918,11 @@
       <c r="N263" t="s">
         <v>1623</v>
       </c>
-      <c r="O263" t="e">
+      <c r="T263" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="264" spans="1:15">
+    <row r="264" spans="1:20">
       <c r="A264" t="s">
         <v>51</v>
       </c>
@@ -18964,11 +18965,11 @@
       <c r="N264" t="s">
         <v>1623</v>
       </c>
-      <c r="O264" t="s">
+      <c r="T264" t="s">
         <v>1894</v>
       </c>
     </row>
-    <row r="265" spans="1:15">
+    <row r="265" spans="1:20">
       <c r="A265" t="s">
         <v>51</v>
       </c>
@@ -19011,11 +19012,11 @@
       <c r="N265" t="s">
         <v>1623</v>
       </c>
-      <c r="O265" t="e">
+      <c r="T265" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="266" spans="1:15">
+    <row r="266" spans="1:20">
       <c r="A266" t="s">
         <v>51</v>
       </c>
@@ -19058,11 +19059,11 @@
       <c r="N266" t="s">
         <v>1623</v>
       </c>
-      <c r="O266" t="e">
+      <c r="T266" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="267" spans="1:15">
+    <row r="267" spans="1:20">
       <c r="A267" t="s">
         <v>51</v>
       </c>
@@ -19105,11 +19106,11 @@
       <c r="N267" t="s">
         <v>1623</v>
       </c>
-      <c r="O267" t="s">
+      <c r="T267" t="s">
         <v>1890</v>
       </c>
     </row>
-    <row r="268" spans="1:15">
+    <row r="268" spans="1:20">
       <c r="A268" t="s">
         <v>51</v>
       </c>
@@ -19152,11 +19153,11 @@
       <c r="N268" t="s">
         <v>1547</v>
       </c>
-      <c r="O268" t="s">
+      <c r="T268" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="269" spans="1:15">
+    <row r="269" spans="1:20">
       <c r="A269" t="s">
         <v>51</v>
       </c>
@@ -19199,11 +19200,11 @@
       <c r="N269" t="s">
         <v>1620</v>
       </c>
-      <c r="O269" t="e">
+      <c r="T269" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="270" spans="1:15">
+    <row r="270" spans="1:20">
       <c r="A270" t="s">
         <v>51</v>
       </c>
@@ -19246,11 +19247,11 @@
       <c r="N270" t="s">
         <v>1620</v>
       </c>
-      <c r="O270" t="s">
+      <c r="T270" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="271" spans="1:15">
+    <row r="271" spans="1:20">
       <c r="A271" t="s">
         <v>1671</v>
       </c>
@@ -19293,11 +19294,11 @@
       <c r="N271" t="s">
         <v>41</v>
       </c>
-      <c r="O271" t="s">
+      <c r="T271" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="272" spans="1:15">
+    <row r="272" spans="1:20">
       <c r="A272" t="s">
         <v>51</v>
       </c>
@@ -19340,11 +19341,11 @@
       <c r="N272" t="s">
         <v>1679</v>
       </c>
-      <c r="O272" t="e">
+      <c r="T272" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="273" spans="1:15">
+    <row r="273" spans="1:20">
       <c r="A273" t="s">
         <v>51</v>
       </c>
@@ -19387,11 +19388,11 @@
       <c r="N273" t="s">
         <v>1679</v>
       </c>
-      <c r="O273" t="e">
+      <c r="T273" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="274" spans="1:15">
+    <row r="274" spans="1:20">
       <c r="A274" t="s">
         <v>51</v>
       </c>
@@ -19434,11 +19435,11 @@
       <c r="N274" t="s">
         <v>1679</v>
       </c>
-      <c r="O274" t="e">
+      <c r="T274" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="275" spans="1:15">
+    <row r="275" spans="1:20">
       <c r="A275" t="s">
         <v>51</v>
       </c>
@@ -19481,11 +19482,11 @@
       <c r="N275" t="s">
         <v>1679</v>
       </c>
-      <c r="O275" t="e">
+      <c r="T275" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="276" spans="1:15">
+    <row r="276" spans="1:20">
       <c r="A276" t="s">
         <v>51</v>
       </c>
@@ -19528,11 +19529,11 @@
       <c r="N276" t="s">
         <v>1679</v>
       </c>
-      <c r="O276" t="s">
+      <c r="T276" t="s">
         <v>1891</v>
       </c>
     </row>
-    <row r="277" spans="1:15">
+    <row r="277" spans="1:20">
       <c r="A277" t="s">
         <v>51</v>
       </c>
@@ -19575,11 +19576,11 @@
       <c r="N277" t="s">
         <v>1715</v>
       </c>
-      <c r="O277" t="e">
+      <c r="T277" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="278" spans="1:15">
+    <row r="278" spans="1:20">
       <c r="A278" t="s">
         <v>51</v>
       </c>
@@ -19622,11 +19623,11 @@
       <c r="N278" t="s">
         <v>1715</v>
       </c>
-      <c r="O278" t="e">
+      <c r="T278" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="279" spans="1:15">
+    <row r="279" spans="1:20">
       <c r="A279" t="s">
         <v>51</v>
       </c>
@@ -19669,11 +19670,11 @@
       <c r="N279" t="s">
         <v>1715</v>
       </c>
-      <c r="O279" t="e">
+      <c r="T279" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="280" spans="1:15">
+    <row r="280" spans="1:20">
       <c r="A280" t="s">
         <v>51</v>
       </c>
@@ -19716,11 +19717,11 @@
       <c r="N280" t="s">
         <v>1715</v>
       </c>
-      <c r="O280" t="e">
+      <c r="T280" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="281" spans="1:15">
+    <row r="281" spans="1:20">
       <c r="A281" t="s">
         <v>51</v>
       </c>
@@ -19763,11 +19764,11 @@
       <c r="N281" t="s">
         <v>1715</v>
       </c>
-      <c r="O281" t="e">
+      <c r="T281" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="282" spans="1:15">
+    <row r="282" spans="1:20">
       <c r="A282" t="s">
         <v>51</v>
       </c>
@@ -19810,11 +19811,11 @@
       <c r="N282" t="s">
         <v>1715</v>
       </c>
-      <c r="O282" t="e">
+      <c r="T282" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="283" spans="1:15">
+    <row r="283" spans="1:20">
       <c r="A283" t="s">
         <v>51</v>
       </c>
@@ -19857,11 +19858,11 @@
       <c r="N283" t="s">
         <v>1715</v>
       </c>
-      <c r="O283" t="e">
+      <c r="T283" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="284" spans="1:15">
+    <row r="284" spans="1:20">
       <c r="A284" t="s">
         <v>51</v>
       </c>
@@ -19904,11 +19905,11 @@
       <c r="N284" t="s">
         <v>1715</v>
       </c>
-      <c r="O284" t="e">
+      <c r="T284" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="285" spans="1:15">
+    <row r="285" spans="1:20">
       <c r="A285" t="s">
         <v>51</v>
       </c>
@@ -19951,11 +19952,11 @@
       <c r="N285" t="s">
         <v>1715</v>
       </c>
-      <c r="O285" t="e">
+      <c r="T285" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="286" spans="1:15">
+    <row r="286" spans="1:20">
       <c r="A286" t="s">
         <v>51</v>
       </c>
@@ -19998,11 +19999,11 @@
       <c r="N286" t="s">
         <v>1753</v>
       </c>
-      <c r="O286" t="e">
+      <c r="T286" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="287" spans="1:15">
+    <row r="287" spans="1:20">
       <c r="A287" t="s">
         <v>51</v>
       </c>
@@ -20045,11 +20046,11 @@
       <c r="N287" t="s">
         <v>1753</v>
       </c>
-      <c r="O287" t="e">
+      <c r="T287" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="288" spans="1:15">
+    <row r="288" spans="1:20">
       <c r="A288" t="s">
         <v>51</v>
       </c>
@@ -20092,11 +20093,11 @@
       <c r="N288" t="s">
         <v>1753</v>
       </c>
-      <c r="O288" t="e">
+      <c r="T288" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="289" spans="1:15">
+    <row r="289" spans="1:20">
       <c r="A289" t="s">
         <v>51</v>
       </c>
@@ -20139,11 +20140,11 @@
       <c r="N289" t="s">
         <v>1753</v>
       </c>
-      <c r="O289" t="e">
+      <c r="T289" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="290" spans="1:15">
+    <row r="290" spans="1:20">
       <c r="A290" t="s">
         <v>51</v>
       </c>
@@ -20186,11 +20187,11 @@
       <c r="N290" t="s">
         <v>1753</v>
       </c>
-      <c r="O290" t="e">
+      <c r="T290" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="291" spans="1:15">
+    <row r="291" spans="1:20">
       <c r="A291" t="s">
         <v>51</v>
       </c>
@@ -20233,11 +20234,11 @@
       <c r="N291" t="s">
         <v>1753</v>
       </c>
-      <c r="O291" t="e">
+      <c r="T291" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="292" spans="1:15">
+    <row r="292" spans="1:20">
       <c r="A292" t="s">
         <v>51</v>
       </c>
@@ -20280,11 +20281,11 @@
       <c r="N292" t="s">
         <v>1753</v>
       </c>
-      <c r="O292" t="e">
+      <c r="T292" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="293" spans="1:15">
+    <row r="293" spans="1:20">
       <c r="A293" t="s">
         <v>51</v>
       </c>
@@ -20327,11 +20328,11 @@
       <c r="N293" t="s">
         <v>1753</v>
       </c>
-      <c r="O293" t="e">
+      <c r="T293" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="294" spans="1:15">
+    <row r="294" spans="1:20">
       <c r="A294" t="s">
         <v>51</v>
       </c>
@@ -20374,11 +20375,11 @@
       <c r="N294" t="s">
         <v>1753</v>
       </c>
-      <c r="O294" t="e">
+      <c r="T294" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="295" spans="1:15">
+    <row r="295" spans="1:20">
       <c r="A295" t="s">
         <v>51</v>
       </c>
@@ -20421,11 +20422,11 @@
       <c r="N295" t="s">
         <v>1753</v>
       </c>
-      <c r="O295" t="e">
+      <c r="T295" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="296" spans="1:15">
+    <row r="296" spans="1:20">
       <c r="A296" t="s">
         <v>51</v>
       </c>
@@ -20468,11 +20469,11 @@
       <c r="N296" t="s">
         <v>1753</v>
       </c>
-      <c r="O296" t="e">
+      <c r="T296" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="297" spans="1:15">
+    <row r="297" spans="1:20">
       <c r="A297" t="s">
         <v>51</v>
       </c>
@@ -20515,11 +20516,11 @@
       <c r="N297" t="s">
         <v>1753</v>
       </c>
-      <c r="O297" t="e">
+      <c r="T297" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="298" spans="1:15">
+    <row r="298" spans="1:20">
       <c r="A298" t="s">
         <v>1671</v>
       </c>
@@ -20562,11 +20563,11 @@
       <c r="N298" t="s">
         <v>41</v>
       </c>
-      <c r="O298" t="e">
+      <c r="T298" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="299" spans="1:15">
+    <row r="299" spans="1:20">
       <c r="A299" t="s">
         <v>1671</v>
       </c>
@@ -20609,11 +20610,11 @@
       <c r="N299" t="s">
         <v>41</v>
       </c>
-      <c r="O299" t="e">
+      <c r="T299" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="300" spans="1:15">
+    <row r="300" spans="1:20">
       <c r="A300" t="s">
         <v>1671</v>
       </c>
@@ -20656,11 +20657,11 @@
       <c r="N300" t="s">
         <v>41</v>
       </c>
-      <c r="O300" t="e">
+      <c r="T300" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="301" spans="1:15">
+    <row r="301" spans="1:20">
       <c r="A301" t="s">
         <v>1671</v>
       </c>
@@ -20703,11 +20704,11 @@
       <c r="N301" t="s">
         <v>41</v>
       </c>
-      <c r="O301" t="e">
+      <c r="T301" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="302" spans="1:15">
+    <row r="302" spans="1:20">
       <c r="A302" t="s">
         <v>1671</v>
       </c>
@@ -20750,11 +20751,11 @@
       <c r="N302" t="s">
         <v>41</v>
       </c>
-      <c r="O302" t="e">
+      <c r="T302" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="303" spans="1:15">
+    <row r="303" spans="1:20">
       <c r="A303" t="s">
         <v>1671</v>
       </c>
@@ -20797,11 +20798,11 @@
       <c r="N303" t="s">
         <v>41</v>
       </c>
-      <c r="O303" t="s">
+      <c r="T303" t="s">
         <v>1893</v>
       </c>
     </row>
-    <row r="304" spans="1:15">
+    <row r="304" spans="1:20">
       <c r="A304" t="s">
         <v>51</v>
       </c>
@@ -20844,11 +20845,11 @@
       <c r="N304" t="s">
         <v>1623</v>
       </c>
-      <c r="O304" t="e">
+      <c r="T304" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="305" spans="1:15">
+    <row r="305" spans="1:20">
       <c r="A305" t="s">
         <v>51</v>
       </c>
@@ -20891,11 +20892,11 @@
       <c r="N305" t="s">
         <v>1679</v>
       </c>
-      <c r="O305" t="e">
+      <c r="T305" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="306" spans="1:15">
+    <row r="306" spans="1:20">
       <c r="A306" t="s">
         <v>51</v>
       </c>
@@ -20938,11 +20939,11 @@
       <c r="N306" t="s">
         <v>1715</v>
       </c>
-      <c r="O306" t="e">
+      <c r="T306" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="307" spans="1:15">
+    <row r="307" spans="1:20">
       <c r="A307" t="s">
         <v>51</v>
       </c>
@@ -20985,11 +20986,11 @@
       <c r="N307" t="s">
         <v>1715</v>
       </c>
-      <c r="O307" t="e">
+      <c r="T307" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="308" spans="1:15">
+    <row r="308" spans="1:20">
       <c r="A308" t="s">
         <v>1671</v>
       </c>
@@ -21032,11 +21033,11 @@
       <c r="N308" t="s">
         <v>41</v>
       </c>
-      <c r="O308" t="e">
+      <c r="T308" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="309" spans="1:15">
+    <row r="309" spans="1:20">
       <c r="A309" t="s">
         <v>51</v>
       </c>
@@ -21079,11 +21080,11 @@
       <c r="N309" t="s">
         <v>1832</v>
       </c>
-      <c r="O309" t="e">
+      <c r="T309" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="310" spans="1:15">
+    <row r="310" spans="1:20">
       <c r="A310" t="s">
         <v>51</v>
       </c>
@@ -21126,11 +21127,11 @@
       <c r="N310" t="s">
         <v>1832</v>
       </c>
-      <c r="O310" t="s">
+      <c r="T310" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="311" spans="1:15">
+    <row r="311" spans="1:20">
       <c r="A311" t="s">
         <v>51</v>
       </c>
@@ -21173,11 +21174,11 @@
       <c r="N311" t="s">
         <v>1832</v>
       </c>
-      <c r="O311" t="s">
+      <c r="T311" t="s">
         <v>1892</v>
       </c>
     </row>
-    <row r="312" spans="1:15">
+    <row r="312" spans="1:20">
       <c r="A312" t="s">
         <v>51</v>
       </c>
@@ -21220,11 +21221,11 @@
       <c r="N312" t="s">
         <v>1832</v>
       </c>
-      <c r="O312" t="e">
+      <c r="T312" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="313" spans="1:15">
+    <row r="313" spans="1:20">
       <c r="A313" t="s">
         <v>51</v>
       </c>
@@ -21267,11 +21268,11 @@
       <c r="N313" t="s">
         <v>1832</v>
       </c>
-      <c r="O313" t="e">
+      <c r="T313" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="314" spans="1:15">
+    <row r="314" spans="1:20">
       <c r="A314" t="s">
         <v>51</v>
       </c>
@@ -21314,11 +21315,11 @@
       <c r="N314" t="s">
         <v>1832</v>
       </c>
-      <c r="O314" t="e">
+      <c r="T314" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="315" spans="1:15">
+    <row r="315" spans="1:20">
       <c r="A315" t="s">
         <v>51</v>
       </c>
@@ -21361,11 +21362,11 @@
       <c r="N315" t="s">
         <v>1832</v>
       </c>
-      <c r="O315" t="e">
+      <c r="T315" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="316" spans="1:15">
+    <row r="316" spans="1:20">
       <c r="A316" t="s">
         <v>51</v>
       </c>
@@ -21408,11 +21409,11 @@
       <c r="N316" t="s">
         <v>1832</v>
       </c>
-      <c r="O316" t="e">
+      <c r="T316" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="317" spans="1:15">
+    <row r="317" spans="1:20">
       <c r="A317" t="s">
         <v>51</v>
       </c>
@@ -21455,11 +21456,11 @@
       <c r="N317" t="s">
         <v>1832</v>
       </c>
-      <c r="O317" t="e">
+      <c r="T317" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="318" spans="1:15">
+    <row r="318" spans="1:20">
       <c r="A318" t="s">
         <v>51</v>
       </c>
@@ -21502,11 +21503,11 @@
       <c r="N318" t="s">
         <v>1832</v>
       </c>
-      <c r="O318" t="e">
+      <c r="T318" t="e">
         <v>#N/A</v>
       </c>
     </row>
-    <row r="319" spans="1:15">
+    <row r="319" spans="1:20">
       <c r="A319" t="s">
         <v>1671</v>
       </c>
@@ -21549,7 +21550,7 @@
       <c r="N319" t="s">
         <v>41</v>
       </c>
-      <c r="O319" t="s">
+      <c r="T319" t="s">
         <v>1892</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9867" uniqueCount="1959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10023" uniqueCount="2007">
   <si>
     <t>Unique Reference Number</t>
   </si>
@@ -5880,9 +5880,6 @@
     <t>3174.00</t>
   </si>
   <si>
-    <t>NPCI Acknowledged</t>
-  </si>
-  <si>
     <t>20-Feb-2027</t>
   </si>
   <si>
@@ -5896,6 +5893,153 @@
   </si>
   <si>
     <t>4628.00</t>
+  </si>
+  <si>
+    <t>Lakhma Ram Kashyap</t>
+  </si>
+  <si>
+    <t>Nilu Kashyap</t>
+  </si>
+  <si>
+    <t>Budhsan Thakur</t>
+  </si>
+  <si>
+    <t>Tulsi Ram Kavasi</t>
+  </si>
+  <si>
+    <t>Shraddha Kurup Pillay</t>
+  </si>
+  <si>
+    <t>Pankaj Sethiya</t>
+  </si>
+  <si>
+    <t>Kamal Singh Bhadr</t>
+  </si>
+  <si>
+    <t>Shantilal Soni</t>
+  </si>
+  <si>
+    <t>Manglaram Nag</t>
+  </si>
+  <si>
+    <t>Dashmoo</t>
+  </si>
+  <si>
+    <t>S Shivani Rao</t>
+  </si>
+  <si>
+    <t>LAXMINATH BAGHEL</t>
+  </si>
+  <si>
+    <t>Maniram Kashyap</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>7701120575</t>
+  </si>
+  <si>
+    <t>50406031651</t>
+  </si>
+  <si>
+    <t>7694128237</t>
+  </si>
+  <si>
+    <t>IDIB000I501</t>
+  </si>
+  <si>
+    <t>36077613105</t>
+  </si>
+  <si>
+    <t>20042659125</t>
+  </si>
+  <si>
+    <t>21930100007364</t>
+  </si>
+  <si>
+    <t>87520100015672</t>
+  </si>
+  <si>
+    <t>921010023860912</t>
+  </si>
+  <si>
+    <t>UTIB0000710</t>
+  </si>
+  <si>
+    <t>Kanker</t>
+  </si>
+  <si>
+    <t>38370100010382</t>
+  </si>
+  <si>
+    <t>BARB0KANKER</t>
+  </si>
+  <si>
+    <t>2225000109192605</t>
+  </si>
+  <si>
+    <t>0707104000202794</t>
+  </si>
+  <si>
+    <t>920010048386890</t>
+  </si>
+  <si>
+    <t>UTIB0004477</t>
+  </si>
+  <si>
+    <t>IBKL0009998</t>
+  </si>
+  <si>
+    <t>35632395241</t>
+  </si>
+  <si>
+    <t>04-Aug-2026</t>
+  </si>
+  <si>
+    <t>10-Oct-2024</t>
+  </si>
+  <si>
+    <t>10-Oct-2026</t>
+  </si>
+  <si>
+    <t>10-Sep-2025</t>
+  </si>
+  <si>
+    <t>10-Sep-2026</t>
+  </si>
+  <si>
+    <t>20-Aug-2025</t>
+  </si>
+  <si>
+    <t>20-Jun-2026</t>
+  </si>
+  <si>
+    <t>3075.00</t>
+  </si>
+  <si>
+    <t>4062.00</t>
+  </si>
+  <si>
+    <t>4835.00</t>
+  </si>
+  <si>
+    <t>6708.00</t>
+  </si>
+  <si>
+    <t>3934.00</t>
+  </si>
+  <si>
+    <t>3791.00</t>
+  </si>
+  <si>
+    <t>8145.00</t>
+  </si>
+  <si>
+    <t>3947.00</t>
+  </si>
+  <si>
+    <t>TPSL Approved</t>
   </si>
 </sst>
 </file>
@@ -6723,7 +6867,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6731,7 +6875,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N350"/>
+  <dimension ref="A1:N363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -6764,7 +6908,7 @@
         <v>33</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1971</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -20825,116 +20969,116 @@
     </row>
     <row r="322" spans="1:14">
       <c r="A322" s="2">
-        <v>13824</v>
+        <v>13812</v>
       </c>
       <c r="B322" t="s">
         <v>51</v>
       </c>
       <c r="C322" t="s">
-        <v>744</v>
+        <v>1893</v>
       </c>
       <c r="D322" t="s">
-        <v>168</v>
+        <v>240</v>
       </c>
       <c r="E322" t="s">
         <v>95</v>
       </c>
       <c r="F322" t="s">
-        <v>1892</v>
+        <v>1894</v>
       </c>
       <c r="G322" t="s">
         <v>56</v>
       </c>
       <c r="H322" t="s">
-        <v>1297</v>
+        <v>105</v>
       </c>
       <c r="I322">
         <v>7489990811</v>
       </c>
       <c r="J322" t="s">
-        <v>1880</v>
+        <v>498</v>
       </c>
       <c r="K322" t="s">
-        <v>1714</v>
+        <v>1422</v>
       </c>
       <c r="L322" t="s">
-        <v>285</v>
+        <v>1849</v>
       </c>
       <c r="M322" t="s">
-        <v>46</v>
+        <v>234</v>
       </c>
       <c r="N322" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
     </row>
     <row r="323" spans="1:14">
       <c r="A323" s="2">
-        <v>13812</v>
+        <v>13659</v>
       </c>
       <c r="B323" t="s">
-        <v>51</v>
+        <v>1561</v>
       </c>
       <c r="C323" t="s">
-        <v>1893</v>
+        <v>1268</v>
       </c>
       <c r="D323" t="s">
         <v>240</v>
       </c>
       <c r="E323" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="F323" t="s">
-        <v>1894</v>
+        <v>1269</v>
       </c>
       <c r="G323" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H323" t="s">
-        <v>105</v>
+        <v>1895</v>
       </c>
       <c r="I323">
         <v>9770710319</v>
       </c>
       <c r="J323" t="s">
-        <v>498</v>
+        <v>1880</v>
       </c>
       <c r="K323" t="s">
-        <v>1422</v>
+        <v>1276</v>
       </c>
       <c r="L323" t="s">
-        <v>1849</v>
+        <v>867</v>
       </c>
       <c r="M323" t="s">
-        <v>234</v>
+        <v>46</v>
       </c>
       <c r="N323" t="s">
-        <v>235</v>
+        <v>41</v>
       </c>
     </row>
     <row r="324" spans="1:14">
       <c r="A324" s="2">
-        <v>13659</v>
+        <v>13889</v>
       </c>
       <c r="B324" t="s">
-        <v>1561</v>
+        <v>51</v>
       </c>
       <c r="C324" t="s">
-        <v>1268</v>
+        <v>1896</v>
       </c>
       <c r="D324" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="E324" t="s">
-        <v>41</v>
+        <v>339</v>
       </c>
       <c r="F324" t="s">
-        <v>1269</v>
+        <v>1897</v>
       </c>
       <c r="G324" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H324" t="s">
-        <v>1895</v>
+        <v>185</v>
       </c>
       <c r="I324">
         <v>9302993072</v>
@@ -20943,10 +21087,10 @@
         <v>1880</v>
       </c>
       <c r="K324" t="s">
-        <v>1276</v>
+        <v>1913</v>
       </c>
       <c r="L324" t="s">
-        <v>867</v>
+        <v>1847</v>
       </c>
       <c r="M324" t="s">
         <v>46</v>
@@ -20957,40 +21101,40 @@
     </row>
     <row r="325" spans="1:14">
       <c r="A325" s="2">
-        <v>13889</v>
+        <v>13594</v>
       </c>
       <c r="B325" t="s">
         <v>51</v>
       </c>
       <c r="C325" t="s">
-        <v>1896</v>
+        <v>1497</v>
       </c>
       <c r="D325" t="s">
-        <v>145</v>
+        <v>504</v>
       </c>
       <c r="E325" t="s">
-        <v>339</v>
+        <v>775</v>
       </c>
       <c r="F325" t="s">
-        <v>1897</v>
+        <v>1498</v>
       </c>
       <c r="G325" t="s">
         <v>56</v>
       </c>
       <c r="H325" t="s">
-        <v>185</v>
+        <v>819</v>
       </c>
       <c r="I325">
         <v>8223029172</v>
       </c>
       <c r="J325" t="s">
-        <v>1880</v>
+        <v>1914</v>
       </c>
       <c r="K325" t="s">
-        <v>1913</v>
+        <v>1071</v>
       </c>
       <c r="L325" t="s">
-        <v>1847</v>
+        <v>347</v>
       </c>
       <c r="M325" t="s">
         <v>46</v>
@@ -21001,28 +21145,28 @@
     </row>
     <row r="326" spans="1:14">
       <c r="A326" s="2">
-        <v>13594</v>
+        <v>13884</v>
       </c>
       <c r="B326" t="s">
         <v>51</v>
       </c>
       <c r="C326" t="s">
-        <v>1497</v>
+        <v>1898</v>
       </c>
       <c r="D326" t="s">
-        <v>504</v>
+        <v>240</v>
       </c>
       <c r="E326" t="s">
-        <v>775</v>
+        <v>1899</v>
       </c>
       <c r="F326" t="s">
-        <v>1498</v>
+        <v>1900</v>
       </c>
       <c r="G326" t="s">
         <v>56</v>
       </c>
       <c r="H326" t="s">
-        <v>819</v>
+        <v>1901</v>
       </c>
       <c r="I326">
         <v>9329892851</v>
@@ -21031,42 +21175,42 @@
         <v>1914</v>
       </c>
       <c r="K326" t="s">
-        <v>1071</v>
+        <v>1915</v>
       </c>
       <c r="L326" t="s">
-        <v>347</v>
+        <v>1771</v>
       </c>
       <c r="M326" t="s">
-        <v>46</v>
+        <v>234</v>
       </c>
       <c r="N326" t="s">
-        <v>41</v>
+        <v>352</v>
       </c>
     </row>
     <row r="327" spans="1:14">
       <c r="A327" s="2">
-        <v>13884</v>
+        <v>13885</v>
       </c>
       <c r="B327" t="s">
         <v>51</v>
       </c>
       <c r="C327" t="s">
-        <v>1898</v>
+        <v>1902</v>
       </c>
       <c r="D327" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="E327" t="s">
-        <v>1899</v>
+        <v>320</v>
       </c>
       <c r="F327" t="s">
-        <v>1900</v>
+        <v>1903</v>
       </c>
       <c r="G327" t="s">
         <v>56</v>
       </c>
       <c r="H327" t="s">
-        <v>1901</v>
+        <v>322</v>
       </c>
       <c r="I327">
         <v>7987187140</v>
@@ -21084,45 +21228,45 @@
         <v>234</v>
       </c>
       <c r="N327" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="328" spans="1:14">
       <c r="A328" s="2">
-        <v>13885</v>
+        <v>13888</v>
       </c>
       <c r="B328" t="s">
         <v>51</v>
       </c>
       <c r="C328" t="s">
-        <v>1902</v>
+        <v>1906</v>
       </c>
       <c r="D328" t="s">
         <v>145</v>
       </c>
       <c r="E328" t="s">
-        <v>320</v>
+        <v>1169</v>
       </c>
       <c r="F328" t="s">
-        <v>1903</v>
+        <v>1907</v>
       </c>
       <c r="G328" t="s">
         <v>56</v>
       </c>
       <c r="H328" t="s">
-        <v>322</v>
+        <v>1171</v>
       </c>
       <c r="I328">
         <v>6264596384</v>
       </c>
       <c r="J328" t="s">
-        <v>1914</v>
+        <v>1880</v>
       </c>
       <c r="K328" t="s">
-        <v>1915</v>
+        <v>1881</v>
       </c>
       <c r="L328" t="s">
-        <v>1771</v>
+        <v>1919</v>
       </c>
       <c r="M328" t="s">
         <v>234</v>
@@ -21133,84 +21277,84 @@
     </row>
     <row r="329" spans="1:14">
       <c r="A329" s="2">
-        <v>13888</v>
+        <v>13898</v>
       </c>
       <c r="B329" t="s">
-        <v>51</v>
+        <v>1561</v>
       </c>
       <c r="C329" t="s">
-        <v>1906</v>
+        <v>1908</v>
       </c>
       <c r="D329" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="E329" t="s">
-        <v>1169</v>
+        <v>41</v>
       </c>
       <c r="F329" t="s">
-        <v>1907</v>
+        <v>1909</v>
       </c>
       <c r="G329" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H329" t="s">
-        <v>1171</v>
+        <v>648</v>
       </c>
       <c r="I329">
         <v>9399946093</v>
       </c>
       <c r="J329" t="s">
-        <v>1880</v>
+        <v>1914</v>
       </c>
       <c r="K329" t="s">
-        <v>1881</v>
+        <v>65</v>
       </c>
       <c r="L329" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="M329" t="s">
-        <v>234</v>
+        <v>46</v>
       </c>
       <c r="N329" t="s">
-        <v>349</v>
+        <v>41</v>
       </c>
     </row>
     <row r="330" spans="1:14">
       <c r="A330" s="2">
-        <v>13898</v>
+        <v>13900</v>
       </c>
       <c r="B330" t="s">
         <v>1561</v>
       </c>
       <c r="C330" t="s">
-        <v>1908</v>
+        <v>1910</v>
       </c>
       <c r="D330" t="s">
-        <v>99</v>
+        <v>145</v>
       </c>
       <c r="E330" t="s">
         <v>41</v>
       </c>
       <c r="F330" t="s">
-        <v>1909</v>
+        <v>1911</v>
       </c>
       <c r="G330" t="s">
         <v>41</v>
       </c>
       <c r="H330" t="s">
-        <v>648</v>
+        <v>511</v>
       </c>
       <c r="I330">
         <v>7389718456</v>
       </c>
       <c r="J330" t="s">
-        <v>1914</v>
+        <v>1916</v>
       </c>
       <c r="K330" t="s">
-        <v>65</v>
+        <v>1917</v>
       </c>
       <c r="L330" t="s">
-        <v>1920</v>
+        <v>1776</v>
       </c>
       <c r="M330" t="s">
         <v>46</v>
@@ -21221,28 +21365,28 @@
     </row>
     <row r="331" spans="1:14">
       <c r="A331" s="2">
-        <v>13900</v>
+        <v>13624</v>
       </c>
       <c r="B331" t="s">
         <v>1561</v>
       </c>
       <c r="C331" t="s">
-        <v>1910</v>
+        <v>1165</v>
       </c>
       <c r="D331" t="s">
-        <v>145</v>
+        <v>99</v>
       </c>
       <c r="E331" t="s">
         <v>41</v>
       </c>
       <c r="F331" t="s">
-        <v>1911</v>
+        <v>1166</v>
       </c>
       <c r="G331" t="s">
         <v>41</v>
       </c>
       <c r="H331" t="s">
-        <v>511</v>
+        <v>102</v>
       </c>
       <c r="I331">
         <v>7000729651</v>
@@ -21251,10 +21395,10 @@
         <v>1916</v>
       </c>
       <c r="K331" t="s">
-        <v>1917</v>
+        <v>1084</v>
       </c>
       <c r="L331" t="s">
-        <v>1776</v>
+        <v>543</v>
       </c>
       <c r="M331" t="s">
         <v>46</v>
@@ -21265,28 +21409,28 @@
     </row>
     <row r="332" spans="1:14">
       <c r="A332" s="2">
-        <v>13624</v>
+        <v>13612</v>
       </c>
       <c r="B332" t="s">
         <v>1561</v>
       </c>
       <c r="C332" t="s">
-        <v>1165</v>
+        <v>1118</v>
       </c>
       <c r="D332" t="s">
-        <v>99</v>
+        <v>654</v>
       </c>
       <c r="E332" t="s">
         <v>41</v>
       </c>
       <c r="F332" t="s">
-        <v>1166</v>
+        <v>1119</v>
       </c>
       <c r="G332" t="s">
         <v>41</v>
       </c>
       <c r="H332" t="s">
-        <v>102</v>
+        <v>1912</v>
       </c>
       <c r="I332">
         <v>9302256290</v>
@@ -21298,7 +21442,7 @@
         <v>1084</v>
       </c>
       <c r="L332" t="s">
-        <v>543</v>
+        <v>285</v>
       </c>
       <c r="M332" t="s">
         <v>46</v>
@@ -21309,28 +21453,28 @@
     </row>
     <row r="333" spans="1:14">
       <c r="A333" s="2">
-        <v>13612</v>
+        <v>13827</v>
       </c>
       <c r="B333" t="s">
         <v>1561</v>
       </c>
       <c r="C333" t="s">
-        <v>1118</v>
+        <v>1921</v>
       </c>
       <c r="D333" t="s">
-        <v>654</v>
+        <v>240</v>
       </c>
       <c r="E333" t="s">
         <v>41</v>
       </c>
       <c r="F333" t="s">
-        <v>1119</v>
+        <v>1922</v>
       </c>
       <c r="G333" t="s">
         <v>41</v>
       </c>
       <c r="H333" t="s">
-        <v>1912</v>
+        <v>1895</v>
       </c>
       <c r="I333">
         <v>8720076519</v>
@@ -21339,10 +21483,10 @@
         <v>1916</v>
       </c>
       <c r="K333" t="s">
-        <v>1084</v>
+        <v>1652</v>
       </c>
       <c r="L333" t="s">
-        <v>285</v>
+        <v>1776</v>
       </c>
       <c r="M333" t="s">
         <v>46</v>
@@ -21353,40 +21497,40 @@
     </row>
     <row r="334" spans="1:14">
       <c r="A334" s="2">
-        <v>13827</v>
+        <v>13905</v>
       </c>
       <c r="B334" t="s">
         <v>1561</v>
       </c>
       <c r="C334" t="s">
-        <v>1921</v>
+        <v>1923</v>
       </c>
       <c r="D334" t="s">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="E334" t="s">
         <v>41</v>
       </c>
       <c r="F334" t="s">
-        <v>1922</v>
+        <v>1924</v>
       </c>
       <c r="G334" t="s">
         <v>41</v>
       </c>
       <c r="H334" t="s">
-        <v>1895</v>
+        <v>1925</v>
       </c>
       <c r="I334">
         <v>8643042101</v>
       </c>
       <c r="J334" t="s">
-        <v>1916</v>
+        <v>154</v>
       </c>
       <c r="K334" t="s">
-        <v>1652</v>
+        <v>1013</v>
       </c>
       <c r="L334" t="s">
-        <v>1776</v>
+        <v>1950</v>
       </c>
       <c r="M334" t="s">
         <v>46</v>
@@ -21397,37 +21541,37 @@
     </row>
     <row r="335" spans="1:14">
       <c r="A335" s="2">
-        <v>13905</v>
+        <v>13861</v>
       </c>
       <c r="B335" t="s">
         <v>1561</v>
       </c>
       <c r="C335" t="s">
-        <v>1923</v>
+        <v>1926</v>
       </c>
       <c r="D335" t="s">
-        <v>290</v>
+        <v>41</v>
       </c>
       <c r="E335" t="s">
         <v>41</v>
       </c>
       <c r="F335" t="s">
-        <v>1924</v>
+        <v>1927</v>
       </c>
       <c r="G335" t="s">
         <v>41</v>
       </c>
       <c r="H335" t="s">
-        <v>1925</v>
+        <v>1928</v>
       </c>
       <c r="J335" t="s">
-        <v>154</v>
+        <v>1914</v>
       </c>
       <c r="K335" t="s">
-        <v>1013</v>
+        <v>1951</v>
       </c>
       <c r="L335" t="s">
-        <v>1950</v>
+        <v>1952</v>
       </c>
       <c r="M335" t="s">
         <v>46</v>
@@ -21438,40 +21582,40 @@
     </row>
     <row r="336" spans="1:14">
       <c r="A336" s="2">
-        <v>13861</v>
+        <v>13907</v>
       </c>
       <c r="B336" t="s">
-        <v>1561</v>
+        <v>51</v>
       </c>
       <c r="C336" t="s">
-        <v>1926</v>
+        <v>1929</v>
       </c>
       <c r="D336" t="s">
-        <v>41</v>
+        <v>459</v>
       </c>
       <c r="E336" t="s">
-        <v>41</v>
+        <v>95</v>
       </c>
       <c r="F336" t="s">
-        <v>1927</v>
+        <v>1930</v>
       </c>
       <c r="G336" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="H336" t="s">
-        <v>1928</v>
+        <v>461</v>
       </c>
       <c r="I336">
         <v>6268362052</v>
       </c>
       <c r="J336" t="s">
-        <v>1914</v>
+        <v>1880</v>
       </c>
       <c r="K336" t="s">
-        <v>1951</v>
+        <v>1881</v>
       </c>
       <c r="L336" t="s">
-        <v>1952</v>
+        <v>867</v>
       </c>
       <c r="M336" t="s">
         <v>46</v>
@@ -21482,84 +21626,84 @@
     </row>
     <row r="337" spans="1:14">
       <c r="A337" s="2">
-        <v>13907</v>
+        <v>13901</v>
       </c>
       <c r="B337" t="s">
         <v>51</v>
       </c>
       <c r="C337" t="s">
-        <v>1929</v>
+        <v>1931</v>
       </c>
       <c r="D337" t="s">
-        <v>459</v>
+        <v>240</v>
       </c>
       <c r="E337" t="s">
-        <v>95</v>
+        <v>357</v>
       </c>
       <c r="F337" t="s">
-        <v>1930</v>
+        <v>1932</v>
       </c>
       <c r="G337" t="s">
         <v>56</v>
       </c>
       <c r="H337" t="s">
-        <v>461</v>
+        <v>359</v>
       </c>
       <c r="J337" t="s">
-        <v>1880</v>
+        <v>1916</v>
       </c>
       <c r="K337" t="s">
-        <v>1881</v>
+        <v>1953</v>
       </c>
       <c r="L337" t="s">
-        <v>867</v>
+        <v>1954</v>
       </c>
       <c r="M337" t="s">
-        <v>1953</v>
+        <v>234</v>
       </c>
       <c r="N337" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
     </row>
     <row r="338" spans="1:14">
       <c r="A338" s="2">
-        <v>13901</v>
+        <v>13601</v>
       </c>
       <c r="B338" t="s">
         <v>51</v>
       </c>
       <c r="C338" t="s">
-        <v>1931</v>
+        <v>1088</v>
       </c>
       <c r="D338" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="E338" t="s">
-        <v>357</v>
+        <v>933</v>
       </c>
       <c r="F338" t="s">
-        <v>1932</v>
+        <v>1089</v>
       </c>
       <c r="G338" t="s">
         <v>56</v>
       </c>
       <c r="H338" t="s">
-        <v>359</v>
+        <v>190</v>
       </c>
       <c r="I338">
         <v>7587717040</v>
       </c>
       <c r="J338" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="K338" t="s">
-        <v>1954</v>
+        <v>1030</v>
       </c>
       <c r="L338" t="s">
-        <v>1955</v>
+        <v>799</v>
       </c>
       <c r="M338" t="s">
-        <v>1953</v>
+        <v>46</v>
       </c>
       <c r="N338" t="s">
         <v>41</v>
@@ -21567,43 +21711,43 @@
     </row>
     <row r="339" spans="1:14">
       <c r="A339" s="2">
-        <v>13601</v>
+        <v>13895</v>
       </c>
       <c r="B339" t="s">
         <v>51</v>
       </c>
       <c r="C339" t="s">
-        <v>1088</v>
+        <v>1933</v>
       </c>
       <c r="D339" t="s">
         <v>145</v>
       </c>
       <c r="E339" t="s">
-        <v>933</v>
+        <v>754</v>
       </c>
       <c r="F339" t="s">
-        <v>1089</v>
+        <v>1934</v>
       </c>
       <c r="G339" t="s">
         <v>56</v>
       </c>
       <c r="H339" t="s">
-        <v>190</v>
+        <v>756</v>
       </c>
       <c r="I339">
         <v>7693858321</v>
       </c>
       <c r="J339" t="s">
-        <v>1914</v>
+        <v>1880</v>
       </c>
       <c r="K339" t="s">
-        <v>1030</v>
+        <v>1955</v>
       </c>
       <c r="L339" t="s">
-        <v>799</v>
+        <v>1825</v>
       </c>
       <c r="M339" t="s">
-        <v>1953</v>
+        <v>46</v>
       </c>
       <c r="N339" t="s">
         <v>41</v>
@@ -21611,69 +21755,69 @@
     </row>
     <row r="340" spans="1:14">
       <c r="A340" s="2">
-        <v>13895</v>
+        <v>13899</v>
       </c>
       <c r="B340" t="s">
         <v>51</v>
       </c>
       <c r="C340" t="s">
-        <v>1933</v>
+        <v>1935</v>
       </c>
       <c r="D340" t="s">
         <v>145</v>
       </c>
       <c r="E340" t="s">
-        <v>754</v>
+        <v>86</v>
       </c>
       <c r="F340" t="s">
-        <v>1934</v>
+        <v>1936</v>
       </c>
       <c r="G340" t="s">
         <v>56</v>
       </c>
       <c r="H340" t="s">
-        <v>756</v>
+        <v>368</v>
       </c>
       <c r="J340" t="s">
-        <v>1880</v>
+        <v>1916</v>
       </c>
       <c r="K340" t="s">
-        <v>1956</v>
+        <v>1917</v>
       </c>
       <c r="L340" t="s">
-        <v>1825</v>
+        <v>1786</v>
       </c>
       <c r="M340" t="s">
-        <v>1953</v>
+        <v>234</v>
       </c>
       <c r="N340" t="s">
-        <v>41</v>
+        <v>349</v>
       </c>
     </row>
     <row r="341" spans="1:14">
       <c r="A341" s="2">
-        <v>13899</v>
+        <v>13626</v>
       </c>
       <c r="B341" t="s">
         <v>51</v>
       </c>
       <c r="C341" t="s">
-        <v>1935</v>
+        <v>1159</v>
       </c>
       <c r="D341" t="s">
         <v>145</v>
       </c>
       <c r="E341" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
       <c r="F341" t="s">
-        <v>1936</v>
+        <v>1160</v>
       </c>
       <c r="G341" t="s">
         <v>56</v>
       </c>
       <c r="H341" t="s">
-        <v>368</v>
+        <v>179</v>
       </c>
       <c r="I341">
         <v>7828440751</v>
@@ -21682,42 +21826,42 @@
         <v>1916</v>
       </c>
       <c r="K341" t="s">
-        <v>1917</v>
+        <v>1106</v>
       </c>
       <c r="L341" t="s">
-        <v>1786</v>
+        <v>1811</v>
       </c>
       <c r="M341" t="s">
-        <v>1953</v>
+        <v>234</v>
       </c>
       <c r="N341" t="s">
-        <v>41</v>
+        <v>349</v>
       </c>
     </row>
     <row r="342" spans="1:14">
       <c r="A342" s="2">
-        <v>13626</v>
+        <v>13848</v>
       </c>
       <c r="B342" t="s">
         <v>51</v>
       </c>
       <c r="C342" t="s">
-        <v>1159</v>
+        <v>1891</v>
       </c>
       <c r="D342" t="s">
-        <v>145</v>
+        <v>94</v>
       </c>
       <c r="E342" t="s">
-        <v>177</v>
+        <v>796</v>
       </c>
       <c r="F342" t="s">
-        <v>1160</v>
+        <v>1937</v>
       </c>
       <c r="G342" t="s">
         <v>56</v>
       </c>
       <c r="H342" t="s">
-        <v>179</v>
+        <v>1111</v>
       </c>
       <c r="I342">
         <v>7725886649</v>
@@ -21726,13 +21870,13 @@
         <v>1916</v>
       </c>
       <c r="K342" t="s">
-        <v>1106</v>
+        <v>1675</v>
       </c>
       <c r="L342" t="s">
-        <v>1811</v>
+        <v>1735</v>
       </c>
       <c r="M342" t="s">
-        <v>1953</v>
+        <v>46</v>
       </c>
       <c r="N342" t="s">
         <v>41</v>
@@ -21740,28 +21884,28 @@
     </row>
     <row r="343" spans="1:14">
       <c r="A343" s="2">
-        <v>13848</v>
+        <v>13699</v>
       </c>
       <c r="B343" t="s">
         <v>51</v>
       </c>
       <c r="C343" t="s">
-        <v>1891</v>
+        <v>1392</v>
       </c>
       <c r="D343" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="E343" t="s">
-        <v>796</v>
+        <v>933</v>
       </c>
       <c r="F343" t="s">
-        <v>1937</v>
+        <v>1393</v>
       </c>
       <c r="G343" t="s">
         <v>56</v>
       </c>
       <c r="H343" t="s">
-        <v>1111</v>
+        <v>190</v>
       </c>
       <c r="I343">
         <v>8815500641</v>
@@ -21770,13 +21914,13 @@
         <v>1916</v>
       </c>
       <c r="K343" t="s">
-        <v>1675</v>
+        <v>1347</v>
       </c>
       <c r="L343" t="s">
-        <v>1735</v>
+        <v>1262</v>
       </c>
       <c r="M343" t="s">
-        <v>1953</v>
+        <v>46</v>
       </c>
       <c r="N343" t="s">
         <v>41</v>
@@ -21784,110 +21928,110 @@
     </row>
     <row r="344" spans="1:14">
       <c r="A344" s="2">
-        <v>13699</v>
+        <v>13655</v>
       </c>
       <c r="B344" t="s">
         <v>51</v>
       </c>
       <c r="C344" t="s">
-        <v>1392</v>
+        <v>1938</v>
       </c>
       <c r="D344" t="s">
-        <v>145</v>
+        <v>210</v>
       </c>
       <c r="E344" t="s">
-        <v>933</v>
+        <v>1703</v>
       </c>
       <c r="F344" t="s">
-        <v>1393</v>
+        <v>1939</v>
       </c>
       <c r="G344" t="s">
         <v>56</v>
       </c>
       <c r="H344" t="s">
-        <v>190</v>
+        <v>1705</v>
       </c>
       <c r="I344">
         <v>9301809840</v>
       </c>
       <c r="J344" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="K344" t="s">
-        <v>1347</v>
+        <v>242</v>
       </c>
       <c r="L344" t="s">
-        <v>1262</v>
+        <v>1746</v>
       </c>
       <c r="M344" t="s">
-        <v>1953</v>
+        <v>234</v>
       </c>
       <c r="N344" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
     </row>
     <row r="345" spans="1:14">
       <c r="A345" s="2">
-        <v>13655</v>
+        <v>13887</v>
       </c>
       <c r="B345" t="s">
         <v>51</v>
       </c>
       <c r="C345" t="s">
-        <v>1938</v>
+        <v>1904</v>
       </c>
       <c r="D345" t="s">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="E345" t="s">
-        <v>1703</v>
+        <v>513</v>
       </c>
       <c r="F345" t="s">
-        <v>1939</v>
+        <v>1905</v>
       </c>
       <c r="G345" t="s">
-        <v>56</v>
+        <v>40</v>
       </c>
       <c r="H345" t="s">
-        <v>1705</v>
+        <v>41</v>
       </c>
       <c r="I345">
         <v>7999399864</v>
       </c>
       <c r="J345" t="s">
-        <v>1914</v>
+        <v>1880</v>
       </c>
       <c r="K345" t="s">
-        <v>242</v>
+        <v>1881</v>
       </c>
       <c r="L345" t="s">
-        <v>1746</v>
+        <v>1769</v>
       </c>
       <c r="M345" t="s">
-        <v>234</v>
+        <v>46</v>
       </c>
       <c r="N345" t="s">
-        <v>235</v>
+        <v>41</v>
       </c>
     </row>
     <row r="346" spans="1:14">
       <c r="A346" s="2">
-        <v>13887</v>
+        <v>13904</v>
       </c>
       <c r="B346" t="s">
         <v>51</v>
       </c>
       <c r="C346" t="s">
-        <v>1904</v>
+        <v>1940</v>
       </c>
       <c r="D346" t="s">
         <v>400</v>
       </c>
       <c r="E346" t="s">
-        <v>513</v>
+        <v>1941</v>
       </c>
       <c r="F346" t="s">
-        <v>1905</v>
+        <v>1942</v>
       </c>
       <c r="G346" t="s">
         <v>40</v>
@@ -21899,98 +22043,98 @@
         <v>8319503066</v>
       </c>
       <c r="J346" t="s">
-        <v>1880</v>
+        <v>1916</v>
       </c>
       <c r="K346" t="s">
-        <v>1881</v>
+        <v>1956</v>
       </c>
       <c r="L346" t="s">
-        <v>1769</v>
+        <v>1742</v>
       </c>
       <c r="M346" t="s">
-        <v>46</v>
+        <v>234</v>
       </c>
       <c r="N346" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
     </row>
     <row r="347" spans="1:14">
       <c r="A347" s="2">
-        <v>13904</v>
+        <v>13870</v>
       </c>
       <c r="B347" t="s">
         <v>51</v>
       </c>
       <c r="C347" t="s">
-        <v>1940</v>
+        <v>1943</v>
       </c>
       <c r="D347" t="s">
-        <v>400</v>
+        <v>197</v>
       </c>
       <c r="E347" t="s">
-        <v>1941</v>
+        <v>95</v>
       </c>
       <c r="F347" t="s">
-        <v>1942</v>
+        <v>1944</v>
       </c>
       <c r="G347" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="H347" t="s">
-        <v>41</v>
+        <v>1945</v>
       </c>
       <c r="J347" t="s">
         <v>1916</v>
       </c>
       <c r="K347" t="s">
-        <v>1957</v>
+        <v>1680</v>
       </c>
       <c r="L347" t="s">
-        <v>1742</v>
+        <v>284</v>
       </c>
       <c r="M347" t="s">
-        <v>234</v>
+        <v>46</v>
       </c>
       <c r="N347" t="s">
-        <v>235</v>
+        <v>41</v>
       </c>
     </row>
     <row r="348" spans="1:14">
       <c r="A348" s="2">
-        <v>13870</v>
+        <v>13729</v>
       </c>
       <c r="B348" t="s">
-        <v>51</v>
+        <v>1561</v>
       </c>
       <c r="C348" t="s">
-        <v>1943</v>
+        <v>1946</v>
       </c>
       <c r="D348" t="s">
-        <v>197</v>
+        <v>145</v>
       </c>
       <c r="E348" t="s">
-        <v>95</v>
+        <v>41</v>
       </c>
       <c r="F348" t="s">
-        <v>1944</v>
+        <v>1947</v>
       </c>
       <c r="G348" t="s">
-        <v>56</v>
+        <v>41</v>
       </c>
       <c r="H348" t="s">
-        <v>1945</v>
+        <v>511</v>
       </c>
       <c r="I348">
         <v>9340951602</v>
       </c>
       <c r="J348" t="s">
-        <v>1916</v>
+        <v>1880</v>
       </c>
       <c r="K348" t="s">
-        <v>1680</v>
+        <v>1471</v>
       </c>
       <c r="L348" t="s">
-        <v>284</v>
+        <v>867</v>
       </c>
       <c r="M348" t="s">
         <v>46</v>
@@ -22001,13 +22145,13 @@
     </row>
     <row r="349" spans="1:14">
       <c r="A349" s="2">
-        <v>13729</v>
+        <v>13903</v>
       </c>
       <c r="B349" t="s">
         <v>1561</v>
       </c>
       <c r="C349" t="s">
-        <v>1946</v>
+        <v>1948</v>
       </c>
       <c r="D349" t="s">
         <v>145</v>
@@ -22016,7 +22160,7 @@
         <v>41</v>
       </c>
       <c r="F349" t="s">
-        <v>1947</v>
+        <v>1949</v>
       </c>
       <c r="G349" t="s">
         <v>41</v>
@@ -22028,13 +22172,13 @@
         <v>7489500464</v>
       </c>
       <c r="J349" t="s">
-        <v>1880</v>
+        <v>154</v>
       </c>
       <c r="K349" t="s">
-        <v>1471</v>
+        <v>961</v>
       </c>
       <c r="L349" t="s">
-        <v>867</v>
+        <v>1957</v>
       </c>
       <c r="M349" t="s">
         <v>46</v>
@@ -22045,42 +22189,575 @@
     </row>
     <row r="350" spans="1:14">
       <c r="A350" s="2">
-        <v>13903</v>
+        <v>13652</v>
       </c>
       <c r="B350" t="s">
-        <v>1561</v>
+        <v>51</v>
       </c>
       <c r="C350" t="s">
-        <v>1948</v>
+        <v>1958</v>
       </c>
       <c r="D350" t="s">
-        <v>145</v>
+        <v>400</v>
       </c>
       <c r="E350" t="s">
-        <v>41</v>
+        <v>1115</v>
       </c>
       <c r="F350" t="s">
-        <v>1949</v>
+        <v>1972</v>
       </c>
       <c r="G350" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H350" t="s">
-        <v>511</v>
+        <v>41</v>
       </c>
       <c r="J350" t="s">
         <v>154</v>
       </c>
       <c r="K350" t="s">
+        <v>78</v>
+      </c>
+      <c r="L350" t="s">
+        <v>1998</v>
+      </c>
+      <c r="M350" t="s">
+        <v>234</v>
+      </c>
+      <c r="N350" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="351" spans="1:14">
+      <c r="A351" s="2">
+        <v>13909</v>
+      </c>
+      <c r="B351" t="s">
+        <v>51</v>
+      </c>
+      <c r="C351" t="s">
+        <v>1959</v>
+      </c>
+      <c r="D351" t="s">
+        <v>504</v>
+      </c>
+      <c r="E351" t="s">
+        <v>95</v>
+      </c>
+      <c r="F351" t="s">
+        <v>1973</v>
+      </c>
+      <c r="G351" t="s">
+        <v>56</v>
+      </c>
+      <c r="H351" t="s">
+        <v>506</v>
+      </c>
+      <c r="J351" t="s">
+        <v>154</v>
+      </c>
+      <c r="K351" t="s">
+        <v>1991</v>
+      </c>
+      <c r="L351" t="s">
+        <v>1999</v>
+      </c>
+      <c r="M351" t="s">
+        <v>46</v>
+      </c>
+      <c r="N351" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="352" spans="1:14">
+      <c r="A352" s="2">
+        <v>13910</v>
+      </c>
+      <c r="B352" t="s">
+        <v>51</v>
+      </c>
+      <c r="C352" t="s">
+        <v>1960</v>
+      </c>
+      <c r="D352" t="s">
+        <v>504</v>
+      </c>
+      <c r="E352" t="s">
+        <v>733</v>
+      </c>
+      <c r="F352" t="s">
+        <v>1974</v>
+      </c>
+      <c r="G352" t="s">
+        <v>56</v>
+      </c>
+      <c r="H352" t="s">
+        <v>1975</v>
+      </c>
+      <c r="J352" t="s">
+        <v>154</v>
+      </c>
+      <c r="K352" t="s">
         <v>961</v>
       </c>
-      <c r="L350" t="s">
-        <v>1958</v>
-      </c>
-      <c r="M350" t="s">
+      <c r="L352" t="s">
+        <v>2000</v>
+      </c>
+      <c r="M352" t="s">
+        <v>234</v>
+      </c>
+      <c r="N352" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14">
+      <c r="A353" s="2">
+        <v>13661</v>
+      </c>
+      <c r="B353" t="s">
+        <v>51</v>
+      </c>
+      <c r="C353" t="s">
+        <v>1961</v>
+      </c>
+      <c r="D353" t="s">
+        <v>145</v>
+      </c>
+      <c r="E353" t="s">
+        <v>177</v>
+      </c>
+      <c r="F353" t="s">
+        <v>1976</v>
+      </c>
+      <c r="G353" t="s">
+        <v>56</v>
+      </c>
+      <c r="H353" t="s">
+        <v>179</v>
+      </c>
+      <c r="J353" t="s">
+        <v>1992</v>
+      </c>
+      <c r="K353" t="s">
+        <v>1993</v>
+      </c>
+      <c r="L353" t="s">
+        <v>347</v>
+      </c>
+      <c r="M353" t="s">
+        <v>2006</v>
+      </c>
+      <c r="N353" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="354" spans="1:14">
+      <c r="A354" s="2">
+        <v>13921</v>
+      </c>
+      <c r="B354" t="s">
+        <v>51</v>
+      </c>
+      <c r="C354" t="s">
+        <v>1962</v>
+      </c>
+      <c r="D354" t="s">
+        <v>145</v>
+      </c>
+      <c r="E354" t="s">
+        <v>95</v>
+      </c>
+      <c r="F354" t="s">
+        <v>1977</v>
+      </c>
+      <c r="G354" t="s">
+        <v>56</v>
+      </c>
+      <c r="H354" t="s">
+        <v>614</v>
+      </c>
+      <c r="J354" t="s">
+        <v>1992</v>
+      </c>
+      <c r="K354" t="s">
+        <v>1994</v>
+      </c>
+      <c r="L354" t="s">
+        <v>1740</v>
+      </c>
+      <c r="M354" t="s">
+        <v>2006</v>
+      </c>
+      <c r="N354" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="355" spans="1:14">
+      <c r="A355" s="2">
+        <v>13923</v>
+      </c>
+      <c r="B355" t="s">
+        <v>51</v>
+      </c>
+      <c r="C355" t="s">
+        <v>821</v>
+      </c>
+      <c r="D355" t="s">
+        <v>240</v>
+      </c>
+      <c r="E355" t="s">
+        <v>90</v>
+      </c>
+      <c r="F355" t="s">
+        <v>1978</v>
+      </c>
+      <c r="G355" t="s">
+        <v>56</v>
+      </c>
+      <c r="H355" t="s">
+        <v>92</v>
+      </c>
+      <c r="J355" t="s">
+        <v>1992</v>
+      </c>
+      <c r="K355" t="s">
+        <v>1995</v>
+      </c>
+      <c r="L355" t="s">
+        <v>1573</v>
+      </c>
+      <c r="M355" t="s">
+        <v>2006</v>
+      </c>
+      <c r="N355" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="356" spans="1:14">
+      <c r="A356" s="2">
+        <v>13922</v>
+      </c>
+      <c r="B356" t="s">
+        <v>51</v>
+      </c>
+      <c r="C356" t="s">
+        <v>1963</v>
+      </c>
+      <c r="D356" t="s">
+        <v>240</v>
+      </c>
+      <c r="E356" t="s">
+        <v>95</v>
+      </c>
+      <c r="F356" t="s">
+        <v>1979</v>
+      </c>
+      <c r="G356" t="s">
+        <v>56</v>
+      </c>
+      <c r="H356" t="s">
+        <v>726</v>
+      </c>
+      <c r="J356" t="s">
+        <v>1992</v>
+      </c>
+      <c r="K356" t="s">
+        <v>1995</v>
+      </c>
+      <c r="L356" t="s">
+        <v>569</v>
+      </c>
+      <c r="M356" t="s">
+        <v>2006</v>
+      </c>
+      <c r="N356" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="357" spans="1:14">
+      <c r="A357" s="2">
+        <v>13924</v>
+      </c>
+      <c r="B357" t="s">
+        <v>51</v>
+      </c>
+      <c r="C357" t="s">
+        <v>1964</v>
+      </c>
+      <c r="D357" t="s">
+        <v>428</v>
+      </c>
+      <c r="E357" t="s">
+        <v>95</v>
+      </c>
+      <c r="F357" t="s">
+        <v>1980</v>
+      </c>
+      <c r="G357" t="s">
+        <v>56</v>
+      </c>
+      <c r="H357" t="s">
+        <v>1981</v>
+      </c>
+      <c r="J357" t="s">
+        <v>1992</v>
+      </c>
+      <c r="K357" t="s">
+        <v>1994</v>
+      </c>
+      <c r="L357" t="s">
+        <v>2001</v>
+      </c>
+      <c r="M357" t="s">
+        <v>2006</v>
+      </c>
+      <c r="N357" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="358" spans="1:14">
+      <c r="A358" s="2">
+        <v>13925</v>
+      </c>
+      <c r="B358" t="s">
+        <v>51</v>
+      </c>
+      <c r="C358" t="s">
+        <v>1965</v>
+      </c>
+      <c r="D358" t="s">
+        <v>240</v>
+      </c>
+      <c r="E358" t="s">
+        <v>1982</v>
+      </c>
+      <c r="F358" t="s">
+        <v>1983</v>
+      </c>
+      <c r="G358" t="s">
+        <v>56</v>
+      </c>
+      <c r="H358" t="s">
+        <v>1984</v>
+      </c>
+      <c r="J358" t="s">
+        <v>1916</v>
+      </c>
+      <c r="K358" t="s">
+        <v>1996</v>
+      </c>
+      <c r="L358" t="s">
+        <v>2002</v>
+      </c>
+      <c r="M358" t="s">
+        <v>2006</v>
+      </c>
+      <c r="N358" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="359" spans="1:14">
+      <c r="A359" s="2">
+        <v>13796</v>
+      </c>
+      <c r="B359" t="s">
+        <v>51</v>
+      </c>
+      <c r="C359" t="s">
+        <v>1966</v>
+      </c>
+      <c r="D359" t="s">
+        <v>99</v>
+      </c>
+      <c r="E359" t="s">
+        <v>95</v>
+      </c>
+      <c r="F359" t="s">
+        <v>1985</v>
+      </c>
+      <c r="G359" t="s">
+        <v>56</v>
+      </c>
+      <c r="H359" t="s">
+        <v>1282</v>
+      </c>
+      <c r="J359" t="s">
+        <v>1916</v>
+      </c>
+      <c r="K359" t="s">
+        <v>1577</v>
+      </c>
+      <c r="L359" t="s">
+        <v>1777</v>
+      </c>
+      <c r="M359" t="s">
+        <v>2006</v>
+      </c>
+      <c r="N359" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="360" spans="1:14">
+      <c r="A360" s="2">
+        <v>13773</v>
+      </c>
+      <c r="B360" t="s">
+        <v>51</v>
+      </c>
+      <c r="C360" t="s">
+        <v>1967</v>
+      </c>
+      <c r="D360" t="s">
+        <v>168</v>
+      </c>
+      <c r="E360" t="s">
+        <v>95</v>
+      </c>
+      <c r="F360" t="s">
+        <v>1986</v>
+      </c>
+      <c r="G360" t="s">
+        <v>56</v>
+      </c>
+      <c r="H360" t="s">
+        <v>1297</v>
+      </c>
+      <c r="J360" t="s">
+        <v>1298</v>
+      </c>
+      <c r="K360" t="s">
+        <v>1997</v>
+      </c>
+      <c r="L360" t="s">
+        <v>2003</v>
+      </c>
+      <c r="M360" t="s">
+        <v>2006</v>
+      </c>
+      <c r="N360" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14">
+      <c r="A361" s="2">
+        <v>13915</v>
+      </c>
+      <c r="B361" t="s">
+        <v>51</v>
+      </c>
+      <c r="C361" t="s">
+        <v>1968</v>
+      </c>
+      <c r="D361" t="s">
+        <v>428</v>
+      </c>
+      <c r="E361" t="s">
+        <v>119</v>
+      </c>
+      <c r="F361" t="s">
+        <v>1987</v>
+      </c>
+      <c r="G361" t="s">
+        <v>56</v>
+      </c>
+      <c r="H361" t="s">
+        <v>1988</v>
+      </c>
+      <c r="J361" t="s">
+        <v>1916</v>
+      </c>
+      <c r="K361" t="s">
+        <v>1996</v>
+      </c>
+      <c r="L361" t="s">
+        <v>2004</v>
+      </c>
+      <c r="M361" t="s">
+        <v>2006</v>
+      </c>
+      <c r="N361" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14">
+      <c r="A362" s="2">
+        <v>13824</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C362" t="s">
+        <v>1969</v>
+      </c>
+      <c r="D362" t="s">
+        <v>168</v>
+      </c>
+      <c r="E362" t="s">
+        <v>41</v>
+      </c>
+      <c r="F362" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G362" t="s">
+        <v>41</v>
+      </c>
+      <c r="H362" t="s">
+        <v>1989</v>
+      </c>
+      <c r="J362" t="s">
+        <v>1992</v>
+      </c>
+      <c r="K362" t="s">
+        <v>1714</v>
+      </c>
+      <c r="L362" t="s">
+        <v>285</v>
+      </c>
+      <c r="M362" t="s">
         <v>46</v>
       </c>
-      <c r="N350" t="s">
+      <c r="N362" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="363" spans="1:14">
+      <c r="A363" s="2">
+        <v>13911</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1970</v>
+      </c>
+      <c r="D363" t="s">
+        <v>145</v>
+      </c>
+      <c r="E363" t="s">
+        <v>41</v>
+      </c>
+      <c r="F363" t="s">
+        <v>1990</v>
+      </c>
+      <c r="G363" t="s">
+        <v>41</v>
+      </c>
+      <c r="H363" t="s">
+        <v>511</v>
+      </c>
+      <c r="J363" t="s">
+        <v>1992</v>
+      </c>
+      <c r="K363" t="s">
+        <v>1913</v>
+      </c>
+      <c r="L363" t="s">
+        <v>2005</v>
+      </c>
+      <c r="M363" t="s">
+        <v>46</v>
+      </c>
+      <c r="N363" t="s">
         <v>41</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10023" uniqueCount="2007">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10053" uniqueCount="2015">
   <si>
     <t>Unique Reference Number</t>
   </si>
@@ -6040,6 +6040,30 @@
   </si>
   <si>
     <t>TPSL Approved</t>
+  </si>
+  <si>
+    <t>Rampat Sori</t>
+  </si>
+  <si>
+    <t>7019092050</t>
+  </si>
+  <si>
+    <t>Geetu Ram Baghel</t>
+  </si>
+  <si>
+    <t>40595697093</t>
+  </si>
+  <si>
+    <t>Madan Sethiya</t>
+  </si>
+  <si>
+    <t>41581561865</t>
+  </si>
+  <si>
+    <t>3826.00</t>
+  </si>
+  <si>
+    <t>20-Sep-2025</t>
   </si>
 </sst>
 </file>
@@ -6867,7 +6891,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6875,12 +6899,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N363"/>
+  <dimension ref="A1:N366"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AA1" sqref="AA1"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22759,6 +22783,111 @@
       </c>
       <c r="N363" t="s">
         <v>41</v>
+      </c>
+    </row>
+    <row r="364" spans="1:14">
+      <c r="A364" s="2">
+        <v>13868</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C364" t="s">
+        <v>2007</v>
+      </c>
+      <c r="D364" t="s">
+        <v>41</v>
+      </c>
+      <c r="E364" t="s">
+        <v>41</v>
+      </c>
+      <c r="F364" t="s">
+        <v>2008</v>
+      </c>
+      <c r="G364" t="s">
+        <v>41</v>
+      </c>
+      <c r="H364" t="s">
+        <v>1928</v>
+      </c>
+      <c r="J364" t="s">
+        <v>130</v>
+      </c>
+      <c r="K364" t="s">
+        <v>680</v>
+      </c>
+      <c r="L364" t="s">
+        <v>2013</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14">
+      <c r="A365" s="2">
+        <v>13930</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C365" t="s">
+        <v>2009</v>
+      </c>
+      <c r="D365" t="s">
+        <v>145</v>
+      </c>
+      <c r="E365" t="s">
+        <v>41</v>
+      </c>
+      <c r="F365" t="s">
+        <v>2010</v>
+      </c>
+      <c r="G365" t="s">
+        <v>41</v>
+      </c>
+      <c r="H365" t="s">
+        <v>511</v>
+      </c>
+      <c r="J365" t="s">
+        <v>130</v>
+      </c>
+      <c r="K365" t="s">
+        <v>88</v>
+      </c>
+      <c r="L365" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14">
+      <c r="A366" s="2">
+        <v>13936</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C366" t="s">
+        <v>2011</v>
+      </c>
+      <c r="D366" t="s">
+        <v>145</v>
+      </c>
+      <c r="E366" t="s">
+        <v>41</v>
+      </c>
+      <c r="F366" t="s">
+        <v>2012</v>
+      </c>
+      <c r="G366" t="s">
+        <v>41</v>
+      </c>
+      <c r="H366" t="s">
+        <v>511</v>
+      </c>
+      <c r="J366" t="s">
+        <v>1298</v>
+      </c>
+      <c r="K366" t="s">
+        <v>2014</v>
+      </c>
+      <c r="L366" t="s">
+        <v>2004</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10053" uniqueCount="2015">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10131" uniqueCount="2032">
   <si>
     <t>Unique Reference Number</t>
   </si>
@@ -6039,9 +6039,6 @@
     <t>3947.00</t>
   </si>
   <si>
-    <t>TPSL Approved</t>
-  </si>
-  <si>
     <t>Rampat Sori</t>
   </si>
   <si>
@@ -6064,6 +6061,60 @@
   </si>
   <si>
     <t>20-Sep-2025</t>
+  </si>
+  <si>
+    <t>Padamnath Markam</t>
+  </si>
+  <si>
+    <t>Kameshwari Tiwari</t>
+  </si>
+  <si>
+    <t>Phulsingh Kashyap</t>
+  </si>
+  <si>
+    <t>Raitu Ram Nag</t>
+  </si>
+  <si>
+    <t>Ajaman Baghel</t>
+  </si>
+  <si>
+    <t>Sanjay Baghel</t>
+  </si>
+  <si>
+    <t>3585228019</t>
+  </si>
+  <si>
+    <t>0707104000176842</t>
+  </si>
+  <si>
+    <t>4041316531</t>
+  </si>
+  <si>
+    <t>1875100100013119</t>
+  </si>
+  <si>
+    <t>10128100000151</t>
+  </si>
+  <si>
+    <t>921010025844600</t>
+  </si>
+  <si>
+    <t>4170.00</t>
+  </si>
+  <si>
+    <t>20-Sep-2027</t>
+  </si>
+  <si>
+    <t>4030.00</t>
+  </si>
+  <si>
+    <t>3811.00</t>
+  </si>
+  <si>
+    <t>NPCI Acknowledged</t>
+  </si>
+  <si>
+    <t>Airtel Payment Bank</t>
   </si>
 </sst>
 </file>
@@ -6891,7 +6942,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6899,12 +6950,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N366"/>
+  <dimension ref="A1:N372"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AA1" sqref="AA1"/>
-      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
+      <selection pane="bottomLeft" activeCell="D353" sqref="D353"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -22236,6 +22287,9 @@
       <c r="H350" t="s">
         <v>41</v>
       </c>
+      <c r="I350">
+        <v>6265877342</v>
+      </c>
       <c r="J350" t="s">
         <v>154</v>
       </c>
@@ -22277,6 +22331,9 @@
       <c r="H351" t="s">
         <v>506</v>
       </c>
+      <c r="I351">
+        <v>6260991092</v>
+      </c>
       <c r="J351" t="s">
         <v>154</v>
       </c>
@@ -22318,6 +22375,9 @@
       <c r="H352" t="s">
         <v>1975</v>
       </c>
+      <c r="I352">
+        <v>9131498975</v>
+      </c>
       <c r="J352" t="s">
         <v>154</v>
       </c>
@@ -22359,6 +22419,9 @@
       <c r="H353" t="s">
         <v>179</v>
       </c>
+      <c r="I353">
+        <v>7803832370</v>
+      </c>
       <c r="J353" t="s">
         <v>1992</v>
       </c>
@@ -22369,10 +22432,10 @@
         <v>347</v>
       </c>
       <c r="M353" t="s">
-        <v>2006</v>
+        <v>234</v>
       </c>
       <c r="N353" t="s">
-        <v>41</v>
+        <v>349</v>
       </c>
     </row>
     <row r="354" spans="1:14">
@@ -22400,6 +22463,9 @@
       <c r="H354" t="s">
         <v>614</v>
       </c>
+      <c r="I354">
+        <v>9630912955</v>
+      </c>
       <c r="J354" t="s">
         <v>1992</v>
       </c>
@@ -22410,7 +22476,7 @@
         <v>1740</v>
       </c>
       <c r="M354" t="s">
-        <v>2006</v>
+        <v>46</v>
       </c>
       <c r="N354" t="s">
         <v>41</v>
@@ -22441,6 +22507,9 @@
       <c r="H355" t="s">
         <v>92</v>
       </c>
+      <c r="I355">
+        <v>9343884280</v>
+      </c>
       <c r="J355" t="s">
         <v>1992</v>
       </c>
@@ -22451,10 +22520,10 @@
         <v>1573</v>
       </c>
       <c r="M355" t="s">
-        <v>2006</v>
+        <v>234</v>
       </c>
       <c r="N355" t="s">
-        <v>41</v>
+        <v>353</v>
       </c>
     </row>
     <row r="356" spans="1:14">
@@ -22482,6 +22551,9 @@
       <c r="H356" t="s">
         <v>726</v>
       </c>
+      <c r="I356">
+        <v>8103185249</v>
+      </c>
       <c r="J356" t="s">
         <v>1992</v>
       </c>
@@ -22492,7 +22564,7 @@
         <v>569</v>
       </c>
       <c r="M356" t="s">
-        <v>2006</v>
+        <v>46</v>
       </c>
       <c r="N356" t="s">
         <v>41</v>
@@ -22523,6 +22595,9 @@
       <c r="H357" t="s">
         <v>1981</v>
       </c>
+      <c r="I357">
+        <v>7974309307</v>
+      </c>
       <c r="J357" t="s">
         <v>1992</v>
       </c>
@@ -22533,7 +22608,7 @@
         <v>2001</v>
       </c>
       <c r="M357" t="s">
-        <v>2006</v>
+        <v>46</v>
       </c>
       <c r="N357" t="s">
         <v>41</v>
@@ -22564,6 +22639,9 @@
       <c r="H358" t="s">
         <v>1984</v>
       </c>
+      <c r="I358">
+        <v>9406055611</v>
+      </c>
       <c r="J358" t="s">
         <v>1916</v>
       </c>
@@ -22574,10 +22652,10 @@
         <v>2002</v>
       </c>
       <c r="M358" t="s">
-        <v>2006</v>
+        <v>234</v>
       </c>
       <c r="N358" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
     </row>
     <row r="359" spans="1:14">
@@ -22605,6 +22683,9 @@
       <c r="H359" t="s">
         <v>1282</v>
       </c>
+      <c r="I359">
+        <v>8817375155</v>
+      </c>
       <c r="J359" t="s">
         <v>1916</v>
       </c>
@@ -22615,7 +22696,7 @@
         <v>1777</v>
       </c>
       <c r="M359" t="s">
-        <v>2006</v>
+        <v>46</v>
       </c>
       <c r="N359" t="s">
         <v>41</v>
@@ -22646,6 +22727,9 @@
       <c r="H360" t="s">
         <v>1297</v>
       </c>
+      <c r="I360">
+        <v>6265238394</v>
+      </c>
       <c r="J360" t="s">
         <v>1298</v>
       </c>
@@ -22656,7 +22740,7 @@
         <v>2003</v>
       </c>
       <c r="M360" t="s">
-        <v>2006</v>
+        <v>46</v>
       </c>
       <c r="N360" t="s">
         <v>41</v>
@@ -22687,6 +22771,9 @@
       <c r="H361" t="s">
         <v>1988</v>
       </c>
+      <c r="I361">
+        <v>7587834082</v>
+      </c>
       <c r="J361" t="s">
         <v>1916</v>
       </c>
@@ -22697,10 +22784,10 @@
         <v>2004</v>
       </c>
       <c r="M361" t="s">
-        <v>2006</v>
+        <v>234</v>
       </c>
       <c r="N361" t="s">
-        <v>41</v>
+        <v>235</v>
       </c>
     </row>
     <row r="362" spans="1:14">
@@ -22728,6 +22815,9 @@
       <c r="H362" t="s">
         <v>1989</v>
       </c>
+      <c r="I362">
+        <v>7489990811</v>
+      </c>
       <c r="J362" t="s">
         <v>1992</v>
       </c>
@@ -22769,6 +22859,9 @@
       <c r="H363" t="s">
         <v>511</v>
       </c>
+      <c r="I363">
+        <v>8839113952</v>
+      </c>
       <c r="J363" t="s">
         <v>1992</v>
       </c>
@@ -22793,16 +22886,16 @@
         <v>1561</v>
       </c>
       <c r="C364" t="s">
+        <v>2006</v>
+      </c>
+      <c r="D364" t="s">
+        <v>2031</v>
+      </c>
+      <c r="E364" t="s">
+        <v>41</v>
+      </c>
+      <c r="F364" t="s">
         <v>2007</v>
-      </c>
-      <c r="D364" t="s">
-        <v>41</v>
-      </c>
-      <c r="E364" t="s">
-        <v>41</v>
-      </c>
-      <c r="F364" t="s">
-        <v>2008</v>
       </c>
       <c r="G364" t="s">
         <v>41</v>
@@ -22810,6 +22903,9 @@
       <c r="H364" t="s">
         <v>1928</v>
       </c>
+      <c r="I364">
+        <v>7019092050</v>
+      </c>
       <c r="J364" t="s">
         <v>130</v>
       </c>
@@ -22817,7 +22913,13 @@
         <v>680</v>
       </c>
       <c r="L364" t="s">
-        <v>2013</v>
+        <v>2012</v>
+      </c>
+      <c r="M364" t="s">
+        <v>46</v>
+      </c>
+      <c r="N364" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="365" spans="1:14">
@@ -22828,7 +22930,7 @@
         <v>1561</v>
       </c>
       <c r="C365" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="D365" t="s">
         <v>145</v>
@@ -22837,7 +22939,7 @@
         <v>41</v>
       </c>
       <c r="F365" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G365" t="s">
         <v>41</v>
@@ -22845,6 +22947,9 @@
       <c r="H365" t="s">
         <v>511</v>
       </c>
+      <c r="I365">
+        <v>8319330872</v>
+      </c>
       <c r="J365" t="s">
         <v>130</v>
       </c>
@@ -22853,6 +22958,12 @@
       </c>
       <c r="L365" t="s">
         <v>284</v>
+      </c>
+      <c r="M365" t="s">
+        <v>46</v>
+      </c>
+      <c r="N365" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="366" spans="1:14">
@@ -22863,7 +22974,7 @@
         <v>1561</v>
       </c>
       <c r="C366" t="s">
-        <v>2011</v>
+        <v>2010</v>
       </c>
       <c r="D366" t="s">
         <v>145</v>
@@ -22872,7 +22983,7 @@
         <v>41</v>
       </c>
       <c r="F366" t="s">
-        <v>2012</v>
+        <v>2011</v>
       </c>
       <c r="G366" t="s">
         <v>41</v>
@@ -22884,10 +22995,280 @@
         <v>1298</v>
       </c>
       <c r="K366" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="L366" t="s">
         <v>2004</v>
+      </c>
+      <c r="M366" t="s">
+        <v>46</v>
+      </c>
+      <c r="N366" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14">
+      <c r="A367" s="2">
+        <v>13916</v>
+      </c>
+      <c r="B367" t="s">
+        <v>51</v>
+      </c>
+      <c r="C367" t="s">
+        <v>2014</v>
+      </c>
+      <c r="D367" t="s">
+        <v>197</v>
+      </c>
+      <c r="E367" t="s">
+        <v>574</v>
+      </c>
+      <c r="F367" t="s">
+        <v>2020</v>
+      </c>
+      <c r="G367" t="s">
+        <v>56</v>
+      </c>
+      <c r="H367" t="s">
+        <v>576</v>
+      </c>
+      <c r="I367">
+        <v>9340657116</v>
+      </c>
+      <c r="J367" t="s">
+        <v>1992</v>
+      </c>
+      <c r="K367" t="s">
+        <v>1995</v>
+      </c>
+      <c r="L367" t="s">
+        <v>2026</v>
+      </c>
+      <c r="M367" t="s">
+        <v>234</v>
+      </c>
+      <c r="N367" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14">
+      <c r="A368" s="2">
+        <v>13931</v>
+      </c>
+      <c r="B368" t="s">
+        <v>51</v>
+      </c>
+      <c r="C368" t="s">
+        <v>2015</v>
+      </c>
+      <c r="D368" t="s">
+        <v>168</v>
+      </c>
+      <c r="E368" t="s">
+        <v>95</v>
+      </c>
+      <c r="F368" t="s">
+        <v>2021</v>
+      </c>
+      <c r="G368" t="s">
+        <v>56</v>
+      </c>
+      <c r="H368" t="s">
+        <v>1297</v>
+      </c>
+      <c r="I368">
+        <v>7771961390</v>
+      </c>
+      <c r="J368" t="s">
+        <v>1992</v>
+      </c>
+      <c r="K368" t="s">
+        <v>1994</v>
+      </c>
+      <c r="L368" t="s">
+        <v>284</v>
+      </c>
+      <c r="M368" t="s">
+        <v>234</v>
+      </c>
+      <c r="N368" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14">
+      <c r="A369" s="2">
+        <v>13929</v>
+      </c>
+      <c r="B369" t="s">
+        <v>51</v>
+      </c>
+      <c r="C369" t="s">
+        <v>2016</v>
+      </c>
+      <c r="D369" t="s">
+        <v>197</v>
+      </c>
+      <c r="E369" t="s">
+        <v>54</v>
+      </c>
+      <c r="F369" t="s">
+        <v>2022</v>
+      </c>
+      <c r="G369" t="s">
+        <v>56</v>
+      </c>
+      <c r="H369" t="s">
+        <v>1468</v>
+      </c>
+      <c r="I369">
+        <v>9399843535</v>
+      </c>
+      <c r="J369" t="s">
+        <v>1298</v>
+      </c>
+      <c r="K369" t="s">
+        <v>2027</v>
+      </c>
+      <c r="L369" t="s">
+        <v>2028</v>
+      </c>
+      <c r="M369" t="s">
+        <v>234</v>
+      </c>
+      <c r="N369" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14">
+      <c r="A370" s="2">
+        <v>13928</v>
+      </c>
+      <c r="B370" t="s">
+        <v>51</v>
+      </c>
+      <c r="C370" t="s">
+        <v>2017</v>
+      </c>
+      <c r="D370" t="s">
+        <v>99</v>
+      </c>
+      <c r="E370" t="s">
+        <v>95</v>
+      </c>
+      <c r="F370" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G370" t="s">
+        <v>56</v>
+      </c>
+      <c r="H370" t="s">
+        <v>689</v>
+      </c>
+      <c r="I370">
+        <v>9329742027</v>
+      </c>
+      <c r="J370" t="s">
+        <v>154</v>
+      </c>
+      <c r="K370" t="s">
+        <v>970</v>
+      </c>
+      <c r="L370" t="s">
+        <v>1742</v>
+      </c>
+      <c r="M370" t="s">
+        <v>234</v>
+      </c>
+      <c r="N370" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14">
+      <c r="A371" s="2">
+        <v>13926</v>
+      </c>
+      <c r="B371" t="s">
+        <v>51</v>
+      </c>
+      <c r="C371" t="s">
+        <v>2018</v>
+      </c>
+      <c r="D371" t="s">
+        <v>240</v>
+      </c>
+      <c r="E371" t="s">
+        <v>95</v>
+      </c>
+      <c r="F371" t="s">
+        <v>2024</v>
+      </c>
+      <c r="G371" t="s">
+        <v>56</v>
+      </c>
+      <c r="H371" t="s">
+        <v>105</v>
+      </c>
+      <c r="I371">
+        <v>9111629126</v>
+      </c>
+      <c r="J371" t="s">
+        <v>1992</v>
+      </c>
+      <c r="K371" t="s">
+        <v>1271</v>
+      </c>
+      <c r="L371" t="s">
+        <v>1411</v>
+      </c>
+      <c r="M371" t="s">
+        <v>2030</v>
+      </c>
+      <c r="N371" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14">
+      <c r="A372" s="2">
+        <v>13902</v>
+      </c>
+      <c r="B372" t="s">
+        <v>51</v>
+      </c>
+      <c r="C372" t="s">
+        <v>2019</v>
+      </c>
+      <c r="D372" t="s">
+        <v>428</v>
+      </c>
+      <c r="E372" t="s">
+        <v>119</v>
+      </c>
+      <c r="F372" t="s">
+        <v>2025</v>
+      </c>
+      <c r="G372" t="s">
+        <v>56</v>
+      </c>
+      <c r="H372" t="s">
+        <v>1988</v>
+      </c>
+      <c r="I372">
+        <v>9098971336</v>
+      </c>
+      <c r="J372" t="s">
+        <v>1298</v>
+      </c>
+      <c r="K372" t="s">
+        <v>1917</v>
+      </c>
+      <c r="L372" t="s">
+        <v>2029</v>
+      </c>
+      <c r="M372" t="s">
+        <v>234</v>
+      </c>
+      <c r="N372" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10131" uniqueCount="2032">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10142" uniqueCount="2036">
   <si>
     <t>Unique Reference Number</t>
   </si>
@@ -6115,6 +6115,18 @@
   </si>
   <si>
     <t>Airtel Payment Bank</t>
+  </si>
+  <si>
+    <t>Shrvan Baghel</t>
+  </si>
+  <si>
+    <t>1185104000038906</t>
+  </si>
+  <si>
+    <t>16-Apr-2027</t>
+  </si>
+  <si>
+    <t>4860.00</t>
   </si>
 </sst>
 </file>
@@ -6950,12 +6962,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N372"/>
+  <dimension ref="A1:N373"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A344" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AA1" sqref="AA1"/>
-      <selection pane="bottomLeft" activeCell="D353" sqref="D353"/>
+      <selection pane="bottomLeft" activeCell="C373" sqref="C373"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23269,6 +23281,47 @@
       </c>
       <c r="N372" t="s">
         <v>235</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14">
+      <c r="A373" s="2">
+        <v>13945</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1561</v>
+      </c>
+      <c r="C373" t="s">
+        <v>2032</v>
+      </c>
+      <c r="D373" t="s">
+        <v>168</v>
+      </c>
+      <c r="E373" t="s">
+        <v>41</v>
+      </c>
+      <c r="F373" t="s">
+        <v>2033</v>
+      </c>
+      <c r="G373" t="s">
+        <v>41</v>
+      </c>
+      <c r="H373" t="s">
+        <v>1989</v>
+      </c>
+      <c r="I373" s="2">
+        <v>7489051155</v>
+      </c>
+      <c r="J373" t="s">
+        <v>251</v>
+      </c>
+      <c r="K373" t="s">
+        <v>2034</v>
+      </c>
+      <c r="L373" t="s">
+        <v>2035</v>
+      </c>
+      <c r="M373" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4349" uniqueCount="1354">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4433" uniqueCount="1375">
   <si>
     <t>Bank Name</t>
   </si>
@@ -2317,6 +2317,9 @@
     <t>21938100004375</t>
   </si>
   <si>
+    <t>10-Mar-2026</t>
+  </si>
+  <si>
     <t>Tula Ram</t>
   </si>
   <si>
@@ -4079,6 +4082,66 @@
   </si>
   <si>
     <t>20-Sep-2025</t>
+  </si>
+  <si>
+    <t>Padamnath Markam</t>
+  </si>
+  <si>
+    <t>Kameshwari Tiwari</t>
+  </si>
+  <si>
+    <t>Phulsingh Kashyap</t>
+  </si>
+  <si>
+    <t>Raitu Ram Nag</t>
+  </si>
+  <si>
+    <t>Ajaman Baghel</t>
+  </si>
+  <si>
+    <t>Sanjay Baghel</t>
+  </si>
+  <si>
+    <t>3585228019</t>
+  </si>
+  <si>
+    <t>0707104000176842</t>
+  </si>
+  <si>
+    <t>4041316531</t>
+  </si>
+  <si>
+    <t>1875100100013119</t>
+  </si>
+  <si>
+    <t>10128100000151</t>
+  </si>
+  <si>
+    <t>921010025844600</t>
+  </si>
+  <si>
+    <t>4170.00</t>
+  </si>
+  <si>
+    <t>20-Sep-2027</t>
+  </si>
+  <si>
+    <t>4030.00</t>
+  </si>
+  <si>
+    <t>3811.00</t>
+  </si>
+  <si>
+    <t>Shrvan Baghel</t>
+  </si>
+  <si>
+    <t>1185104000038906</t>
+  </si>
+  <si>
+    <t>16-Apr-2027</t>
+  </si>
+  <si>
+    <t>4860.00</t>
   </si>
 </sst>
 </file>
@@ -4914,12 +4977,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N366"/>
+  <dimension ref="A1:N373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A278" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AA1" sqref="AA1"/>
-      <selection pane="bottomLeft" activeCell="I1" sqref="I1"/>
+      <selection pane="bottomLeft" activeCell="C287" sqref="C287"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4941,13 +5004,13 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
       </c>
       <c r="C1" t="s">
-        <v>1311</v>
+        <v>1312</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -5062,7 +5125,7 @@
         <v>48</v>
       </c>
       <c r="L3" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="M3" t="s">
         <v>20</v>
@@ -5106,7 +5169,7 @@
         <v>54</v>
       </c>
       <c r="L4" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="M4" t="s">
         <v>36</v>
@@ -5150,7 +5213,7 @@
         <v>19</v>
       </c>
       <c r="L5" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="M5" t="s">
         <v>36</v>
@@ -5194,7 +5257,7 @@
         <v>58</v>
       </c>
       <c r="L6" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="M6" t="s">
         <v>36</v>
@@ -5238,7 +5301,7 @@
         <v>58</v>
       </c>
       <c r="L7" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="M7" t="s">
         <v>36</v>
@@ -5282,7 +5345,7 @@
         <v>29</v>
       </c>
       <c r="L8" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="M8" t="s">
         <v>20</v>
@@ -5326,7 +5389,7 @@
         <v>58</v>
       </c>
       <c r="L9" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="M9" t="s">
         <v>20</v>
@@ -5458,7 +5521,7 @@
         <v>19</v>
       </c>
       <c r="L12" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="M12" t="s">
         <v>20</v>
@@ -5502,7 +5565,7 @@
         <v>114</v>
       </c>
       <c r="L13" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="M13" t="s">
         <v>36</v>
@@ -5546,7 +5609,7 @@
         <v>35</v>
       </c>
       <c r="L14" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="M14" t="s">
         <v>36</v>
@@ -5590,7 +5653,7 @@
         <v>100</v>
       </c>
       <c r="L15" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="M15" t="s">
         <v>20</v>
@@ -5634,7 +5697,7 @@
         <v>100</v>
       </c>
       <c r="L16" t="s">
-        <v>1091</v>
+        <v>1092</v>
       </c>
       <c r="M16" t="s">
         <v>36</v>
@@ -5678,7 +5741,7 @@
         <v>106</v>
       </c>
       <c r="L17" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="M17" t="s">
         <v>20</v>
@@ -5722,7 +5785,7 @@
         <v>106</v>
       </c>
       <c r="L18" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="M18" t="s">
         <v>36</v>
@@ -5766,7 +5829,7 @@
         <v>43</v>
       </c>
       <c r="L19" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="M19" t="s">
         <v>20</v>
@@ -5810,7 +5873,7 @@
         <v>106</v>
       </c>
       <c r="L20" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="M20" t="s">
         <v>20</v>
@@ -5942,7 +6005,7 @@
         <v>100</v>
       </c>
       <c r="L23" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="M23" t="s">
         <v>36</v>
@@ -6030,7 +6093,7 @@
         <v>112</v>
       </c>
       <c r="L25" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="M25" t="s">
         <v>20</v>
@@ -6074,7 +6137,7 @@
         <v>19</v>
       </c>
       <c r="L26" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="M26" t="s">
         <v>20</v>
@@ -6118,7 +6181,7 @@
         <v>82</v>
       </c>
       <c r="L27" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="M27" t="s">
         <v>20</v>
@@ -6162,7 +6225,7 @@
         <v>112</v>
       </c>
       <c r="L28" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="M28" t="s">
         <v>36</v>
@@ -6206,7 +6269,7 @@
         <v>91</v>
       </c>
       <c r="L29" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="M29" t="s">
         <v>20</v>
@@ -6294,7 +6357,7 @@
         <v>162</v>
       </c>
       <c r="L31" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="M31" t="s">
         <v>20</v>
@@ -6338,7 +6401,7 @@
         <v>181</v>
       </c>
       <c r="L32" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="M32" t="s">
         <v>176</v>
@@ -6382,7 +6445,7 @@
         <v>189</v>
       </c>
       <c r="L33" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="M33" t="s">
         <v>176</v>
@@ -6426,7 +6489,7 @@
         <v>91</v>
       </c>
       <c r="L34" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="M34" t="s">
         <v>20</v>
@@ -6470,7 +6533,7 @@
         <v>211</v>
       </c>
       <c r="L35" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="M35" t="s">
         <v>20</v>
@@ -6514,7 +6577,7 @@
         <v>214</v>
       </c>
       <c r="L36" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="M36" t="s">
         <v>176</v>
@@ -6558,7 +6621,7 @@
         <v>175</v>
       </c>
       <c r="L37" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="M37" t="s">
         <v>176</v>
@@ -6602,7 +6665,7 @@
         <v>211</v>
       </c>
       <c r="L38" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="M38" t="s">
         <v>176</v>
@@ -6646,7 +6709,7 @@
         <v>214</v>
       </c>
       <c r="L39" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="M39" t="s">
         <v>176</v>
@@ -6690,7 +6753,7 @@
         <v>168</v>
       </c>
       <c r="L40" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="M40" t="s">
         <v>176</v>
@@ -6910,7 +6973,7 @@
         <v>19</v>
       </c>
       <c r="L45" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="M45" t="s">
         <v>176</v>
@@ -6954,7 +7017,7 @@
         <v>175</v>
       </c>
       <c r="L46" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="M46" t="s">
         <v>20</v>
@@ -6998,7 +7061,7 @@
         <v>106</v>
       </c>
       <c r="L47" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="M47" t="s">
         <v>20</v>
@@ -7042,7 +7105,7 @@
         <v>211</v>
       </c>
       <c r="L48" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="M48" t="s">
         <v>20</v>
@@ -7086,7 +7149,7 @@
         <v>274</v>
       </c>
       <c r="L49" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="M49" t="s">
         <v>20</v>
@@ -7130,7 +7193,7 @@
         <v>175</v>
       </c>
       <c r="L50" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="M50" t="s">
         <v>20</v>
@@ -7174,7 +7237,7 @@
         <v>189</v>
       </c>
       <c r="L51" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="M51" t="s">
         <v>20</v>
@@ -7218,7 +7281,7 @@
         <v>100</v>
       </c>
       <c r="L52" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="M52" t="s">
         <v>176</v>
@@ -7262,7 +7325,7 @@
         <v>91</v>
       </c>
       <c r="L53" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="M53" t="s">
         <v>20</v>
@@ -7306,7 +7369,7 @@
         <v>43</v>
       </c>
       <c r="L54" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="M54" t="s">
         <v>20</v>
@@ -7350,7 +7413,7 @@
         <v>317</v>
       </c>
       <c r="L55" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="M55" t="s">
         <v>176</v>
@@ -7394,7 +7457,7 @@
         <v>320</v>
       </c>
       <c r="L56" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="M56" t="s">
         <v>20</v>
@@ -7438,7 +7501,7 @@
         <v>91</v>
       </c>
       <c r="L57" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="M57" t="s">
         <v>20</v>
@@ -7482,7 +7545,7 @@
         <v>43</v>
       </c>
       <c r="L58" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="M58" t="s">
         <v>20</v>
@@ -7614,7 +7677,7 @@
         <v>214</v>
       </c>
       <c r="L61" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="M61" t="s">
         <v>20</v>
@@ -7658,7 +7721,7 @@
         <v>211</v>
       </c>
       <c r="L62" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="M62" t="s">
         <v>176</v>
@@ -7702,7 +7765,7 @@
         <v>175</v>
       </c>
       <c r="L63" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="M63" t="s">
         <v>176</v>
@@ -7746,7 +7809,7 @@
         <v>214</v>
       </c>
       <c r="L64" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="M64" t="s">
         <v>176</v>
@@ -7878,7 +7941,7 @@
         <v>382</v>
       </c>
       <c r="L67" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="M67" t="s">
         <v>176</v>
@@ -7922,7 +7985,7 @@
         <v>385</v>
       </c>
       <c r="L68" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="M68" t="s">
         <v>20</v>
@@ -7966,7 +8029,7 @@
         <v>382</v>
       </c>
       <c r="L69" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="M69" t="s">
         <v>176</v>
@@ -8010,7 +8073,7 @@
         <v>382</v>
       </c>
       <c r="L70" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="M70" t="s">
         <v>20</v>
@@ -8142,7 +8205,7 @@
         <v>214</v>
       </c>
       <c r="L73" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="M73" t="s">
         <v>20</v>
@@ -8538,7 +8601,7 @@
         <v>377</v>
       </c>
       <c r="L82" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="M82" t="s">
         <v>20</v>
@@ -8582,7 +8645,7 @@
         <v>396</v>
       </c>
       <c r="L83" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="M83" t="s">
         <v>176</v>
@@ -8802,7 +8865,7 @@
         <v>377</v>
       </c>
       <c r="L88" t="s">
-        <v>1132</v>
+        <v>1133</v>
       </c>
       <c r="M88" t="s">
         <v>20</v>
@@ -9110,7 +9173,7 @@
         <v>452</v>
       </c>
       <c r="L95" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="M95" t="s">
         <v>20</v>
@@ -9154,7 +9217,7 @@
         <v>214</v>
       </c>
       <c r="L96" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="M96" t="s">
         <v>176</v>
@@ -9242,7 +9305,7 @@
         <v>433</v>
       </c>
       <c r="L98" t="s">
-        <v>1133</v>
+        <v>1134</v>
       </c>
       <c r="M98" t="s">
         <v>20</v>
@@ -9286,7 +9349,7 @@
         <v>175</v>
       </c>
       <c r="L99" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="M99" t="s">
         <v>20</v>
@@ -9374,7 +9437,7 @@
         <v>299</v>
       </c>
       <c r="L101" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="M101" t="s">
         <v>20</v>
@@ -9418,7 +9481,7 @@
         <v>474</v>
       </c>
       <c r="L102" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
       <c r="M102" t="s">
         <v>176</v>
@@ -9462,7 +9525,7 @@
         <v>477</v>
       </c>
       <c r="L103" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="M103" t="s">
         <v>20</v>
@@ -9506,7 +9569,7 @@
         <v>482</v>
       </c>
       <c r="L104" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="M104" t="s">
         <v>176</v>
@@ -9550,7 +9613,7 @@
         <v>442</v>
       </c>
       <c r="L105" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="M105" t="s">
         <v>176</v>
@@ -9594,7 +9657,7 @@
         <v>489</v>
       </c>
       <c r="L106" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="M106" t="s">
         <v>176</v>
@@ -9638,7 +9701,7 @@
         <v>442</v>
       </c>
       <c r="L107" t="s">
-        <v>1136</v>
+        <v>1137</v>
       </c>
       <c r="M107" t="s">
         <v>20</v>
@@ -9726,7 +9789,7 @@
         <v>442</v>
       </c>
       <c r="L109" t="s">
-        <v>1135</v>
+        <v>1136</v>
       </c>
       <c r="M109" t="s">
         <v>176</v>
@@ -9770,7 +9833,7 @@
         <v>446</v>
       </c>
       <c r="L110" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="M110" t="s">
         <v>20</v>
@@ -9814,7 +9877,7 @@
         <v>433</v>
       </c>
       <c r="L111" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="M111" t="s">
         <v>20</v>
@@ -9858,7 +9921,7 @@
         <v>529</v>
       </c>
       <c r="L112" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="M112" t="s">
         <v>20</v>
@@ -9902,7 +9965,7 @@
         <v>536</v>
       </c>
       <c r="L113" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="M113" t="s">
         <v>20</v>
@@ -9946,7 +10009,7 @@
         <v>442</v>
       </c>
       <c r="L114" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="M114" t="s">
         <v>20</v>
@@ -9990,7 +10053,7 @@
         <v>452</v>
       </c>
       <c r="L115" t="s">
-        <v>1143</v>
+        <v>1144</v>
       </c>
       <c r="M115" t="s">
         <v>20</v>
@@ -10034,7 +10097,7 @@
         <v>442</v>
       </c>
       <c r="L116" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="M116" t="s">
         <v>20</v>
@@ -10078,7 +10141,7 @@
         <v>474</v>
       </c>
       <c r="L117" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="M117" t="s">
         <v>20</v>
@@ -10386,7 +10449,7 @@
         <v>168</v>
       </c>
       <c r="L124" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="M124" t="s">
         <v>176</v>
@@ -10518,7 +10581,7 @@
         <v>555</v>
       </c>
       <c r="L127" t="s">
-        <v>1144</v>
+        <v>1145</v>
       </c>
       <c r="M127" t="s">
         <v>176</v>
@@ -10562,7 +10625,7 @@
         <v>320</v>
       </c>
       <c r="L128" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="M128" t="s">
         <v>176</v>
@@ -10826,7 +10889,7 @@
         <v>474</v>
       </c>
       <c r="L134" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="M134" t="s">
         <v>20</v>
@@ -13422,7 +13485,7 @@
         <v>684</v>
       </c>
       <c r="L193" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="M193" t="s">
         <v>176</v>
@@ -13457,7 +13520,7 @@
         <v>393</v>
       </c>
       <c r="I194" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="J194" t="s">
         <v>676</v>
@@ -13554,7 +13617,7 @@
         <v>687</v>
       </c>
       <c r="L196" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="M196" t="s">
         <v>20</v>
@@ -13598,7 +13661,7 @@
         <v>684</v>
       </c>
       <c r="L197" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="M197" t="s">
         <v>20</v>
@@ -13642,7 +13705,7 @@
         <v>58</v>
       </c>
       <c r="L198" t="s">
-        <v>1149</v>
+        <v>1150</v>
       </c>
       <c r="M198" t="s">
         <v>176</v>
@@ -13686,7 +13749,7 @@
         <v>54</v>
       </c>
       <c r="L199" t="s">
-        <v>1148</v>
+        <v>1149</v>
       </c>
       <c r="M199" t="s">
         <v>176</v>
@@ -13730,7 +13793,7 @@
         <v>48</v>
       </c>
       <c r="L200" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
       <c r="M200" t="s">
         <v>20</v>
@@ -13774,7 +13837,7 @@
         <v>54</v>
       </c>
       <c r="L201" t="s">
-        <v>1155</v>
+        <v>1156</v>
       </c>
       <c r="M201" t="s">
         <v>176</v>
@@ -13818,7 +13881,7 @@
         <v>181</v>
       </c>
       <c r="L202" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="M202" t="s">
         <v>176</v>
@@ -13862,7 +13925,7 @@
         <v>54</v>
       </c>
       <c r="L203" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="M203" t="s">
         <v>20</v>
@@ -13950,7 +14013,7 @@
         <v>19</v>
       </c>
       <c r="L205" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="M205" t="s">
         <v>176</v>
@@ -14038,7 +14101,7 @@
         <v>763</v>
       </c>
       <c r="L207" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="M207" t="s">
         <v>20</v>
@@ -14055,7 +14118,7 @@
         <v>21</v>
       </c>
       <c r="C208" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D208" t="s">
         <v>127</v>
@@ -14064,13 +14127,13 @@
         <v>587</v>
       </c>
       <c r="F208" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="G208" t="s">
         <v>26</v>
       </c>
       <c r="H208" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="I208">
         <v>9244678073</v>
@@ -14079,7 +14142,7 @@
         <v>762</v>
       </c>
       <c r="K208" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="L208" t="s">
         <v>495</v>
@@ -14099,7 +14162,7 @@
         <v>21</v>
       </c>
       <c r="C209" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="D209" t="s">
         <v>108</v>
@@ -14108,7 +14171,7 @@
         <v>45</v>
       </c>
       <c r="F209" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="G209" t="s">
         <v>26</v>
@@ -14126,7 +14189,7 @@
         <v>19</v>
       </c>
       <c r="L209" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="M209" t="s">
         <v>176</v>
@@ -14143,7 +14206,7 @@
         <v>21</v>
       </c>
       <c r="C210" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="D210" t="s">
         <v>127</v>
@@ -14152,13 +14215,13 @@
         <v>65</v>
       </c>
       <c r="F210" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="G210" t="s">
         <v>26</v>
       </c>
       <c r="H210" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="I210">
         <v>9691069403</v>
@@ -14167,10 +14230,10 @@
         <v>727</v>
       </c>
       <c r="K210" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="L210" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="M210" t="s">
         <v>20</v>
@@ -14187,7 +14250,7 @@
         <v>21</v>
       </c>
       <c r="C211" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="D211" t="s">
         <v>270</v>
@@ -14196,7 +14259,7 @@
         <v>587</v>
       </c>
       <c r="F211" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="G211" t="s">
         <v>16</v>
@@ -14211,10 +14274,10 @@
         <v>727</v>
       </c>
       <c r="K211" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="L211" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="M211" t="s">
         <v>176</v>
@@ -14231,7 +14294,7 @@
         <v>21</v>
       </c>
       <c r="C212" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="D212" t="s">
         <v>428</v>
@@ -14240,13 +14303,13 @@
         <v>154</v>
       </c>
       <c r="F212" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="G212" t="s">
         <v>26</v>
       </c>
       <c r="H212" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="I212">
         <v>9098531048</v>
@@ -14275,16 +14338,16 @@
         <v>21</v>
       </c>
       <c r="C213" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="D213" t="s">
         <v>179</v>
       </c>
       <c r="E213" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F213" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="G213" t="s">
         <v>26</v>
@@ -14299,10 +14362,10 @@
         <v>727</v>
       </c>
       <c r="K213" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="L213" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
       <c r="M213" t="s">
         <v>176</v>
@@ -14319,22 +14382,22 @@
         <v>21</v>
       </c>
       <c r="C214" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="D214" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E214" t="s">
         <v>65</v>
       </c>
       <c r="F214" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="G214" t="s">
         <v>26</v>
       </c>
       <c r="H214" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="I214">
         <v>8435718287</v>
@@ -14343,10 +14406,10 @@
         <v>727</v>
       </c>
       <c r="K214" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="L214" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="M214" t="s">
         <v>20</v>
@@ -14363,7 +14426,7 @@
         <v>21</v>
       </c>
       <c r="C215" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="D215" t="s">
         <v>179</v>
@@ -14372,7 +14435,7 @@
         <v>65</v>
       </c>
       <c r="F215" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="G215" t="s">
         <v>26</v>
@@ -14387,10 +14450,10 @@
         <v>727</v>
       </c>
       <c r="K215" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="L215" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="M215" t="s">
         <v>20</v>
@@ -14407,16 +14470,16 @@
         <v>21</v>
       </c>
       <c r="C216" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="D216" t="s">
         <v>199</v>
       </c>
       <c r="E216" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="F216" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="G216" t="s">
         <v>198</v>
@@ -14431,10 +14494,10 @@
         <v>727</v>
       </c>
       <c r="K216" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="L216" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="M216" t="s">
         <v>176</v>
@@ -14451,7 +14514,7 @@
         <v>21</v>
       </c>
       <c r="C217" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
       <c r="D217" t="s">
         <v>108</v>
@@ -14460,7 +14523,7 @@
         <v>56</v>
       </c>
       <c r="F217" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="G217" t="s">
         <v>26</v>
@@ -14475,10 +14538,10 @@
         <v>727</v>
       </c>
       <c r="K217" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="L217" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="M217" t="s">
         <v>20</v>
@@ -14495,7 +14558,7 @@
         <v>21</v>
       </c>
       <c r="C218" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="D218" t="s">
         <v>108</v>
@@ -14504,7 +14567,7 @@
         <v>45</v>
       </c>
       <c r="F218" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="G218" t="s">
         <v>26</v>
@@ -14519,7 +14582,7 @@
         <v>727</v>
       </c>
       <c r="K218" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="L218" t="s">
         <v>552</v>
@@ -14671,7 +14734,7 @@
         <v>21</v>
       </c>
       <c r="C222" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="D222" t="s">
         <v>127</v>
@@ -14680,7 +14743,7 @@
         <v>78</v>
       </c>
       <c r="F222" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="G222" t="s">
         <v>26</v>
@@ -14695,7 +14758,7 @@
         <v>727</v>
       </c>
       <c r="K222" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="L222" t="s">
         <v>495</v>
@@ -14715,7 +14778,7 @@
         <v>21</v>
       </c>
       <c r="C223" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="D223" t="s">
         <v>270</v>
@@ -14724,7 +14787,7 @@
         <v>101</v>
       </c>
       <c r="F223" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="G223" t="s">
         <v>16</v>
@@ -14739,10 +14802,10 @@
         <v>727</v>
       </c>
       <c r="K223" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="L223" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="M223" t="s">
         <v>176</v>
@@ -14759,7 +14822,7 @@
         <v>21</v>
       </c>
       <c r="C224" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="D224" t="s">
         <v>164</v>
@@ -14768,7 +14831,7 @@
         <v>65</v>
       </c>
       <c r="F224" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="G224" t="s">
         <v>26</v>
@@ -14780,13 +14843,13 @@
         <v>7999531931</v>
       </c>
       <c r="J224" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="K224" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="L224" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="M224" t="s">
         <v>20</v>
@@ -14803,7 +14866,7 @@
         <v>21</v>
       </c>
       <c r="C225" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="D225" t="s">
         <v>108</v>
@@ -14830,7 +14893,7 @@
         <v>665</v>
       </c>
       <c r="L225" t="s">
-        <v>1147</v>
+        <v>1148</v>
       </c>
       <c r="M225" t="s">
         <v>176</v>
@@ -14847,7 +14910,7 @@
         <v>21</v>
       </c>
       <c r="C226" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="D226" t="s">
         <v>108</v>
@@ -14856,7 +14919,7 @@
         <v>65</v>
       </c>
       <c r="F226" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="G226" t="s">
         <v>26</v>
@@ -14871,7 +14934,7 @@
         <v>727</v>
       </c>
       <c r="K226" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="L226" t="s">
         <v>237</v>
@@ -14891,7 +14954,7 @@
         <v>21</v>
       </c>
       <c r="C227" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="D227" t="s">
         <v>108</v>
@@ -14900,7 +14963,7 @@
         <v>120</v>
       </c>
       <c r="F227" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="G227" t="s">
         <v>26</v>
@@ -14915,10 +14978,10 @@
         <v>727</v>
       </c>
       <c r="K227" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="L227" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="M227" t="s">
         <v>176</v>
@@ -14935,7 +14998,7 @@
         <v>21</v>
       </c>
       <c r="C228" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="D228" t="s">
         <v>127</v>
@@ -14944,7 +15007,7 @@
         <v>78</v>
       </c>
       <c r="F228" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="G228" t="s">
         <v>26</v>
@@ -14962,7 +15025,7 @@
         <v>162</v>
       </c>
       <c r="L228" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="M228" t="s">
         <v>20</v>
@@ -14979,7 +15042,7 @@
         <v>21</v>
       </c>
       <c r="C229" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="D229" t="s">
         <v>108</v>
@@ -14988,7 +15051,7 @@
         <v>65</v>
       </c>
       <c r="F229" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="G229" t="s">
         <v>26</v>
@@ -15006,7 +15069,7 @@
         <v>157</v>
       </c>
       <c r="L229" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="M229" t="s">
         <v>20</v>
@@ -15023,7 +15086,7 @@
         <v>21</v>
       </c>
       <c r="C230" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="D230" t="s">
         <v>334</v>
@@ -15032,7 +15095,7 @@
         <v>65</v>
       </c>
       <c r="F230" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="G230" t="s">
         <v>26</v>
@@ -15047,7 +15110,7 @@
         <v>43</v>
       </c>
       <c r="K230" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="L230" t="s">
         <v>612</v>
@@ -15067,7 +15130,7 @@
         <v>21</v>
       </c>
       <c r="C231" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D231" t="s">
         <v>69</v>
@@ -15076,13 +15139,13 @@
         <v>65</v>
       </c>
       <c r="F231" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="G231" t="s">
         <v>26</v>
       </c>
       <c r="H231" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="I231">
         <v>9399343180</v>
@@ -15094,7 +15157,7 @@
         <v>106</v>
       </c>
       <c r="L231" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="M231" t="s">
         <v>176</v>
@@ -15111,22 +15174,22 @@
         <v>21</v>
       </c>
       <c r="C232" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="D232" t="s">
         <v>179</v>
       </c>
       <c r="E232" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="F232" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="G232" t="s">
         <v>26</v>
       </c>
       <c r="H232" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="I232">
         <v>9244596975</v>
@@ -15135,7 +15198,7 @@
         <v>762</v>
       </c>
       <c r="K232" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="L232" t="s">
         <v>753</v>
@@ -15155,7 +15218,7 @@
         <v>21</v>
       </c>
       <c r="C233" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="D233" t="s">
         <v>428</v>
@@ -15164,7 +15227,7 @@
         <v>65</v>
       </c>
       <c r="F233" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="G233" t="s">
         <v>26</v>
@@ -15179,10 +15242,10 @@
         <v>727</v>
       </c>
       <c r="K233" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="L233" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="M233" t="s">
         <v>20</v>
@@ -15199,7 +15262,7 @@
         <v>21</v>
       </c>
       <c r="C234" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="D234" t="s">
         <v>108</v>
@@ -15208,7 +15271,7 @@
         <v>93</v>
       </c>
       <c r="F234" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="G234" t="s">
         <v>26</v>
@@ -15226,7 +15289,7 @@
         <v>713</v>
       </c>
       <c r="L234" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="M234" t="s">
         <v>176</v>
@@ -15243,7 +15306,7 @@
         <v>21</v>
       </c>
       <c r="C235" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="D235" t="s">
         <v>291</v>
@@ -15252,7 +15315,7 @@
         <v>65</v>
       </c>
       <c r="F235" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="G235" t="s">
         <v>26</v>
@@ -15270,7 +15333,7 @@
         <v>433</v>
       </c>
       <c r="L235" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="M235" t="s">
         <v>176</v>
@@ -15287,31 +15350,31 @@
         <v>21</v>
       </c>
       <c r="C236" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="D236" t="s">
         <v>69</v>
       </c>
       <c r="E236" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="F236" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="G236" t="s">
         <v>26</v>
       </c>
       <c r="H236" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="I236">
         <v>7610582291</v>
       </c>
       <c r="J236" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="K236" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="L236" t="s">
         <v>423</v>
@@ -15331,7 +15394,7 @@
         <v>21</v>
       </c>
       <c r="C237" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D237" t="s">
         <v>108</v>
@@ -15340,13 +15403,13 @@
         <v>65</v>
       </c>
       <c r="F237" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="G237" t="s">
         <v>26</v>
       </c>
       <c r="H237" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="I237">
         <v>9284443639</v>
@@ -15358,7 +15421,7 @@
         <v>157</v>
       </c>
       <c r="L237" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
       <c r="M237" t="s">
         <v>20</v>
@@ -15375,7 +15438,7 @@
         <v>21</v>
       </c>
       <c r="C238" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="D238" t="s">
         <v>69</v>
@@ -15384,7 +15447,7 @@
         <v>65</v>
       </c>
       <c r="F238" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="G238" t="s">
         <v>26</v>
@@ -15419,7 +15482,7 @@
         <v>21</v>
       </c>
       <c r="C239" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="D239" t="s">
         <v>345</v>
@@ -15428,13 +15491,13 @@
         <v>351</v>
       </c>
       <c r="F239" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="G239" t="s">
         <v>26</v>
       </c>
       <c r="H239" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="I239">
         <v>9981229751</v>
@@ -15443,7 +15506,7 @@
         <v>43</v>
       </c>
       <c r="K239" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="L239" t="s">
         <v>204</v>
@@ -15463,7 +15526,7 @@
         <v>21</v>
       </c>
       <c r="C240" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="D240" t="s">
         <v>153</v>
@@ -15472,13 +15535,13 @@
         <v>351</v>
       </c>
       <c r="F240" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
       <c r="G240" t="s">
         <v>26</v>
       </c>
       <c r="H240" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="I240">
         <v>6267268430</v>
@@ -15490,7 +15553,7 @@
         <v>157</v>
       </c>
       <c r="L240" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="M240" t="s">
         <v>176</v>
@@ -15507,7 +15570,7 @@
         <v>21</v>
       </c>
       <c r="C241" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="D241" t="s">
         <v>334</v>
@@ -15516,7 +15579,7 @@
         <v>351</v>
       </c>
       <c r="F241" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="G241" t="s">
         <v>26</v>
@@ -15528,13 +15591,13 @@
         <v>9174449117</v>
       </c>
       <c r="J241" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="K241" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="L241" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="M241" t="s">
         <v>20</v>
@@ -15551,7 +15614,7 @@
         <v>21</v>
       </c>
       <c r="C242" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="D242" t="s">
         <v>179</v>
@@ -15560,25 +15623,25 @@
         <v>351</v>
       </c>
       <c r="F242" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="G242" t="s">
         <v>26</v>
       </c>
       <c r="H242" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="I242">
         <v>9131811737</v>
       </c>
       <c r="J242" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="K242" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="L242" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="M242" t="s">
         <v>20</v>
@@ -15595,7 +15658,7 @@
         <v>21</v>
       </c>
       <c r="C243" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="D243" t="s">
         <v>428</v>
@@ -15604,7 +15667,7 @@
         <v>65</v>
       </c>
       <c r="F243" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="G243" t="s">
         <v>26</v>
@@ -15639,7 +15702,7 @@
         <v>21</v>
       </c>
       <c r="C244" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="D244" t="s">
         <v>108</v>
@@ -15648,7 +15711,7 @@
         <v>587</v>
       </c>
       <c r="F244" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="G244" t="s">
         <v>26</v>
@@ -15663,10 +15726,10 @@
         <v>727</v>
       </c>
       <c r="K244" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="L244" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="M244" t="s">
         <v>176</v>
@@ -15710,7 +15773,7 @@
         <v>474</v>
       </c>
       <c r="L245" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="M245" t="s">
         <v>176</v>
@@ -15727,7 +15790,7 @@
         <v>21</v>
       </c>
       <c r="C246" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="D246" t="s">
         <v>270</v>
@@ -15736,7 +15799,7 @@
         <v>351</v>
       </c>
       <c r="F246" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="G246" t="s">
         <v>16</v>
@@ -15748,13 +15811,13 @@
         <v>7646962926</v>
       </c>
       <c r="J246" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="K246" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="L246" t="s">
-        <v>1172</v>
+        <v>1173</v>
       </c>
       <c r="M246" t="s">
         <v>20</v>
@@ -15771,7 +15834,7 @@
         <v>21</v>
       </c>
       <c r="C247" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="D247" t="s">
         <v>97</v>
@@ -15780,7 +15843,7 @@
         <v>351</v>
       </c>
       <c r="F247" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
       <c r="G247" t="s">
         <v>26</v>
@@ -15792,13 +15855,13 @@
         <v>9098554423</v>
       </c>
       <c r="J247" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="K247" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="L247" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="M247" t="s">
         <v>176</v>
@@ -15815,7 +15878,7 @@
         <v>21</v>
       </c>
       <c r="C248" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="D248" t="s">
         <v>108</v>
@@ -15824,7 +15887,7 @@
         <v>351</v>
       </c>
       <c r="F248" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="G248" t="s">
         <v>26</v>
@@ -15836,13 +15899,13 @@
         <v>7447052684</v>
       </c>
       <c r="J248" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="K248" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="L248" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="M248" t="s">
         <v>20</v>
@@ -15859,16 +15922,16 @@
         <v>21</v>
       </c>
       <c r="C249" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="D249" t="s">
         <v>69</v>
       </c>
       <c r="E249" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="F249" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="G249" t="s">
         <v>26</v>
@@ -15880,10 +15943,10 @@
         <v>7828260449</v>
       </c>
       <c r="J249" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="K249" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="L249" t="s">
         <v>738</v>
@@ -15903,16 +15966,16 @@
         <v>21</v>
       </c>
       <c r="C250" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="D250" t="s">
         <v>108</v>
       </c>
       <c r="E250" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="F250" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="G250" t="s">
         <v>26</v>
@@ -15924,13 +15987,13 @@
         <v>9977805010</v>
       </c>
       <c r="J250" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="K250" t="s">
         <v>626</v>
       </c>
       <c r="L250" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="M250" t="s">
         <v>20</v>
@@ -15947,16 +16010,16 @@
         <v>21</v>
       </c>
       <c r="C251" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="D251" t="s">
         <v>270</v>
       </c>
       <c r="E251" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="F251" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="G251" t="s">
         <v>16</v>
@@ -15968,10 +16031,10 @@
         <v>7587445096</v>
       </c>
       <c r="J251" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="K251" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="L251" t="s">
         <v>601</v>
@@ -15991,16 +16054,16 @@
         <v>21</v>
       </c>
       <c r="C252" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="D252" t="s">
         <v>179</v>
       </c>
       <c r="E252" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="F252" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="G252" t="s">
         <v>26</v>
@@ -16012,13 +16075,13 @@
         <v>9303788079</v>
       </c>
       <c r="J252" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="K252" t="s">
         <v>320</v>
       </c>
       <c r="L252" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="M252" t="s">
         <v>20</v>
@@ -16035,16 +16098,16 @@
         <v>21</v>
       </c>
       <c r="C253" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="D253" t="s">
         <v>334</v>
       </c>
       <c r="E253" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="F253" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="G253" t="s">
         <v>364</v>
@@ -16056,13 +16119,13 @@
         <v>7067082458</v>
       </c>
       <c r="J253" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="K253" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="L253" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="M253" t="s">
         <v>176</v>
@@ -16079,16 +16142,16 @@
         <v>21</v>
       </c>
       <c r="C254" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="D254" t="s">
         <v>270</v>
       </c>
       <c r="E254" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="F254" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="G254" t="s">
         <v>16</v>
@@ -16106,7 +16169,7 @@
         <v>396</v>
       </c>
       <c r="L254" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="M254" t="s">
         <v>20</v>
@@ -16123,7 +16186,7 @@
         <v>21</v>
       </c>
       <c r="C255" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="D255" t="s">
         <v>164</v>
@@ -16132,13 +16195,13 @@
         <v>351</v>
       </c>
       <c r="F255" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="G255" t="s">
         <v>26</v>
       </c>
       <c r="H255" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="I255">
         <v>9098093149</v>
@@ -16147,16 +16210,16 @@
         <v>43</v>
       </c>
       <c r="K255" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="L255" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="M255" t="s">
         <v>176</v>
       </c>
       <c r="N255" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
     </row>
     <row r="256" spans="1:14">
@@ -16167,7 +16230,7 @@
         <v>21</v>
       </c>
       <c r="C256" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D256" t="s">
         <v>164</v>
@@ -16176,7 +16239,7 @@
         <v>351</v>
       </c>
       <c r="F256" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="G256" t="s">
         <v>26</v>
@@ -16188,13 +16251,13 @@
         <v>6265037123</v>
       </c>
       <c r="J256" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="K256" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="L256" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="M256" t="s">
         <v>176</v>
@@ -16208,10 +16271,10 @@
         <v>13245</v>
       </c>
       <c r="B257" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C257" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="D257" t="s">
         <v>108</v>
@@ -16220,7 +16283,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="G257" t="s">
         <v>17</v>
@@ -16232,13 +16295,13 @@
         <v>9302373565</v>
       </c>
       <c r="J257" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="K257" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="L257" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="M257" t="s">
         <v>20</v>
@@ -16255,16 +16318,16 @@
         <v>21</v>
       </c>
       <c r="C258" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="D258" t="s">
         <v>108</v>
       </c>
       <c r="E258" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="F258" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="G258" t="s">
         <v>26</v>
@@ -16276,13 +16339,13 @@
         <v>9399994876</v>
       </c>
       <c r="J258" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="K258" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="L258" t="s">
-        <v>1180</v>
+        <v>1181</v>
       </c>
       <c r="M258" t="s">
         <v>176</v>
@@ -16299,16 +16362,16 @@
         <v>21</v>
       </c>
       <c r="C259" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="D259" t="s">
         <v>108</v>
       </c>
       <c r="E259" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="F259" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="G259" t="s">
         <v>26</v>
@@ -16320,13 +16383,13 @@
         <v>9407736680</v>
       </c>
       <c r="J259" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="K259" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="L259" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="M259" t="s">
         <v>20</v>
@@ -16343,16 +16406,16 @@
         <v>21</v>
       </c>
       <c r="C260" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="D260" t="s">
         <v>334</v>
       </c>
       <c r="E260" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="F260" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="G260" t="s">
         <v>26</v>
@@ -16364,13 +16427,13 @@
         <v>8103544032</v>
       </c>
       <c r="J260" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="K260" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="L260" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="M260" t="s">
         <v>20</v>
@@ -16387,31 +16450,31 @@
         <v>21</v>
       </c>
       <c r="C261" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="D261" t="s">
         <v>127</v>
       </c>
       <c r="E261" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="F261" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="G261" t="s">
         <v>26</v>
       </c>
       <c r="H261" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="I261">
         <v>7880256597</v>
       </c>
       <c r="J261" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="K261" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="L261" t="s">
         <v>616</v>
@@ -16431,31 +16494,31 @@
         <v>21</v>
       </c>
       <c r="C262" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="D262" t="s">
         <v>179</v>
       </c>
       <c r="E262" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="F262" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="G262" t="s">
         <v>26</v>
       </c>
       <c r="H262" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="I262" t="e">
         <v>#N/A</v>
       </c>
       <c r="J262" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="K262" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="L262" t="s">
         <v>495</v>
@@ -16475,16 +16538,16 @@
         <v>21</v>
       </c>
       <c r="C263" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D263" t="s">
         <v>108</v>
       </c>
       <c r="E263" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="F263" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="G263" t="s">
         <v>26</v>
@@ -16496,13 +16559,13 @@
         <v>9691551072</v>
       </c>
       <c r="J263" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="K263" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="L263" t="s">
-        <v>1181</v>
+        <v>1182</v>
       </c>
       <c r="M263" t="s">
         <v>20</v>
@@ -16519,16 +16582,16 @@
         <v>21</v>
       </c>
       <c r="C264" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="D264" t="s">
         <v>108</v>
       </c>
       <c r="E264" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="F264" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="G264" t="s">
         <v>26</v>
@@ -16540,10 +16603,10 @@
         <v>9516611039</v>
       </c>
       <c r="J264" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="K264" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="L264" t="s">
         <v>204</v>
@@ -16563,31 +16626,31 @@
         <v>21</v>
       </c>
       <c r="C265" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D265" t="s">
         <v>108</v>
       </c>
       <c r="E265" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="F265" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="G265" t="s">
         <v>26</v>
       </c>
       <c r="H265" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="I265">
         <v>9511838854</v>
       </c>
       <c r="J265" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="K265" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="L265" t="s">
         <v>237</v>
@@ -16607,16 +16670,16 @@
         <v>21</v>
       </c>
       <c r="C266" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D266" t="s">
         <v>108</v>
       </c>
       <c r="E266" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="F266" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="G266" t="s">
         <v>26</v>
@@ -16628,13 +16691,13 @@
         <v>9424270003</v>
       </c>
       <c r="J266" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="K266" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="L266" t="s">
-        <v>1182</v>
+        <v>1183</v>
       </c>
       <c r="M266" t="s">
         <v>20</v>
@@ -16651,16 +16714,16 @@
         <v>21</v>
       </c>
       <c r="C267" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="D267" t="s">
         <v>334</v>
       </c>
       <c r="E267" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="F267" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="G267" t="s">
         <v>26</v>
@@ -16672,13 +16735,13 @@
         <v>8103666038</v>
       </c>
       <c r="J267" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="K267" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="L267" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="M267" t="s">
         <v>20</v>
@@ -16695,16 +16758,16 @@
         <v>21</v>
       </c>
       <c r="C268" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D268" t="s">
         <v>108</v>
       </c>
       <c r="E268" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="F268" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
       <c r="G268" t="s">
         <v>26</v>
@@ -16716,13 +16779,13 @@
         <v>8839870855</v>
       </c>
       <c r="J268" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="K268" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="L268" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="M268" t="s">
         <v>176</v>
@@ -16739,16 +16802,16 @@
         <v>21</v>
       </c>
       <c r="C269" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="D269" t="s">
         <v>108</v>
       </c>
       <c r="E269" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="F269" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="G269" t="s">
         <v>26</v>
@@ -16760,10 +16823,10 @@
         <v>#N/A</v>
       </c>
       <c r="J269" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="K269" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="L269" t="s">
         <v>579</v>
@@ -16783,16 +16846,16 @@
         <v>21</v>
       </c>
       <c r="C270" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D270" t="s">
         <v>291</v>
       </c>
       <c r="E270" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="F270" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="G270" t="s">
         <v>26</v>
@@ -16804,13 +16867,13 @@
         <v>9407949717</v>
       </c>
       <c r="J270" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="K270" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="L270" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="M270" t="s">
         <v>20</v>
@@ -16827,22 +16890,22 @@
         <v>21</v>
       </c>
       <c r="C271" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="D271" t="s">
         <v>159</v>
       </c>
       <c r="E271" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="F271" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="G271" t="s">
         <v>26</v>
       </c>
       <c r="H271" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="I271">
         <v>8309941201</v>
@@ -16854,7 +16917,7 @@
         <v>317</v>
       </c>
       <c r="L271" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="M271" t="s">
         <v>176</v>
@@ -16871,34 +16934,34 @@
         <v>21</v>
       </c>
       <c r="C272" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="D272" t="s">
         <v>108</v>
       </c>
       <c r="E272" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="F272" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="G272" t="s">
         <v>26</v>
       </c>
       <c r="H272" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="I272">
         <v>6265466022</v>
       </c>
       <c r="J272" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="K272" t="s">
         <v>433</v>
       </c>
       <c r="L272" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="M272" t="s">
         <v>176</v>
@@ -16915,16 +16978,16 @@
         <v>21</v>
       </c>
       <c r="C273" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="D273" t="s">
         <v>69</v>
       </c>
       <c r="E273" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="F273" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="G273" t="s">
         <v>26</v>
@@ -16936,7 +16999,7 @@
         <v>9098726900</v>
       </c>
       <c r="J273" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="K273" t="s">
         <v>422</v>
@@ -16959,16 +17022,16 @@
         <v>21</v>
       </c>
       <c r="C274" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="D274" t="s">
         <v>108</v>
       </c>
       <c r="E274" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="F274" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="G274" t="s">
         <v>26</v>
@@ -16980,13 +17043,13 @@
         <v>7722990467</v>
       </c>
       <c r="J274" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="K274" t="s">
         <v>422</v>
       </c>
       <c r="L274" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="M274" t="s">
         <v>20</v>
@@ -17003,34 +17066,34 @@
         <v>21</v>
       </c>
       <c r="C275" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="D275" t="s">
         <v>153</v>
       </c>
       <c r="E275" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="F275" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="G275" t="s">
         <v>26</v>
       </c>
       <c r="H275" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="I275">
         <v>7646922774</v>
       </c>
       <c r="J275" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="K275" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="L275" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="M275" t="s">
         <v>176</v>
@@ -17047,16 +17110,16 @@
         <v>21</v>
       </c>
       <c r="C276" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="D276" t="s">
         <v>108</v>
       </c>
       <c r="E276" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="F276" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="G276" t="s">
         <v>26</v>
@@ -17068,13 +17131,13 @@
         <v>9340791444</v>
       </c>
       <c r="J276" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="K276" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="L276" t="s">
-        <v>1190</v>
+        <v>1191</v>
       </c>
       <c r="M276" t="s">
         <v>20</v>
@@ -17091,16 +17154,16 @@
         <v>21</v>
       </c>
       <c r="C277" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D277" t="s">
         <v>270</v>
       </c>
       <c r="E277" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="F277" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="G277" t="s">
         <v>16</v>
@@ -17112,13 +17175,13 @@
         <v>6268962265</v>
       </c>
       <c r="J277" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="K277" t="s">
         <v>422</v>
       </c>
       <c r="L277" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="M277" t="s">
         <v>176</v>
@@ -17135,34 +17198,34 @@
         <v>21</v>
       </c>
       <c r="C278" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="D278" t="s">
         <v>164</v>
       </c>
       <c r="E278" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="F278" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="G278" t="s">
         <v>26</v>
       </c>
       <c r="H278" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="I278">
         <v>6263094689</v>
       </c>
       <c r="J278" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="K278" t="s">
         <v>433</v>
       </c>
       <c r="L278" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="M278" t="s">
         <v>20</v>
@@ -17179,16 +17242,16 @@
         <v>21</v>
       </c>
       <c r="C279" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="D279" t="s">
         <v>270</v>
       </c>
       <c r="E279" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="F279" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="G279" t="s">
         <v>16</v>
@@ -17200,13 +17263,13 @@
         <v>9770299730</v>
       </c>
       <c r="J279" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="K279" t="s">
         <v>446</v>
       </c>
       <c r="L279" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="M279" t="s">
         <v>20</v>
@@ -17223,16 +17286,16 @@
         <v>21</v>
       </c>
       <c r="C280" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D280" t="s">
         <v>334</v>
       </c>
       <c r="E280" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="F280" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="G280" t="s">
         <v>26</v>
@@ -17244,13 +17307,13 @@
         <v>7805879922</v>
       </c>
       <c r="J280" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="K280" t="s">
         <v>433</v>
       </c>
       <c r="L280" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="M280" t="s">
         <v>20</v>
@@ -17267,16 +17330,16 @@
         <v>21</v>
       </c>
       <c r="C281" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="D281" t="s">
         <v>108</v>
       </c>
       <c r="E281" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="F281" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="G281" t="s">
         <v>26</v>
@@ -17288,13 +17351,13 @@
         <v>9770047345</v>
       </c>
       <c r="J281" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="K281" t="s">
         <v>91</v>
       </c>
       <c r="L281" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="M281" t="s">
         <v>20</v>
@@ -17308,10 +17371,10 @@
         <v>13839</v>
       </c>
       <c r="B282" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C282" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="D282" t="s">
         <v>97</v>
@@ -17320,25 +17383,25 @@
         <v>17</v>
       </c>
       <c r="F282" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="G282" t="s">
         <v>17</v>
       </c>
       <c r="H282" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="I282">
         <v>9171043733</v>
       </c>
       <c r="J282" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="K282" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="L282" t="s">
-        <v>1150</v>
+        <v>1151</v>
       </c>
       <c r="M282" t="s">
         <v>20</v>
@@ -17352,10 +17415,10 @@
         <v>13843</v>
       </c>
       <c r="B283" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C283" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="D283" t="s">
         <v>108</v>
@@ -17364,7 +17427,7 @@
         <v>17</v>
       </c>
       <c r="F283" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="G283" t="s">
         <v>17</v>
@@ -17376,13 +17439,13 @@
         <v>9302115077</v>
       </c>
       <c r="J283" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="K283" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="L283" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="M283" t="s">
         <v>20</v>
@@ -17396,10 +17459,10 @@
         <v>13844</v>
       </c>
       <c r="B284" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C284" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="D284" t="s">
         <v>108</v>
@@ -17408,7 +17471,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="G284" t="s">
         <v>17</v>
@@ -17420,13 +17483,13 @@
         <v>6261818203</v>
       </c>
       <c r="J284" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="K284" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="L284" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="M284" t="s">
         <v>20</v>
@@ -17440,10 +17503,10 @@
         <v>13850</v>
       </c>
       <c r="B285" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C285" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="D285" t="s">
         <v>108</v>
@@ -17452,7 +17515,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="G285" t="s">
         <v>17</v>
@@ -17464,13 +17527,13 @@
         <v>7489773137</v>
       </c>
       <c r="J285" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="K285" t="s">
         <v>529</v>
       </c>
       <c r="L285" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="M285" t="s">
         <v>20</v>
@@ -17484,10 +17547,10 @@
         <v>13851</v>
       </c>
       <c r="B286" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C286" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="D286" t="s">
         <v>334</v>
@@ -17496,22 +17559,22 @@
         <v>17</v>
       </c>
       <c r="F286" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="G286" t="s">
         <v>17</v>
       </c>
       <c r="H286" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="I286">
         <v>6269256856</v>
       </c>
       <c r="J286" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="K286" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="L286" t="s">
         <v>203</v>
@@ -17528,10 +17591,10 @@
         <v>13642</v>
       </c>
       <c r="B287" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C287" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="D287" t="s">
         <v>108</v>
@@ -17540,7 +17603,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="G287" t="s">
         <v>17</v>
@@ -17552,13 +17615,13 @@
         <v>8103345367</v>
       </c>
       <c r="J287" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="K287" t="s">
         <v>181</v>
       </c>
       <c r="L287" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="M287" t="s">
         <v>20</v>
@@ -17575,16 +17638,16 @@
         <v>21</v>
       </c>
       <c r="C288" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D288" t="s">
         <v>270</v>
       </c>
       <c r="E288" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="F288" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="G288" t="s">
         <v>16</v>
@@ -17596,13 +17659,13 @@
         <v>6267531596</v>
       </c>
       <c r="J288" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="K288" t="s">
-        <v>901</v>
+        <v>902</v>
       </c>
       <c r="L288" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="M288" t="s">
         <v>176</v>
@@ -17619,16 +17682,16 @@
         <v>21</v>
       </c>
       <c r="C289" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="D289" t="s">
         <v>108</v>
       </c>
       <c r="E289" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="F289" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="G289" t="s">
         <v>26</v>
@@ -17640,7 +17703,7 @@
         <v>9301338058</v>
       </c>
       <c r="J289" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="K289" t="s">
         <v>274</v>
@@ -17663,16 +17726,16 @@
         <v>21</v>
       </c>
       <c r="C290" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="D290" t="s">
         <v>179</v>
       </c>
       <c r="E290" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="F290" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="G290" t="s">
         <v>26</v>
@@ -17684,10 +17747,10 @@
         <v>6264077459</v>
       </c>
       <c r="J290" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="K290" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="L290" t="s">
         <v>237</v>
@@ -17707,16 +17770,16 @@
         <v>21</v>
       </c>
       <c r="C291" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D291" t="s">
         <v>179</v>
       </c>
       <c r="E291" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
       <c r="F291" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="G291" t="s">
         <v>26</v>
@@ -17728,10 +17791,10 @@
         <v>7804838228</v>
       </c>
       <c r="J291" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="K291" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="L291" t="s">
         <v>418</v>
@@ -17748,10 +17811,10 @@
         <v>13866</v>
       </c>
       <c r="B292" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C292" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D292" t="s">
         <v>108</v>
@@ -17760,7 +17823,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="G292" t="s">
         <v>17</v>
@@ -17772,13 +17835,13 @@
         <v>9131100688</v>
       </c>
       <c r="J292" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="K292" t="s">
         <v>536</v>
       </c>
       <c r="L292" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="M292" t="s">
         <v>20</v>
@@ -17795,7 +17858,7 @@
         <v>21</v>
       </c>
       <c r="C293" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="D293" t="s">
         <v>108</v>
@@ -17804,7 +17867,7 @@
         <v>234</v>
       </c>
       <c r="F293" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="G293" t="s">
         <v>26</v>
@@ -17816,13 +17879,13 @@
         <v>6268341601</v>
       </c>
       <c r="J293" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="K293" t="s">
         <v>536</v>
       </c>
       <c r="L293" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="M293" t="s">
         <v>176</v>
@@ -17839,16 +17902,16 @@
         <v>21</v>
       </c>
       <c r="C294" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="D294" t="s">
         <v>428</v>
       </c>
       <c r="E294" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="F294" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="G294" t="s">
         <v>26</v>
@@ -17860,7 +17923,7 @@
         <v>9302927705</v>
       </c>
       <c r="J294" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="K294" t="s">
         <v>489</v>
@@ -17883,34 +17946,34 @@
         <v>21</v>
       </c>
       <c r="C295" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="D295" t="s">
         <v>159</v>
       </c>
       <c r="E295" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="F295" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="G295" t="s">
         <v>26</v>
       </c>
       <c r="H295" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="I295">
         <v>6268372611</v>
       </c>
       <c r="J295" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="K295" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="L295" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="M295" t="s">
         <v>176</v>
@@ -17927,34 +17990,34 @@
         <v>21</v>
       </c>
       <c r="C296" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="D296" t="s">
         <v>108</v>
       </c>
       <c r="E296" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="F296" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="G296" t="s">
         <v>26</v>
       </c>
       <c r="H296" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="I296">
         <v>9302528631</v>
       </c>
       <c r="J296" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="K296" t="s">
         <v>529</v>
       </c>
       <c r="L296" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="M296" t="s">
         <v>20</v>
@@ -17971,16 +18034,16 @@
         <v>21</v>
       </c>
       <c r="C297" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="D297" t="s">
         <v>270</v>
       </c>
       <c r="E297" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="F297" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="G297" t="s">
         <v>16</v>
@@ -17992,13 +18055,13 @@
         <v>7879722287</v>
       </c>
       <c r="J297" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="K297" t="s">
         <v>529</v>
       </c>
       <c r="L297" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="M297" t="s">
         <v>20</v>
@@ -18015,7 +18078,7 @@
         <v>21</v>
       </c>
       <c r="C298" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="D298" t="s">
         <v>69</v>
@@ -18024,7 +18087,7 @@
         <v>618</v>
       </c>
       <c r="F298" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="G298" t="s">
         <v>26</v>
@@ -18036,13 +18099,13 @@
         <v>7828865735</v>
       </c>
       <c r="J298" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="K298" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="L298" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="M298" t="s">
         <v>20</v>
@@ -18068,7 +18131,7 @@
         <v>172</v>
       </c>
       <c r="F299" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="G299" t="s">
         <v>26</v>
@@ -18080,13 +18143,13 @@
         <v>9399412333</v>
       </c>
       <c r="J299" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="K299" t="s">
         <v>433</v>
       </c>
       <c r="L299" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="M299" t="s">
         <v>176</v>
@@ -18103,7 +18166,7 @@
         <v>21</v>
       </c>
       <c r="C300" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="D300" t="s">
         <v>179</v>
@@ -18112,7 +18175,7 @@
         <v>304</v>
       </c>
       <c r="F300" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="G300" t="s">
         <v>26</v>
@@ -18124,10 +18187,10 @@
         <v>6264273513</v>
       </c>
       <c r="J300" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="K300" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="L300" t="s">
         <v>601</v>
@@ -18147,7 +18210,7 @@
         <v>21</v>
       </c>
       <c r="C301" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="D301" t="s">
         <v>179</v>
@@ -18156,7 +18219,7 @@
         <v>60</v>
       </c>
       <c r="F301" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="G301" t="s">
         <v>26</v>
@@ -18168,13 +18231,13 @@
         <v>7647095023</v>
       </c>
       <c r="J301" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="K301" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="L301" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="M301" t="s">
         <v>176</v>
@@ -18191,7 +18254,7 @@
         <v>21</v>
       </c>
       <c r="C302" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="D302" t="s">
         <v>153</v>
@@ -18200,7 +18263,7 @@
         <v>374</v>
       </c>
       <c r="F302" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="G302" t="s">
         <v>26</v>
@@ -18212,13 +18275,13 @@
         <v>6268710811</v>
       </c>
       <c r="J302" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="K302" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="L302" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="M302" t="s">
         <v>20</v>
@@ -18232,10 +18295,10 @@
         <v>13458</v>
       </c>
       <c r="B303" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C303" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="D303" t="s">
         <v>108</v>
@@ -18256,7 +18319,7 @@
         <v>7999774817</v>
       </c>
       <c r="J303" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="K303" t="s">
         <v>446</v>
@@ -18285,28 +18348,28 @@
         <v>108</v>
       </c>
       <c r="E304" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="F304" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="G304" t="s">
         <v>26</v>
       </c>
       <c r="H304" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="I304">
         <v>8305621048</v>
       </c>
       <c r="J304" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="K304" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="L304" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="M304" t="s">
         <v>176</v>
@@ -18323,7 +18386,7 @@
         <v>21</v>
       </c>
       <c r="C305" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="D305" t="s">
         <v>127</v>
@@ -18332,25 +18395,25 @@
         <v>65</v>
       </c>
       <c r="F305" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="G305" t="s">
         <v>26</v>
       </c>
       <c r="H305" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="I305">
         <v>7898664815</v>
       </c>
       <c r="J305" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="K305" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="L305" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="M305" t="s">
         <v>20</v>
@@ -18367,7 +18430,7 @@
         <v>21</v>
       </c>
       <c r="C306" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="D306" t="s">
         <v>127</v>
@@ -18376,25 +18439,25 @@
         <v>65</v>
       </c>
       <c r="F306" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="G306" t="s">
         <v>26</v>
       </c>
       <c r="H306" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="I306">
         <v>8602191799</v>
       </c>
       <c r="J306" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="K306" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="L306" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="M306" t="s">
         <v>20</v>
@@ -18411,16 +18474,16 @@
         <v>21</v>
       </c>
       <c r="C307" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D307" t="s">
         <v>108</v>
       </c>
       <c r="E307" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="F307" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="G307" t="s">
         <v>26</v>
@@ -18432,13 +18495,13 @@
         <v>9340088489</v>
       </c>
       <c r="J307" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="K307" t="s">
         <v>422</v>
       </c>
       <c r="L307" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="M307" t="s">
         <v>20</v>
@@ -18455,7 +18518,7 @@
         <v>21</v>
       </c>
       <c r="C308" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D308" t="s">
         <v>270</v>
@@ -18464,7 +18527,7 @@
         <v>367</v>
       </c>
       <c r="F308" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="G308" t="s">
         <v>16</v>
@@ -18476,13 +18539,13 @@
         <v>9343393698</v>
       </c>
       <c r="J308" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="K308" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="L308" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="M308" t="s">
         <v>20</v>
@@ -18499,7 +18562,7 @@
         <v>21</v>
       </c>
       <c r="C309" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D309" t="s">
         <v>97</v>
@@ -18508,7 +18571,7 @@
         <v>65</v>
       </c>
       <c r="F309" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="G309" t="s">
         <v>26</v>
@@ -18520,13 +18583,13 @@
         <v>6264225135</v>
       </c>
       <c r="J309" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="K309" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="L309" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="M309" t="s">
         <v>20</v>
@@ -18540,10 +18603,10 @@
         <v>13672</v>
       </c>
       <c r="B310" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C310" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="D310" t="s">
         <v>108</v>
@@ -18552,7 +18615,7 @@
         <v>17</v>
       </c>
       <c r="F310" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="G310" t="s">
         <v>17</v>
@@ -18564,10 +18627,10 @@
         <v>6370804238</v>
       </c>
       <c r="J310" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="K310" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="L310" t="s">
         <v>737</v>
@@ -18587,34 +18650,34 @@
         <v>21</v>
       </c>
       <c r="C311" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="D311" t="s">
         <v>108</v>
       </c>
       <c r="E311" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="F311" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="G311" t="s">
         <v>26</v>
       </c>
       <c r="H311" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="I311">
         <v>7773096303</v>
       </c>
       <c r="J311" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="K311" t="s">
         <v>529</v>
       </c>
       <c r="L311" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="M311" t="s">
         <v>176</v>
@@ -18628,10 +18691,10 @@
         <v>13878</v>
       </c>
       <c r="B312" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C312" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="D312" t="s">
         <v>108</v>
@@ -18640,7 +18703,7 @@
         <v>17</v>
       </c>
       <c r="F312" t="s">
-        <v>1214</v>
+        <v>1215</v>
       </c>
       <c r="G312" t="s">
         <v>17</v>
@@ -18652,10 +18715,10 @@
         <v>9340496113</v>
       </c>
       <c r="J312" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="K312" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="L312" t="s">
         <v>511</v>
@@ -18664,7 +18727,7 @@
         <v>36</v>
       </c>
       <c r="N312" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
     </row>
     <row r="313" spans="1:14">
@@ -18675,7 +18738,7 @@
         <v>21</v>
       </c>
       <c r="C313" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="D313" t="s">
         <v>69</v>
@@ -18719,7 +18782,7 @@
         <v>21</v>
       </c>
       <c r="C314" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="D314" t="s">
         <v>308</v>
@@ -18728,7 +18791,7 @@
         <v>65</v>
       </c>
       <c r="F314" t="s">
-        <v>1215</v>
+        <v>1216</v>
       </c>
       <c r="G314" t="s">
         <v>26</v>
@@ -18743,7 +18806,7 @@
         <v>332</v>
       </c>
       <c r="K314" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="L314" t="s">
         <v>237</v>
@@ -18763,7 +18826,7 @@
         <v>21</v>
       </c>
       <c r="C315" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="D315" t="s">
         <v>108</v>
@@ -18772,7 +18835,7 @@
         <v>56</v>
       </c>
       <c r="F315" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="G315" t="s">
         <v>26</v>
@@ -18784,13 +18847,13 @@
         <v>9301877884</v>
       </c>
       <c r="J315" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="K315" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="L315" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="M315" t="s">
         <v>20</v>
@@ -18807,7 +18870,7 @@
         <v>21</v>
       </c>
       <c r="C316" t="s">
-        <v>1210</v>
+        <v>1211</v>
       </c>
       <c r="D316" t="s">
         <v>179</v>
@@ -18816,7 +18879,7 @@
         <v>65</v>
       </c>
       <c r="F316" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="G316" t="s">
         <v>26</v>
@@ -18831,10 +18894,10 @@
         <v>332</v>
       </c>
       <c r="K316" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="L316" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="M316" t="s">
         <v>176</v>
@@ -18848,10 +18911,10 @@
         <v>13600</v>
       </c>
       <c r="B317" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C317" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="D317" t="s">
         <v>108</v>
@@ -18872,7 +18935,7 @@
         <v>8889587626</v>
       </c>
       <c r="J317" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="K317" t="s">
         <v>677</v>
@@ -18892,10 +18955,10 @@
         <v>13602</v>
       </c>
       <c r="B318" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C318" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="D318" t="s">
         <v>108</v>
@@ -18916,7 +18979,7 @@
         <v>9098375744</v>
       </c>
       <c r="J318" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="K318" t="s">
         <v>677</v>
@@ -18945,16 +19008,16 @@
         <v>164</v>
       </c>
       <c r="E319" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="F319" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="G319" t="s">
         <v>26</v>
       </c>
       <c r="H319" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="I319">
         <v>6265902075</v>
@@ -18966,7 +19029,7 @@
         <v>626</v>
       </c>
       <c r="L319" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="M319" t="s">
         <v>20</v>
@@ -18983,7 +19046,7 @@
         <v>21</v>
       </c>
       <c r="C320" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="D320" t="s">
         <v>108</v>
@@ -19027,7 +19090,7 @@
         <v>21</v>
       </c>
       <c r="C321" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="D321" t="s">
         <v>127</v>
@@ -19036,13 +19099,13 @@
         <v>65</v>
       </c>
       <c r="F321" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="G321" t="s">
         <v>26</v>
       </c>
       <c r="H321" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="I321">
         <v>9111228373</v>
@@ -19054,7 +19117,7 @@
         <v>474</v>
       </c>
       <c r="L321" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="M321" t="s">
         <v>176</v>
@@ -19071,7 +19134,7 @@
         <v>21</v>
       </c>
       <c r="C322" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="D322" t="s">
         <v>179</v>
@@ -19080,7 +19143,7 @@
         <v>65</v>
       </c>
       <c r="F322" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="G322" t="s">
         <v>26</v>
@@ -19095,10 +19158,10 @@
         <v>332</v>
       </c>
       <c r="K322" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="L322" t="s">
-        <v>1189</v>
+        <v>1190</v>
       </c>
       <c r="M322" t="s">
         <v>176</v>
@@ -19112,7 +19175,7 @@
         <v>13659</v>
       </c>
       <c r="B323" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C323" t="s">
         <v>764</v>
@@ -19130,16 +19193,16 @@
         <v>17</v>
       </c>
       <c r="H323" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="I323">
         <v>9302993072</v>
       </c>
       <c r="J323" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="K323" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="L323" t="s">
         <v>552</v>
@@ -19159,7 +19222,7 @@
         <v>21</v>
       </c>
       <c r="C324" t="s">
-        <v>1236</v>
+        <v>1237</v>
       </c>
       <c r="D324" t="s">
         <v>108</v>
@@ -19168,7 +19231,7 @@
         <v>234</v>
       </c>
       <c r="F324" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="G324" t="s">
         <v>26</v>
@@ -19180,13 +19243,13 @@
         <v>8223029172</v>
       </c>
       <c r="J324" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="K324" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="L324" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
       <c r="M324" t="s">
         <v>20</v>
@@ -19203,7 +19266,7 @@
         <v>21</v>
       </c>
       <c r="C325" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="D325" t="s">
         <v>334</v>
@@ -19212,7 +19275,7 @@
         <v>499</v>
       </c>
       <c r="F325" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="G325" t="s">
         <v>26</v>
@@ -19224,7 +19287,7 @@
         <v>9329892851</v>
       </c>
       <c r="J325" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="K325" t="s">
         <v>668</v>
@@ -19247,34 +19310,34 @@
         <v>21</v>
       </c>
       <c r="C326" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="D326" t="s">
         <v>179</v>
       </c>
       <c r="E326" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="F326" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="G326" t="s">
         <v>26</v>
       </c>
       <c r="H326" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="I326">
         <v>7987187140</v>
       </c>
       <c r="J326" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="K326" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="L326" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="M326" t="s">
         <v>176</v>
@@ -19291,7 +19354,7 @@
         <v>21</v>
       </c>
       <c r="C327" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="D327" t="s">
         <v>108</v>
@@ -19300,7 +19363,7 @@
         <v>220</v>
       </c>
       <c r="F327" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="G327" t="s">
         <v>26</v>
@@ -19312,13 +19375,13 @@
         <v>6264596384</v>
       </c>
       <c r="J327" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="K327" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="L327" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="M327" t="s">
         <v>176</v>
@@ -19335,7 +19398,7 @@
         <v>21</v>
       </c>
       <c r="C328" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="D328" t="s">
         <v>108</v>
@@ -19344,7 +19407,7 @@
         <v>731</v>
       </c>
       <c r="F328" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="G328" t="s">
         <v>26</v>
@@ -19356,13 +19419,13 @@
         <v>9399946093</v>
       </c>
       <c r="J328" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="K328" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="L328" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="M328" t="s">
         <v>176</v>
@@ -19376,10 +19439,10 @@
         <v>13898</v>
       </c>
       <c r="B329" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C329" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D329" t="s">
         <v>69</v>
@@ -19388,7 +19451,7 @@
         <v>17</v>
       </c>
       <c r="F329" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="G329" t="s">
         <v>17</v>
@@ -19400,13 +19463,13 @@
         <v>7389718456</v>
       </c>
       <c r="J329" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="K329" t="s">
         <v>35</v>
       </c>
       <c r="L329" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="M329" t="s">
         <v>20</v>
@@ -19420,10 +19483,10 @@
         <v>13900</v>
       </c>
       <c r="B330" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C330" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="D330" t="s">
         <v>108</v>
@@ -19432,7 +19495,7 @@
         <v>17</v>
       </c>
       <c r="F330" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="G330" t="s">
         <v>17</v>
@@ -19444,13 +19507,13 @@
         <v>7000729651</v>
       </c>
       <c r="J330" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="K330" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="L330" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="M330" t="s">
         <v>20</v>
@@ -19464,7 +19527,7 @@
         <v>13624</v>
       </c>
       <c r="B331" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C331" t="s">
         <v>728</v>
@@ -19488,7 +19551,7 @@
         <v>9302256290</v>
       </c>
       <c r="J331" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="K331" t="s">
         <v>677</v>
@@ -19508,7 +19571,7 @@
         <v>13612</v>
       </c>
       <c r="B332" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C332" t="s">
         <v>698</v>
@@ -19526,13 +19589,13 @@
         <v>17</v>
       </c>
       <c r="H332" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="I332">
         <v>8720076519</v>
       </c>
       <c r="J332" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="K332" t="s">
         <v>677</v>
@@ -19552,10 +19615,10 @@
         <v>13827</v>
       </c>
       <c r="B333" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C333" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="D333" t="s">
         <v>179</v>
@@ -19564,25 +19627,25 @@
         <v>17</v>
       </c>
       <c r="F333" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="G333" t="s">
         <v>17</v>
       </c>
       <c r="H333" t="s">
-        <v>1235</v>
+        <v>1236</v>
       </c>
       <c r="I333">
         <v>8643042101</v>
       </c>
       <c r="J333" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="K333" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="L333" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="M333" t="s">
         <v>20</v>
@@ -19596,10 +19659,10 @@
         <v>13905</v>
       </c>
       <c r="B334" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C334" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="D334" t="s">
         <v>207</v>
@@ -19608,13 +19671,13 @@
         <v>17</v>
       </c>
       <c r="F334" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="G334" t="s">
         <v>17</v>
       </c>
       <c r="H334" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="I334">
         <v>9406447230</v>
@@ -19626,7 +19689,7 @@
         <v>633</v>
       </c>
       <c r="L334" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="M334" t="s">
         <v>20</v>
@@ -19640,10 +19703,10 @@
         <v>13861</v>
       </c>
       <c r="B335" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C335" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="D335" t="s">
         <v>17</v>
@@ -19652,25 +19715,25 @@
         <v>17</v>
       </c>
       <c r="F335" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="G335" t="s">
         <v>17</v>
       </c>
       <c r="H335" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="I335">
         <v>6268362052</v>
       </c>
       <c r="J335" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="K335" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="L335" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="M335" t="s">
         <v>20</v>
@@ -19687,7 +19750,7 @@
         <v>21</v>
       </c>
       <c r="C336" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="D336" t="s">
         <v>308</v>
@@ -19696,7 +19759,7 @@
         <v>65</v>
       </c>
       <c r="F336" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="G336" t="s">
         <v>26</v>
@@ -19708,10 +19771,10 @@
         <v>8827841099</v>
       </c>
       <c r="J336" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="K336" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="L336" t="s">
         <v>552</v>
@@ -19731,7 +19794,7 @@
         <v>21</v>
       </c>
       <c r="C337" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="D337" t="s">
         <v>179</v>
@@ -19740,7 +19803,7 @@
         <v>243</v>
       </c>
       <c r="F337" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="G337" t="s">
         <v>26</v>
@@ -19752,13 +19815,13 @@
         <v>7587717040</v>
       </c>
       <c r="J337" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="K337" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="L337" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="M337" t="s">
         <v>176</v>
@@ -19796,7 +19859,7 @@
         <v>7693858321</v>
       </c>
       <c r="J338" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="K338" t="s">
         <v>644</v>
@@ -19819,7 +19882,7 @@
         <v>21</v>
       </c>
       <c r="C339" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="D339" t="s">
         <v>108</v>
@@ -19828,7 +19891,7 @@
         <v>479</v>
       </c>
       <c r="F339" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="G339" t="s">
         <v>26</v>
@@ -19840,13 +19903,13 @@
         <v>6263237056</v>
       </c>
       <c r="J339" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="K339" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="L339" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="M339" t="s">
         <v>20</v>
@@ -19863,7 +19926,7 @@
         <v>21</v>
       </c>
       <c r="C340" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="D340" t="s">
         <v>108</v>
@@ -19872,7 +19935,7 @@
         <v>56</v>
       </c>
       <c r="F340" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="G340" t="s">
         <v>26</v>
@@ -19884,13 +19947,13 @@
         <v>7828440751</v>
       </c>
       <c r="J340" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="K340" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="L340" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="M340" t="s">
         <v>176</v>
@@ -19928,13 +19991,13 @@
         <v>7725886649</v>
       </c>
       <c r="J341" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="K341" t="s">
         <v>687</v>
       </c>
       <c r="L341" t="s">
-        <v>1151</v>
+        <v>1152</v>
       </c>
       <c r="M341" t="s">
         <v>176</v>
@@ -19951,7 +20014,7 @@
         <v>21</v>
       </c>
       <c r="C342" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="D342" t="s">
         <v>64</v>
@@ -19960,7 +20023,7 @@
         <v>508</v>
       </c>
       <c r="F342" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="G342" t="s">
         <v>26</v>
@@ -19972,13 +20035,13 @@
         <v>8815500641</v>
       </c>
       <c r="J342" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="K342" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="L342" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="M342" t="s">
         <v>20</v>
@@ -19995,7 +20058,7 @@
         <v>21</v>
       </c>
       <c r="C343" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D343" t="s">
         <v>108</v>
@@ -20004,7 +20067,7 @@
         <v>587</v>
       </c>
       <c r="F343" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="G343" t="s">
         <v>26</v>
@@ -20016,10 +20079,10 @@
         <v>9301809840</v>
       </c>
       <c r="J343" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="K343" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="L343" t="s">
         <v>759</v>
@@ -20039,34 +20102,34 @@
         <v>21</v>
       </c>
       <c r="C344" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="D344" t="s">
         <v>159</v>
       </c>
       <c r="E344" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="F344" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="G344" t="s">
         <v>26</v>
       </c>
       <c r="H344" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="I344">
         <v>7999399864</v>
       </c>
       <c r="J344" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="K344" t="s">
         <v>181</v>
       </c>
       <c r="L344" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="M344" t="s">
         <v>176</v>
@@ -20083,7 +20146,7 @@
         <v>21</v>
       </c>
       <c r="C345" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="D345" t="s">
         <v>270</v>
@@ -20092,7 +20155,7 @@
         <v>342</v>
       </c>
       <c r="F345" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="G345" t="s">
         <v>16</v>
@@ -20104,13 +20167,13 @@
         <v>8319503066</v>
       </c>
       <c r="J345" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="K345" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="L345" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="M345" t="s">
         <v>20</v>
@@ -20127,16 +20190,16 @@
         <v>21</v>
       </c>
       <c r="C346" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="D346" t="s">
         <v>270</v>
       </c>
       <c r="E346" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="F346" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="G346" t="s">
         <v>16</v>
@@ -20148,13 +20211,13 @@
         <v>6261192470</v>
       </c>
       <c r="J346" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="K346" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="L346" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="M346" t="s">
         <v>176</v>
@@ -20171,7 +20234,7 @@
         <v>21</v>
       </c>
       <c r="C347" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="D347" t="s">
         <v>153</v>
@@ -20180,22 +20243,22 @@
         <v>65</v>
       </c>
       <c r="F347" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="G347" t="s">
         <v>26</v>
       </c>
       <c r="H347" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="I347">
         <v>9340951602</v>
       </c>
       <c r="J347" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="K347" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="L347" t="s">
         <v>203</v>
@@ -20212,10 +20275,10 @@
         <v>13729</v>
       </c>
       <c r="B348" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C348" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="D348" t="s">
         <v>108</v>
@@ -20224,7 +20287,7 @@
         <v>17</v>
       </c>
       <c r="F348" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="G348" t="s">
         <v>17</v>
@@ -20236,10 +20299,10 @@
         <v>7489500464</v>
       </c>
       <c r="J348" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="K348" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="L348" t="s">
         <v>552</v>
@@ -20256,10 +20319,10 @@
         <v>13903</v>
       </c>
       <c r="B349" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C349" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="D349" t="s">
         <v>108</v>
@@ -20268,7 +20331,7 @@
         <v>17</v>
       </c>
       <c r="F349" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="G349" t="s">
         <v>17</v>
@@ -20286,7 +20349,7 @@
         <v>604</v>
       </c>
       <c r="L349" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="M349" t="s">
         <v>20</v>
@@ -20303,7 +20366,7 @@
         <v>21</v>
       </c>
       <c r="C350" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D350" t="s">
         <v>270</v>
@@ -20312,7 +20375,7 @@
         <v>696</v>
       </c>
       <c r="F350" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G350" t="s">
         <v>16</v>
@@ -20330,7 +20393,7 @@
         <v>48</v>
       </c>
       <c r="L350" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="M350" t="s">
         <v>176</v>
@@ -20347,7 +20410,7 @@
         <v>21</v>
       </c>
       <c r="C351" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="D351" t="s">
         <v>334</v>
@@ -20356,7 +20419,7 @@
         <v>65</v>
       </c>
       <c r="F351" t="s">
-        <v>1313</v>
+        <v>1314</v>
       </c>
       <c r="G351" t="s">
         <v>26</v>
@@ -20371,10 +20434,10 @@
         <v>114</v>
       </c>
       <c r="K351" t="s">
-        <v>1331</v>
+        <v>1332</v>
       </c>
       <c r="L351" t="s">
-        <v>1339</v>
+        <v>1340</v>
       </c>
       <c r="M351" t="s">
         <v>20</v>
@@ -20391,7 +20454,7 @@
         <v>21</v>
       </c>
       <c r="C352" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="D352" t="s">
         <v>334</v>
@@ -20400,13 +20463,13 @@
         <v>465</v>
       </c>
       <c r="F352" t="s">
-        <v>1314</v>
+        <v>1315</v>
       </c>
       <c r="G352" t="s">
         <v>26</v>
       </c>
       <c r="H352" t="s">
-        <v>1315</v>
+        <v>1316</v>
       </c>
       <c r="I352">
         <v>9131498975</v>
@@ -20418,7 +20481,7 @@
         <v>604</v>
       </c>
       <c r="L352" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="M352" t="s">
         <v>176</v>
@@ -20435,7 +20498,7 @@
         <v>21</v>
       </c>
       <c r="C353" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D353" t="s">
         <v>108</v>
@@ -20444,7 +20507,7 @@
         <v>136</v>
       </c>
       <c r="F353" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="G353" t="s">
         <v>26</v>
@@ -20456,10 +20519,10 @@
         <v>7803832370</v>
       </c>
       <c r="J353" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="K353" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="L353" t="s">
         <v>237</v>
@@ -20479,7 +20542,7 @@
         <v>21</v>
       </c>
       <c r="C354" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="D354" t="s">
         <v>108</v>
@@ -20488,7 +20551,7 @@
         <v>65</v>
       </c>
       <c r="F354" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="G354" t="s">
         <v>26</v>
@@ -20500,13 +20563,13 @@
         <v>9630912955</v>
       </c>
       <c r="J354" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="K354" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="L354" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="M354" t="s">
         <v>20</v>
@@ -20532,7 +20595,7 @@
         <v>60</v>
       </c>
       <c r="F355" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="G355" t="s">
         <v>26</v>
@@ -20544,13 +20607,13 @@
         <v>9343884280</v>
       </c>
       <c r="J355" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="K355" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="L355" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="M355" t="s">
         <v>176</v>
@@ -20567,7 +20630,7 @@
         <v>21</v>
       </c>
       <c r="C356" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D356" t="s">
         <v>179</v>
@@ -20576,7 +20639,7 @@
         <v>65</v>
       </c>
       <c r="F356" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="G356" t="s">
         <v>26</v>
@@ -20588,10 +20651,10 @@
         <v>8103185249</v>
       </c>
       <c r="J356" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="K356" t="s">
-        <v>1335</v>
+        <v>1336</v>
       </c>
       <c r="L356" t="s">
         <v>372</v>
@@ -20611,7 +20674,7 @@
         <v>21</v>
       </c>
       <c r="C357" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D357" t="s">
         <v>291</v>
@@ -20620,25 +20683,25 @@
         <v>65</v>
       </c>
       <c r="F357" t="s">
-        <v>1320</v>
+        <v>1321</v>
       </c>
       <c r="G357" t="s">
         <v>26</v>
       </c>
       <c r="H357" t="s">
-        <v>1321</v>
+        <v>1322</v>
       </c>
       <c r="I357">
         <v>7974309307</v>
       </c>
       <c r="J357" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="K357" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="L357" t="s">
-        <v>1341</v>
+        <v>1342</v>
       </c>
       <c r="M357" t="s">
         <v>20</v>
@@ -20655,34 +20718,34 @@
         <v>21</v>
       </c>
       <c r="C358" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D358" t="s">
         <v>179</v>
       </c>
       <c r="E358" t="s">
-        <v>1322</v>
+        <v>1323</v>
       </c>
       <c r="F358" t="s">
-        <v>1323</v>
+        <v>1324</v>
       </c>
       <c r="G358" t="s">
         <v>26</v>
       </c>
       <c r="H358" t="s">
-        <v>1324</v>
+        <v>1325</v>
       </c>
       <c r="I358">
         <v>9406055611</v>
       </c>
       <c r="J358" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="K358" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="L358" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="M358" t="s">
         <v>176</v>
@@ -20699,7 +20762,7 @@
         <v>21</v>
       </c>
       <c r="C359" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D359" t="s">
         <v>69</v>
@@ -20708,25 +20771,25 @@
         <v>65</v>
       </c>
       <c r="F359" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="G359" t="s">
         <v>26</v>
       </c>
       <c r="H359" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="I359">
         <v>8817375155</v>
       </c>
       <c r="J359" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="K359" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="L359" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="M359" t="s">
         <v>20</v>
@@ -20743,7 +20806,7 @@
         <v>21</v>
       </c>
       <c r="C360" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D360" t="s">
         <v>127</v>
@@ -20752,25 +20815,25 @@
         <v>65</v>
       </c>
       <c r="F360" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="G360" t="s">
         <v>26</v>
       </c>
       <c r="H360" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="I360">
         <v>6265238394</v>
       </c>
       <c r="J360" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="K360" t="s">
-        <v>1337</v>
+        <v>1338</v>
       </c>
       <c r="L360" t="s">
-        <v>1343</v>
+        <v>1344</v>
       </c>
       <c r="M360" t="s">
         <v>20</v>
@@ -20787,7 +20850,7 @@
         <v>21</v>
       </c>
       <c r="C361" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D361" t="s">
         <v>291</v>
@@ -20796,25 +20859,25 @@
         <v>89</v>
       </c>
       <c r="F361" t="s">
-        <v>1327</v>
+        <v>1328</v>
       </c>
       <c r="G361" t="s">
         <v>26</v>
       </c>
       <c r="H361" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="I361">
         <v>7587834082</v>
       </c>
       <c r="J361" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="K361" t="s">
-        <v>1336</v>
+        <v>1337</v>
       </c>
       <c r="L361" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="M361" t="s">
         <v>176</v>
@@ -20828,10 +20891,10 @@
         <v>13824</v>
       </c>
       <c r="B362" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C362" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D362" t="s">
         <v>127</v>
@@ -20840,22 +20903,22 @@
         <v>17</v>
       </c>
       <c r="F362" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="G362" t="s">
         <v>17</v>
       </c>
       <c r="H362" t="s">
-        <v>1329</v>
+        <v>1330</v>
       </c>
       <c r="I362">
         <v>7489990811</v>
       </c>
       <c r="J362" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="K362" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="L362" t="s">
         <v>204</v>
@@ -20872,10 +20935,10 @@
         <v>13911</v>
       </c>
       <c r="B363" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C363" t="s">
-        <v>1310</v>
+        <v>1311</v>
       </c>
       <c r="D363" t="s">
         <v>108</v>
@@ -20884,7 +20947,7 @@
         <v>17</v>
       </c>
       <c r="F363" t="s">
-        <v>1330</v>
+        <v>1331</v>
       </c>
       <c r="G363" t="s">
         <v>17</v>
@@ -20896,13 +20959,13 @@
         <v>8839113952</v>
       </c>
       <c r="J363" t="s">
-        <v>1332</v>
+        <v>1333</v>
       </c>
       <c r="K363" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="L363" t="s">
-        <v>1345</v>
+        <v>1346</v>
       </c>
       <c r="M363" t="s">
         <v>20</v>
@@ -20916,10 +20979,10 @@
         <v>13868</v>
       </c>
       <c r="B364" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C364" t="s">
-        <v>1346</v>
+        <v>1347</v>
       </c>
       <c r="D364" t="s">
         <v>17</v>
@@ -20928,13 +20991,13 @@
         <v>17</v>
       </c>
       <c r="F364" t="s">
-        <v>1347</v>
+        <v>1348</v>
       </c>
       <c r="G364" t="s">
         <v>17</v>
       </c>
       <c r="H364" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="I364">
         <v>7019092050</v>
@@ -20946,7 +21009,7 @@
         <v>442</v>
       </c>
       <c r="L364" t="s">
-        <v>1352</v>
+        <v>1353</v>
       </c>
       <c r="M364" t="s">
         <v>20</v>
@@ -20960,10 +21023,10 @@
         <v>13930</v>
       </c>
       <c r="B365" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C365" t="s">
-        <v>1348</v>
+        <v>1349</v>
       </c>
       <c r="D365" t="s">
         <v>108</v>
@@ -20972,7 +21035,7 @@
         <v>17</v>
       </c>
       <c r="F365" t="s">
-        <v>1349</v>
+        <v>1350</v>
       </c>
       <c r="G365" t="s">
         <v>17</v>
@@ -21004,10 +21067,10 @@
         <v>13936</v>
       </c>
       <c r="B366" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="C366" t="s">
-        <v>1350</v>
+        <v>1351</v>
       </c>
       <c r="D366" t="s">
         <v>108</v>
@@ -21016,7 +21079,7 @@
         <v>17</v>
       </c>
       <c r="F366" t="s">
-        <v>1351</v>
+        <v>1352</v>
       </c>
       <c r="G366" t="s">
         <v>17</v>
@@ -21028,18 +21091,326 @@
         <v>9399774917</v>
       </c>
       <c r="J366" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="K366" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="L366" t="s">
-        <v>1344</v>
+        <v>1345</v>
       </c>
       <c r="M366" t="s">
         <v>20</v>
       </c>
       <c r="N366" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14">
+      <c r="A367" s="2">
+        <v>13916</v>
+      </c>
+      <c r="B367" t="s">
+        <v>21</v>
+      </c>
+      <c r="C367" t="s">
+        <v>1355</v>
+      </c>
+      <c r="D367" t="s">
+        <v>153</v>
+      </c>
+      <c r="E367" t="s">
+        <v>374</v>
+      </c>
+      <c r="F367" t="s">
+        <v>1361</v>
+      </c>
+      <c r="G367" t="s">
+        <v>26</v>
+      </c>
+      <c r="H367" t="s">
+        <v>376</v>
+      </c>
+      <c r="I367">
+        <v>9340657116</v>
+      </c>
+      <c r="J367" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K367" t="s">
+        <v>1336</v>
+      </c>
+      <c r="L367" t="s">
+        <v>1367</v>
+      </c>
+      <c r="M367" t="s">
+        <v>176</v>
+      </c>
+      <c r="N367" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14">
+      <c r="A368" s="2">
+        <v>13931</v>
+      </c>
+      <c r="B368" t="s">
+        <v>21</v>
+      </c>
+      <c r="C368" t="s">
+        <v>1356</v>
+      </c>
+      <c r="D368" t="s">
+        <v>127</v>
+      </c>
+      <c r="E368" t="s">
+        <v>65</v>
+      </c>
+      <c r="F368" t="s">
+        <v>1362</v>
+      </c>
+      <c r="G368" t="s">
+        <v>26</v>
+      </c>
+      <c r="H368" t="s">
+        <v>785</v>
+      </c>
+      <c r="I368">
+        <v>7771961390</v>
+      </c>
+      <c r="J368" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K368" t="s">
+        <v>1335</v>
+      </c>
+      <c r="L368" t="s">
+        <v>203</v>
+      </c>
+      <c r="M368" t="s">
+        <v>176</v>
+      </c>
+      <c r="N368" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="369" spans="1:14">
+      <c r="A369" s="2">
+        <v>13929</v>
+      </c>
+      <c r="B369" t="s">
+        <v>21</v>
+      </c>
+      <c r="C369" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D369" t="s">
+        <v>153</v>
+      </c>
+      <c r="E369" t="s">
+        <v>24</v>
+      </c>
+      <c r="F369" t="s">
+        <v>1363</v>
+      </c>
+      <c r="G369" t="s">
+        <v>26</v>
+      </c>
+      <c r="H369" t="s">
+        <v>877</v>
+      </c>
+      <c r="I369">
+        <v>9399843535</v>
+      </c>
+      <c r="J369" t="s">
+        <v>786</v>
+      </c>
+      <c r="K369" t="s">
+        <v>1368</v>
+      </c>
+      <c r="L369" t="s">
+        <v>1369</v>
+      </c>
+      <c r="M369" t="s">
+        <v>176</v>
+      </c>
+      <c r="N369" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="370" spans="1:14">
+      <c r="A370" s="2">
+        <v>13928</v>
+      </c>
+      <c r="B370" t="s">
+        <v>21</v>
+      </c>
+      <c r="C370" t="s">
+        <v>1358</v>
+      </c>
+      <c r="D370" t="s">
+        <v>69</v>
+      </c>
+      <c r="E370" t="s">
+        <v>65</v>
+      </c>
+      <c r="F370" t="s">
+        <v>1364</v>
+      </c>
+      <c r="G370" t="s">
+        <v>26</v>
+      </c>
+      <c r="H370" t="s">
+        <v>449</v>
+      </c>
+      <c r="I370">
+        <v>9329742027</v>
+      </c>
+      <c r="J370" t="s">
+        <v>114</v>
+      </c>
+      <c r="K370" t="s">
+        <v>611</v>
+      </c>
+      <c r="L370" t="s">
+        <v>1083</v>
+      </c>
+      <c r="M370" t="s">
+        <v>176</v>
+      </c>
+      <c r="N370" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="371" spans="1:14">
+      <c r="A371" s="2">
+        <v>13926</v>
+      </c>
+      <c r="B371" t="s">
+        <v>21</v>
+      </c>
+      <c r="C371" t="s">
+        <v>1359</v>
+      </c>
+      <c r="D371" t="s">
+        <v>179</v>
+      </c>
+      <c r="E371" t="s">
+        <v>65</v>
+      </c>
+      <c r="F371" t="s">
+        <v>1365</v>
+      </c>
+      <c r="G371" t="s">
+        <v>26</v>
+      </c>
+      <c r="H371" t="s">
+        <v>75</v>
+      </c>
+      <c r="I371">
+        <v>9111629126</v>
+      </c>
+      <c r="J371" t="s">
+        <v>1333</v>
+      </c>
+      <c r="K371" t="s">
+        <v>766</v>
+      </c>
+      <c r="L371" t="s">
+        <v>846</v>
+      </c>
+      <c r="M371" t="s">
+        <v>176</v>
+      </c>
+      <c r="N371" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="372" spans="1:14">
+      <c r="A372" s="2">
+        <v>13902</v>
+      </c>
+      <c r="B372" t="s">
+        <v>21</v>
+      </c>
+      <c r="C372" t="s">
+        <v>1360</v>
+      </c>
+      <c r="D372" t="s">
+        <v>291</v>
+      </c>
+      <c r="E372" t="s">
+        <v>89</v>
+      </c>
+      <c r="F372" t="s">
+        <v>1366</v>
+      </c>
+      <c r="G372" t="s">
+        <v>26</v>
+      </c>
+      <c r="H372" t="s">
+        <v>1329</v>
+      </c>
+      <c r="I372">
+        <v>9098971336</v>
+      </c>
+      <c r="J372" t="s">
+        <v>786</v>
+      </c>
+      <c r="K372" t="s">
+        <v>1258</v>
+      </c>
+      <c r="L372" t="s">
+        <v>1370</v>
+      </c>
+      <c r="M372" t="s">
+        <v>176</v>
+      </c>
+      <c r="N372" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="373" spans="1:14">
+      <c r="A373" s="2">
+        <v>13945</v>
+      </c>
+      <c r="B373" t="s">
+        <v>932</v>
+      </c>
+      <c r="C373" t="s">
+        <v>1371</v>
+      </c>
+      <c r="D373" t="s">
+        <v>127</v>
+      </c>
+      <c r="E373" t="s">
+        <v>17</v>
+      </c>
+      <c r="F373" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G373" t="s">
+        <v>17</v>
+      </c>
+      <c r="H373" t="s">
+        <v>1330</v>
+      </c>
+      <c r="I373" t="e">
+        <v>#N/A</v>
+      </c>
+      <c r="J373" t="s">
+        <v>189</v>
+      </c>
+      <c r="K373" t="s">
+        <v>1373</v>
+      </c>
+      <c r="L373" t="s">
+        <v>1374</v>
+      </c>
+      <c r="M373" t="s">
+        <v>20</v>
+      </c>
+      <c r="N373" t="s">
         <v>17</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4469" uniqueCount="1390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4517" uniqueCount="1401">
   <si>
     <t>Bank Name</t>
   </si>
@@ -4168,12 +4168,6 @@
     <t>ICCHAPUR</t>
   </si>
   <si>
-    <t>Central Bank Of India</t>
-  </si>
-  <si>
-    <t>IDBI Bank</t>
-  </si>
-  <si>
     <t>20-Mar-2027</t>
   </si>
   <si>
@@ -4186,7 +4180,46 @@
     <t>4890.00</t>
   </si>
   <si>
-    <t>WIP</t>
+    <t>Mohit Thakur</t>
+  </si>
+  <si>
+    <t>RAJMAN MANDAVI</t>
+  </si>
+  <si>
+    <t>Vijay kashyap</t>
+  </si>
+  <si>
+    <t>PHOOL SINGH BHADRE</t>
+  </si>
+  <si>
+    <t>40450192916</t>
+  </si>
+  <si>
+    <t>392501500468</t>
+  </si>
+  <si>
+    <t>ICIC0TREA00</t>
+  </si>
+  <si>
+    <t>50496690369</t>
+  </si>
+  <si>
+    <t>11565549648</t>
+  </si>
+  <si>
+    <t>10-Nov-2024</t>
+  </si>
+  <si>
+    <t>20-Nov-2024</t>
+  </si>
+  <si>
+    <t>5530.00</t>
+  </si>
+  <si>
+    <t>6080.00</t>
+  </si>
+  <si>
+    <t>5795.00</t>
   </si>
 </sst>
 </file>
@@ -5014,7 +5047,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5022,12 +5055,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N376"/>
+  <dimension ref="A1:N380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A347" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AA1" sqref="AA1"/>
-      <selection pane="bottomLeft" activeCell="A376" sqref="A376"/>
+      <selection pane="bottomLeft" activeCell="B380" sqref="B380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21244,7 +21277,7 @@
         <v>13939</v>
       </c>
       <c r="B369" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C369" t="s">
         <v>1373</v>
@@ -21271,13 +21304,13 @@
         <v>785</v>
       </c>
       <c r="K369" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="L369" t="s">
-        <v>1386</v>
+        <v>1384</v>
       </c>
       <c r="M369" t="s">
-        <v>1389</v>
+        <v>20</v>
       </c>
       <c r="N369" t="s">
         <v>17</v>
@@ -21288,7 +21321,7 @@
         <v>13940</v>
       </c>
       <c r="B370" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C370" t="s">
         <v>463</v>
@@ -21315,13 +21348,13 @@
         <v>785</v>
       </c>
       <c r="K370" t="s">
-        <v>1385</v>
+        <v>1383</v>
       </c>
       <c r="L370" t="s">
         <v>201</v>
       </c>
       <c r="M370" t="s">
-        <v>1389</v>
+        <v>20</v>
       </c>
       <c r="N370" t="s">
         <v>17</v>
@@ -21332,13 +21365,13 @@
         <v>13941</v>
       </c>
       <c r="B371" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C371" t="s">
         <v>1377</v>
       </c>
       <c r="D371" t="s">
-        <v>50</v>
+        <v>179</v>
       </c>
       <c r="E371" t="s">
         <v>1378</v>
@@ -21362,13 +21395,13 @@
         <v>19</v>
       </c>
       <c r="L371" t="s">
-        <v>1387</v>
+        <v>1385</v>
       </c>
       <c r="M371" t="s">
-        <v>1389</v>
+        <v>176</v>
       </c>
       <c r="N371" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
     </row>
     <row r="372" spans="1:14">
@@ -21376,7 +21409,7 @@
         <v>13398</v>
       </c>
       <c r="B372" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C372" t="s">
         <v>1380</v>
@@ -21409,10 +21442,10 @@
         <v>371</v>
       </c>
       <c r="M372" t="s">
-        <v>1389</v>
+        <v>176</v>
       </c>
       <c r="N372" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
     </row>
     <row r="373" spans="1:14">
@@ -21420,7 +21453,7 @@
         <v>13910</v>
       </c>
       <c r="B373" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C373" t="s">
         <v>1300</v>
@@ -21450,10 +21483,10 @@
         <v>632</v>
       </c>
       <c r="L373" t="s">
-        <v>1388</v>
+        <v>1386</v>
       </c>
       <c r="M373" t="s">
-        <v>1389</v>
+        <v>20</v>
       </c>
       <c r="N373" t="s">
         <v>17</v>
@@ -21464,13 +21497,13 @@
         <v>13916</v>
       </c>
       <c r="B374" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C374" t="s">
         <v>1353</v>
       </c>
       <c r="D374" t="s">
-        <v>1383</v>
+        <v>153</v>
       </c>
       <c r="E374" t="s">
         <v>373</v>
@@ -21494,10 +21527,10 @@
         <v>1365</v>
       </c>
       <c r="M374" t="s">
-        <v>1389</v>
+        <v>176</v>
       </c>
       <c r="N374" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
     </row>
     <row r="375" spans="1:14">
@@ -21505,13 +21538,13 @@
         <v>13931</v>
       </c>
       <c r="B375" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C375" t="s">
         <v>1354</v>
       </c>
       <c r="D375" t="s">
-        <v>1384</v>
+        <v>127</v>
       </c>
       <c r="E375" t="s">
         <v>65</v>
@@ -21535,7 +21568,7 @@
         <v>203</v>
       </c>
       <c r="M375" t="s">
-        <v>1389</v>
+        <v>20</v>
       </c>
       <c r="N375" t="s">
         <v>17</v>
@@ -21546,13 +21579,13 @@
         <v>13929</v>
       </c>
       <c r="B376" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C376" t="s">
         <v>1355</v>
       </c>
       <c r="D376" t="s">
-        <v>1383</v>
+        <v>153</v>
       </c>
       <c r="E376" t="s">
         <v>24</v>
@@ -21576,9 +21609,173 @@
         <v>1367</v>
       </c>
       <c r="M376" t="s">
+        <v>20</v>
+      </c>
+      <c r="N376" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="377" spans="1:14">
+      <c r="A377" s="2">
+        <v>13955</v>
+      </c>
+      <c r="B377" t="s">
+        <v>931</v>
+      </c>
+      <c r="C377" t="s">
+        <v>1387</v>
+      </c>
+      <c r="D377" t="s">
+        <v>108</v>
+      </c>
+      <c r="E377" t="s">
+        <v>17</v>
+      </c>
+      <c r="F377" t="s">
+        <v>1391</v>
+      </c>
+      <c r="G377" t="s">
+        <v>17</v>
+      </c>
+      <c r="H377" t="s">
+        <v>340</v>
+      </c>
+      <c r="J377" t="s">
+        <v>1396</v>
+      </c>
+      <c r="K377" t="s">
+        <v>1335</v>
+      </c>
+      <c r="L377" t="s">
+        <v>1131</v>
+      </c>
+      <c r="M377" t="s">
+        <v>20</v>
+      </c>
+      <c r="N377" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="378" spans="1:14">
+      <c r="A378" s="2">
+        <v>13956</v>
+      </c>
+      <c r="B378" t="s">
+        <v>931</v>
+      </c>
+      <c r="C378" t="s">
+        <v>1388</v>
+      </c>
+      <c r="D378" t="s">
+        <v>807</v>
+      </c>
+      <c r="E378" t="s">
+        <v>17</v>
+      </c>
+      <c r="F378" t="s">
+        <v>1392</v>
+      </c>
+      <c r="G378" t="s">
+        <v>17</v>
+      </c>
+      <c r="H378" t="s">
+        <v>1393</v>
+      </c>
+      <c r="J378" t="s">
+        <v>1397</v>
+      </c>
+      <c r="K378" t="s">
+        <v>1383</v>
+      </c>
+      <c r="L378" t="s">
+        <v>1398</v>
+      </c>
+      <c r="M378" t="s">
+        <v>20</v>
+      </c>
+      <c r="N378" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="379" spans="1:14">
+      <c r="A379" s="2">
+        <v>13986</v>
+      </c>
+      <c r="B379" t="s">
+        <v>931</v>
+      </c>
+      <c r="C379" t="s">
         <v>1389</v>
       </c>
-      <c r="N376" t="s">
+      <c r="D379" t="s">
+        <v>334</v>
+      </c>
+      <c r="E379" t="s">
+        <v>17</v>
+      </c>
+      <c r="F379" t="s">
+        <v>1394</v>
+      </c>
+      <c r="G379" t="s">
+        <v>17</v>
+      </c>
+      <c r="H379" t="s">
+        <v>1035</v>
+      </c>
+      <c r="J379" t="s">
+        <v>1397</v>
+      </c>
+      <c r="K379" t="s">
+        <v>788</v>
+      </c>
+      <c r="L379" t="s">
+        <v>1399</v>
+      </c>
+      <c r="M379" t="s">
+        <v>20</v>
+      </c>
+      <c r="N379" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="380" spans="1:14">
+      <c r="A380" s="2">
+        <v>13933</v>
+      </c>
+      <c r="B380" t="s">
+        <v>931</v>
+      </c>
+      <c r="C380" t="s">
+        <v>1390</v>
+      </c>
+      <c r="D380" t="s">
+        <v>108</v>
+      </c>
+      <c r="E380" t="s">
+        <v>17</v>
+      </c>
+      <c r="F380" t="s">
+        <v>1395</v>
+      </c>
+      <c r="G380" t="s">
+        <v>17</v>
+      </c>
+      <c r="H380" t="s">
+        <v>340</v>
+      </c>
+      <c r="J380" t="s">
+        <v>157</v>
+      </c>
+      <c r="K380" t="s">
+        <v>610</v>
+      </c>
+      <c r="L380" t="s">
+        <v>1400</v>
+      </c>
+      <c r="M380" t="s">
+        <v>20</v>
+      </c>
+      <c r="N380" t="s">
         <v>17</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4517" uniqueCount="1401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4757" uniqueCount="1459">
   <si>
     <t>Bank Name</t>
   </si>
@@ -4220,6 +4220,180 @@
   </si>
   <si>
     <t>5795.00</t>
+  </si>
+  <si>
+    <t>SUKALU RAM KASHYAP</t>
+  </si>
+  <si>
+    <t>38614256194</t>
+  </si>
+  <si>
+    <t>Padamnath kashyap</t>
+  </si>
+  <si>
+    <t>30957023539</t>
+  </si>
+  <si>
+    <t>Pnadripani</t>
+  </si>
+  <si>
+    <t>42008640349</t>
+  </si>
+  <si>
+    <t>Guddu Ram</t>
+  </si>
+  <si>
+    <t>21930100022338</t>
+  </si>
+  <si>
+    <t>Bhagbati Mourya</t>
+  </si>
+  <si>
+    <t>34349838091</t>
+  </si>
+  <si>
+    <t>Bhupendra Kumar Korram</t>
+  </si>
+  <si>
+    <t>33969984385</t>
+  </si>
+  <si>
+    <t>Giridhar Chauhan</t>
+  </si>
+  <si>
+    <t>35817668176</t>
+  </si>
+  <si>
+    <t>Nilesh Thakur</t>
+  </si>
+  <si>
+    <t>CHHATTISGARH RAJYA GRAMIN BANK</t>
+  </si>
+  <si>
+    <t>Usribeda</t>
+  </si>
+  <si>
+    <t>77008974474</t>
+  </si>
+  <si>
+    <t>Sushil Khambari</t>
+  </si>
+  <si>
+    <t>354501000000004</t>
+  </si>
+  <si>
+    <t>Ramesh Kumar Sethiya</t>
+  </si>
+  <si>
+    <t>77037794862</t>
+  </si>
+  <si>
+    <t>Maniram Baghel</t>
+  </si>
+  <si>
+    <t>10128100016743</t>
+  </si>
+  <si>
+    <t>Rajesh Baghel</t>
+  </si>
+  <si>
+    <t>77091229294</t>
+  </si>
+  <si>
+    <t>Suresh Kumar Thakur</t>
+  </si>
+  <si>
+    <t>Collectorate Jagdalpur</t>
+  </si>
+  <si>
+    <t>10460957062</t>
+  </si>
+  <si>
+    <t>Jisub Baghel</t>
+  </si>
+  <si>
+    <t>0707104000191449</t>
+  </si>
+  <si>
+    <t>Kamlochan Bharti</t>
+  </si>
+  <si>
+    <t>41803208774</t>
+  </si>
+  <si>
+    <t>Kumari Santari Kashyap</t>
+  </si>
+  <si>
+    <t>12780100002241</t>
+  </si>
+  <si>
+    <t>Ajay Baghel</t>
+  </si>
+  <si>
+    <t>41069651084</t>
+  </si>
+  <si>
+    <t>Rajat Kumar Datta</t>
+  </si>
+  <si>
+    <t>60503835919</t>
+  </si>
+  <si>
+    <t>Puran Ram Baghel</t>
+  </si>
+  <si>
+    <t>Bhopalpatnam</t>
+  </si>
+  <si>
+    <t>33079649959</t>
+  </si>
+  <si>
+    <t>SBIN0002834</t>
+  </si>
+  <si>
+    <t>Laxman Singh</t>
+  </si>
+  <si>
+    <t>35201125864</t>
+  </si>
+  <si>
+    <t>3483.00</t>
+  </si>
+  <si>
+    <t>16-Oct-2026</t>
+  </si>
+  <si>
+    <t>3737.00</t>
+  </si>
+  <si>
+    <t>3629.00</t>
+  </si>
+  <si>
+    <t>5785.00</t>
+  </si>
+  <si>
+    <t>20-Apr-2027</t>
+  </si>
+  <si>
+    <t>3155.00</t>
+  </si>
+  <si>
+    <t>6229.00</t>
+  </si>
+  <si>
+    <t>4604.00</t>
+  </si>
+  <si>
+    <t>4460.00</t>
+  </si>
+  <si>
+    <t>3790.00</t>
+  </si>
+  <si>
+    <t>5030.00</t>
+  </si>
+  <si>
+    <t>Appropriate NACH mandate not uploaded</t>
   </si>
 </sst>
 </file>
@@ -5047,7 +5221,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -5055,12 +5229,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N380"/>
+  <dimension ref="A1:N400"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A351" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AA1" sqref="AA1"/>
-      <selection pane="bottomLeft" activeCell="B380" sqref="B380"/>
+      <selection pane="bottomLeft" activeCell="M400" sqref="M400"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19118,28 +19292,28 @@
     </row>
     <row r="320" spans="1:14">
       <c r="A320" s="2">
-        <v>13880</v>
+        <v>13812</v>
       </c>
       <c r="B320" t="s">
         <v>21</v>
       </c>
       <c r="C320" t="s">
-        <v>1229</v>
+        <v>1233</v>
       </c>
       <c r="D320" t="s">
-        <v>127</v>
+        <v>179</v>
       </c>
       <c r="E320" t="s">
         <v>65</v>
       </c>
       <c r="F320" t="s">
-        <v>1230</v>
+        <v>1234</v>
       </c>
       <c r="G320" t="s">
         <v>26</v>
       </c>
       <c r="H320" t="s">
-        <v>784</v>
+        <v>75</v>
       </c>
       <c r="I320">
         <v>8839043571</v>
@@ -19148,10 +19322,10 @@
         <v>332</v>
       </c>
       <c r="K320" t="s">
-        <v>473</v>
+        <v>852</v>
       </c>
       <c r="L320" t="s">
-        <v>1126</v>
+        <v>1189</v>
       </c>
       <c r="M320" t="s">
         <v>176</v>
@@ -19162,72 +19336,72 @@
     </row>
     <row r="321" spans="1:14">
       <c r="A321" s="2">
-        <v>13812</v>
+        <v>13659</v>
       </c>
       <c r="B321" t="s">
-        <v>21</v>
+        <v>931</v>
       </c>
       <c r="C321" t="s">
-        <v>1233</v>
+        <v>763</v>
       </c>
       <c r="D321" t="s">
         <v>179</v>
       </c>
       <c r="E321" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F321" t="s">
-        <v>1234</v>
+        <v>764</v>
       </c>
       <c r="G321" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H321" t="s">
-        <v>75</v>
+        <v>1235</v>
       </c>
       <c r="I321">
         <v>9111228373</v>
       </c>
       <c r="J321" t="s">
-        <v>332</v>
+        <v>1220</v>
       </c>
       <c r="K321" t="s">
-        <v>852</v>
+        <v>769</v>
       </c>
       <c r="L321" t="s">
-        <v>1189</v>
+        <v>551</v>
       </c>
       <c r="M321" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="N321" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
     </row>
     <row r="322" spans="1:14">
       <c r="A322" s="2">
-        <v>13659</v>
+        <v>13889</v>
       </c>
       <c r="B322" t="s">
-        <v>931</v>
+        <v>21</v>
       </c>
       <c r="C322" t="s">
-        <v>763</v>
+        <v>1236</v>
       </c>
       <c r="D322" t="s">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="E322" t="s">
-        <v>17</v>
+        <v>234</v>
       </c>
       <c r="F322" t="s">
-        <v>764</v>
+        <v>1237</v>
       </c>
       <c r="G322" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H322" t="s">
-        <v>1235</v>
+        <v>144</v>
       </c>
       <c r="I322">
         <v>9770710319</v>
@@ -19236,10 +19410,10 @@
         <v>1220</v>
       </c>
       <c r="K322" t="s">
-        <v>769</v>
+        <v>1253</v>
       </c>
       <c r="L322" t="s">
-        <v>551</v>
+        <v>1187</v>
       </c>
       <c r="M322" t="s">
         <v>20</v>
@@ -19250,40 +19424,40 @@
     </row>
     <row r="323" spans="1:14">
       <c r="A323" s="2">
-        <v>13889</v>
+        <v>13594</v>
       </c>
       <c r="B323" t="s">
         <v>21</v>
       </c>
       <c r="C323" t="s">
-        <v>1236</v>
+        <v>891</v>
       </c>
       <c r="D323" t="s">
-        <v>108</v>
+        <v>334</v>
       </c>
       <c r="E323" t="s">
-        <v>234</v>
+        <v>498</v>
       </c>
       <c r="F323" t="s">
-        <v>1237</v>
+        <v>892</v>
       </c>
       <c r="G323" t="s">
         <v>26</v>
       </c>
       <c r="H323" t="s">
-        <v>144</v>
+        <v>520</v>
       </c>
       <c r="I323">
         <v>9302993072</v>
       </c>
       <c r="J323" t="s">
-        <v>1220</v>
+        <v>1254</v>
       </c>
       <c r="K323" t="s">
-        <v>1253</v>
+        <v>667</v>
       </c>
       <c r="L323" t="s">
-        <v>1187</v>
+        <v>237</v>
       </c>
       <c r="M323" t="s">
         <v>20</v>
@@ -19294,28 +19468,28 @@
     </row>
     <row r="324" spans="1:14">
       <c r="A324" s="2">
-        <v>13594</v>
+        <v>13884</v>
       </c>
       <c r="B324" t="s">
         <v>21</v>
       </c>
       <c r="C324" t="s">
-        <v>891</v>
+        <v>1238</v>
       </c>
       <c r="D324" t="s">
-        <v>334</v>
+        <v>179</v>
       </c>
       <c r="E324" t="s">
-        <v>498</v>
+        <v>1239</v>
       </c>
       <c r="F324" t="s">
-        <v>892</v>
+        <v>1240</v>
       </c>
       <c r="G324" t="s">
         <v>26</v>
       </c>
       <c r="H324" t="s">
-        <v>520</v>
+        <v>1241</v>
       </c>
       <c r="I324">
         <v>8223029172</v>
@@ -19324,42 +19498,42 @@
         <v>1254</v>
       </c>
       <c r="K324" t="s">
-        <v>667</v>
+        <v>1255</v>
       </c>
       <c r="L324" t="s">
-        <v>237</v>
+        <v>1111</v>
       </c>
       <c r="M324" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="N324" t="s">
-        <v>17</v>
+        <v>240</v>
       </c>
     </row>
     <row r="325" spans="1:14">
       <c r="A325" s="2">
-        <v>13884</v>
+        <v>13885</v>
       </c>
       <c r="B325" t="s">
         <v>21</v>
       </c>
       <c r="C325" t="s">
-        <v>1238</v>
+        <v>1242</v>
       </c>
       <c r="D325" t="s">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="E325" t="s">
-        <v>1239</v>
+        <v>220</v>
       </c>
       <c r="F325" t="s">
-        <v>1240</v>
+        <v>1243</v>
       </c>
       <c r="G325" t="s">
         <v>26</v>
       </c>
       <c r="H325" t="s">
-        <v>1241</v>
+        <v>222</v>
       </c>
       <c r="I325">
         <v>9329892851</v>
@@ -19377,45 +19551,45 @@
         <v>176</v>
       </c>
       <c r="N325" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="326" spans="1:14">
       <c r="A326" s="2">
-        <v>13885</v>
+        <v>13888</v>
       </c>
       <c r="B326" t="s">
         <v>21</v>
       </c>
       <c r="C326" t="s">
-        <v>1242</v>
+        <v>1246</v>
       </c>
       <c r="D326" t="s">
         <v>108</v>
       </c>
       <c r="E326" t="s">
-        <v>220</v>
+        <v>730</v>
       </c>
       <c r="F326" t="s">
-        <v>1243</v>
+        <v>1247</v>
       </c>
       <c r="G326" t="s">
         <v>26</v>
       </c>
       <c r="H326" t="s">
-        <v>222</v>
+        <v>732</v>
       </c>
       <c r="I326">
         <v>7987187140</v>
       </c>
       <c r="J326" t="s">
-        <v>1254</v>
+        <v>1220</v>
       </c>
       <c r="K326" t="s">
-        <v>1255</v>
+        <v>1221</v>
       </c>
       <c r="L326" t="s">
-        <v>1111</v>
+        <v>1259</v>
       </c>
       <c r="M326" t="s">
         <v>176</v>
@@ -19426,84 +19600,84 @@
     </row>
     <row r="327" spans="1:14">
       <c r="A327" s="2">
-        <v>13888</v>
+        <v>13898</v>
       </c>
       <c r="B327" t="s">
-        <v>21</v>
+        <v>931</v>
       </c>
       <c r="C327" t="s">
-        <v>1246</v>
+        <v>1248</v>
       </c>
       <c r="D327" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="E327" t="s">
-        <v>730</v>
+        <v>17</v>
       </c>
       <c r="F327" t="s">
-        <v>1247</v>
+        <v>1249</v>
       </c>
       <c r="G327" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H327" t="s">
-        <v>732</v>
+        <v>424</v>
       </c>
       <c r="I327">
         <v>6264596384</v>
       </c>
       <c r="J327" t="s">
-        <v>1220</v>
+        <v>1254</v>
       </c>
       <c r="K327" t="s">
-        <v>1221</v>
+        <v>35</v>
       </c>
       <c r="L327" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="M327" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="N327" t="s">
-        <v>239</v>
+        <v>17</v>
       </c>
     </row>
     <row r="328" spans="1:14">
       <c r="A328" s="2">
-        <v>13898</v>
+        <v>13900</v>
       </c>
       <c r="B328" t="s">
         <v>931</v>
       </c>
       <c r="C328" t="s">
-        <v>1248</v>
+        <v>1250</v>
       </c>
       <c r="D328" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="E328" t="s">
         <v>17</v>
       </c>
       <c r="F328" t="s">
-        <v>1249</v>
+        <v>1251</v>
       </c>
       <c r="G328" t="s">
         <v>17</v>
       </c>
       <c r="H328" t="s">
-        <v>424</v>
+        <v>340</v>
       </c>
       <c r="I328">
         <v>9399946093</v>
       </c>
       <c r="J328" t="s">
-        <v>1254</v>
+        <v>1256</v>
       </c>
       <c r="K328" t="s">
-        <v>35</v>
+        <v>1257</v>
       </c>
       <c r="L328" t="s">
-        <v>1260</v>
+        <v>1116</v>
       </c>
       <c r="M328" t="s">
         <v>20</v>
@@ -19514,28 +19688,28 @@
     </row>
     <row r="329" spans="1:14">
       <c r="A329" s="2">
-        <v>13900</v>
+        <v>13624</v>
       </c>
       <c r="B329" t="s">
         <v>931</v>
       </c>
       <c r="C329" t="s">
-        <v>1250</v>
+        <v>727</v>
       </c>
       <c r="D329" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="E329" t="s">
         <v>17</v>
       </c>
       <c r="F329" t="s">
-        <v>1251</v>
+        <v>728</v>
       </c>
       <c r="G329" t="s">
         <v>17</v>
       </c>
       <c r="H329" t="s">
-        <v>340</v>
+        <v>72</v>
       </c>
       <c r="I329">
         <v>7389718456</v>
@@ -19544,10 +19718,10 @@
         <v>1256</v>
       </c>
       <c r="K329" t="s">
-        <v>1257</v>
+        <v>676</v>
       </c>
       <c r="L329" t="s">
-        <v>1116</v>
+        <v>357</v>
       </c>
       <c r="M329" t="s">
         <v>20</v>
@@ -19558,28 +19732,28 @@
     </row>
     <row r="330" spans="1:14">
       <c r="A330" s="2">
-        <v>13624</v>
+        <v>13612</v>
       </c>
       <c r="B330" t="s">
         <v>931</v>
       </c>
       <c r="C330" t="s">
-        <v>727</v>
+        <v>697</v>
       </c>
       <c r="D330" t="s">
-        <v>69</v>
+        <v>427</v>
       </c>
       <c r="E330" t="s">
         <v>17</v>
       </c>
       <c r="F330" t="s">
-        <v>728</v>
+        <v>698</v>
       </c>
       <c r="G330" t="s">
         <v>17</v>
       </c>
       <c r="H330" t="s">
-        <v>72</v>
+        <v>1252</v>
       </c>
       <c r="I330">
         <v>7000729651</v>
@@ -19591,7 +19765,7 @@
         <v>676</v>
       </c>
       <c r="L330" t="s">
-        <v>357</v>
+        <v>204</v>
       </c>
       <c r="M330" t="s">
         <v>20</v>
@@ -19602,28 +19776,28 @@
     </row>
     <row r="331" spans="1:14">
       <c r="A331" s="2">
-        <v>13612</v>
+        <v>13827</v>
       </c>
       <c r="B331" t="s">
         <v>931</v>
       </c>
       <c r="C331" t="s">
-        <v>697</v>
+        <v>1261</v>
       </c>
       <c r="D331" t="s">
-        <v>427</v>
+        <v>179</v>
       </c>
       <c r="E331" t="s">
         <v>17</v>
       </c>
       <c r="F331" t="s">
-        <v>698</v>
+        <v>1262</v>
       </c>
       <c r="G331" t="s">
         <v>17</v>
       </c>
       <c r="H331" t="s">
-        <v>1252</v>
+        <v>1235</v>
       </c>
       <c r="I331">
         <v>9302256290</v>
@@ -19632,10 +19806,10 @@
         <v>1256</v>
       </c>
       <c r="K331" t="s">
-        <v>676</v>
+        <v>1002</v>
       </c>
       <c r="L331" t="s">
-        <v>204</v>
+        <v>1116</v>
       </c>
       <c r="M331" t="s">
         <v>20</v>
@@ -19646,40 +19820,40 @@
     </row>
     <row r="332" spans="1:14">
       <c r="A332" s="2">
-        <v>13827</v>
+        <v>13905</v>
       </c>
       <c r="B332" t="s">
         <v>931</v>
       </c>
       <c r="C332" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="D332" t="s">
-        <v>179</v>
+        <v>207</v>
       </c>
       <c r="E332" t="s">
         <v>17</v>
       </c>
       <c r="F332" t="s">
-        <v>1262</v>
+        <v>1264</v>
       </c>
       <c r="G332" t="s">
         <v>17</v>
       </c>
       <c r="H332" t="s">
-        <v>1235</v>
+        <v>1265</v>
       </c>
       <c r="I332">
         <v>8720076519</v>
       </c>
       <c r="J332" t="s">
-        <v>1256</v>
+        <v>114</v>
       </c>
       <c r="K332" t="s">
-        <v>1002</v>
+        <v>632</v>
       </c>
       <c r="L332" t="s">
-        <v>1116</v>
+        <v>1290</v>
       </c>
       <c r="M332" t="s">
         <v>20</v>
@@ -19690,40 +19864,40 @@
     </row>
     <row r="333" spans="1:14">
       <c r="A333" s="2">
-        <v>13905</v>
+        <v>13861</v>
       </c>
       <c r="B333" t="s">
         <v>931</v>
       </c>
       <c r="C333" t="s">
-        <v>1263</v>
+        <v>1266</v>
       </c>
       <c r="D333" t="s">
-        <v>207</v>
+        <v>17</v>
       </c>
       <c r="E333" t="s">
         <v>17</v>
       </c>
       <c r="F333" t="s">
-        <v>1264</v>
+        <v>1267</v>
       </c>
       <c r="G333" t="s">
         <v>17</v>
       </c>
       <c r="H333" t="s">
-        <v>1265</v>
+        <v>1268</v>
       </c>
       <c r="I333">
         <v>8643042101</v>
       </c>
       <c r="J333" t="s">
-        <v>114</v>
+        <v>1254</v>
       </c>
       <c r="K333" t="s">
-        <v>632</v>
+        <v>1291</v>
       </c>
       <c r="L333" t="s">
-        <v>1290</v>
+        <v>1292</v>
       </c>
       <c r="M333" t="s">
         <v>20</v>
@@ -19734,40 +19908,40 @@
     </row>
     <row r="334" spans="1:14">
       <c r="A334" s="2">
-        <v>13861</v>
+        <v>13907</v>
       </c>
       <c r="B334" t="s">
-        <v>931</v>
+        <v>21</v>
       </c>
       <c r="C334" t="s">
-        <v>1266</v>
+        <v>1269</v>
       </c>
       <c r="D334" t="s">
-        <v>17</v>
+        <v>308</v>
       </c>
       <c r="E334" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="F334" t="s">
-        <v>1267</v>
+        <v>1270</v>
       </c>
       <c r="G334" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H334" t="s">
-        <v>1268</v>
+        <v>310</v>
       </c>
       <c r="I334">
         <v>9406447230</v>
       </c>
       <c r="J334" t="s">
-        <v>1254</v>
+        <v>1220</v>
       </c>
       <c r="K334" t="s">
-        <v>1291</v>
+        <v>1221</v>
       </c>
       <c r="L334" t="s">
-        <v>1292</v>
+        <v>551</v>
       </c>
       <c r="M334" t="s">
         <v>20</v>
@@ -19778,128 +19952,128 @@
     </row>
     <row r="335" spans="1:14">
       <c r="A335" s="2">
-        <v>13907</v>
+        <v>13901</v>
       </c>
       <c r="B335" t="s">
         <v>21</v>
       </c>
       <c r="C335" t="s">
-        <v>1269</v>
+        <v>1271</v>
       </c>
       <c r="D335" t="s">
-        <v>308</v>
+        <v>179</v>
       </c>
       <c r="E335" t="s">
-        <v>65</v>
+        <v>243</v>
       </c>
       <c r="F335" t="s">
-        <v>1270</v>
+        <v>1272</v>
       </c>
       <c r="G335" t="s">
         <v>26</v>
       </c>
       <c r="H335" t="s">
-        <v>310</v>
+        <v>245</v>
       </c>
       <c r="I335">
         <v>6268362052</v>
       </c>
       <c r="J335" t="s">
-        <v>1220</v>
+        <v>1256</v>
       </c>
       <c r="K335" t="s">
-        <v>1221</v>
+        <v>1293</v>
       </c>
       <c r="L335" t="s">
-        <v>551</v>
+        <v>1294</v>
       </c>
       <c r="M335" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="N335" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
     </row>
     <row r="336" spans="1:14">
       <c r="A336" s="2">
-        <v>13901</v>
+        <v>13601</v>
       </c>
       <c r="B336" t="s">
         <v>21</v>
       </c>
       <c r="C336" t="s">
-        <v>1271</v>
+        <v>677</v>
       </c>
       <c r="D336" t="s">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="E336" t="s">
-        <v>243</v>
+        <v>586</v>
       </c>
       <c r="F336" t="s">
-        <v>1272</v>
+        <v>678</v>
       </c>
       <c r="G336" t="s">
         <v>26</v>
       </c>
       <c r="H336" t="s">
-        <v>245</v>
+        <v>149</v>
       </c>
       <c r="I336">
         <v>8827841099</v>
       </c>
       <c r="J336" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="K336" t="s">
-        <v>1293</v>
+        <v>643</v>
       </c>
       <c r="L336" t="s">
-        <v>1294</v>
+        <v>510</v>
       </c>
       <c r="M336" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="N336" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
     </row>
     <row r="337" spans="1:14">
       <c r="A337" s="2">
-        <v>13601</v>
+        <v>13895</v>
       </c>
       <c r="B337" t="s">
         <v>21</v>
       </c>
       <c r="C337" t="s">
-        <v>677</v>
+        <v>1273</v>
       </c>
       <c r="D337" t="s">
         <v>108</v>
       </c>
       <c r="E337" t="s">
-        <v>586</v>
+        <v>478</v>
       </c>
       <c r="F337" t="s">
-        <v>678</v>
+        <v>1274</v>
       </c>
       <c r="G337" t="s">
         <v>26</v>
       </c>
       <c r="H337" t="s">
-        <v>149</v>
+        <v>480</v>
       </c>
       <c r="I337">
         <v>7587717040</v>
       </c>
       <c r="J337" t="s">
-        <v>1254</v>
+        <v>1220</v>
       </c>
       <c r="K337" t="s">
-        <v>643</v>
+        <v>1295</v>
       </c>
       <c r="L337" t="s">
-        <v>510</v>
+        <v>1165</v>
       </c>
       <c r="M337" t="s">
         <v>20</v>
@@ -19910,72 +20084,72 @@
     </row>
     <row r="338" spans="1:14">
       <c r="A338" s="2">
-        <v>13895</v>
+        <v>13899</v>
       </c>
       <c r="B338" t="s">
         <v>21</v>
       </c>
       <c r="C338" t="s">
-        <v>1273</v>
+        <v>1275</v>
       </c>
       <c r="D338" t="s">
         <v>108</v>
       </c>
       <c r="E338" t="s">
-        <v>478</v>
+        <v>56</v>
       </c>
       <c r="F338" t="s">
-        <v>1274</v>
+        <v>1276</v>
       </c>
       <c r="G338" t="s">
         <v>26</v>
       </c>
       <c r="H338" t="s">
-        <v>480</v>
+        <v>252</v>
       </c>
       <c r="I338">
         <v>7693858321</v>
       </c>
       <c r="J338" t="s">
-        <v>1220</v>
+        <v>1256</v>
       </c>
       <c r="K338" t="s">
-        <v>1295</v>
+        <v>1257</v>
       </c>
       <c r="L338" t="s">
-        <v>1165</v>
+        <v>1126</v>
       </c>
       <c r="M338" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="N338" t="s">
-        <v>17</v>
+        <v>239</v>
       </c>
     </row>
     <row r="339" spans="1:14">
       <c r="A339" s="2">
-        <v>13899</v>
+        <v>13626</v>
       </c>
       <c r="B339" t="s">
         <v>21</v>
       </c>
       <c r="C339" t="s">
-        <v>1275</v>
+        <v>722</v>
       </c>
       <c r="D339" t="s">
         <v>108</v>
       </c>
       <c r="E339" t="s">
-        <v>56</v>
+        <v>136</v>
       </c>
       <c r="F339" t="s">
-        <v>1276</v>
+        <v>723</v>
       </c>
       <c r="G339" t="s">
         <v>26</v>
       </c>
       <c r="H339" t="s">
-        <v>252</v>
+        <v>138</v>
       </c>
       <c r="I339">
         <v>6263237056</v>
@@ -19984,10 +20158,10 @@
         <v>1256</v>
       </c>
       <c r="K339" t="s">
-        <v>1257</v>
+        <v>686</v>
       </c>
       <c r="L339" t="s">
-        <v>1126</v>
+        <v>1151</v>
       </c>
       <c r="M339" t="s">
         <v>176</v>
@@ -19998,28 +20172,28 @@
     </row>
     <row r="340" spans="1:14">
       <c r="A340" s="2">
-        <v>13626</v>
+        <v>13848</v>
       </c>
       <c r="B340" t="s">
         <v>21</v>
       </c>
       <c r="C340" t="s">
-        <v>722</v>
+        <v>1231</v>
       </c>
       <c r="D340" t="s">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="E340" t="s">
-        <v>136</v>
+        <v>507</v>
       </c>
       <c r="F340" t="s">
-        <v>723</v>
+        <v>1277</v>
       </c>
       <c r="G340" t="s">
         <v>26</v>
       </c>
       <c r="H340" t="s">
-        <v>138</v>
+        <v>691</v>
       </c>
       <c r="I340">
         <v>7828440751</v>
@@ -20028,42 +20202,42 @@
         <v>1256</v>
       </c>
       <c r="K340" t="s">
-        <v>686</v>
+        <v>1023</v>
       </c>
       <c r="L340" t="s">
-        <v>1151</v>
+        <v>1075</v>
       </c>
       <c r="M340" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="N340" t="s">
-        <v>239</v>
+        <v>17</v>
       </c>
     </row>
     <row r="341" spans="1:14">
       <c r="A341" s="2">
-        <v>13848</v>
+        <v>13699</v>
       </c>
       <c r="B341" t="s">
         <v>21</v>
       </c>
       <c r="C341" t="s">
-        <v>1231</v>
+        <v>837</v>
       </c>
       <c r="D341" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
       <c r="E341" t="s">
-        <v>507</v>
+        <v>586</v>
       </c>
       <c r="F341" t="s">
-        <v>1277</v>
+        <v>838</v>
       </c>
       <c r="G341" t="s">
         <v>26</v>
       </c>
       <c r="H341" t="s">
-        <v>691</v>
+        <v>149</v>
       </c>
       <c r="I341">
         <v>7725886649</v>
@@ -20072,10 +20246,10 @@
         <v>1256</v>
       </c>
       <c r="K341" t="s">
-        <v>1023</v>
+        <v>813</v>
       </c>
       <c r="L341" t="s">
-        <v>1075</v>
+        <v>758</v>
       </c>
       <c r="M341" t="s">
         <v>20</v>
@@ -20086,110 +20260,110 @@
     </row>
     <row r="342" spans="1:14">
       <c r="A342" s="2">
-        <v>13699</v>
+        <v>13655</v>
       </c>
       <c r="B342" t="s">
         <v>21</v>
       </c>
       <c r="C342" t="s">
-        <v>837</v>
+        <v>1278</v>
       </c>
       <c r="D342" t="s">
-        <v>108</v>
+        <v>159</v>
       </c>
       <c r="E342" t="s">
-        <v>586</v>
+        <v>1043</v>
       </c>
       <c r="F342" t="s">
-        <v>838</v>
+        <v>1279</v>
       </c>
       <c r="G342" t="s">
         <v>26</v>
       </c>
       <c r="H342" t="s">
-        <v>149</v>
+        <v>1045</v>
       </c>
       <c r="I342">
         <v>8815500641</v>
       </c>
       <c r="J342" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="K342" t="s">
-        <v>813</v>
+        <v>181</v>
       </c>
       <c r="L342" t="s">
-        <v>758</v>
+        <v>1086</v>
       </c>
       <c r="M342" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="N342" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
     </row>
     <row r="343" spans="1:14">
       <c r="A343" s="2">
-        <v>13655</v>
+        <v>13887</v>
       </c>
       <c r="B343" t="s">
         <v>21</v>
       </c>
       <c r="C343" t="s">
-        <v>1278</v>
+        <v>1244</v>
       </c>
       <c r="D343" t="s">
-        <v>159</v>
+        <v>270</v>
       </c>
       <c r="E343" t="s">
-        <v>1043</v>
+        <v>342</v>
       </c>
       <c r="F343" t="s">
-        <v>1279</v>
+        <v>1245</v>
       </c>
       <c r="G343" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="H343" t="s">
-        <v>1045</v>
+        <v>17</v>
       </c>
       <c r="I343">
         <v>9301809840</v>
       </c>
       <c r="J343" t="s">
-        <v>1254</v>
+        <v>1220</v>
       </c>
       <c r="K343" t="s">
-        <v>181</v>
+        <v>1221</v>
       </c>
       <c r="L343" t="s">
-        <v>1086</v>
+        <v>1109</v>
       </c>
       <c r="M343" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="N343" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
     </row>
     <row r="344" spans="1:14">
       <c r="A344" s="2">
-        <v>13887</v>
+        <v>13904</v>
       </c>
       <c r="B344" t="s">
         <v>21</v>
       </c>
       <c r="C344" t="s">
-        <v>1244</v>
+        <v>1280</v>
       </c>
       <c r="D344" t="s">
         <v>270</v>
       </c>
       <c r="E344" t="s">
-        <v>342</v>
+        <v>1281</v>
       </c>
       <c r="F344" t="s">
-        <v>1245</v>
+        <v>1282</v>
       </c>
       <c r="G344" t="s">
         <v>16</v>
@@ -20201,45 +20375,45 @@
         <v>7999399864</v>
       </c>
       <c r="J344" t="s">
-        <v>1220</v>
+        <v>1256</v>
       </c>
       <c r="K344" t="s">
-        <v>1221</v>
+        <v>1296</v>
       </c>
       <c r="L344" t="s">
-        <v>1109</v>
+        <v>1082</v>
       </c>
       <c r="M344" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="N344" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
     </row>
     <row r="345" spans="1:14">
       <c r="A345" s="2">
-        <v>13904</v>
+        <v>13870</v>
       </c>
       <c r="B345" t="s">
         <v>21</v>
       </c>
       <c r="C345" t="s">
-        <v>1280</v>
+        <v>1283</v>
       </c>
       <c r="D345" t="s">
-        <v>270</v>
+        <v>153</v>
       </c>
       <c r="E345" t="s">
-        <v>1281</v>
+        <v>65</v>
       </c>
       <c r="F345" t="s">
-        <v>1282</v>
+        <v>1284</v>
       </c>
       <c r="G345" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H345" t="s">
-        <v>17</v>
+        <v>1285</v>
       </c>
       <c r="I345">
         <v>8319503066</v>
@@ -20248,54 +20422,54 @@
         <v>1256</v>
       </c>
       <c r="K345" t="s">
-        <v>1296</v>
+        <v>1026</v>
       </c>
       <c r="L345" t="s">
-        <v>1082</v>
+        <v>203</v>
       </c>
       <c r="M345" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="N345" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
     </row>
     <row r="346" spans="1:14">
       <c r="A346" s="2">
-        <v>13870</v>
+        <v>13729</v>
       </c>
       <c r="B346" t="s">
-        <v>21</v>
+        <v>931</v>
       </c>
       <c r="C346" t="s">
-        <v>1283</v>
+        <v>1286</v>
       </c>
       <c r="D346" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="E346" t="s">
-        <v>65</v>
+        <v>17</v>
       </c>
       <c r="F346" t="s">
-        <v>1284</v>
+        <v>1287</v>
       </c>
       <c r="G346" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H346" t="s">
-        <v>1285</v>
+        <v>340</v>
       </c>
       <c r="I346">
         <v>6261192470</v>
       </c>
       <c r="J346" t="s">
-        <v>1256</v>
+        <v>1220</v>
       </c>
       <c r="K346" t="s">
-        <v>1026</v>
+        <v>879</v>
       </c>
       <c r="L346" t="s">
-        <v>203</v>
+        <v>551</v>
       </c>
       <c r="M346" t="s">
         <v>20</v>
@@ -20306,13 +20480,13 @@
     </row>
     <row r="347" spans="1:14">
       <c r="A347" s="2">
-        <v>13729</v>
+        <v>13903</v>
       </c>
       <c r="B347" t="s">
         <v>931</v>
       </c>
       <c r="C347" t="s">
-        <v>1286</v>
+        <v>1288</v>
       </c>
       <c r="D347" t="s">
         <v>108</v>
@@ -20321,7 +20495,7 @@
         <v>17</v>
       </c>
       <c r="F347" t="s">
-        <v>1287</v>
+        <v>1289</v>
       </c>
       <c r="G347" t="s">
         <v>17</v>
@@ -20333,13 +20507,13 @@
         <v>9340951602</v>
       </c>
       <c r="J347" t="s">
-        <v>1220</v>
+        <v>114</v>
       </c>
       <c r="K347" t="s">
-        <v>879</v>
+        <v>603</v>
       </c>
       <c r="L347" t="s">
-        <v>551</v>
+        <v>1297</v>
       </c>
       <c r="M347" t="s">
         <v>20</v>
@@ -20350,28 +20524,28 @@
     </row>
     <row r="348" spans="1:14">
       <c r="A348" s="2">
-        <v>13903</v>
+        <v>13652</v>
       </c>
       <c r="B348" t="s">
-        <v>931</v>
+        <v>21</v>
       </c>
       <c r="C348" t="s">
-        <v>1288</v>
+        <v>1298</v>
       </c>
       <c r="D348" t="s">
-        <v>108</v>
+        <v>270</v>
       </c>
       <c r="E348" t="s">
-        <v>17</v>
+        <v>695</v>
       </c>
       <c r="F348" t="s">
-        <v>1289</v>
+        <v>1312</v>
       </c>
       <c r="G348" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="H348" t="s">
-        <v>340</v>
+        <v>17</v>
       </c>
       <c r="I348">
         <v>7489500464</v>
@@ -20380,42 +20554,42 @@
         <v>114</v>
       </c>
       <c r="K348" t="s">
-        <v>603</v>
+        <v>48</v>
       </c>
       <c r="L348" t="s">
-        <v>1297</v>
+        <v>1338</v>
       </c>
       <c r="M348" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="N348" t="s">
-        <v>17</v>
+        <v>200</v>
       </c>
     </row>
     <row r="349" spans="1:14">
       <c r="A349" s="2">
-        <v>13652</v>
+        <v>13909</v>
       </c>
       <c r="B349" t="s">
         <v>21</v>
       </c>
       <c r="C349" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="D349" t="s">
-        <v>270</v>
+        <v>334</v>
       </c>
       <c r="E349" t="s">
-        <v>695</v>
+        <v>65</v>
       </c>
       <c r="F349" t="s">
-        <v>1312</v>
+        <v>1313</v>
       </c>
       <c r="G349" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="H349" t="s">
-        <v>17</v>
+        <v>336</v>
       </c>
       <c r="I349">
         <v>8964077756</v>
@@ -20424,86 +20598,86 @@
         <v>114</v>
       </c>
       <c r="K349" t="s">
-        <v>48</v>
+        <v>1331</v>
       </c>
       <c r="L349" t="s">
-        <v>1338</v>
+        <v>1339</v>
       </c>
       <c r="M349" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="N349" t="s">
-        <v>200</v>
+        <v>17</v>
       </c>
     </row>
     <row r="350" spans="1:14">
       <c r="A350" s="2">
-        <v>13909</v>
+        <v>13661</v>
       </c>
       <c r="B350" t="s">
         <v>21</v>
       </c>
       <c r="C350" t="s">
-        <v>1299</v>
+        <v>1301</v>
       </c>
       <c r="D350" t="s">
-        <v>334</v>
+        <v>108</v>
       </c>
       <c r="E350" t="s">
-        <v>65</v>
+        <v>136</v>
       </c>
       <c r="F350" t="s">
-        <v>1313</v>
+        <v>1316</v>
       </c>
       <c r="G350" t="s">
         <v>26</v>
       </c>
       <c r="H350" t="s">
-        <v>336</v>
+        <v>138</v>
       </c>
       <c r="I350">
         <v>6265877342</v>
       </c>
       <c r="J350" t="s">
-        <v>114</v>
+        <v>1332</v>
       </c>
       <c r="K350" t="s">
-        <v>1331</v>
+        <v>1333</v>
       </c>
       <c r="L350" t="s">
-        <v>1339</v>
+        <v>237</v>
       </c>
       <c r="M350" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="N350" t="s">
-        <v>17</v>
+        <v>239</v>
       </c>
     </row>
     <row r="351" spans="1:14">
       <c r="A351" s="2">
-        <v>13661</v>
+        <v>13921</v>
       </c>
       <c r="B351" t="s">
         <v>21</v>
       </c>
       <c r="C351" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="D351" t="s">
         <v>108</v>
       </c>
       <c r="E351" t="s">
-        <v>136</v>
+        <v>65</v>
       </c>
       <c r="F351" t="s">
-        <v>1316</v>
+        <v>1317</v>
       </c>
       <c r="G351" t="s">
         <v>26</v>
       </c>
       <c r="H351" t="s">
-        <v>138</v>
+        <v>402</v>
       </c>
       <c r="I351">
         <v>6260991092</v>
@@ -20512,42 +20686,42 @@
         <v>1332</v>
       </c>
       <c r="K351" t="s">
-        <v>1333</v>
+        <v>1334</v>
       </c>
       <c r="L351" t="s">
-        <v>237</v>
+        <v>1080</v>
       </c>
       <c r="M351" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="N351" t="s">
-        <v>239</v>
+        <v>17</v>
       </c>
     </row>
     <row r="352" spans="1:14">
       <c r="A352" s="2">
-        <v>13921</v>
+        <v>13923</v>
       </c>
       <c r="B352" t="s">
         <v>21</v>
       </c>
       <c r="C352" t="s">
-        <v>1302</v>
+        <v>521</v>
       </c>
       <c r="D352" t="s">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="E352" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="F352" t="s">
-        <v>1317</v>
+        <v>1318</v>
       </c>
       <c r="G352" t="s">
         <v>26</v>
       </c>
       <c r="H352" t="s">
-        <v>402</v>
+        <v>62</v>
       </c>
       <c r="I352">
         <v>9131498975</v>
@@ -20556,42 +20730,42 @@
         <v>1332</v>
       </c>
       <c r="K352" t="s">
-        <v>1334</v>
+        <v>1335</v>
       </c>
       <c r="L352" t="s">
-        <v>1080</v>
+        <v>941</v>
       </c>
       <c r="M352" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="N352" t="s">
-        <v>17</v>
+        <v>241</v>
       </c>
     </row>
     <row r="353" spans="1:14">
       <c r="A353" s="2">
-        <v>13923</v>
+        <v>13922</v>
       </c>
       <c r="B353" t="s">
         <v>21</v>
       </c>
       <c r="C353" t="s">
-        <v>521</v>
+        <v>1303</v>
       </c>
       <c r="D353" t="s">
         <v>179</v>
       </c>
       <c r="E353" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="F353" t="s">
-        <v>1318</v>
+        <v>1319</v>
       </c>
       <c r="G353" t="s">
         <v>26</v>
       </c>
       <c r="H353" t="s">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="I353">
         <v>7803832370</v>
@@ -20603,39 +20777,39 @@
         <v>1335</v>
       </c>
       <c r="L353" t="s">
-        <v>941</v>
+        <v>371</v>
       </c>
       <c r="M353" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="N353" t="s">
-        <v>241</v>
+        <v>17</v>
       </c>
     </row>
     <row r="354" spans="1:14">
       <c r="A354" s="2">
-        <v>13922</v>
+        <v>13924</v>
       </c>
       <c r="B354" t="s">
         <v>21</v>
       </c>
       <c r="C354" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D354" t="s">
-        <v>179</v>
+        <v>291</v>
       </c>
       <c r="E354" t="s">
         <v>65</v>
       </c>
       <c r="F354" t="s">
-        <v>1319</v>
+        <v>1320</v>
       </c>
       <c r="G354" t="s">
         <v>26</v>
       </c>
       <c r="H354" t="s">
-        <v>461</v>
+        <v>1321</v>
       </c>
       <c r="I354">
         <v>9630912955</v>
@@ -20644,10 +20818,10 @@
         <v>1332</v>
       </c>
       <c r="K354" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="L354" t="s">
-        <v>371</v>
+        <v>1340</v>
       </c>
       <c r="M354" t="s">
         <v>20</v>
@@ -20658,72 +20832,72 @@
     </row>
     <row r="355" spans="1:14">
       <c r="A355" s="2">
-        <v>13924</v>
+        <v>13925</v>
       </c>
       <c r="B355" t="s">
         <v>21</v>
       </c>
       <c r="C355" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="D355" t="s">
-        <v>291</v>
+        <v>179</v>
       </c>
       <c r="E355" t="s">
-        <v>65</v>
+        <v>1322</v>
       </c>
       <c r="F355" t="s">
-        <v>1320</v>
+        <v>1323</v>
       </c>
       <c r="G355" t="s">
         <v>26</v>
       </c>
       <c r="H355" t="s">
-        <v>1321</v>
+        <v>1324</v>
       </c>
       <c r="I355">
         <v>9343884280</v>
       </c>
       <c r="J355" t="s">
-        <v>1332</v>
+        <v>1256</v>
       </c>
       <c r="K355" t="s">
-        <v>1334</v>
+        <v>1336</v>
       </c>
       <c r="L355" t="s">
-        <v>1340</v>
+        <v>1341</v>
       </c>
       <c r="M355" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="N355" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
     </row>
     <row r="356" spans="1:14">
       <c r="A356" s="2">
-        <v>13925</v>
+        <v>13796</v>
       </c>
       <c r="B356" t="s">
         <v>21</v>
       </c>
       <c r="C356" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="D356" t="s">
-        <v>179</v>
+        <v>69</v>
       </c>
       <c r="E356" t="s">
-        <v>1322</v>
+        <v>65</v>
       </c>
       <c r="F356" t="s">
-        <v>1323</v>
+        <v>1325</v>
       </c>
       <c r="G356" t="s">
         <v>26</v>
       </c>
       <c r="H356" t="s">
-        <v>1324</v>
+        <v>774</v>
       </c>
       <c r="I356">
         <v>8103185249</v>
@@ -20732,54 +20906,54 @@
         <v>1256</v>
       </c>
       <c r="K356" t="s">
-        <v>1336</v>
+        <v>945</v>
       </c>
       <c r="L356" t="s">
-        <v>1341</v>
+        <v>1117</v>
       </c>
       <c r="M356" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="N356" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
     </row>
     <row r="357" spans="1:14">
       <c r="A357" s="2">
-        <v>13796</v>
+        <v>13773</v>
       </c>
       <c r="B357" t="s">
         <v>21</v>
       </c>
       <c r="C357" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="D357" t="s">
-        <v>69</v>
+        <v>127</v>
       </c>
       <c r="E357" t="s">
         <v>65</v>
       </c>
       <c r="F357" t="s">
-        <v>1325</v>
+        <v>1326</v>
       </c>
       <c r="G357" t="s">
         <v>26</v>
       </c>
       <c r="H357" t="s">
-        <v>774</v>
+        <v>784</v>
       </c>
       <c r="I357">
         <v>7974309307</v>
       </c>
       <c r="J357" t="s">
-        <v>1256</v>
+        <v>785</v>
       </c>
       <c r="K357" t="s">
-        <v>945</v>
+        <v>1337</v>
       </c>
       <c r="L357" t="s">
-        <v>1117</v>
+        <v>1342</v>
       </c>
       <c r="M357" t="s">
         <v>20</v>
@@ -20790,116 +20964,116 @@
     </row>
     <row r="358" spans="1:14">
       <c r="A358" s="2">
-        <v>13773</v>
+        <v>13915</v>
       </c>
       <c r="B358" t="s">
         <v>21</v>
       </c>
       <c r="C358" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="D358" t="s">
-        <v>127</v>
+        <v>291</v>
       </c>
       <c r="E358" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="F358" t="s">
-        <v>1326</v>
+        <v>1327</v>
       </c>
       <c r="G358" t="s">
         <v>26</v>
       </c>
       <c r="H358" t="s">
-        <v>784</v>
+        <v>1328</v>
       </c>
       <c r="I358">
         <v>9406055611</v>
       </c>
       <c r="J358" t="s">
-        <v>785</v>
+        <v>1256</v>
       </c>
       <c r="K358" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="L358" t="s">
-        <v>1342</v>
+        <v>1343</v>
       </c>
       <c r="M358" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="N358" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
     </row>
     <row r="359" spans="1:14">
       <c r="A359" s="2">
-        <v>13915</v>
+        <v>13824</v>
       </c>
       <c r="B359" t="s">
-        <v>21</v>
+        <v>931</v>
       </c>
       <c r="C359" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="D359" t="s">
-        <v>291</v>
+        <v>127</v>
       </c>
       <c r="E359" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="F359" t="s">
-        <v>1327</v>
+        <v>1232</v>
       </c>
       <c r="G359" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H359" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="I359">
         <v>8817375155</v>
       </c>
       <c r="J359" t="s">
-        <v>1256</v>
+        <v>1332</v>
       </c>
       <c r="K359" t="s">
-        <v>1336</v>
+        <v>1054</v>
       </c>
       <c r="L359" t="s">
-        <v>1343</v>
+        <v>204</v>
       </c>
       <c r="M359" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="N359" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
     </row>
     <row r="360" spans="1:14">
       <c r="A360" s="2">
-        <v>13824</v>
+        <v>13911</v>
       </c>
       <c r="B360" t="s">
         <v>931</v>
       </c>
       <c r="C360" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="D360" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="E360" t="s">
         <v>17</v>
       </c>
       <c r="F360" t="s">
-        <v>1232</v>
+        <v>1330</v>
       </c>
       <c r="G360" t="s">
         <v>17</v>
       </c>
       <c r="H360" t="s">
-        <v>1329</v>
+        <v>340</v>
       </c>
       <c r="I360">
         <v>6265238394</v>
@@ -20908,10 +21082,10 @@
         <v>1332</v>
       </c>
       <c r="K360" t="s">
-        <v>1054</v>
+        <v>1253</v>
       </c>
       <c r="L360" t="s">
-        <v>204</v>
+        <v>1344</v>
       </c>
       <c r="M360" t="s">
         <v>20</v>
@@ -20922,40 +21096,40 @@
     </row>
     <row r="361" spans="1:14">
       <c r="A361" s="2">
-        <v>13911</v>
+        <v>13868</v>
       </c>
       <c r="B361" t="s">
         <v>931</v>
       </c>
       <c r="C361" t="s">
-        <v>1310</v>
+        <v>1345</v>
       </c>
       <c r="D361" t="s">
-        <v>108</v>
+        <v>17</v>
       </c>
       <c r="E361" t="s">
         <v>17</v>
       </c>
       <c r="F361" t="s">
-        <v>1330</v>
+        <v>1346</v>
       </c>
       <c r="G361" t="s">
         <v>17</v>
       </c>
       <c r="H361" t="s">
-        <v>340</v>
+        <v>1268</v>
       </c>
       <c r="I361">
         <v>7587834082</v>
       </c>
       <c r="J361" t="s">
-        <v>1332</v>
+        <v>100</v>
       </c>
       <c r="K361" t="s">
-        <v>1253</v>
+        <v>441</v>
       </c>
       <c r="L361" t="s">
-        <v>1344</v>
+        <v>1351</v>
       </c>
       <c r="M361" t="s">
         <v>20</v>
@@ -20966,28 +21140,28 @@
     </row>
     <row r="362" spans="1:14">
       <c r="A362" s="2">
-        <v>13868</v>
+        <v>13930</v>
       </c>
       <c r="B362" t="s">
         <v>931</v>
       </c>
       <c r="C362" t="s">
-        <v>1345</v>
+        <v>1347</v>
       </c>
       <c r="D362" t="s">
-        <v>17</v>
+        <v>108</v>
       </c>
       <c r="E362" t="s">
         <v>17</v>
       </c>
       <c r="F362" t="s">
-        <v>1346</v>
+        <v>1348</v>
       </c>
       <c r="G362" t="s">
         <v>17</v>
       </c>
       <c r="H362" t="s">
-        <v>1268</v>
+        <v>340</v>
       </c>
       <c r="I362">
         <v>7489990811</v>
@@ -20996,10 +21170,10 @@
         <v>100</v>
       </c>
       <c r="K362" t="s">
-        <v>441</v>
+        <v>58</v>
       </c>
       <c r="L362" t="s">
-        <v>1351</v>
+        <v>203</v>
       </c>
       <c r="M362" t="s">
         <v>20</v>
@@ -21010,13 +21184,13 @@
     </row>
     <row r="363" spans="1:14">
       <c r="A363" s="2">
-        <v>13930</v>
+        <v>13936</v>
       </c>
       <c r="B363" t="s">
         <v>931</v>
       </c>
       <c r="C363" t="s">
-        <v>1347</v>
+        <v>1349</v>
       </c>
       <c r="D363" t="s">
         <v>108</v>
@@ -21025,7 +21199,7 @@
         <v>17</v>
       </c>
       <c r="F363" t="s">
-        <v>1348</v>
+        <v>1350</v>
       </c>
       <c r="G363" t="s">
         <v>17</v>
@@ -21037,13 +21211,13 @@
         <v>8839113952</v>
       </c>
       <c r="J363" t="s">
-        <v>100</v>
+        <v>785</v>
       </c>
       <c r="K363" t="s">
-        <v>58</v>
+        <v>1352</v>
       </c>
       <c r="L363" t="s">
-        <v>203</v>
+        <v>1343</v>
       </c>
       <c r="M363" t="s">
         <v>20</v>
@@ -21054,216 +21228,216 @@
     </row>
     <row r="364" spans="1:14">
       <c r="A364" s="2">
-        <v>13936</v>
+        <v>13928</v>
       </c>
       <c r="B364" t="s">
-        <v>931</v>
+        <v>21</v>
       </c>
       <c r="C364" t="s">
-        <v>1349</v>
+        <v>1356</v>
       </c>
       <c r="D364" t="s">
-        <v>108</v>
+        <v>69</v>
       </c>
       <c r="E364" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="F364" t="s">
-        <v>1350</v>
+        <v>1362</v>
       </c>
       <c r="G364" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H364" t="s">
-        <v>340</v>
+        <v>448</v>
       </c>
       <c r="I364">
         <v>7019092050</v>
       </c>
       <c r="J364" t="s">
-        <v>785</v>
+        <v>114</v>
       </c>
       <c r="K364" t="s">
-        <v>1352</v>
+        <v>610</v>
       </c>
       <c r="L364" t="s">
-        <v>1343</v>
+        <v>1082</v>
       </c>
       <c r="M364" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="N364" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
     </row>
     <row r="365" spans="1:14">
       <c r="A365" s="2">
-        <v>13928</v>
+        <v>13926</v>
       </c>
       <c r="B365" t="s">
         <v>21</v>
       </c>
       <c r="C365" t="s">
-        <v>1356</v>
+        <v>1357</v>
       </c>
       <c r="D365" t="s">
-        <v>69</v>
+        <v>179</v>
       </c>
       <c r="E365" t="s">
         <v>65</v>
       </c>
       <c r="F365" t="s">
-        <v>1362</v>
+        <v>1363</v>
       </c>
       <c r="G365" t="s">
         <v>26</v>
       </c>
       <c r="H365" t="s">
-        <v>448</v>
+        <v>75</v>
       </c>
       <c r="I365">
         <v>8319330872</v>
       </c>
       <c r="J365" t="s">
-        <v>114</v>
+        <v>1332</v>
       </c>
       <c r="K365" t="s">
-        <v>610</v>
+        <v>765</v>
       </c>
       <c r="L365" t="s">
-        <v>1082</v>
+        <v>845</v>
       </c>
       <c r="M365" t="s">
         <v>176</v>
       </c>
       <c r="N365" t="s">
-        <v>177</v>
+        <v>263</v>
       </c>
     </row>
     <row r="366" spans="1:14">
       <c r="A366" s="2">
-        <v>13926</v>
+        <v>13902</v>
       </c>
       <c r="B366" t="s">
         <v>21</v>
       </c>
       <c r="C366" t="s">
-        <v>1357</v>
+        <v>1358</v>
       </c>
       <c r="D366" t="s">
-        <v>179</v>
+        <v>291</v>
       </c>
       <c r="E366" t="s">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="F366" t="s">
-        <v>1363</v>
+        <v>1364</v>
       </c>
       <c r="G366" t="s">
         <v>26</v>
       </c>
       <c r="H366" t="s">
-        <v>75</v>
+        <v>1328</v>
       </c>
       <c r="I366">
         <v>9399774917</v>
       </c>
       <c r="J366" t="s">
-        <v>1332</v>
+        <v>785</v>
       </c>
       <c r="K366" t="s">
-        <v>765</v>
+        <v>1257</v>
       </c>
       <c r="L366" t="s">
-        <v>845</v>
+        <v>1368</v>
       </c>
       <c r="M366" t="s">
         <v>176</v>
       </c>
       <c r="N366" t="s">
-        <v>263</v>
+        <v>177</v>
       </c>
     </row>
     <row r="367" spans="1:14">
       <c r="A367" s="2">
-        <v>13902</v>
+        <v>13945</v>
       </c>
       <c r="B367" t="s">
-        <v>21</v>
+        <v>931</v>
       </c>
       <c r="C367" t="s">
-        <v>1358</v>
+        <v>1369</v>
       </c>
       <c r="D367" t="s">
-        <v>291</v>
+        <v>127</v>
       </c>
       <c r="E367" t="s">
-        <v>89</v>
+        <v>17</v>
       </c>
       <c r="F367" t="s">
-        <v>1364</v>
+        <v>1370</v>
       </c>
       <c r="G367" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H367" t="s">
-        <v>1328</v>
+        <v>1329</v>
       </c>
       <c r="I367">
         <v>9340657116</v>
       </c>
       <c r="J367" t="s">
-        <v>785</v>
+        <v>189</v>
       </c>
       <c r="K367" t="s">
-        <v>1257</v>
+        <v>1371</v>
       </c>
       <c r="L367" t="s">
-        <v>1368</v>
+        <v>1372</v>
       </c>
       <c r="M367" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="N367" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
     </row>
     <row r="368" spans="1:14">
       <c r="A368" s="2">
-        <v>13945</v>
+        <v>13939</v>
       </c>
       <c r="B368" t="s">
-        <v>931</v>
+        <v>21</v>
       </c>
       <c r="C368" t="s">
-        <v>1369</v>
+        <v>1373</v>
       </c>
       <c r="D368" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="E368" t="s">
-        <v>17</v>
+        <v>1374</v>
       </c>
       <c r="F368" t="s">
-        <v>1370</v>
+        <v>1375</v>
       </c>
       <c r="G368" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="H368" t="s">
-        <v>1329</v>
+        <v>138</v>
       </c>
       <c r="I368">
         <v>7771961390</v>
       </c>
       <c r="J368" t="s">
-        <v>189</v>
+        <v>785</v>
       </c>
       <c r="K368" t="s">
-        <v>1371</v>
+        <v>1383</v>
       </c>
       <c r="L368" t="s">
-        <v>1372</v>
+        <v>1384</v>
       </c>
       <c r="M368" t="s">
         <v>20</v>
@@ -21274,28 +21448,28 @@
     </row>
     <row r="369" spans="1:14">
       <c r="A369" s="2">
-        <v>13939</v>
+        <v>13940</v>
       </c>
       <c r="B369" t="s">
         <v>21</v>
       </c>
       <c r="C369" t="s">
-        <v>1373</v>
+        <v>463</v>
       </c>
       <c r="D369" t="s">
         <v>108</v>
       </c>
       <c r="E369" t="s">
-        <v>1374</v>
+        <v>975</v>
       </c>
       <c r="F369" t="s">
-        <v>1375</v>
+        <v>1376</v>
       </c>
       <c r="G369" t="s">
         <v>26</v>
       </c>
       <c r="H369" t="s">
-        <v>138</v>
+        <v>34</v>
       </c>
       <c r="I369">
         <v>9399843535</v>
@@ -21307,7 +21481,7 @@
         <v>1383</v>
       </c>
       <c r="L369" t="s">
-        <v>1384</v>
+        <v>201</v>
       </c>
       <c r="M369" t="s">
         <v>20</v>
@@ -21318,84 +21492,84 @@
     </row>
     <row r="370" spans="1:14">
       <c r="A370" s="2">
-        <v>13940</v>
+        <v>13941</v>
       </c>
       <c r="B370" t="s">
         <v>21</v>
       </c>
       <c r="C370" t="s">
-        <v>463</v>
+        <v>1377</v>
       </c>
       <c r="D370" t="s">
-        <v>108</v>
+        <v>179</v>
       </c>
       <c r="E370" t="s">
-        <v>975</v>
+        <v>1378</v>
       </c>
       <c r="F370" t="s">
-        <v>1376</v>
+        <v>1379</v>
       </c>
       <c r="G370" t="s">
         <v>26</v>
       </c>
       <c r="H370" t="s">
-        <v>34</v>
+        <v>350</v>
       </c>
       <c r="I370">
         <v>9329742027</v>
       </c>
       <c r="J370" t="s">
-        <v>785</v>
+        <v>189</v>
       </c>
       <c r="K370" t="s">
-        <v>1383</v>
+        <v>19</v>
       </c>
       <c r="L370" t="s">
-        <v>201</v>
+        <v>1385</v>
       </c>
       <c r="M370" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="N370" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
     </row>
     <row r="371" spans="1:14">
       <c r="A371" s="2">
-        <v>13941</v>
+        <v>13398</v>
       </c>
       <c r="B371" t="s">
         <v>21</v>
       </c>
       <c r="C371" t="s">
-        <v>1377</v>
+        <v>1380</v>
       </c>
       <c r="D371" t="s">
-        <v>179</v>
+        <v>108</v>
       </c>
       <c r="E371" t="s">
-        <v>1378</v>
+        <v>904</v>
       </c>
       <c r="F371" t="s">
-        <v>1379</v>
+        <v>1381</v>
       </c>
       <c r="G371" t="s">
         <v>26</v>
       </c>
       <c r="H371" t="s">
-        <v>350</v>
+        <v>410</v>
       </c>
       <c r="I371">
         <v>9111629126</v>
       </c>
       <c r="J371" t="s">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="K371" t="s">
-        <v>19</v>
+        <v>91</v>
       </c>
       <c r="L371" t="s">
-        <v>1385</v>
+        <v>371</v>
       </c>
       <c r="M371" t="s">
         <v>176</v>
@@ -21406,28 +21580,28 @@
     </row>
     <row r="372" spans="1:14">
       <c r="A372" s="2">
-        <v>13398</v>
+        <v>13910</v>
       </c>
       <c r="B372" t="s">
         <v>21</v>
       </c>
       <c r="C372" t="s">
-        <v>1380</v>
+        <v>1300</v>
       </c>
       <c r="D372" t="s">
-        <v>108</v>
+        <v>334</v>
       </c>
       <c r="E372" t="s">
-        <v>904</v>
+        <v>1382</v>
       </c>
       <c r="F372" t="s">
-        <v>1381</v>
+        <v>1314</v>
       </c>
       <c r="G372" t="s">
         <v>26</v>
       </c>
       <c r="H372" t="s">
-        <v>410</v>
+        <v>1315</v>
       </c>
       <c r="I372">
         <v>9098971336</v>
@@ -21436,136 +21610,136 @@
         <v>157</v>
       </c>
       <c r="K372" t="s">
-        <v>91</v>
+        <v>632</v>
       </c>
       <c r="L372" t="s">
-        <v>371</v>
+        <v>1386</v>
       </c>
       <c r="M372" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="N372" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
     </row>
     <row r="373" spans="1:14">
       <c r="A373" s="2">
-        <v>13910</v>
+        <v>13916</v>
       </c>
       <c r="B373" t="s">
         <v>21</v>
       </c>
       <c r="C373" t="s">
-        <v>1300</v>
+        <v>1353</v>
       </c>
       <c r="D373" t="s">
-        <v>334</v>
+        <v>153</v>
       </c>
       <c r="E373" t="s">
-        <v>1382</v>
+        <v>373</v>
       </c>
       <c r="F373" t="s">
-        <v>1314</v>
+        <v>1359</v>
       </c>
       <c r="G373" t="s">
         <v>26</v>
       </c>
       <c r="H373" t="s">
-        <v>1315</v>
+        <v>375</v>
       </c>
       <c r="I373" t="e">
         <v>#N/A</v>
       </c>
       <c r="J373" t="s">
-        <v>157</v>
+        <v>1332</v>
       </c>
       <c r="K373" t="s">
-        <v>632</v>
+        <v>1335</v>
       </c>
       <c r="L373" t="s">
-        <v>1386</v>
+        <v>1365</v>
       </c>
       <c r="M373" t="s">
-        <v>20</v>
+        <v>176</v>
       </c>
       <c r="N373" t="s">
-        <v>17</v>
+        <v>177</v>
       </c>
     </row>
     <row r="374" spans="1:14">
       <c r="A374" s="2">
-        <v>13916</v>
+        <v>13931</v>
       </c>
       <c r="B374" t="s">
         <v>21</v>
       </c>
       <c r="C374" t="s">
-        <v>1353</v>
+        <v>1354</v>
       </c>
       <c r="D374" t="s">
-        <v>153</v>
+        <v>127</v>
       </c>
       <c r="E374" t="s">
-        <v>373</v>
+        <v>65</v>
       </c>
       <c r="F374" t="s">
-        <v>1359</v>
+        <v>1360</v>
       </c>
       <c r="G374" t="s">
         <v>26</v>
       </c>
       <c r="H374" t="s">
-        <v>375</v>
+        <v>784</v>
       </c>
       <c r="J374" t="s">
         <v>1332</v>
       </c>
       <c r="K374" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="L374" t="s">
-        <v>1365</v>
+        <v>203</v>
       </c>
       <c r="M374" t="s">
-        <v>176</v>
+        <v>20</v>
       </c>
       <c r="N374" t="s">
-        <v>177</v>
+        <v>17</v>
       </c>
     </row>
     <row r="375" spans="1:14">
       <c r="A375" s="2">
-        <v>13931</v>
+        <v>13929</v>
       </c>
       <c r="B375" t="s">
         <v>21</v>
       </c>
       <c r="C375" t="s">
-        <v>1354</v>
+        <v>1355</v>
       </c>
       <c r="D375" t="s">
-        <v>127</v>
+        <v>153</v>
       </c>
       <c r="E375" t="s">
-        <v>65</v>
+        <v>24</v>
       </c>
       <c r="F375" t="s">
-        <v>1360</v>
+        <v>1361</v>
       </c>
       <c r="G375" t="s">
         <v>26</v>
       </c>
       <c r="H375" t="s">
-        <v>784</v>
+        <v>876</v>
       </c>
       <c r="J375" t="s">
-        <v>1332</v>
+        <v>785</v>
       </c>
       <c r="K375" t="s">
-        <v>1334</v>
+        <v>1366</v>
       </c>
       <c r="L375" t="s">
-        <v>203</v>
+        <v>1367</v>
       </c>
       <c r="M375" t="s">
         <v>20</v>
@@ -21576,37 +21750,37 @@
     </row>
     <row r="376" spans="1:14">
       <c r="A376" s="2">
-        <v>13929</v>
+        <v>13955</v>
       </c>
       <c r="B376" t="s">
-        <v>21</v>
+        <v>931</v>
       </c>
       <c r="C376" t="s">
-        <v>1355</v>
+        <v>1387</v>
       </c>
       <c r="D376" t="s">
-        <v>153</v>
+        <v>108</v>
       </c>
       <c r="E376" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="F376" t="s">
-        <v>1361</v>
+        <v>1391</v>
       </c>
       <c r="G376" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="H376" t="s">
-        <v>876</v>
+        <v>340</v>
       </c>
       <c r="J376" t="s">
-        <v>785</v>
+        <v>1396</v>
       </c>
       <c r="K376" t="s">
-        <v>1366</v>
+        <v>1335</v>
       </c>
       <c r="L376" t="s">
-        <v>1367</v>
+        <v>1131</v>
       </c>
       <c r="M376" t="s">
         <v>20</v>
@@ -21617,37 +21791,37 @@
     </row>
     <row r="377" spans="1:14">
       <c r="A377" s="2">
-        <v>13955</v>
+        <v>13956</v>
       </c>
       <c r="B377" t="s">
         <v>931</v>
       </c>
       <c r="C377" t="s">
-        <v>1387</v>
+        <v>1388</v>
       </c>
       <c r="D377" t="s">
-        <v>108</v>
+        <v>807</v>
       </c>
       <c r="E377" t="s">
         <v>17</v>
       </c>
       <c r="F377" t="s">
-        <v>1391</v>
+        <v>1392</v>
       </c>
       <c r="G377" t="s">
         <v>17</v>
       </c>
       <c r="H377" t="s">
-        <v>340</v>
+        <v>1393</v>
       </c>
       <c r="J377" t="s">
-        <v>1396</v>
+        <v>1397</v>
       </c>
       <c r="K377" t="s">
-        <v>1335</v>
+        <v>1383</v>
       </c>
       <c r="L377" t="s">
-        <v>1131</v>
+        <v>1398</v>
       </c>
       <c r="M377" t="s">
         <v>20</v>
@@ -21658,37 +21832,37 @@
     </row>
     <row r="378" spans="1:14">
       <c r="A378" s="2">
-        <v>13956</v>
+        <v>13986</v>
       </c>
       <c r="B378" t="s">
         <v>931</v>
       </c>
       <c r="C378" t="s">
-        <v>1388</v>
+        <v>1389</v>
       </c>
       <c r="D378" t="s">
-        <v>807</v>
+        <v>334</v>
       </c>
       <c r="E378" t="s">
         <v>17</v>
       </c>
       <c r="F378" t="s">
-        <v>1392</v>
+        <v>1394</v>
       </c>
       <c r="G378" t="s">
         <v>17</v>
       </c>
       <c r="H378" t="s">
-        <v>1393</v>
+        <v>1035</v>
       </c>
       <c r="J378" t="s">
         <v>1397</v>
       </c>
       <c r="K378" t="s">
-        <v>1383</v>
+        <v>788</v>
       </c>
       <c r="L378" t="s">
-        <v>1398</v>
+        <v>1399</v>
       </c>
       <c r="M378" t="s">
         <v>20</v>
@@ -21699,37 +21873,37 @@
     </row>
     <row r="379" spans="1:14">
       <c r="A379" s="2">
-        <v>13986</v>
+        <v>13933</v>
       </c>
       <c r="B379" t="s">
         <v>931</v>
       </c>
       <c r="C379" t="s">
-        <v>1389</v>
+        <v>1390</v>
       </c>
       <c r="D379" t="s">
-        <v>334</v>
+        <v>108</v>
       </c>
       <c r="E379" t="s">
         <v>17</v>
       </c>
       <c r="F379" t="s">
-        <v>1394</v>
+        <v>1395</v>
       </c>
       <c r="G379" t="s">
         <v>17</v>
       </c>
       <c r="H379" t="s">
-        <v>1035</v>
+        <v>340</v>
       </c>
       <c r="J379" t="s">
-        <v>1397</v>
+        <v>157</v>
       </c>
       <c r="K379" t="s">
-        <v>788</v>
+        <v>610</v>
       </c>
       <c r="L379" t="s">
-        <v>1399</v>
+        <v>1400</v>
       </c>
       <c r="M379" t="s">
         <v>20</v>
@@ -21740,13 +21914,13 @@
     </row>
     <row r="380" spans="1:14">
       <c r="A380" s="2">
-        <v>13933</v>
+        <v>13987</v>
       </c>
       <c r="B380" t="s">
         <v>931</v>
       </c>
       <c r="C380" t="s">
-        <v>1390</v>
+        <v>1401</v>
       </c>
       <c r="D380" t="s">
         <v>108</v>
@@ -21755,7 +21929,7 @@
         <v>17</v>
       </c>
       <c r="F380" t="s">
-        <v>1395</v>
+        <v>1402</v>
       </c>
       <c r="G380" t="s">
         <v>17</v>
@@ -21764,18 +21938,838 @@
         <v>340</v>
       </c>
       <c r="J380" t="s">
-        <v>157</v>
+        <v>1397</v>
       </c>
       <c r="K380" t="s">
-        <v>610</v>
+        <v>813</v>
       </c>
       <c r="L380" t="s">
-        <v>1400</v>
+        <v>306</v>
       </c>
       <c r="M380" t="s">
         <v>20</v>
       </c>
       <c r="N380" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="381" spans="1:14">
+      <c r="A381" s="2">
+        <v>13946</v>
+      </c>
+      <c r="B381" t="s">
+        <v>931</v>
+      </c>
+      <c r="C381" t="s">
+        <v>1403</v>
+      </c>
+      <c r="D381" t="s">
+        <v>108</v>
+      </c>
+      <c r="E381" t="s">
+        <v>17</v>
+      </c>
+      <c r="F381" t="s">
+        <v>1404</v>
+      </c>
+      <c r="G381" t="s">
+        <v>17</v>
+      </c>
+      <c r="H381" t="s">
+        <v>340</v>
+      </c>
+      <c r="J381" t="s">
+        <v>1397</v>
+      </c>
+      <c r="K381" t="s">
+        <v>1383</v>
+      </c>
+      <c r="L381" t="s">
+        <v>1446</v>
+      </c>
+      <c r="M381" t="s">
+        <v>20</v>
+      </c>
+      <c r="N381" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="382" spans="1:14">
+      <c r="A382" s="2">
+        <v>13932</v>
+      </c>
+      <c r="B382" t="s">
+        <v>21</v>
+      </c>
+      <c r="C382" t="s">
+        <v>891</v>
+      </c>
+      <c r="D382" t="s">
+        <v>108</v>
+      </c>
+      <c r="E382" t="s">
+        <v>1405</v>
+      </c>
+      <c r="F382" t="s">
+        <v>1406</v>
+      </c>
+      <c r="G382" t="s">
+        <v>26</v>
+      </c>
+      <c r="H382" t="s">
+        <v>34</v>
+      </c>
+      <c r="J382" t="s">
+        <v>1397</v>
+      </c>
+      <c r="K382" t="s">
+        <v>683</v>
+      </c>
+      <c r="L382" t="s">
+        <v>572</v>
+      </c>
+      <c r="M382" t="s">
+        <v>176</v>
+      </c>
+      <c r="N382" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="383" spans="1:14">
+      <c r="A383" s="2">
+        <v>13961</v>
+      </c>
+      <c r="B383" t="s">
+        <v>21</v>
+      </c>
+      <c r="C383" t="s">
+        <v>1407</v>
+      </c>
+      <c r="D383" t="s">
+        <v>179</v>
+      </c>
+      <c r="E383" t="s">
+        <v>60</v>
+      </c>
+      <c r="F383" t="s">
+        <v>1408</v>
+      </c>
+      <c r="G383" t="s">
+        <v>26</v>
+      </c>
+      <c r="H383" t="s">
+        <v>62</v>
+      </c>
+      <c r="J383" t="s">
+        <v>189</v>
+      </c>
+      <c r="K383" t="s">
+        <v>1447</v>
+      </c>
+      <c r="L383" t="s">
+        <v>1159</v>
+      </c>
+      <c r="M383" t="s">
+        <v>176</v>
+      </c>
+      <c r="N383" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="384" spans="1:14">
+      <c r="A384" s="2">
+        <v>13963</v>
+      </c>
+      <c r="B384" t="s">
+        <v>21</v>
+      </c>
+      <c r="C384" t="s">
+        <v>1409</v>
+      </c>
+      <c r="D384" t="s">
+        <v>108</v>
+      </c>
+      <c r="E384" t="s">
+        <v>56</v>
+      </c>
+      <c r="F384" t="s">
+        <v>1410</v>
+      </c>
+      <c r="G384" t="s">
+        <v>26</v>
+      </c>
+      <c r="H384" t="s">
+        <v>252</v>
+      </c>
+      <c r="J384" t="s">
+        <v>1396</v>
+      </c>
+      <c r="K384" t="s">
+        <v>1333</v>
+      </c>
+      <c r="L384" t="s">
+        <v>1448</v>
+      </c>
+      <c r="M384" t="s">
+        <v>176</v>
+      </c>
+      <c r="N384" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="385" spans="1:14">
+      <c r="A385" s="2">
+        <v>13966</v>
+      </c>
+      <c r="B385" t="s">
+        <v>21</v>
+      </c>
+      <c r="C385" t="s">
+        <v>1411</v>
+      </c>
+      <c r="D385" t="s">
+        <v>108</v>
+      </c>
+      <c r="E385" t="s">
+        <v>478</v>
+      </c>
+      <c r="F385" t="s">
+        <v>1412</v>
+      </c>
+      <c r="G385" t="s">
+        <v>26</v>
+      </c>
+      <c r="H385" t="s">
+        <v>480</v>
+      </c>
+      <c r="J385" t="s">
+        <v>189</v>
+      </c>
+      <c r="K385" t="s">
+        <v>1371</v>
+      </c>
+      <c r="L385" t="s">
+        <v>1203</v>
+      </c>
+      <c r="M385" t="s">
+        <v>20</v>
+      </c>
+      <c r="N385" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="386" spans="1:14">
+      <c r="A386" s="2">
+        <v>13965</v>
+      </c>
+      <c r="B386" t="s">
+        <v>21</v>
+      </c>
+      <c r="C386" t="s">
+        <v>1413</v>
+      </c>
+      <c r="D386" t="s">
+        <v>108</v>
+      </c>
+      <c r="E386" t="s">
+        <v>613</v>
+      </c>
+      <c r="F386" t="s">
+        <v>1414</v>
+      </c>
+      <c r="G386" t="s">
+        <v>26</v>
+      </c>
+      <c r="H386" t="s">
+        <v>47</v>
+      </c>
+      <c r="J386" t="s">
+        <v>189</v>
+      </c>
+      <c r="K386" t="s">
+        <v>1371</v>
+      </c>
+      <c r="L386" t="s">
+        <v>1190</v>
+      </c>
+      <c r="M386" t="s">
+        <v>176</v>
+      </c>
+      <c r="N386" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="387" spans="1:14">
+      <c r="A387" s="2">
+        <v>13968</v>
+      </c>
+      <c r="B387" t="s">
+        <v>21</v>
+      </c>
+      <c r="C387" t="s">
+        <v>1415</v>
+      </c>
+      <c r="D387" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E387" t="s">
+        <v>1417</v>
+      </c>
+      <c r="F387" t="s">
+        <v>1418</v>
+      </c>
+      <c r="G387" t="s">
+        <v>26</v>
+      </c>
+      <c r="H387" t="s">
+        <v>273</v>
+      </c>
+      <c r="J387" t="s">
+        <v>157</v>
+      </c>
+      <c r="K387" t="s">
+        <v>757</v>
+      </c>
+      <c r="L387" t="s">
+        <v>1449</v>
+      </c>
+      <c r="M387" t="s">
+        <v>20</v>
+      </c>
+      <c r="N387" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14">
+      <c r="A388" s="2">
+        <v>13967</v>
+      </c>
+      <c r="B388" t="s">
+        <v>21</v>
+      </c>
+      <c r="C388" t="s">
+        <v>1419</v>
+      </c>
+      <c r="D388" t="s">
+        <v>64</v>
+      </c>
+      <c r="E388" t="s">
+        <v>507</v>
+      </c>
+      <c r="F388" t="s">
+        <v>1420</v>
+      </c>
+      <c r="G388" t="s">
+        <v>26</v>
+      </c>
+      <c r="H388" t="s">
+        <v>691</v>
+      </c>
+      <c r="J388" t="s">
+        <v>157</v>
+      </c>
+      <c r="K388" t="s">
+        <v>712</v>
+      </c>
+      <c r="L388" t="s">
+        <v>1141</v>
+      </c>
+      <c r="M388" t="s">
+        <v>20</v>
+      </c>
+      <c r="N388" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="389" spans="1:14">
+      <c r="A389" s="2">
+        <v>13976</v>
+      </c>
+      <c r="B389" t="s">
+        <v>21</v>
+      </c>
+      <c r="C389" t="s">
+        <v>1421</v>
+      </c>
+      <c r="D389" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E389" t="s">
+        <v>101</v>
+      </c>
+      <c r="F389" t="s">
+        <v>1422</v>
+      </c>
+      <c r="G389" t="s">
+        <v>26</v>
+      </c>
+      <c r="H389" t="s">
+        <v>273</v>
+      </c>
+      <c r="J389" t="s">
+        <v>1397</v>
+      </c>
+      <c r="K389" t="s">
+        <v>788</v>
+      </c>
+      <c r="L389" t="s">
+        <v>1450</v>
+      </c>
+      <c r="M389" t="s">
+        <v>20</v>
+      </c>
+      <c r="N389" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="390" spans="1:14">
+      <c r="A390" s="2">
+        <v>13970</v>
+      </c>
+      <c r="B390" t="s">
+        <v>21</v>
+      </c>
+      <c r="C390" t="s">
+        <v>1423</v>
+      </c>
+      <c r="D390" t="s">
+        <v>179</v>
+      </c>
+      <c r="E390" t="s">
+        <v>65</v>
+      </c>
+      <c r="F390" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G390" t="s">
+        <v>26</v>
+      </c>
+      <c r="H390" t="s">
+        <v>461</v>
+      </c>
+      <c r="J390" t="s">
+        <v>189</v>
+      </c>
+      <c r="K390" t="s">
+        <v>1371</v>
+      </c>
+      <c r="L390" t="s">
+        <v>1150</v>
+      </c>
+      <c r="M390" t="s">
+        <v>176</v>
+      </c>
+      <c r="N390" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="391" spans="1:14">
+      <c r="A391" s="2">
+        <v>13979</v>
+      </c>
+      <c r="B391" t="s">
+        <v>21</v>
+      </c>
+      <c r="C391" t="s">
+        <v>1425</v>
+      </c>
+      <c r="D391" t="s">
+        <v>1416</v>
+      </c>
+      <c r="E391" t="s">
+        <v>695</v>
+      </c>
+      <c r="F391" t="s">
+        <v>1426</v>
+      </c>
+      <c r="G391" t="s">
+        <v>26</v>
+      </c>
+      <c r="H391" t="s">
+        <v>273</v>
+      </c>
+      <c r="J391" t="s">
+        <v>1397</v>
+      </c>
+      <c r="K391" t="s">
+        <v>1451</v>
+      </c>
+      <c r="L391" t="s">
+        <v>1452</v>
+      </c>
+      <c r="M391" t="s">
+        <v>176</v>
+      </c>
+      <c r="N391" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14">
+      <c r="A392" s="2">
+        <v>13978</v>
+      </c>
+      <c r="B392" t="s">
+        <v>21</v>
+      </c>
+      <c r="C392" t="s">
+        <v>1427</v>
+      </c>
+      <c r="D392" t="s">
+        <v>108</v>
+      </c>
+      <c r="E392" t="s">
+        <v>1428</v>
+      </c>
+      <c r="F392" t="s">
+        <v>1429</v>
+      </c>
+      <c r="G392" t="s">
+        <v>26</v>
+      </c>
+      <c r="H392" t="s">
+        <v>410</v>
+      </c>
+      <c r="J392" t="s">
+        <v>1396</v>
+      </c>
+      <c r="K392" t="s">
+        <v>762</v>
+      </c>
+      <c r="L392" t="s">
+        <v>1453</v>
+      </c>
+      <c r="M392" t="s">
+        <v>176</v>
+      </c>
+      <c r="N392" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="393" spans="1:14">
+      <c r="A393" s="2">
+        <v>13992</v>
+      </c>
+      <c r="B393" t="s">
+        <v>21</v>
+      </c>
+      <c r="C393" t="s">
+        <v>1430</v>
+      </c>
+      <c r="D393" t="s">
+        <v>127</v>
+      </c>
+      <c r="E393" t="s">
+        <v>65</v>
+      </c>
+      <c r="F393" t="s">
+        <v>1431</v>
+      </c>
+      <c r="G393" t="s">
+        <v>26</v>
+      </c>
+      <c r="H393" t="s">
+        <v>784</v>
+      </c>
+      <c r="J393" t="s">
+        <v>1397</v>
+      </c>
+      <c r="K393" t="s">
+        <v>813</v>
+      </c>
+      <c r="L393" t="s">
+        <v>371</v>
+      </c>
+      <c r="M393" t="s">
+        <v>20</v>
+      </c>
+      <c r="N393" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="394" spans="1:14">
+      <c r="A394" s="2">
+        <v>13983</v>
+      </c>
+      <c r="B394" t="s">
+        <v>21</v>
+      </c>
+      <c r="C394" t="s">
+        <v>1432</v>
+      </c>
+      <c r="D394" t="s">
+        <v>108</v>
+      </c>
+      <c r="E394" t="s">
+        <v>103</v>
+      </c>
+      <c r="F394" t="s">
+        <v>1433</v>
+      </c>
+      <c r="G394" t="s">
+        <v>26</v>
+      </c>
+      <c r="H394" t="s">
+        <v>105</v>
+      </c>
+      <c r="J394" t="s">
+        <v>1397</v>
+      </c>
+      <c r="K394" t="s">
+        <v>788</v>
+      </c>
+      <c r="L394" t="s">
+        <v>1166</v>
+      </c>
+      <c r="M394" t="s">
+        <v>20</v>
+      </c>
+      <c r="N394" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="395" spans="1:14">
+      <c r="A395" s="2">
+        <v>13880</v>
+      </c>
+      <c r="B395" t="s">
+        <v>21</v>
+      </c>
+      <c r="C395" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D395" t="s">
+        <v>127</v>
+      </c>
+      <c r="E395" t="s">
+        <v>65</v>
+      </c>
+      <c r="F395" t="s">
+        <v>1230</v>
+      </c>
+      <c r="G395" t="s">
+        <v>26</v>
+      </c>
+      <c r="H395" t="s">
+        <v>784</v>
+      </c>
+      <c r="J395" t="s">
+        <v>157</v>
+      </c>
+      <c r="K395" t="s">
+        <v>473</v>
+      </c>
+      <c r="L395" t="s">
+        <v>1126</v>
+      </c>
+      <c r="M395" t="s">
+        <v>176</v>
+      </c>
+      <c r="N395" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="396" spans="1:14">
+      <c r="A396" s="2">
+        <v>13994</v>
+      </c>
+      <c r="B396" t="s">
+        <v>21</v>
+      </c>
+      <c r="C396" t="s">
+        <v>1434</v>
+      </c>
+      <c r="D396" t="s">
+        <v>179</v>
+      </c>
+      <c r="E396" t="s">
+        <v>304</v>
+      </c>
+      <c r="F396" t="s">
+        <v>1435</v>
+      </c>
+      <c r="G396" t="s">
+        <v>26</v>
+      </c>
+      <c r="H396" t="s">
+        <v>268</v>
+      </c>
+      <c r="J396" t="s">
+        <v>1397</v>
+      </c>
+      <c r="K396" t="s">
+        <v>813</v>
+      </c>
+      <c r="L396" t="s">
+        <v>1454</v>
+      </c>
+      <c r="M396" t="s">
+        <v>20</v>
+      </c>
+      <c r="N396" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="397" spans="1:14">
+      <c r="A397" s="2">
+        <v>13958</v>
+      </c>
+      <c r="B397" t="s">
+        <v>21</v>
+      </c>
+      <c r="C397" t="s">
+        <v>1436</v>
+      </c>
+      <c r="D397" t="s">
+        <v>108</v>
+      </c>
+      <c r="E397" t="s">
+        <v>586</v>
+      </c>
+      <c r="F397" t="s">
+        <v>1437</v>
+      </c>
+      <c r="G397" t="s">
+        <v>26</v>
+      </c>
+      <c r="H397" t="s">
+        <v>149</v>
+      </c>
+      <c r="J397" t="s">
+        <v>189</v>
+      </c>
+      <c r="K397" t="s">
+        <v>1371</v>
+      </c>
+      <c r="L397" t="s">
+        <v>737</v>
+      </c>
+      <c r="M397" t="s">
+        <v>20</v>
+      </c>
+      <c r="N397" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="398" spans="1:14">
+      <c r="A398" s="2">
+        <v>13947</v>
+      </c>
+      <c r="B398" t="s">
+        <v>21</v>
+      </c>
+      <c r="C398" t="s">
+        <v>1438</v>
+      </c>
+      <c r="D398" t="s">
+        <v>282</v>
+      </c>
+      <c r="E398" t="s">
+        <v>65</v>
+      </c>
+      <c r="F398" t="s">
+        <v>1439</v>
+      </c>
+      <c r="G398" t="s">
+        <v>26</v>
+      </c>
+      <c r="H398" t="s">
+        <v>284</v>
+      </c>
+      <c r="J398" t="s">
+        <v>157</v>
+      </c>
+      <c r="K398" t="s">
+        <v>54</v>
+      </c>
+      <c r="L398" t="s">
+        <v>1455</v>
+      </c>
+      <c r="M398" t="s">
+        <v>176</v>
+      </c>
+      <c r="N398" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="399" spans="1:14">
+      <c r="A399" s="2">
+        <v>13982</v>
+      </c>
+      <c r="B399" t="s">
+        <v>21</v>
+      </c>
+      <c r="C399" t="s">
+        <v>1440</v>
+      </c>
+      <c r="D399" t="s">
+        <v>108</v>
+      </c>
+      <c r="E399" t="s">
+        <v>1441</v>
+      </c>
+      <c r="F399" t="s">
+        <v>1442</v>
+      </c>
+      <c r="G399" t="s">
+        <v>26</v>
+      </c>
+      <c r="H399" t="s">
+        <v>1443</v>
+      </c>
+      <c r="J399" t="s">
+        <v>1396</v>
+      </c>
+      <c r="K399" t="s">
+        <v>1333</v>
+      </c>
+      <c r="L399" t="s">
+        <v>1456</v>
+      </c>
+      <c r="M399" t="s">
+        <v>176</v>
+      </c>
+      <c r="N399" t="s">
+        <v>1458</v>
+      </c>
+    </row>
+    <row r="400" spans="1:14">
+      <c r="A400" s="2">
+        <v>14002</v>
+      </c>
+      <c r="B400" t="s">
+        <v>931</v>
+      </c>
+      <c r="C400" t="s">
+        <v>1444</v>
+      </c>
+      <c r="D400" t="s">
+        <v>108</v>
+      </c>
+      <c r="E400" t="s">
+        <v>17</v>
+      </c>
+      <c r="F400" t="s">
+        <v>1445</v>
+      </c>
+      <c r="G400" t="s">
+        <v>17</v>
+      </c>
+      <c r="H400" t="s">
+        <v>340</v>
+      </c>
+      <c r="J400" t="s">
+        <v>1397</v>
+      </c>
+      <c r="K400" t="s">
+        <v>676</v>
+      </c>
+      <c r="L400" t="s">
+        <v>1457</v>
+      </c>
+      <c r="M400" t="s">
+        <v>20</v>
+      </c>
+      <c r="N400" t="s">
         <v>17</v>
       </c>
     </row>
